--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raidzer\Documents\GitHub\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7AC59A9-D0B6-4001-916E-FE887E6494DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5CA525-7B07-47B9-B4D5-04AEC08551AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -1611,39 +1611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1668,12 +1635,6 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1729,7 +1690,46 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1739,11 +1739,14 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="203">
+  <dxfs count="195">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1757,14 +1760,137 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1778,13 +1904,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1792,7 +1911,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF33CC"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1800,13 +1919,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2039,14 +2151,6 @@
     <dxf>
       <numFmt numFmtId="167" formatCode=";;;"/>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
         <patternFill patternType="solid">
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
@@ -2213,6 +2317,194 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGray">
+          <fgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightTrellis">
+          <fgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2614,266 +2906,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="167" formatCode=";;;"/>
       <fill>
         <patternFill>
@@ -3166,6 +3198,27 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3185,118 +3238,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3396,7 +3337,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="191">
   <autoFilter ref="A8:R16" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AB7DF63-F3E2-46EA-867C-B10FAF5F8283}" name="Student Name"/>
@@ -3406,16 +3347,16 @@
     <tableColumn id="5" xr3:uid="{2BA79B57-539F-46E5-965A-5E7716ACBE1C}" name="In Progress"/>
     <tableColumn id="6" xr3:uid="{2710B94F-2F91-48AC-8457-97A764EF4BC7}" name="Not Started"/>
     <tableColumn id="7" xr3:uid="{493E51FB-9F1A-4B86-B51A-0A9F697471BC}" name="Total Workload "/>
-    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="201"/>
-    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="200"/>
+    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="190"/>
+    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="189"/>
     <tableColumn id="10" xr3:uid="{20ECF3E5-B447-40AE-82D9-F1DAECBAD66F}" name="Remaining"/>
-    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="199"/>
+    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="188"/>
     <tableColumn id="12" xr3:uid="{5AA91C7C-8A0B-454F-BB15-D1BB545F0BE4}" name="Remaining3"/>
-    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="198"/>
+    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="187"/>
     <tableColumn id="14" xr3:uid="{B367E59C-5FB9-479C-A7F3-B1C7AE02BA4A}" name="Remaining5"/>
-    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="197"/>
+    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="186"/>
     <tableColumn id="16" xr3:uid="{DF492611-AC03-4727-883A-97854465FDAE}" name="Remaining7"/>
-    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="196"/>
+    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="185"/>
     <tableColumn id="18" xr3:uid="{67CDA12C-F1E4-40F4-B6AC-BDC17A0B0B8D}" name="Remaining9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3434,11 +3375,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="195" headerRowBorderDxfId="194" tableBorderDxfId="193" totalsRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A5:B8" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="191"/>
-    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="190"/>
+    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3449,7 +3390,7 @@
   <autoFilter ref="A1:B4" xr:uid="{DECAA8B5-6330-451B-9562-5424BBB00F80}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D55844DA-51EF-4755-A498-8AFCDF33F45D}" name="Colour"/>
-    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3754,48 +3695,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="17" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3807,7 +3748,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -3819,7 +3760,7 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
@@ -3829,42 +3770,42 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="I7" s="57">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="I7" s="86">
         <f>B4 + 7</f>
         <v>44501</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57">
+      <c r="J7" s="85"/>
+      <c r="K7" s="86">
         <f>I7+7</f>
         <v>44508</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57">
+      <c r="L7" s="85"/>
+      <c r="M7" s="86">
         <f>K7+7</f>
         <v>44515</v>
       </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57">
+      <c r="N7" s="85"/>
+      <c r="O7" s="86">
         <f>M7+7</f>
         <v>44522</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="57">
+      <c r="P7" s="85"/>
+      <c r="Q7" s="86">
         <f>O7+7</f>
         <v>44529</v>
       </c>
-      <c r="R7" s="56"/>
+      <c r="R7" s="85"/>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -3920,11 +3861,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="56" t="s">
         <v>117</v>
       </c>
       <c r="C9">
@@ -3985,11 +3926,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="56" t="s">
         <v>118</v>
       </c>
       <c r="C10">
@@ -4050,11 +3991,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="56" t="s">
         <v>114</v>
       </c>
       <c r="C11">
@@ -4064,8 +4005,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A11, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A11, GANTT!R:R,TaskStatus!$A$6)</f>
@@ -4073,11 +4013,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H11" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A11,GANTT!B:B,TaskTypes!$A$5)/$G11)</f>
-        <v>0.35714285714285715</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="I11" s="44">
         <v>10</v>
@@ -4115,11 +4055,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="57" t="s">
         <v>110</v>
       </c>
       <c r="C12">
@@ -4180,11 +4120,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="56" t="s">
         <v>116</v>
       </c>
       <c r="C13">
@@ -4245,7 +4185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A14, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4307,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D15">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A15, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4369,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -4383,7 +4323,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -4391,7 +4331,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="1"/>
@@ -4438,10 +4378,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="38"/>
     </row>
   </sheetData>
@@ -4454,13 +4394,13 @@
     <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="188" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="194" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="193" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="192" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4495,31 +4435,31 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="20.7109375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="76.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="20.6640625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="251.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.85546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.7109375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="251.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="19.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.109375" style="2" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
-    <col min="19" max="60" width="4.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="16384" width="9.140625" style="2"/>
+    <col min="19" max="60" width="4.109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="35.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:78" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -4532,7 +4472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4547,7 +4487,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4561,7 +4501,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -4570,7 +4510,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4581,66 +4521,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="58">
+      <c r="S5" s="91">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58">
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58">
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="58">
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="91">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58">
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
+      <c r="AU5" s="91">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59">
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="91"/>
+      <c r="BB5" s="95">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="95"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -4660,59 +4600,59 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
     </row>
-    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="64" t="s">
+    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="61" t="s">
+      <c r="O6" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="66" t="s">
+      <c r="Q6" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="62" t="s">
+      <c r="R6" s="89" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -4884,25 +4824,25 @@
         <v>44535</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="78"/>
+    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="90"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5072,8 +5012,8 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -5082,45 +5022,45 @@
       <c r="C8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="82" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="66">
         <v>10</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="70">
         <v>44494</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="69">
         <v>2</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="70">
         <f>H8 +I8</f>
         <v>44496</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82" t="e">
+      <c r="K8" s="69"/>
+      <c r="L8" s="69" t="e">
         <f>LOOKUP(K8,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83">
+      <c r="M8" s="69"/>
+      <c r="N8" s="70">
         <v>44494</v>
       </c>
-      <c r="O8" s="84">
+      <c r="O8" s="71">
         <v>2</v>
       </c>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="82">
+      <c r="P8" s="70"/>
+      <c r="Q8" s="69">
         <v>11</v>
       </c>
-      <c r="R8" s="82" t="s">
+      <c r="R8" s="69" t="s">
         <v>58</v>
       </c>
       <c r="S8" s="16">
@@ -5292,8 +5232,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="64" t="s">
         <v>122</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -5302,39 +5242,39 @@
       <c r="C9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="82" t="s">
         <v>184</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="66">
         <v>10</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="70">
         <v>44494</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="69">
         <v>2</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83">
+      <c r="J9" s="70"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70">
         <v>44494</v>
       </c>
-      <c r="O9" s="84">
+      <c r="O9" s="71">
         <v>2</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="82">
+      <c r="P9" s="70"/>
+      <c r="Q9" s="69">
         <v>10</v>
       </c>
-      <c r="R9" s="82" t="s">
+      <c r="R9" s="69" t="s">
         <v>58</v>
       </c>
       <c r="S9" s="16"/>
@@ -5380,8 +5320,8 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
     </row>
-    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="64" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -5390,39 +5330,39 @@
       <c r="C10" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="82" t="s">
         <v>184</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="66">
         <v>10</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="70">
         <v>44494</v>
       </c>
-      <c r="I10" s="82">
+      <c r="I10" s="69">
         <v>2</v>
       </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83">
+      <c r="J10" s="70"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70">
         <v>44494</v>
       </c>
-      <c r="O10" s="84">
+      <c r="O10" s="71">
         <v>2</v>
       </c>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="82">
+      <c r="P10" s="70"/>
+      <c r="Q10" s="69">
         <v>10</v>
       </c>
-      <c r="R10" s="82" t="s">
+      <c r="R10" s="69" t="s">
         <v>58</v>
       </c>
       <c r="S10" s="16"/>
@@ -5468,8 +5408,8 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>124</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -5478,48 +5418,48 @@
       <c r="C11" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="66">
         <v>10</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="70">
         <v>44494</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="69">
         <v>2</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="70">
         <f>H11 +I11</f>
         <v>44496</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82" t="e">
+      <c r="K11" s="69"/>
+      <c r="L11" s="69" t="e">
         <f>LOOKUP(K11,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="83">
+      <c r="M11" s="69"/>
+      <c r="N11" s="70">
         <v>44494</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="71">
         <v>2</v>
       </c>
-      <c r="P11" s="83">
+      <c r="P11" s="70">
         <f>N11+O11</f>
         <v>44496</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="69">
         <v>14</v>
       </c>
-      <c r="R11" s="82" t="s">
+      <c r="R11" s="69" t="s">
         <v>58</v>
       </c>
       <c r="S11" s="16">
@@ -5690,8 +5630,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="64" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -5700,39 +5640,39 @@
       <c r="C12" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="66">
         <v>10</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="70">
         <v>44494</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="69">
         <v>2</v>
       </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83">
+      <c r="J12" s="70"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70">
         <v>44494</v>
       </c>
-      <c r="O12" s="84">
+      <c r="O12" s="71">
         <v>4</v>
       </c>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="82">
+      <c r="P12" s="70"/>
+      <c r="Q12" s="69">
         <v>10</v>
       </c>
-      <c r="R12" s="82" t="s">
+      <c r="R12" s="69" t="s">
         <v>58</v>
       </c>
       <c r="S12" s="16"/>
@@ -5778,8 +5718,8 @@
       <c r="BG12" s="16"/>
       <c r="BH12" s="16"/>
     </row>
-    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64" t="s">
         <v>125</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -5788,50 +5728,50 @@
       <c r="C13" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="84" t="s">
         <v>185</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="66">
         <v>10</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="70">
         <v>44494</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="69">
         <v>2</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="70">
         <f t="shared" ref="J13:J86" si="13">H13 +I13</f>
         <v>44496</v>
       </c>
-      <c r="K13" s="85" t="s">
+      <c r="K13" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="82">
+      <c r="L13" s="69">
         <f>LOOKUP(K13,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>8</v>
       </c>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83">
+      <c r="M13" s="69"/>
+      <c r="N13" s="70">
         <v>44494</v>
       </c>
-      <c r="O13" s="84">
+      <c r="O13" s="71">
         <v>2</v>
       </c>
-      <c r="P13" s="83">
+      <c r="P13" s="70">
         <f t="shared" ref="P13:P86" si="14">N13+O13</f>
         <v>44496</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="69">
         <v>15</v>
       </c>
-      <c r="R13" s="82" t="s">
+      <c r="R13" s="69" t="s">
         <v>58</v>
       </c>
       <c r="S13" s="16">
@@ -6003,44 +5943,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="95"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="77">
+      <c r="F14" s="66">
         <v>4</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="82">
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="69">
         <v>3</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="70">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="82" t="e">
+      <c r="K14" s="73"/>
+      <c r="L14" s="69" t="e">
         <f>LOOKUP(K14,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83">
+      <c r="M14" s="69"/>
+      <c r="N14" s="70">
         <v>44328</v>
       </c>
-      <c r="O14" s="84">
+      <c r="O14" s="71">
         <v>2</v>
       </c>
-      <c r="P14" s="83">
+      <c r="P14" s="70">
         <f t="shared" si="14"/>
         <v>44330</v>
       </c>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82" t="s">
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69" t="s">
         <v>56</v>
       </c>
       <c r="S14" s="16">
@@ -6212,8 +6152,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="59" t="s">
         <v>127</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -6222,42 +6162,42 @@
       <c r="C15" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="84" t="s">
         <v>185</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="66">
         <v>10</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="75">
         <v>44501</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="74">
         <v>1</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="75">
         <f t="shared" si="13"/>
         <v>44502</v>
       </c>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87" t="e">
+      <c r="K15" s="74"/>
+      <c r="L15" s="74" t="e">
         <f>LOOKUP(K15,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" s="87"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="88">
+      <c r="M15" s="74"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87" t="s">
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S15" s="16">
@@ -6429,54 +6369,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="59" t="s">
         <v>134</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="66">
         <v>15</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="88">
+      <c r="H16" s="75">
         <v>44501</v>
       </c>
-      <c r="I16" s="87">
+      <c r="I16" s="74">
         <v>4</v>
       </c>
-      <c r="J16" s="88">
+      <c r="J16" s="75">
         <f t="shared" si="13"/>
         <v>44505</v>
       </c>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87" t="e">
+      <c r="K16" s="74"/>
+      <c r="L16" s="74" t="e">
         <f>LOOKUP(K16,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="87"/>
-      <c r="N16" s="88">
+      <c r="M16" s="74"/>
+      <c r="N16" s="75">
         <v>44499</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="88">
+      <c r="O16" s="76"/>
+      <c r="P16" s="75">
         <f t="shared" si="14"/>
         <v>44499</v>
       </c>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87" t="s">
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74" t="s">
         <v>57</v>
       </c>
       <c r="S16" s="16">
@@ -6648,52 +6588,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="62" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="66">
         <v>10</v>
       </c>
-      <c r="G17" s="87" t="s">
+      <c r="G17" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="75">
         <v>44501</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17" s="74">
         <v>1</v>
       </c>
-      <c r="J17" s="88">
+      <c r="J17" s="75">
         <f t="shared" si="13"/>
         <v>44502</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87" t="e">
+      <c r="K17" s="74"/>
+      <c r="L17" s="74" t="e">
         <f>LOOKUP(K17,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="88">
+      <c r="M17" s="74"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87" t="s">
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S17" s="16">
@@ -6865,44 +6805,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="59" t="s">
         <v>130</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="53"/>
-      <c r="F18" s="77">
+      <c r="F18" s="66">
         <v>10</v>
       </c>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="75">
         <v>44504</v>
       </c>
-      <c r="I18" s="87">
+      <c r="I18" s="74">
         <v>1</v>
       </c>
-      <c r="J18" s="88">
+      <c r="J18" s="75">
         <f t="shared" si="13"/>
         <v>44505</v>
       </c>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87" t="s">
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S18" s="16"/>
@@ -6948,44 +6888,44 @@
       <c r="BG18" s="16"/>
       <c r="BH18" s="16"/>
     </row>
-    <row r="19" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="59" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="77">
+      <c r="F19" s="66">
         <v>10</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="75">
         <v>44501</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="74">
         <v>2</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="75">
         <f t="shared" si="13"/>
         <v>44503</v>
       </c>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87" t="s">
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S19" s="16"/>
@@ -7031,44 +6971,44 @@
       <c r="BG19" s="16"/>
       <c r="BH19" s="16"/>
     </row>
-    <row r="20" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="70" t="s">
+    <row r="20" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="59" t="s">
         <v>132</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="82" t="s">
         <v>188</v>
       </c>
       <c r="E20" s="53"/>
-      <c r="F20" s="77">
+      <c r="F20" s="66">
         <v>10</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G20" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="75">
         <v>44504</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20" s="74">
         <v>1</v>
       </c>
-      <c r="J20" s="88">
+      <c r="J20" s="75">
         <f t="shared" si="13"/>
         <v>44505</v>
       </c>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87" t="s">
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S20" s="16"/>
@@ -7114,44 +7054,44 @@
       <c r="BG20" s="16"/>
       <c r="BH20" s="16"/>
     </row>
-    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="70" t="s">
+    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="59" t="s">
         <v>133</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="82" t="s">
         <v>188</v>
       </c>
       <c r="E21" s="53"/>
-      <c r="F21" s="77">
+      <c r="F21" s="66">
         <v>10</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="75">
         <v>44501</v>
       </c>
-      <c r="I21" s="87">
+      <c r="I21" s="74">
         <v>1</v>
       </c>
-      <c r="J21" s="88">
+      <c r="J21" s="75">
         <f t="shared" si="13"/>
         <v>44502</v>
       </c>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87" t="s">
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S21" s="16"/>
@@ -7197,52 +7137,52 @@
       <c r="BG21" s="16"/>
       <c r="BH21" s="16"/>
     </row>
-    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="62" t="s">
         <v>129</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="82" t="s">
         <v>188</v>
       </c>
       <c r="E22" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="66">
         <v>10</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="75">
         <v>44504</v>
       </c>
-      <c r="I22" s="87">
+      <c r="I22" s="74">
         <v>1</v>
       </c>
-      <c r="J22" s="88">
+      <c r="J22" s="75">
         <f t="shared" si="13"/>
         <v>44505</v>
       </c>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87" t="e">
+      <c r="K22" s="74"/>
+      <c r="L22" s="74" t="e">
         <f>LOOKUP(K22,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="88">
+      <c r="M22" s="74"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87" t="s">
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S22" s="16">
@@ -7414,36 +7354,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="95"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88">
+      <c r="F23" s="66"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="75">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87" t="e">
+      <c r="K23" s="74"/>
+      <c r="L23" s="74" t="e">
         <f>LOOKUP(K23,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="89"/>
-      <c r="P23" s="88">
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
       <c r="S23" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7613,33 +7553,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76" t="s">
+    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="65" t="s">
         <v>142</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="95"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="87" t="s">
+      <c r="F24" s="66"/>
+      <c r="G24" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="75">
         <v>44508</v>
       </c>
-      <c r="I24" s="87">
+      <c r="I24" s="74">
         <v>1</v>
       </c>
-      <c r="J24" s="88"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -7683,8 +7623,8 @@
       <c r="BG24" s="16"/>
       <c r="BH24" s="16"/>
     </row>
-    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="76" t="s">
+    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="65" t="s">
         <v>135</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -7693,42 +7633,42 @@
       <c r="C25" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="66">
         <v>0.5</v>
       </c>
-      <c r="G25" s="87" t="s">
+      <c r="G25" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="75">
         <v>44510</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25" s="74">
         <v>1</v>
       </c>
-      <c r="J25" s="88">
+      <c r="J25" s="75">
         <f t="shared" si="13"/>
         <v>44511</v>
       </c>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87" t="e">
+      <c r="K25" s="74"/>
+      <c r="L25" s="74" t="e">
         <f>LOOKUP(K25,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="87"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="88">
+      <c r="M25" s="74"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
       <c r="S25" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7898,8 +7838,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="76" t="s">
+    <row r="26" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="65" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -7908,42 +7848,42 @@
       <c r="C26" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="82" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="66">
         <v>1</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="88">
+      <c r="H26" s="75">
         <v>44510</v>
       </c>
-      <c r="I26" s="87">
+      <c r="I26" s="74">
         <v>1</v>
       </c>
-      <c r="J26" s="88">
+      <c r="J26" s="75">
         <f t="shared" si="13"/>
         <v>44511</v>
       </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87" t="e">
+      <c r="K26" s="74"/>
+      <c r="L26" s="74" t="e">
         <f>LOOKUP(K26,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M26" s="87"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="88">
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
       <c r="S26" s="16">
         <f t="shared" ref="S26:AB40" si="15">IF(AND(S$6&gt;=$N26,S$6&lt;$N26+$O26), 1, IF(AND(S$6&gt;=$H26,S$6&lt;$H26+$I26), 2, 0))</f>
         <v>0</v>
@@ -8113,36 +8053,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="76" t="s">
+    <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="65" t="s">
         <v>139</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
-      <c r="D27" s="95"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="53"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="87" t="s">
+      <c r="F27" s="66"/>
+      <c r="G27" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="75">
         <v>44508</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="74">
         <v>2</v>
       </c>
-      <c r="J27" s="88">
+      <c r="J27" s="75">
         <f t="shared" si="13"/>
         <v>44510</v>
       </c>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
       <c r="S27" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8312,36 +8252,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="76" t="s">
+    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="65" t="s">
         <v>137</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="95"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="53"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="87" t="s">
+      <c r="F28" s="66"/>
+      <c r="G28" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="88">
+      <c r="H28" s="75">
         <v>44508</v>
       </c>
-      <c r="I28" s="87">
+      <c r="I28" s="74">
         <v>1</v>
       </c>
-      <c r="J28" s="88">
+      <c r="J28" s="75">
         <f t="shared" si="13"/>
         <v>44509</v>
       </c>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
       <c r="S28" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8511,33 +8451,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="76" t="s">
+    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="65" t="s">
         <v>138</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="95"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="53"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="87" t="s">
+      <c r="F29" s="66"/>
+      <c r="G29" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="75">
         <v>44510</v>
       </c>
-      <c r="I29" s="87">
+      <c r="I29" s="74">
         <v>2</v>
       </c>
-      <c r="J29" s="88"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
@@ -8581,33 +8521,33 @@
       <c r="BG29" s="16"/>
       <c r="BH29" s="16"/>
     </row>
-    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="65" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="95"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="53"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="87" t="s">
+      <c r="F30" s="66"/>
+      <c r="G30" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="88">
+      <c r="H30" s="75">
         <v>44508</v>
       </c>
-      <c r="I30" s="87">
+      <c r="I30" s="74">
         <v>2</v>
       </c>
-      <c r="J30" s="88"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
@@ -8651,33 +8591,33 @@
       <c r="BG30" s="16"/>
       <c r="BH30" s="16"/>
     </row>
-    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="76" t="s">
+    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="65" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="95"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="53"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="87" t="s">
+      <c r="F31" s="66"/>
+      <c r="G31" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="75">
         <v>44510</v>
       </c>
-      <c r="I31" s="87">
+      <c r="I31" s="74">
         <v>1</v>
       </c>
-      <c r="J31" s="88"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
@@ -8721,33 +8661,33 @@
       <c r="BG31" s="16"/>
       <c r="BH31" s="16"/>
     </row>
-    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="76" t="s">
+    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="65" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="95"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="53"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="87" t="s">
+      <c r="F32" s="66"/>
+      <c r="G32" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="88">
+      <c r="H32" s="75">
         <v>44510</v>
       </c>
-      <c r="I32" s="87">
+      <c r="I32" s="74">
         <v>3</v>
       </c>
-      <c r="J32" s="88"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
@@ -8791,33 +8731,33 @@
       <c r="BG32" s="16"/>
       <c r="BH32" s="16"/>
     </row>
-    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="76" t="s">
+    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="65" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="95"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="53"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="87" t="s">
+      <c r="F33" s="66"/>
+      <c r="G33" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="88">
+      <c r="H33" s="75">
         <v>44508</v>
       </c>
-      <c r="I33" s="87">
+      <c r="I33" s="74">
         <v>1</v>
       </c>
-      <c r="J33" s="88"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
@@ -8861,8 +8801,8 @@
       <c r="BG33" s="16"/>
       <c r="BH33" s="16"/>
     </row>
-    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="75" t="s">
+    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="64" t="s">
         <v>145</v>
       </c>
       <c r="B34" s="26" t="s">
@@ -8871,42 +8811,42 @@
       <c r="C34" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="D34" s="82" t="s">
         <v>95</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="66">
         <v>1.5</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="88">
+      <c r="H34" s="75">
         <v>44512</v>
       </c>
-      <c r="I34" s="87">
+      <c r="I34" s="74">
         <v>1</v>
       </c>
-      <c r="J34" s="88">
+      <c r="J34" s="75">
         <f t="shared" si="13"/>
         <v>44513</v>
       </c>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87" t="e">
+      <c r="K34" s="74"/>
+      <c r="L34" s="74" t="e">
         <f>LOOKUP(K34,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M34" s="87"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="88">
+      <c r="M34" s="74"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
       <c r="S34" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9076,36 +9016,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
-      <c r="D35" s="95"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="88">
+      <c r="F35" s="66"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="75">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87" t="e">
+      <c r="K35" s="74"/>
+      <c r="L35" s="74" t="e">
         <f>LOOKUP(K35,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="88">
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
       <c r="S35" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9275,8 +9215,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="76" t="s">
+    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="65" t="s">
         <v>146</v>
       </c>
       <c r="B36" s="26" t="s">
@@ -9285,42 +9225,42 @@
       <c r="C36" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="D36" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="77">
+      <c r="F36" s="66">
         <v>1</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="88">
+      <c r="H36" s="75">
         <v>44515</v>
       </c>
-      <c r="I36" s="87">
+      <c r="I36" s="74">
         <v>3</v>
       </c>
-      <c r="J36" s="88">
+      <c r="J36" s="75">
         <f t="shared" si="13"/>
         <v>44518</v>
       </c>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87" t="e">
+      <c r="K36" s="74"/>
+      <c r="L36" s="74" t="e">
         <f>LOOKUP(K36,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="88">
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87" t="s">
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S36" s="16">
@@ -9492,8 +9432,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="76" t="s">
+    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="65" t="s">
         <v>147</v>
       </c>
       <c r="B37" s="26" t="s">
@@ -9502,42 +9442,42 @@
       <c r="C37" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="95" t="s">
+      <c r="D37" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="77">
+      <c r="F37" s="66">
         <v>1</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="H37" s="88">
+      <c r="H37" s="75">
         <v>44515</v>
       </c>
-      <c r="I37" s="87">
+      <c r="I37" s="74">
         <v>1</v>
       </c>
-      <c r="J37" s="88">
+      <c r="J37" s="75">
         <f t="shared" si="13"/>
         <v>44516</v>
       </c>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87" t="e">
+      <c r="K37" s="74"/>
+      <c r="L37" s="74" t="e">
         <f>LOOKUP(K37,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="88">
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87" t="s">
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S37" s="16">
@@ -9709,8 +9649,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="76" t="s">
+    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="65" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -9719,42 +9659,42 @@
       <c r="C38" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="D38" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="77">
+      <c r="F38" s="66">
         <v>4</v>
       </c>
-      <c r="G38" s="87" t="s">
+      <c r="G38" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="H38" s="88">
+      <c r="H38" s="75">
         <v>44548</v>
       </c>
-      <c r="I38" s="87">
+      <c r="I38" s="74">
         <v>2</v>
       </c>
-      <c r="J38" s="88">
+      <c r="J38" s="75">
         <f t="shared" si="13"/>
         <v>44550</v>
       </c>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87" t="e">
+      <c r="K38" s="74"/>
+      <c r="L38" s="74" t="e">
         <f>LOOKUP(K38,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="88">
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87" t="s">
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S38" s="16">
@@ -9926,8 +9866,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="76" t="s">
+    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="65" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="26" t="s">
@@ -9936,42 +9876,42 @@
       <c r="C39" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="95" t="s">
+      <c r="D39" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="77">
+      <c r="F39" s="66">
         <v>4</v>
       </c>
-      <c r="G39" s="87" t="s">
+      <c r="G39" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="88">
+      <c r="H39" s="75">
         <v>44515</v>
       </c>
-      <c r="I39" s="87">
+      <c r="I39" s="74">
         <v>3</v>
       </c>
-      <c r="J39" s="88">
+      <c r="J39" s="75">
         <f t="shared" si="13"/>
         <v>44518</v>
       </c>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87" t="e">
+      <c r="K39" s="74"/>
+      <c r="L39" s="74" t="e">
         <f>LOOKUP(K39,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="88">
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87" t="s">
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S39" s="16">
@@ -10143,8 +10083,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="76" t="s">
+    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="65" t="s">
         <v>150</v>
       </c>
       <c r="B40" s="26" t="s">
@@ -10153,42 +10093,42 @@
       <c r="C40" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="95" t="s">
+      <c r="D40" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="77">
+      <c r="F40" s="66">
         <v>4</v>
       </c>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="H40" s="88">
+      <c r="H40" s="75">
         <v>44515</v>
       </c>
-      <c r="I40" s="87">
+      <c r="I40" s="74">
         <v>1</v>
       </c>
-      <c r="J40" s="88">
+      <c r="J40" s="75">
         <f t="shared" si="13"/>
         <v>44516</v>
       </c>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87" t="e">
+      <c r="K40" s="74"/>
+      <c r="L40" s="74" t="e">
         <f>LOOKUP(K40,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="88">
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87" t="s">
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S40" s="16">
@@ -10360,8 +10300,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="76" t="s">
+    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="65" t="s">
         <v>151</v>
       </c>
       <c r="B41" s="26" t="s">
@@ -10370,42 +10310,42 @@
       <c r="C41" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="95" t="s">
+      <c r="D41" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="77">
+      <c r="F41" s="66">
         <v>4</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="H41" s="88">
+      <c r="H41" s="75">
         <v>44548</v>
       </c>
-      <c r="I41" s="87">
+      <c r="I41" s="74">
         <v>2</v>
       </c>
-      <c r="J41" s="88">
+      <c r="J41" s="75">
         <f t="shared" si="13"/>
         <v>44550</v>
       </c>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87" t="e">
+      <c r="K41" s="74"/>
+      <c r="L41" s="74" t="e">
         <f>LOOKUP(K41,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="88">
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87" t="s">
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S41" s="16">
@@ -10577,8 +10517,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
+    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="64" t="s">
         <v>152</v>
       </c>
       <c r="B42" s="26" t="s">
@@ -10587,42 +10527,42 @@
       <c r="C42" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="95" t="s">
+      <c r="D42" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="77">
+      <c r="F42" s="66">
         <v>1</v>
       </c>
-      <c r="G42" s="87" t="s">
+      <c r="G42" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H42" s="88">
+      <c r="H42" s="75">
         <v>44515</v>
       </c>
-      <c r="I42" s="87">
+      <c r="I42" s="74">
         <v>4</v>
       </c>
-      <c r="J42" s="88">
+      <c r="J42" s="75">
         <f t="shared" si="13"/>
         <v>44519</v>
       </c>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87" t="e">
+      <c r="K42" s="74"/>
+      <c r="L42" s="74" t="e">
         <f>LOOKUP(K42,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="88">
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87" t="s">
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S42" s="16">
@@ -10794,36 +10734,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="74" t="s">
+    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="95"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="88">
+      <c r="F43" s="66"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="75">
         <f t="shared" ref="J43" si="25">H43 +I43</f>
         <v>0</v>
       </c>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87" t="e">
+      <c r="K43" s="74"/>
+      <c r="L43" s="74" t="e">
         <f>LOOKUP(K43,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="88">
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="75">
         <f t="shared" ref="P43" si="26">N43+O43</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
       <c r="S43" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -10993,8 +10933,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="76" t="s">
+    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="65" t="s">
         <v>153</v>
       </c>
       <c r="B44" s="26" t="s">
@@ -11003,42 +10943,42 @@
       <c r="C44" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="95" t="s">
+      <c r="D44" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="77">
+      <c r="F44" s="66">
         <v>8</v>
       </c>
-      <c r="G44" s="87" t="s">
+      <c r="G44" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="88">
+      <c r="H44" s="75">
         <v>44522</v>
       </c>
-      <c r="I44" s="87">
+      <c r="I44" s="74">
         <v>2</v>
       </c>
-      <c r="J44" s="88">
+      <c r="J44" s="75">
         <f t="shared" si="13"/>
         <v>44524</v>
       </c>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87" t="e">
+      <c r="K44" s="74"/>
+      <c r="L44" s="74" t="e">
         <f>LOOKUP(K44,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="88">
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87" t="s">
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S44" s="16">
@@ -11210,8 +11150,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="76" t="s">
+    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="65" t="s">
         <v>154</v>
       </c>
       <c r="B45" s="26" t="s">
@@ -11220,42 +11160,42 @@
       <c r="C45" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="95" t="s">
+      <c r="D45" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="77">
+      <c r="F45" s="66">
         <v>8</v>
       </c>
-      <c r="G45" s="87" t="s">
+      <c r="G45" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="88">
+      <c r="H45" s="75">
         <v>44522</v>
       </c>
-      <c r="I45" s="87">
+      <c r="I45" s="74">
         <v>3</v>
       </c>
-      <c r="J45" s="88">
+      <c r="J45" s="75">
         <f t="shared" si="13"/>
         <v>44525</v>
       </c>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87" t="e">
+      <c r="K45" s="74"/>
+      <c r="L45" s="74" t="e">
         <f>LOOKUP(K45,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="88">
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87" t="s">
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S45" s="16">
@@ -11427,8 +11367,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="76" t="s">
+    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="65" t="s">
         <v>155</v>
       </c>
       <c r="B46" s="26" t="s">
@@ -11437,42 +11377,42 @@
       <c r="C46" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="95" t="s">
+      <c r="D46" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="77">
+      <c r="F46" s="66">
         <v>8</v>
       </c>
-      <c r="G46" s="87" t="s">
+      <c r="G46" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="88">
+      <c r="H46" s="75">
         <v>44522</v>
       </c>
-      <c r="I46" s="87">
+      <c r="I46" s="74">
         <v>1</v>
       </c>
-      <c r="J46" s="88">
+      <c r="J46" s="75">
         <f t="shared" si="13"/>
         <v>44523</v>
       </c>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87" t="e">
+      <c r="K46" s="74"/>
+      <c r="L46" s="74" t="e">
         <f>LOOKUP(K46,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="88">
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87" t="s">
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S46" s="16">
@@ -11644,8 +11584,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="76" t="s">
+    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="65" t="s">
         <v>156</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -11654,42 +11594,42 @@
       <c r="C47" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="95" t="s">
+      <c r="D47" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="77">
+      <c r="F47" s="66">
         <v>1</v>
       </c>
-      <c r="G47" s="87" t="s">
+      <c r="G47" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="H47" s="88">
+      <c r="H47" s="75">
         <v>44522</v>
       </c>
-      <c r="I47" s="87">
+      <c r="I47" s="74">
         <v>1</v>
       </c>
-      <c r="J47" s="88">
+      <c r="J47" s="75">
         <f t="shared" si="13"/>
         <v>44523</v>
       </c>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87" t="e">
+      <c r="K47" s="74"/>
+      <c r="L47" s="74" t="e">
         <f>LOOKUP(K47,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="88">
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87" t="s">
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S47" s="16">
@@ -11861,36 +11801,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="74" t="s">
+    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="39"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="88">
+      <c r="F48" s="66"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="75">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87" t="e">
+      <c r="K48" s="74"/>
+      <c r="L48" s="74" t="e">
         <f>LOOKUP(K48,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="88">
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
       <c r="S48" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -12060,8 +12000,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="76" t="s">
+    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="65" t="s">
         <v>157</v>
       </c>
       <c r="B49" s="26" t="s">
@@ -12076,36 +12016,36 @@
       <c r="E49" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="77">
+      <c r="F49" s="66">
         <v>4</v>
       </c>
-      <c r="G49" s="87" t="s">
+      <c r="G49" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="H49" s="88">
+      <c r="H49" s="75">
         <v>44529</v>
       </c>
-      <c r="I49" s="87">
+      <c r="I49" s="74">
         <v>4</v>
       </c>
-      <c r="J49" s="88">
+      <c r="J49" s="75">
         <f t="shared" si="13"/>
         <v>44533</v>
       </c>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87" t="e">
+      <c r="K49" s="74"/>
+      <c r="L49" s="74" t="e">
         <f>LOOKUP(K49,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="88">
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="87" t="s">
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S49" s="16">
@@ -12277,8 +12217,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="76" t="s">
+    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="65" t="s">
         <v>158</v>
       </c>
       <c r="B50" s="26" t="s">
@@ -12293,36 +12233,36 @@
       <c r="E50" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="77">
+      <c r="F50" s="66">
         <v>4</v>
       </c>
-      <c r="G50" s="87" t="s">
+      <c r="G50" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="88">
+      <c r="H50" s="75">
         <v>44529</v>
       </c>
-      <c r="I50" s="87">
+      <c r="I50" s="74">
         <v>4</v>
       </c>
-      <c r="J50" s="88">
+      <c r="J50" s="75">
         <f t="shared" si="13"/>
         <v>44533</v>
       </c>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87" t="e">
+      <c r="K50" s="74"/>
+      <c r="L50" s="74" t="e">
         <f>LOOKUP(K50,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="88">
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="87"/>
-      <c r="R50" s="87" t="s">
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74" t="s">
         <v>56</v>
       </c>
       <c r="S50" s="16">
@@ -12494,8 +12434,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="61"/>
       <c r="B51" s="26" t="s">
         <v>19</v>
       </c>
@@ -12511,27 +12451,27 @@
       <c r="F51" s="14">
         <v>4</v>
       </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="80">
+      <c r="G51" s="61"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72" t="e">
+      <c r="K51" s="61"/>
+      <c r="L51" s="61" t="e">
         <f>LOOKUP(K51,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="80">
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="67">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="72"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
       <c r="S51" s="16">
         <f t="shared" ref="S51:AB60" si="27">IF(AND(S$6&gt;=$N51,S$6&lt;$N51+$O51), 1, IF(AND(S$6&gt;=$H51,S$6&lt;$H51+$I51), 2, 0))</f>
         <v>0</v>
@@ -12701,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
       <c r="B52" s="26"/>
       <c r="C52" s="39"/>
@@ -12898,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="26"/>
       <c r="C53" s="39"/>
@@ -13095,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="26"/>
       <c r="C54" s="39"/>
@@ -13292,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
       <c r="B55" s="26"/>
       <c r="C55" s="39"/>
@@ -13489,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
       <c r="B56" s="26"/>
       <c r="C56" s="39"/>
@@ -13686,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="26"/>
       <c r="C57" s="39"/>
@@ -13883,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="26"/>
       <c r="C58" s="39"/>
@@ -14080,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
       <c r="B59" s="26"/>
       <c r="C59" s="39"/>
@@ -14277,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
       <c r="B60" s="26"/>
       <c r="C60" s="39"/>
@@ -14474,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
       <c r="B61" s="26"/>
       <c r="C61" s="39"/>
@@ -14671,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
       <c r="B62" s="26"/>
       <c r="C62" s="39"/>
@@ -14868,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
       <c r="B63" s="26"/>
       <c r="C63" s="39"/>
@@ -15065,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
       <c r="B64" s="26"/>
       <c r="C64" s="39"/>
@@ -15262,7 +15202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
       <c r="B65" s="26"/>
       <c r="C65" s="39"/>
@@ -15459,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="26"/>
       <c r="C66" s="39"/>
@@ -15656,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="26"/>
       <c r="C67" s="39"/>
@@ -15853,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
       <c r="B68" s="26"/>
       <c r="C68" s="39"/>
@@ -16050,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
       <c r="B69" s="26"/>
       <c r="C69" s="39"/>
@@ -16247,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
       <c r="B70" s="26"/>
       <c r="C70" s="39"/>
@@ -16444,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
       <c r="B71" s="26"/>
       <c r="C71" s="39"/>
@@ -16641,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="26"/>
       <c r="C72" s="39"/>
@@ -16838,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="26"/>
       <c r="C73" s="39"/>
@@ -17035,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="26"/>
       <c r="C74" s="39"/>
@@ -17232,7 +17172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="26"/>
       <c r="C75" s="39"/>
@@ -17429,7 +17369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="26"/>
       <c r="C76" s="39"/>
@@ -17626,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="26"/>
       <c r="C77" s="39"/>
@@ -17823,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="26"/>
       <c r="C78" s="39"/>
@@ -18020,7 +17960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="26"/>
       <c r="C79" s="39"/>
@@ -18217,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="26"/>
       <c r="C80" s="39"/>
@@ -18414,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="26"/>
       <c r="C81" s="39"/>
@@ -18611,7 +18551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="26"/>
       <c r="C82" s="39"/>
@@ -18808,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="26"/>
       <c r="C83" s="39"/>
@@ -19005,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
       <c r="B84" s="26"/>
       <c r="C84" s="39"/>
@@ -19202,7 +19142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="26"/>
       <c r="C85" s="39"/>
@@ -19399,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
       <c r="B86" s="26"/>
       <c r="C86" s="39"/>
@@ -19596,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
       <c r="B87" s="26"/>
       <c r="C87" s="39"/>
@@ -19793,7 +19733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
       <c r="B88" s="26"/>
       <c r="C88" s="39"/>
@@ -19990,7 +19930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="26"/>
       <c r="C89" s="39"/>
@@ -20187,7 +20127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="26"/>
       <c r="C90" s="39"/>
@@ -20384,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
       <c r="B91" s="26"/>
       <c r="C91" s="39"/>
@@ -20581,7 +20521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
       <c r="B92" s="26"/>
       <c r="C92" s="39"/>
@@ -20778,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
       <c r="B93" s="26"/>
       <c r="C93" s="39"/>
@@ -20975,7 +20915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
       <c r="B94" s="26"/>
       <c r="C94" s="39"/>
@@ -21172,7 +21112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
       <c r="B95" s="26"/>
       <c r="C95" s="39"/>
@@ -21369,7 +21309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
       <c r="B96" s="26"/>
       <c r="C96" s="39"/>
@@ -21566,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
       <c r="B97" s="26"/>
       <c r="C97" s="39"/>
@@ -21763,7 +21703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
       <c r="B98" s="26"/>
       <c r="C98" s="39"/>
@@ -21960,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="26"/>
       <c r="C99" s="39"/>
@@ -22157,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
       <c r="B100" s="26"/>
       <c r="C100" s="39"/>
@@ -22354,7 +22294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="26"/>
       <c r="C101" s="39"/>
@@ -22551,7 +22491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
       <c r="B102" s="26"/>
       <c r="C102" s="39"/>
@@ -22748,7 +22688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="26"/>
       <c r="C103" s="39"/>
@@ -22945,7 +22885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
       <c r="B104" s="26"/>
       <c r="C104" s="39"/>
@@ -23142,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
       <c r="B105" s="26"/>
       <c r="C105" s="39"/>
@@ -23339,7 +23279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
       <c r="B106" s="26"/>
       <c r="C106" s="39"/>
@@ -23536,7 +23476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
       <c r="B107" s="26"/>
       <c r="C107" s="39"/>
@@ -23733,7 +23673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
       <c r="B108" s="26"/>
       <c r="C108" s="39"/>
@@ -23930,7 +23870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
       <c r="B109" s="26"/>
       <c r="C109" s="39"/>
@@ -24127,7 +24067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
       <c r="B110" s="26"/>
       <c r="C110" s="39"/>
@@ -24324,7 +24264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
       <c r="B111" s="26"/>
       <c r="C111" s="39"/>
@@ -24521,7 +24461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
       <c r="B112" s="26"/>
       <c r="C112" s="39"/>
@@ -24718,7 +24658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
       <c r="B113" s="26"/>
       <c r="C113" s="39"/>
@@ -24915,7 +24855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
       <c r="B114" s="26"/>
       <c r="C114" s="39"/>
@@ -25113,14 +25053,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -25137,352 +25069,360 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A17 A22:A23 A34:A35 D26:F27 D29:F31 D28:J28 H26:J27 H29:J31 A42 D32:J36 D37:F42 H37:J42 L12:BH42 L44:BH47 A51:A114 D44:F45 D51:J114 D47:F47 H44:J45 D46:J46 H47:J47 L49:BH114 D49:F50 H49:J50 D8:J25">
-    <cfRule type="expression" dxfId="185" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH42 S44:BH47 S49:BH114">
-    <cfRule type="expression" dxfId="184" priority="69">
+    <cfRule type="expression" dxfId="183" priority="69">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="70">
+    <cfRule type="expression" dxfId="182" priority="70">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH25 S28:BH28 S31:BH42 S44:BH47 S49:BH114">
-    <cfRule type="expression" dxfId="182" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="74" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="181" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="84" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH42 S44:BH47 S49:BH114">
-    <cfRule type="cellIs" dxfId="180" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH42 S44:BH47 S49:BH114">
-    <cfRule type="cellIs" dxfId="179" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH42 S44:BH47 S49:BH114">
-    <cfRule type="cellIs" dxfId="178" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B44:C47 B49:C114 B13:C16 B23:C42 B19:C20 B17:B22">
-    <cfRule type="containsText" dxfId="177" priority="59" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="176" priority="59" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="60" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="175" priority="60" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="61" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="174" priority="61" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="62" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="173" priority="62" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="63" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="172" priority="63" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10 K13:K16 K22 K25 K34:K35 K37:K38 K40:K42 K44:K47 K49:K113">
-    <cfRule type="expression" dxfId="172" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="86" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="containsText" dxfId="171" priority="54" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="170" priority="54" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="55" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="169" priority="55" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="56" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="168" priority="56" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="57" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="167" priority="57" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="58" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="166" priority="58" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="containsText" dxfId="166" priority="49" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="50" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="51" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="163" priority="51" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="52" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="162" priority="52" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="53" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="161" priority="53" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 K8 K20 K32:K33">
-    <cfRule type="expression" dxfId="161" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="87" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K23:K24">
-    <cfRule type="expression" dxfId="160" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="89" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 K19 K21 K31">
-    <cfRule type="expression" dxfId="159" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="92" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="158" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="48" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K18 K30">
-    <cfRule type="expression" dxfId="157" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="95" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A22)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="156" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="96" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A35)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27 G30:G31 G41">
-    <cfRule type="expression" dxfId="155" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="98" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:BH29 S26:BH26">
-    <cfRule type="expression" dxfId="154" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="100" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:BH30 S27:BH27">
-    <cfRule type="expression" dxfId="153" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="101" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="152" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="47" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K27">
-    <cfRule type="expression" dxfId="151" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="102" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A34)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="150" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="46" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A25)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="149" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="106" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A35)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39 G42">
-    <cfRule type="expression" dxfId="148" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="44" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A39)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="147" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="45" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A37)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37 G40">
-    <cfRule type="expression" dxfId="146" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="42" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36 K39">
-    <cfRule type="expression" dxfId="145" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="137" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 D43:J43 L43:BH43">
-    <cfRule type="expression" dxfId="126" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A43)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="expression" dxfId="125" priority="34">
+    <cfRule type="expression" dxfId="142" priority="34">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="35">
+    <cfRule type="expression" dxfId="141" priority="35">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="expression" dxfId="123" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="37" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G43)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="cellIs" dxfId="122" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="cellIs" dxfId="121" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="cellIs" dxfId="120" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="containsText" dxfId="119" priority="29" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="136" priority="29" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="30" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="135" priority="30" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="31" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="134" priority="31" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="32" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="133" priority="32" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="33" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="132" priority="33" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="expression" dxfId="114" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="41" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A44)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="113" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="28" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="112" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="27" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A45)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="111" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="26" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A47)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48 D48:J48 L48:BH48">
-    <cfRule type="expression" dxfId="110" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A48)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="expression" dxfId="109" priority="18">
+    <cfRule type="expression" dxfId="126" priority="18">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="19">
+    <cfRule type="expression" dxfId="125" priority="19">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="expression" dxfId="107" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="21" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G48)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="cellIs" dxfId="106" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="cellIs" dxfId="105" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="cellIs" dxfId="104" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:C48">
-    <cfRule type="containsText" dxfId="103" priority="13" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="14" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="119" priority="14" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="15" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="118" priority="15" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="16" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="117" priority="16" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="116" priority="17" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="expression" dxfId="98" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="25" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="97" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="12" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="95" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="11" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="112" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="111" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="110" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="109" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="108" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25565,13 +25505,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -25579,7 +25519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -25587,7 +25527,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -25595,7 +25535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -25603,7 +25543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -25627,14 +25567,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
@@ -25645,7 +25585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
@@ -25656,7 +25596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
@@ -25667,7 +25607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
@@ -25678,7 +25618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
@@ -25689,7 +25629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
@@ -25700,14 +25640,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="60" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -25876,7 +25816,7 @@
         <v>6</v>
       </c>
       <c r="BG7" s="16" t="e">
-        <f t="shared" ref="S7:BH7" si="0">IF(AND(BG$6&gt;=$N7,BG$6&lt;$N7+$O7), 1, IF(AND(BG$6&gt;=$H7,BG$6&lt;$H7+$I7), 2, 0))</f>
+        <f t="shared" ref="BG7:BH7" si="0">IF(AND(BG$6&gt;=$N7,BG$6&lt;$N7+$O7), 1, IF(AND(BG$6&gt;=$H7,BG$6&lt;$H7+$I7), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BH7" s="16" t="e">
@@ -25884,80 +25824,80 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="77" t="s">
         <v>161</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="78" t="s">
         <v>168</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="78" t="s">
         <v>169</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="78" t="s">
         <v>162</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="78" t="s">
         <v>166</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="78" t="s">
         <v>167</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="60" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -26126,7 +26066,7 @@
         <v>6</v>
       </c>
       <c r="BG14" s="16" t="e">
-        <f t="shared" ref="BG14:CV14" si="1">IF(AND(BG$6&gt;=$N14,BG$6&lt;$N14+$O14), 1, IF(AND(BG$6&gt;=$H14,BG$6&lt;$H14+$I14), 2, 0))</f>
+        <f t="shared" ref="BG14:BH14" si="1">IF(AND(BG$6&gt;=$N14,BG$6&lt;$N14+$O14), 1, IF(AND(BG$6&gt;=$H14,BG$6&lt;$H14+$I14), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BH14" s="16" t="e">
@@ -26134,88 +26074,88 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="79" t="s">
         <v>170</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" ht="72" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="79" t="s">
         <v>171</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="80" t="s">
         <v>172</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="79" t="s">
         <v>174</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="79" t="s">
         <v>175</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="79" t="s">
         <v>177</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="79" t="s">
         <v>176</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="80" t="s">
         <v>173</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -26224,309 +26164,309 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="containsText" dxfId="144" priority="85" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="102" priority="85" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="86" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="101" priority="86" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="87" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="100" priority="87" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="88" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="99" priority="88" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="89" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="98" priority="89" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 BG7:BH7 C7 E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7 Y7 AA7 AC7 AE7 AG7 AI7 AK7 AM7 AO7 AQ7 AS7 AU7 AW7 AY7 BA7 BC7 BE7">
-    <cfRule type="expression" dxfId="94" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="93" priority="77">
+    <cfRule type="expression" dxfId="96" priority="77">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="78">
+    <cfRule type="expression" dxfId="95" priority="78">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="91" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="90" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7 N7 P7 R7 T7 V7 X7 Z7 AB7 AD7 AF7 AH7 AJ7 AL7 AN7 AP7 AR7 AT7 AV7 AX7 AZ7 BB7 BD7 BF7">
-    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="80" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="79" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="88" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="83" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="81" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="79" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="69" priority="55" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="56" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="77" priority="56" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="57" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="76" priority="57" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="58" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="75" priority="58" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="74" priority="59" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="64" priority="50" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="73" priority="50" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="51" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="72" priority="51" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="52" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="53" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="54" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="59" priority="45" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="68" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="67" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="66" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="65" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="64" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="54" priority="40" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="63" priority="40" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="41" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="42" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="43" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="44" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 BG14:BH14 C14 E14 G14 I14 K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14">
-    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="48" priority="33">
+    <cfRule type="expression" dxfId="57" priority="33">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="34">
+    <cfRule type="expression" dxfId="56" priority="34">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="46" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14">
-    <cfRule type="expression" dxfId="42" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 B22">
-    <cfRule type="expression" dxfId="40" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A17)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="39" priority="26" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="28" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="22" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="43" priority="22" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26542,13 +26482,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
@@ -26556,11 +26496,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
@@ -26571,7 +26511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
@@ -26582,7 +26522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
@@ -26593,7 +26533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>37</v>
       </c>
@@ -26604,7 +26544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>38</v>
       </c>
@@ -26629,29 +26569,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="containsText" dxfId="139" priority="7" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="138" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="6" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="containsText" dxfId="135" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26667,13 +26607,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>48</v>
       </c>
@@ -26681,7 +26621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>56</v>
       </c>
@@ -26689,7 +26629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>57</v>
       </c>
@@ -26697,7 +26637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>58</v>
       </c>
@@ -26721,13 +26661,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -26735,7 +26675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -26746,7 +26686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -26754,7 +26694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -26764,24 +26704,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="132" priority="4" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="5" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="6" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="129" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raidzer\Documents\GitHub\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5CA525-7B07-47B9-B4D5-04AEC08551AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914CAF1B-6B7F-44FB-AB71-FCBC6E1DECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1770" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="200">
   <si>
     <t>TASK</t>
   </si>
@@ -358,38 +358,7 @@
     <t>Rendering</t>
   </si>
   <si>
-    <t>It should display in text the current shape being drawn.
-Clicking on it should cycle between "Circle" and "Square" shapes being drawn.</t>
-  </si>
-  <si>
-    <t>It should display in text the current colour used for drawing the shape.
-Clicking on the button should cycle between Red, Green and Blue colours for the shape drawn.</t>
-  </si>
-  <si>
-    <t>Buttons need to react on click.</t>
-  </si>
-  <si>
     <t>Able to render a rectangle at desired location</t>
-  </si>
-  <si>
-    <t>Draw grid using rectangles, based on defined number of columns and rows 
-and window dimensions</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>For a given array of cells, 
-count the number of live cells with respect to a chosen cell</t>
-  </si>
-  <si>
-    <t>Use current display to discern what the next frame should render</t>
-  </si>
-  <si>
-    <t>Gamification</t>
-  </si>
-  <si>
-    <t>(Describe where necessary)</t>
   </si>
   <si>
     <t>If your Team is experiencing any problems, do write it down in the comments below your project status</t>
@@ -476,9 +445,6 @@
     <t>Enemy Movement/Behaviour</t>
   </si>
   <si>
-    <t>Enemy 1 Sprite Placeholder</t>
-  </si>
-  <si>
     <t>Enemy Drops (chance to drop, maybe hp)</t>
   </si>
   <si>
@@ -492,9 +458,6 @@
   </si>
   <si>
     <t>Game State Logic</t>
-  </si>
-  <si>
-    <t>Spawning/Game Level System. Enemy movement, enemy sprite art</t>
   </si>
   <si>
     <t xml:space="preserve">Story progression </t>
@@ -939,6 +902,72 @@
   </si>
   <si>
     <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Integration of Enemy instancing, collision, Enemy Movement, Enemyspawn</t>
+  </si>
+  <si>
+    <t>enemy sprite art</t>
+  </si>
+  <si>
+    <t>create a sprite for the enemy</t>
+  </si>
+  <si>
+    <t>Spawning/Game Level System. Enemy movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a function to print the enemysprite art where the enemy is, create a function that can move the enemy across the screen, create a system of arrays to store information on each enemy spawned. Create a spawn map that will spawn in enemies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbc </t>
+  </si>
+  <si>
+    <t>tbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integrate the work from a few members so the functions declared by other members can run seamlessly. Integration of tack include Enemy movemnt behaviour,spawning of enemies.maybe include collision checks </t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>Gameplay/Rendering</t>
+  </si>
+  <si>
+    <t>creating the design for level 6to10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">making of dialogue boxes/introduction player to game </t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knights melee attack features and upgrades </t>
+  </si>
+  <si>
+    <t>mage's explosion attack with all skills tree features implemented</t>
+  </si>
+  <si>
+    <t>Design of mage sprite and weapon code</t>
+  </si>
+  <si>
+    <t>Second Enemy Sprite</t>
+  </si>
+  <si>
+    <t>First Enemy Sprite</t>
+  </si>
+  <si>
+    <t>Continue on designing and programming the enemy drops</t>
+  </si>
+  <si>
+    <t>Second enemy movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swich between the knight and the mage classes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lets the players enchance the stats of the knight and mage, and max hp, etc </t>
   </si>
 </sst>
 </file>
@@ -1739,9 +1768,46 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="195">
+  <dxfs count="199">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1784,94 +1850,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3190,12 +3168,116 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3217,27 +3299,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3337,7 +3398,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="198">
   <autoFilter ref="A8:R16" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AB7DF63-F3E2-46EA-867C-B10FAF5F8283}" name="Student Name"/>
@@ -3347,16 +3408,16 @@
     <tableColumn id="5" xr3:uid="{2BA79B57-539F-46E5-965A-5E7716ACBE1C}" name="In Progress"/>
     <tableColumn id="6" xr3:uid="{2710B94F-2F91-48AC-8457-97A764EF4BC7}" name="Not Started"/>
     <tableColumn id="7" xr3:uid="{493E51FB-9F1A-4B86-B51A-0A9F697471BC}" name="Total Workload "/>
-    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="190"/>
-    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="189"/>
+    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="197"/>
+    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="196"/>
     <tableColumn id="10" xr3:uid="{20ECF3E5-B447-40AE-82D9-F1DAECBAD66F}" name="Remaining"/>
-    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="188"/>
+    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="195"/>
     <tableColumn id="12" xr3:uid="{5AA91C7C-8A0B-454F-BB15-D1BB545F0BE4}" name="Remaining3"/>
-    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="187"/>
+    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="194"/>
     <tableColumn id="14" xr3:uid="{B367E59C-5FB9-479C-A7F3-B1C7AE02BA4A}" name="Remaining5"/>
-    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="186"/>
+    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="193"/>
     <tableColumn id="16" xr3:uid="{DF492611-AC03-4727-883A-97854465FDAE}" name="Remaining7"/>
-    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="185"/>
+    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="192"/>
     <tableColumn id="18" xr3:uid="{67CDA12C-F1E4-40F4-B6AC-BDC17A0B0B8D}" name="Remaining9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3375,11 +3436,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="191" headerRowBorderDxfId="190" tableBorderDxfId="189" totalsRowBorderDxfId="188">
   <autoFilter ref="A5:B8" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="187"/>
+    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3390,7 +3451,7 @@
   <autoFilter ref="A1:B4" xr:uid="{DECAA8B5-6330-451B-9562-5424BBB00F80}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D55844DA-51EF-4755-A498-8AFCDF33F45D}" name="Colour"/>
-    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3695,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -3723,17 +3784,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
@@ -3837,36 +3898,36 @@
         <v>65</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N8" s="41" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R8" s="41" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3880,15 +3941,15 @@
       </c>
       <c r="F9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <f>SUM(D9:F9)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A9,GANTT!B:B,TaskTypes!$A$5)/$G9)</f>
-        <v>0.92105263157894735</v>
+        <v>0.89743589743589747</v>
       </c>
       <c r="I9" s="44">
         <v>10</v>
@@ -3902,36 +3963,36 @@
       </c>
       <c r="L9">
         <f>K9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$K$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="M9" s="44">
         <v>10</v>
       </c>
       <c r="N9">
         <f>M9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$M$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="O9" s="44">
         <v>10</v>
       </c>
       <c r="P9">
         <f>O9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Q9" s="44">
         <v>10</v>
       </c>
       <c r="R9">
         <f>Q9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -3993,10 +4054,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -4005,7 +4066,8 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A11, GANTT!R:R,TaskStatus!$A$7)</f>
+        <v>0</v>
       </c>
       <c r="F11">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A11, GANTT!R:R,TaskStatus!$A$6)</f>
@@ -4013,11 +4075,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H11" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A11,GANTT!B:B,TaskTypes!$A$5)/$G11)</f>
-        <v>0.29411764705882354</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I11" s="44">
         <v>10</v>
@@ -4057,10 +4119,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4074,15 +4136,15 @@
       </c>
       <c r="F12">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A12, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>29.5</v>
       </c>
       <c r="H12" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A12,GANTT!B:B,TaskTypes!$A$5)/$G12)</f>
-        <v>0.5</v>
+        <v>0.64406779661016944</v>
       </c>
       <c r="I12" s="44">
         <v>10</v>
@@ -4122,10 +4184,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4139,15 +4201,15 @@
       </c>
       <c r="F13">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A13, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44.5</v>
       </c>
       <c r="H13" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A13,GANTT!B:B,TaskTypes!$A$5)/$G13)</f>
-        <v>1.1744186046511629</v>
+        <v>1.1348314606741574</v>
       </c>
       <c r="I13" s="44">
         <v>10</v>
@@ -4323,15 +4385,15 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="1"/>
@@ -4351,7 +4413,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
@@ -4359,7 +4421,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
@@ -4367,7 +4429,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:R16" si="2">SUM(Q9:Q15)</f>
@@ -4375,7 +4437,7 @@
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
@@ -4394,13 +4456,13 @@
     <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="194" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="184" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="183" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="182" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4426,23 +4488,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BZ114"/>
+  <dimension ref="A1:BZ115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="18" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="20.6640625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="251.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="19.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="83.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.33203125" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="245.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -4452,8 +4514,8 @@
     <col min="13" max="13" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.109375" style="2" customWidth="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
     <col min="19" max="60" width="4.109375" style="2" customWidth="1" outlineLevel="1"/>
     <col min="61" max="16384" width="9.109375" style="2"/>
@@ -4461,7 +4523,7 @@
   <sheetData>
     <row r="1" spans="1:78" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5014,7 +5076,7 @@
     </row>
     <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="64" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>21</v>
@@ -5026,13 +5088,13 @@
         <v>88</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F8" s="66">
         <v>10</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H8" s="70">
         <v>44494</v>
@@ -5064,7 +5126,7 @@
         <v>58</v>
       </c>
       <c r="S8" s="16">
-        <f t="shared" ref="S8:AB25" si="8">IF(AND(S$6&gt;=$N8,S$6&lt;$N8+$O8), 1, IF(AND(S$6&gt;=$H8,S$6&lt;$H8+$I8), 2, 0))</f>
+        <f t="shared" ref="S8:AB26" si="8">IF(AND(S$6&gt;=$N8,S$6&lt;$N8+$O8), 1, IF(AND(S$6&gt;=$H8,S$6&lt;$H8+$I8), 2, 0))</f>
         <v>1</v>
       </c>
       <c r="T8" s="16">
@@ -5104,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="16">
-        <f t="shared" ref="AC8:AL25" si="9">IF(AND(AC$6&gt;=$N8,AC$6&lt;$N8+$O8), 1, IF(AND(AC$6&gt;=$H8,AC$6&lt;$H8+$I8), 2, 0))</f>
+        <f t="shared" ref="AC8:AL26" si="9">IF(AND(AC$6&gt;=$N8,AC$6&lt;$N8+$O8), 1, IF(AND(AC$6&gt;=$H8,AC$6&lt;$H8+$I8), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD8" s="16">
@@ -5144,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="16">
-        <f t="shared" ref="AM8:AV25" si="10">IF(AND(AM$6&gt;=$N8,AM$6&lt;$N8+$O8), 1, IF(AND(AM$6&gt;=$H8,AM$6&lt;$H8+$I8), 2, 0))</f>
+        <f t="shared" ref="AM8:AV26" si="10">IF(AND(AM$6&gt;=$N8,AM$6&lt;$N8+$O8), 1, IF(AND(AM$6&gt;=$H8,AM$6&lt;$H8+$I8), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN8" s="16">
@@ -5184,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="16">
-        <f t="shared" ref="AW8:BF25" si="11">IF(AND(AW$6&gt;=$N8,AW$6&lt;$N8+$O8), 1, IF(AND(AW$6&gt;=$H8,AW$6&lt;$H8+$I8), 2, 0))</f>
+        <f t="shared" ref="AW8:BF26" si="11">IF(AND(AW$6&gt;=$N8,AW$6&lt;$N8+$O8), 1, IF(AND(AW$6&gt;=$H8,AW$6&lt;$H8+$I8), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX8" s="16">
@@ -5224,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="16">
-        <f t="shared" ref="BG8:BH25" si="12">IF(AND(BG$6&gt;=$N8,BG$6&lt;$N8+$O8), 1, IF(AND(BG$6&gt;=$H8,BG$6&lt;$H8+$I8), 2, 0))</f>
+        <f t="shared" ref="BG8:BH26" si="12">IF(AND(BG$6&gt;=$N8,BG$6&lt;$N8+$O8), 1, IF(AND(BG$6&gt;=$H8,BG$6&lt;$H8+$I8), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH8" s="16">
@@ -5234,7 +5296,7 @@
     </row>
     <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="64" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>21</v>
@@ -5243,16 +5305,16 @@
         <v>75</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F9" s="66">
         <v>10</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H9" s="70">
         <v>44494</v>
@@ -5322,7 +5384,7 @@
     </row>
     <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="64" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>21</v>
@@ -5331,16 +5393,16 @@
         <v>75</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F10" s="66">
         <v>10</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H10" s="70">
         <v>44494</v>
@@ -5410,25 +5472,25 @@
     </row>
     <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="64" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F11" s="66">
         <v>10</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H11" s="70">
         <v>44494</v>
@@ -5441,20 +5503,19 @@
         <v>44496</v>
       </c>
       <c r="K11" s="69"/>
-      <c r="L11" s="69" t="e">
-        <f>LOOKUP(K11,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L11" s="69">
+        <v>10</v>
       </c>
       <c r="M11" s="69"/>
       <c r="N11" s="70">
         <v>44494</v>
       </c>
       <c r="O11" s="71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" s="70">
         <f>N11+O11</f>
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="Q11" s="69">
         <v>14</v>
@@ -5467,11 +5528,11 @@
         <v>1</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="16">
         <f t="shared" si="8"/>
@@ -5632,7 +5693,7 @@
     </row>
     <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="64" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>21</v>
@@ -5644,13 +5705,13 @@
         <v>89</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F12" s="66">
         <v>10</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H12" s="70">
         <v>44494</v>
@@ -5720,7 +5781,7 @@
     </row>
     <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="64" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>21</v>
@@ -5729,16 +5790,16 @@
         <v>75</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F13" s="66">
         <v>10</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H13" s="70">
         <v>44494</v>
@@ -5747,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="70">
-        <f t="shared" ref="J13:J86" si="13">H13 +I13</f>
+        <f t="shared" ref="H13:J87" si="13">H13 +I13</f>
         <v>44496</v>
       </c>
       <c r="K13" s="72" t="s">
@@ -5765,7 +5826,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="70">
-        <f t="shared" ref="P13:P86" si="14">N13+O13</f>
+        <f t="shared" ref="P13:P87" si="14">N13+O13</f>
         <v>44496</v>
       </c>
       <c r="Q13" s="69">
@@ -6154,7 +6215,7 @@
     </row>
     <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="59" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>21</v>
@@ -6163,16 +6224,16 @@
         <v>75</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" s="66">
         <v>10</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H15" s="75">
         <v>44501</v>
@@ -6371,50 +6432,42 @@
     </row>
     <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="59" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="66">
-        <v>15</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F16" s="66"/>
       <c r="G16" s="74" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H16" s="75">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="I16" s="74">
         <v>4</v>
       </c>
       <c r="J16" s="75">
         <f t="shared" si="13"/>
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="K16" s="74"/>
-      <c r="L16" s="74" t="e">
-        <f>LOOKUP(K16,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L16" s="74">
+        <v>10</v>
       </c>
       <c r="M16" s="74"/>
-      <c r="N16" s="75">
-        <v>44499</v>
-      </c>
+      <c r="N16" s="75"/>
       <c r="O16" s="76"/>
-      <c r="P16" s="75">
-        <f t="shared" si="14"/>
-        <v>44499</v>
-      </c>
+      <c r="P16" s="75"/>
       <c r="Q16" s="74"/>
       <c r="R16" s="74" t="s">
         <v>57</v>
@@ -6423,10 +6476,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T16" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="T16" s="16"/>
       <c r="U16" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6449,15 +6499,15 @@
       </c>
       <c r="Z16" s="16">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="16">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="16">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="16">
         <f t="shared" si="9"/>
@@ -6465,15 +6515,15 @@
       </c>
       <c r="AD16" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG16" s="16">
         <f t="shared" si="9"/>
@@ -6588,53 +6638,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
-        <v>128</v>
+    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="59" t="s">
+        <v>181</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>186</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>75</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>90</v>
+      <c r="E17" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="F17" s="66">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H17" s="75">
         <v>44501</v>
       </c>
       <c r="I17" s="74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" s="75">
         <f t="shared" si="13"/>
-        <v>44502</v>
+        <v>44505</v>
       </c>
       <c r="K17" s="74"/>
-      <c r="L17" s="74" t="e">
-        <f>LOOKUP(K17,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L17" s="74">
+        <v>6</v>
       </c>
       <c r="M17" s="74"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="76"/>
+      <c r="N17" s="75">
+        <v>44499</v>
+      </c>
+      <c r="O17" s="76">
+        <v>3</v>
+      </c>
       <c r="P17" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="74"/>
+        <v>44502</v>
+      </c>
+      <c r="Q17" s="74">
+        <v>18</v>
+      </c>
       <c r="R17" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" s="16">
         <f t="shared" si="8"/>
@@ -6658,27 +6713,27 @@
       </c>
       <c r="X17" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="16">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="16">
         <f t="shared" si="9"/>
@@ -6805,98 +6860,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="59" t="s">
-        <v>130</v>
+    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="62" t="s">
+        <v>179</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="53"/>
+      <c r="E18" s="53" t="s">
+        <v>180</v>
+      </c>
       <c r="F18" s="66">
         <v>10</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H18" s="75">
-        <v>44504</v>
+        <v>44501</v>
       </c>
       <c r="I18" s="74">
         <v>1</v>
       </c>
       <c r="J18" s="75">
         <f t="shared" si="13"/>
-        <v>44505</v>
+        <v>44502</v>
       </c>
       <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="L18" s="74">
+        <v>2</v>
+      </c>
       <c r="M18" s="74"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="74"/>
+      <c r="N18" s="75">
+        <v>44501</v>
+      </c>
+      <c r="O18" s="76">
+        <v>1</v>
+      </c>
+      <c r="P18" s="75">
+        <f t="shared" si="14"/>
+        <v>44502</v>
+      </c>
+      <c r="Q18" s="74">
+        <v>2</v>
+      </c>
       <c r="R18" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="16"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="16"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="16"/>
-      <c r="BC18" s="16"/>
-      <c r="BD18" s="16"/>
-      <c r="BE18" s="16"/>
-      <c r="BF18" s="16"/>
-      <c r="BG18" s="16"/>
-      <c r="BH18" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="S18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BF18" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="59" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>75</v>
+      <c r="C19" s="81" t="s">
+        <v>176</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>89</v>
@@ -6906,17 +7100,17 @@
         <v>10</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H19" s="75">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="I19" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="75">
         <f t="shared" si="13"/>
-        <v>44503</v>
+        <v>44505</v>
       </c>
       <c r="K19" s="74"/>
       <c r="L19" s="74"/>
@@ -6973,33 +7167,33 @@
     </row>
     <row r="20" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="59" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="83" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="66">
         <v>10</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H20" s="75">
-        <v>44504</v>
+        <v>44501</v>
       </c>
       <c r="I20" s="74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="75">
         <f t="shared" si="13"/>
-        <v>44505</v>
+        <v>44503</v>
       </c>
       <c r="K20" s="74"/>
       <c r="L20" s="74"/>
@@ -7056,33 +7250,33 @@
     </row>
     <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="59" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="81" t="s">
-        <v>187</v>
+      <c r="C21" s="83" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="66">
         <v>10</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H21" s="75">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="I21" s="74">
         <v>1</v>
       </c>
       <c r="J21" s="75">
         <f t="shared" si="13"/>
-        <v>44502</v>
+        <v>44505</v>
       </c>
       <c r="K21" s="74"/>
       <c r="L21" s="74"/>
@@ -7137,238 +7331,118 @@
       <c r="BG21" s="16"/>
       <c r="BH21" s="16"/>
     </row>
-    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="62" t="s">
-        <v>129</v>
+    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="59" t="s">
+        <v>123</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>91</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E22" s="53"/>
       <c r="F22" s="66">
         <v>10</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H22" s="75">
-        <v>44504</v>
+        <v>44501</v>
       </c>
       <c r="I22" s="74">
         <v>1</v>
       </c>
       <c r="J22" s="75">
         <f t="shared" si="13"/>
-        <v>44505</v>
+        <v>44502</v>
       </c>
       <c r="K22" s="74"/>
-      <c r="L22" s="74" t="e">
-        <f>LOOKUP(K22,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="L22" s="74"/>
       <c r="M22" s="74"/>
       <c r="N22" s="75"/>
       <c r="O22" s="76"/>
-      <c r="P22" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="P22" s="75"/>
       <c r="Q22" s="74"/>
       <c r="R22" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="16">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AD22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AS22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AT22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AU22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AV22" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BA22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BB22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BE22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BF22" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BG22" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BH22" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="16"/>
+      <c r="AQ22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="16"/>
+      <c r="AX22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="16"/>
+      <c r="BB22" s="16"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="16"/>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="16"/>
+      <c r="BG22" s="16"/>
+      <c r="BH22" s="16"/>
     </row>
     <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="74"/>
+      <c r="A23" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="66">
+        <v>10</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="75">
+        <v>44504</v>
+      </c>
+      <c r="I23" s="74">
+        <v>1</v>
+      </c>
       <c r="J23" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44505</v>
       </c>
       <c r="K23" s="74"/>
       <c r="L23" s="74" t="e">
@@ -7376,14 +7450,13 @@
         <v>#N/A</v>
       </c>
       <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
+      <c r="N23" s="75"/>
       <c r="O23" s="76"/>
-      <c r="P23" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="P23" s="75"/>
       <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
+      <c r="R23" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S23" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -7426,7 +7499,7 @@
       </c>
       <c r="AC23" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD23" s="16">
         <f t="shared" si="9"/>
@@ -7553,312 +7626,306 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="65" t="s">
-        <v>142</v>
+    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="63" t="s">
+        <v>6</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="82"/>
       <c r="E24" s="14"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="75">
-        <v>44508</v>
-      </c>
-      <c r="I24" s="74">
-        <v>1</v>
-      </c>
-      <c r="J24" s="75"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
+      <c r="L24" s="74" t="e">
+        <f>LOOKUP(K24,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M24" s="74"/>
       <c r="N24" s="74"/>
       <c r="O24" s="76"/>
-      <c r="P24" s="75"/>
+      <c r="P24" s="75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q24" s="74"/>
       <c r="R24" s="74"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="16"/>
-      <c r="BE24" s="16"/>
-      <c r="BF24" s="16"/>
-      <c r="BG24" s="16"/>
-      <c r="BH24" s="16"/>
+      <c r="S24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV24" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AX24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BA24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BG24" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BH24" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="66">
-        <v>0.5</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="66"/>
       <c r="G25" s="74" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H25" s="75">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="I25" s="74">
         <v>1</v>
       </c>
-      <c r="J25" s="75">
-        <f t="shared" si="13"/>
-        <v>44511</v>
-      </c>
+      <c r="J25" s="75"/>
       <c r="K25" s="74"/>
-      <c r="L25" s="74" t="e">
-        <f>LOOKUP(K25,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="L25" s="74"/>
       <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
+      <c r="N25" s="74"/>
       <c r="O25" s="76"/>
-      <c r="P25" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="P25" s="75"/>
       <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="16">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AS25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AT25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AV25" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BA25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BB25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BC25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BE25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BF25" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BG25" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BH25" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="R25" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
+      <c r="BF25" s="16"/>
+      <c r="BG25" s="16"/>
+      <c r="BH25" s="16"/>
     </row>
     <row r="26" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="65" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="F26" s="66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H26" s="75">
         <v>44510</v>
@@ -7883,593 +7950,641 @@
         <v>0</v>
       </c>
       <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
+      <c r="R26" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S26" s="16">
-        <f t="shared" ref="S26:AB40" si="15">IF(AND(S$6&gt;=$N26,S$6&lt;$N26+$O26), 1, IF(AND(S$6&gt;=$H26,S$6&lt;$H26+$I26), 2, 0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AL40" si="16">IF(AND(AC$6&gt;=$N26,AC$6&lt;$N26+$O26), 1, IF(AND(AC$6&gt;=$H26,AC$6&lt;$H26+$I26), 2, 0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AJ26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL26" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM26" s="16">
-        <f t="shared" ref="AM26:AV40" si="17">IF(AND(AM$6&gt;=$N26,AM$6&lt;$N26+$O26), 1, IF(AND(AM$6&gt;=$H26,AM$6&lt;$H26+$I26), 2, 0))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AN26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AO26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AS26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AU26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AV26" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AW26" s="16">
-        <f t="shared" ref="AW26:BF40" si="18">IF(AND(AW$6&gt;=$N26,AW$6&lt;$N26+$O26), 1, IF(AND(AW$6&gt;=$H26,AW$6&lt;$H26+$I26), 2, 0))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AX26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AY26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AZ26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BB26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BC26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BD26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BE26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BF26" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BG26" s="16">
-        <f t="shared" ref="BG26:BH40" si="19">IF(AND(BG$6&gt;=$N26,BG$6&lt;$N26+$O26), 1, IF(AND(BG$6&gt;=$H26,BG$6&lt;$H26+$I26), 2, 0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BH26" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="66"/>
+        <v>125</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="66">
+        <v>1</v>
+      </c>
       <c r="G27" s="74" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H27" s="75">
-        <v>44508</v>
+        <v>44513</v>
       </c>
       <c r="I27" s="74">
         <v>2</v>
       </c>
       <c r="J27" s="75">
         <f t="shared" si="13"/>
-        <v>44510</v>
+        <v>44515</v>
       </c>
       <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
+      <c r="L27" s="74">
+        <v>10</v>
+      </c>
       <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
+      <c r="N27" s="75" t="s">
+        <v>183</v>
+      </c>
       <c r="O27" s="76"/>
-      <c r="P27" s="75"/>
+      <c r="P27" s="75" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="16">
+      <c r="R27" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" s="16" t="e">
+        <f t="shared" ref="S27:AB41" si="15">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB27" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC27" s="16" t="e">
+        <f t="shared" ref="AC27:AL41" si="16">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AH27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AI27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL27" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM27" s="16" t="e">
+        <f t="shared" ref="AM27:AV41" si="17">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AS27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AT27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV27" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AV27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AW27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW27" s="16" t="e">
+        <f t="shared" ref="AW27:BF41" si="18">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AX27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AY27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BB27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF27" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BF27" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BG27" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG27" s="16" t="e">
+        <f t="shared" ref="BG27:BH41" si="19">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH27" s="16" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BH27" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="53"/>
+        <v>128</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>198</v>
+      </c>
       <c r="F28" s="66"/>
       <c r="G28" s="74" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H28" s="75">
-        <v>44508</v>
+        <v>44511</v>
       </c>
       <c r="I28" s="74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="75">
-        <f t="shared" si="13"/>
-        <v>44509</v>
+        <v>44513</v>
       </c>
       <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
+      <c r="L28" s="74">
+        <v>10</v>
+      </c>
       <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
+      <c r="N28" s="75" t="s">
+        <v>184</v>
+      </c>
       <c r="O28" s="76"/>
-      <c r="P28" s="75"/>
+      <c r="P28" s="75" t="e">
+        <f>N28+O28</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="16">
+      <c r="R28" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB28" s="16" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AH28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL28" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AM28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AS28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AT28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AU28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AV28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV28" s="16" t="e">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AW28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AX28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AY28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BA28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BB28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BC28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BD28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BE28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BF28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF28" s="16" t="e">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BG28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG28" s="16" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BH28" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH28" s="16" t="e">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="53"/>
+        <v>126</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>191</v>
+      </c>
       <c r="F29" s="66"/>
       <c r="G29" s="74" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H29" s="75">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="I29" s="74">
-        <v>2</v>
-      </c>
-      <c r="J29" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="75">
+        <f t="shared" si="13"/>
+        <v>44509</v>
+      </c>
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
       <c r="M29" s="74"/>
@@ -8477,64 +8592,200 @@
       <c r="O29" s="76"/>
       <c r="P29" s="75"/>
       <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="16"/>
-      <c r="AO29" s="16"/>
-      <c r="AP29" s="16"/>
-      <c r="AQ29" s="16"/>
-      <c r="AR29" s="16"/>
-      <c r="AS29" s="16"/>
-      <c r="AT29" s="16"/>
-      <c r="AU29" s="16"/>
-      <c r="AV29" s="16"/>
-      <c r="AW29" s="16"/>
-      <c r="AX29" s="16"/>
-      <c r="AY29" s="16"/>
-      <c r="AZ29" s="16"/>
-      <c r="BA29" s="16"/>
-      <c r="BB29" s="16"/>
-      <c r="BC29" s="16"/>
-      <c r="BD29" s="16"/>
-      <c r="BE29" s="16"/>
-      <c r="BF29" s="16"/>
-      <c r="BG29" s="16"/>
-      <c r="BH29" s="16"/>
+      <c r="R29" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AH29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AS29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AX29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AY29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BA29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BB29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BH29" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="53"/>
+        <v>127</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>192</v>
+      </c>
       <c r="F30" s="66"/>
       <c r="G30" s="74" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H30" s="75">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="I30" s="74">
         <v>2</v>
@@ -8547,7 +8798,9 @@
       <c r="O30" s="76"/>
       <c r="P30" s="75"/>
       <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
+      <c r="R30" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
@@ -8593,31 +8846,54 @@
     </row>
     <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>194</v>
+      </c>
       <c r="F31" s="66"/>
       <c r="G31" s="74" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H31" s="75">
-        <v>44510</v>
+        <v>44508</v>
       </c>
       <c r="I31" s="74">
         <v>1</v>
       </c>
-      <c r="J31" s="75"/>
+      <c r="J31" s="75">
+        <v>44509</v>
+      </c>
       <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
+      <c r="L31" s="74">
+        <v>2</v>
+      </c>
       <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
+      <c r="N31" s="75">
+        <v>44508</v>
+      </c>
+      <c r="O31" s="76">
+        <v>1</v>
+      </c>
+      <c r="P31" s="75">
+        <f>N31+O31</f>
+        <v>44509</v>
+      </c>
+      <c r="Q31" s="74">
+        <v>2</v>
+      </c>
+      <c r="R31" s="74" t="s">
+        <v>58</v>
+      </c>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
@@ -8663,21 +8939,29 @@
     </row>
     <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="53"/>
+        <v>130</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>193</v>
+      </c>
       <c r="F32" s="66"/>
       <c r="G32" s="74" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H32" s="75">
         <v>44510</v>
       </c>
       <c r="I32" s="74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" s="75"/>
       <c r="K32" s="74"/>
@@ -8687,7 +8971,9 @@
       <c r="O32" s="76"/>
       <c r="P32" s="75"/>
       <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
+      <c r="R32" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
@@ -8733,31 +9019,54 @@
     </row>
     <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="53"/>
+        <v>132</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>195</v>
+      </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H33" s="75">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="I33" s="74">
         <v>1</v>
       </c>
-      <c r="J33" s="75"/>
+      <c r="J33" s="75">
+        <v>44510</v>
+      </c>
       <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
+      <c r="L33" s="74">
+        <v>2</v>
+      </c>
       <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
+      <c r="N33" s="75">
+        <v>44509</v>
+      </c>
+      <c r="O33" s="76">
+        <v>1</v>
+      </c>
+      <c r="P33" s="75">
+        <f>N33+O33</f>
+        <v>44510</v>
+      </c>
+      <c r="Q33" s="74">
+        <v>2</v>
+      </c>
+      <c r="R33" s="74" t="s">
+        <v>58</v>
+      </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
@@ -8801,9 +9110,9 @@
       <c r="BG33" s="16"/>
       <c r="BH33" s="16"/>
     </row>
-    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
-        <v>145</v>
+    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="65" t="s">
+        <v>133</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>21</v>
@@ -8812,225 +9121,106 @@
         <v>75</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="66">
-        <v>1.5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="66"/>
       <c r="G34" s="74" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H34" s="75">
-        <v>44512</v>
+        <v>44508</v>
       </c>
       <c r="I34" s="74">
         <v>1</v>
       </c>
-      <c r="J34" s="75">
-        <f t="shared" si="13"/>
-        <v>44513</v>
-      </c>
+      <c r="J34" s="75"/>
       <c r="K34" s="74"/>
-      <c r="L34" s="74" t="e">
-        <f>LOOKUP(K34,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="L34" s="74"/>
       <c r="M34" s="74"/>
       <c r="N34" s="75"/>
       <c r="O34" s="76"/>
-      <c r="P34" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="P34" s="75"/>
       <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="16">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AL34" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AM34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AP34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AS34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AT34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AU34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AV34" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AW34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AX34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AY34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BA34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BB34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BC34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BD34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BE34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BF34" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BG34" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BH34" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="R34" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16"/>
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="16"/>
+      <c r="AU34" s="16"/>
+      <c r="AV34" s="16"/>
+      <c r="AW34" s="16"/>
+      <c r="AX34" s="16"/>
+      <c r="AY34" s="16"/>
+      <c r="AZ34" s="16"/>
+      <c r="BA34" s="16"/>
+      <c r="BB34" s="16"/>
+      <c r="BC34" s="16"/>
+      <c r="BD34" s="16"/>
+      <c r="BE34" s="16"/>
+      <c r="BF34" s="16"/>
+      <c r="BG34" s="16"/>
+      <c r="BH34" s="16"/>
     </row>
     <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="74"/>
+      <c r="A35" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="75">
+        <v>44512</v>
+      </c>
+      <c r="I35" s="74">
+        <v>1</v>
+      </c>
       <c r="J35" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44513</v>
       </c>
       <c r="K35" s="74"/>
       <c r="L35" s="74" t="e">
@@ -9038,14 +9228,16 @@
         <v>#N/A</v>
       </c>
       <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
+      <c r="N35" s="75"/>
       <c r="O35" s="76"/>
       <c r="P35" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
+      <c r="R35" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S35" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9120,7 +9312,7 @@
       </c>
       <c r="AK35" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL35" s="16">
         <f t="shared" si="16"/>
@@ -9215,37 +9407,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="66">
-        <v>1</v>
-      </c>
-      <c r="G36" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="75">
-        <v>44515</v>
-      </c>
-      <c r="I36" s="74">
-        <v>3</v>
-      </c>
+    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="74"/>
       <c r="J36" s="75">
         <f t="shared" si="13"/>
-        <v>44518</v>
+        <v>0</v>
       </c>
       <c r="K36" s="74"/>
       <c r="L36" s="74" t="e">
@@ -9260,9 +9436,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="74"/>
-      <c r="R36" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R36" s="74"/>
       <c r="S36" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9349,15 +9523,15 @@
       </c>
       <c r="AN36" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="16">
         <f t="shared" si="17"/>
@@ -9434,35 +9608,31 @@
     </row>
     <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="65" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D37" s="82"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="66">
         <v>1</v>
       </c>
       <c r="G37" s="74" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H37" s="75">
         <v>44515</v>
       </c>
       <c r="I37" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" s="75">
         <f t="shared" si="13"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="K37" s="74"/>
       <c r="L37" s="74" t="e">
@@ -9570,11 +9740,11 @@
       </c>
       <c r="AO37" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP37" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ37" s="16">
         <f t="shared" si="17"/>
@@ -9651,35 +9821,31 @@
     </row>
     <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="65" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D38" s="82"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="74" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H38" s="75">
-        <v>44548</v>
+        <v>44515</v>
       </c>
       <c r="I38" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="75">
         <f t="shared" si="13"/>
-        <v>44550</v>
+        <v>44516</v>
       </c>
       <c r="K38" s="74"/>
       <c r="L38" s="74" t="e">
@@ -9783,7 +9949,7 @@
       </c>
       <c r="AN38" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO38" s="16">
         <f t="shared" si="17"/>
@@ -9868,7 +10034,7 @@
     </row>
     <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="65" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>19</v>
@@ -9876,27 +10042,23 @@
       <c r="C39" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="D39" s="82"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="66">
         <v>4</v>
       </c>
       <c r="G39" s="74" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H39" s="75">
-        <v>44515</v>
+        <v>44548</v>
       </c>
       <c r="I39" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="75">
         <f t="shared" si="13"/>
-        <v>44518</v>
+        <v>44550</v>
       </c>
       <c r="K39" s="74"/>
       <c r="L39" s="74" t="e">
@@ -10000,15 +10162,15 @@
       </c>
       <c r="AN39" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="16">
         <f t="shared" si="17"/>
@@ -10085,35 +10247,31 @@
     </row>
     <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="D40" s="82"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="66">
         <v>4</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H40" s="75">
         <v>44515</v>
       </c>
       <c r="I40" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" s="75">
         <f t="shared" si="13"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="K40" s="74"/>
       <c r="L40" s="74" t="e">
@@ -10221,11 +10379,11 @@
       </c>
       <c r="AO40" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP40" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ40" s="16">
         <f t="shared" si="17"/>
@@ -10302,7 +10460,7 @@
     </row>
     <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="65" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>20</v>
@@ -10310,27 +10468,23 @@
       <c r="C41" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="D41" s="82"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="66">
         <v>4</v>
       </c>
       <c r="G41" s="74" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H41" s="75">
-        <v>44548</v>
+        <v>44515</v>
       </c>
       <c r="I41" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="75">
         <f t="shared" si="13"/>
-        <v>44550</v>
+        <v>44516</v>
       </c>
       <c r="K41" s="74"/>
       <c r="L41" s="74" t="e">
@@ -10349,205 +10503,201 @@
         <v>56</v>
       </c>
       <c r="S41" s="16">
-        <f t="shared" ref="S41:AB50" si="20">IF(AND(S$6&gt;=$N41,S$6&lt;$N41+$O41), 1, IF(AND(S$6&gt;=$H41,S$6&lt;$H41+$I41), 2, 0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB41" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC41" s="16">
-        <f t="shared" ref="AC41:AL50" si="21">IF(AND(AC$6&gt;=$N41,AC$6&lt;$N41+$O41), 1, IF(AND(AC$6&gt;=$H41,AC$6&lt;$H41+$I41), 2, 0))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AL41" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM41" s="16">
-        <f t="shared" ref="AM41:AV50" si="22">IF(AND(AM$6&gt;=$N41,AM$6&lt;$N41+$O41), 1, IF(AND(AM$6&gt;=$H41,AM$6&lt;$H41+$I41), 2, 0))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AO41" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP41" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR41" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS41" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT41" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU41" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV41" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW41" s="16">
-        <f t="shared" ref="AW41:BF50" si="23">IF(AND(AW$6&gt;=$N41,AW$6&lt;$N41+$O41), 1, IF(AND(AW$6&gt;=$H41,AW$6&lt;$H41+$I41), 2, 0))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AY41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BA41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BB41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BC41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BE41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF41" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BG41" s="16">
-        <f t="shared" ref="BG41:BH50" si="24">IF(AND(BG$6&gt;=$N41,BG$6&lt;$N41+$O41), 1, IF(AND(BG$6&gt;=$H41,BG$6&lt;$H41+$I41), 2, 0))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BH41" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="64" t="s">
-        <v>152</v>
+    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="65" t="s">
+        <v>140</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D42" s="82"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H42" s="75">
-        <v>44515</v>
+        <v>44548</v>
       </c>
       <c r="I42" s="74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" s="75">
         <f t="shared" si="13"/>
-        <v>44519</v>
+        <v>44550</v>
       </c>
       <c r="K42" s="74"/>
       <c r="L42" s="74" t="e">
@@ -10566,7 +10716,7 @@
         <v>56</v>
       </c>
       <c r="S42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="S42:AB51" si="20">IF(AND(S$6&gt;=$N42,S$6&lt;$N42+$O42), 1, IF(AND(S$6&gt;=$H42,S$6&lt;$H42+$I42), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T42" s="16">
@@ -10606,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AC42:AL51" si="21">IF(AND(AC$6&gt;=$N42,AC$6&lt;$N42+$O42), 1, IF(AND(AC$6&gt;=$H42,AC$6&lt;$H42+$I42), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD42" s="16">
@@ -10646,24 +10796,24 @@
         <v>0</v>
       </c>
       <c r="AM42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AM42:AV51" si="22">IF(AND(AM$6&gt;=$N42,AM$6&lt;$N42+$O42), 1, IF(AND(AM$6&gt;=$H42,AM$6&lt;$H42+$I42), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN42" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ42" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="16">
         <f t="shared" si="22"/>
@@ -10686,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="AW42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AW42:BF51" si="23">IF(AND(AW$6&gt;=$N42,AW$6&lt;$N42+$O42), 1, IF(AND(AW$6&gt;=$H42,AW$6&lt;$H42+$I42), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX42" s="16">
@@ -10726,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="BG42:BH51" si="24">IF(AND(BG$6&gt;=$N42,BG$6&lt;$N42+$O42), 1, IF(AND(BG$6&gt;=$H42,BG$6&lt;$H42+$I42), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH42" s="16">
@@ -10735,20 +10885,32 @@
       </c>
     </row>
     <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="D43" s="82"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="74"/>
+      <c r="F43" s="66">
+        <v>1</v>
+      </c>
+      <c r="G43" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="75">
+        <v>44515</v>
+      </c>
+      <c r="I43" s="74">
+        <v>4</v>
+      </c>
       <c r="J43" s="75">
-        <f t="shared" ref="J43" si="25">H43 +I43</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>44519</v>
       </c>
       <c r="K43" s="74"/>
       <c r="L43" s="74" t="e">
@@ -10759,11 +10921,13 @@
       <c r="N43" s="74"/>
       <c r="O43" s="76"/>
       <c r="P43" s="75">
-        <f t="shared" ref="P43" si="26">N43+O43</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
+      <c r="R43" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S43" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -10850,19 +11014,19 @@
       </c>
       <c r="AN43" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO43" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP43" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ43" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR43" s="16">
         <f t="shared" si="22"/>
@@ -10933,37 +11097,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="66">
-        <v>8</v>
-      </c>
-      <c r="G44" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" s="75">
-        <v>44522</v>
-      </c>
-      <c r="I44" s="74">
-        <v>2</v>
-      </c>
+    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="74"/>
       <c r="J44" s="75">
-        <f t="shared" si="13"/>
-        <v>44524</v>
+        <f t="shared" ref="J44" si="25">H44 +I44</f>
+        <v>0</v>
       </c>
       <c r="K44" s="74"/>
       <c r="L44" s="74" t="e">
@@ -10974,13 +11122,11 @@
       <c r="N44" s="74"/>
       <c r="O44" s="76"/>
       <c r="P44" s="75">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P44" si="26">N44+O44</f>
         <v>0</v>
       </c>
       <c r="Q44" s="74"/>
-      <c r="R44" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R44" s="74"/>
       <c r="S44" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -11095,11 +11241,11 @@
       </c>
       <c r="AU44" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="16">
         <f t="shared" si="23"/>
@@ -11152,35 +11298,31 @@
     </row>
     <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="65" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D45" s="82"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="66">
         <v>8</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H45" s="75">
         <v>44522</v>
       </c>
       <c r="I45" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="75">
         <f t="shared" si="13"/>
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="K45" s="74"/>
       <c r="L45" s="74" t="e">
@@ -11320,7 +11462,7 @@
       </c>
       <c r="AW45" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="16">
         <f t="shared" si="23"/>
@@ -11369,7 +11511,7 @@
     </row>
     <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="65" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>21</v>
@@ -11377,27 +11519,23 @@
       <c r="C46" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="D46" s="82"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="66">
         <v>8</v>
       </c>
       <c r="G46" s="74" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H46" s="75">
         <v>44522</v>
       </c>
       <c r="I46" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="75">
         <f t="shared" si="13"/>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="K46" s="74"/>
       <c r="L46" s="74" t="e">
@@ -11533,11 +11671,11 @@
       </c>
       <c r="AV46" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW46" s="16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX46" s="16">
         <f t="shared" si="23"/>
@@ -11586,7 +11724,7 @@
     </row>
     <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="65" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>21</v>
@@ -11594,17 +11732,13 @@
       <c r="C47" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="D47" s="82"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G47" s="74" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H47" s="75">
         <v>44522</v>
@@ -11801,21 +11935,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="14"/>
+    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="82"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="74"/>
+      <c r="F48" s="66">
+        <v>1</v>
+      </c>
+      <c r="G48" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="75">
+        <v>44522</v>
+      </c>
+      <c r="I48" s="74">
+        <v>1</v>
+      </c>
       <c r="J48" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44523</v>
       </c>
       <c r="K48" s="74"/>
       <c r="L48" s="74" t="e">
@@ -11830,7 +11976,9 @@
         <v>0</v>
       </c>
       <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
+      <c r="R48" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S48" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -11945,7 +12093,7 @@
       </c>
       <c r="AU48" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV48" s="16">
         <f t="shared" si="22"/>
@@ -12000,37 +12148,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="66">
-        <v>4</v>
-      </c>
-      <c r="G49" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" s="75">
-        <v>44529</v>
-      </c>
-      <c r="I49" s="74">
-        <v>4</v>
-      </c>
+    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="75">
         <f t="shared" si="13"/>
-        <v>44533</v>
+        <v>0</v>
       </c>
       <c r="K49" s="74"/>
       <c r="L49" s="74" t="e">
@@ -12045,9 +12177,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="74"/>
-      <c r="R49" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R49" s="74"/>
       <c r="S49" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -12190,19 +12320,19 @@
       </c>
       <c r="BB49" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC49" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD49" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE49" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF49" s="16">
         <f t="shared" si="23"/>
@@ -12219,25 +12349,21 @@
     </row>
     <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="65" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C50" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="66">
         <v>4</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H50" s="75">
         <v>44529</v>
@@ -12434,243 +12560,255 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="61"/>
+    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="65" t="s">
+        <v>147</v>
+      </c>
       <c r="B51" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="14">
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="66">
         <v>4</v>
       </c>
-      <c r="G51" s="61"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="67">
+      <c r="G51" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="75">
+        <v>44529</v>
+      </c>
+      <c r="I51" s="74">
+        <v>4</v>
+      </c>
+      <c r="J51" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61" t="e">
+        <v>44533</v>
+      </c>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74" t="e">
         <f>LOOKUP(K51,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="67">
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S51" s="16">
-        <f t="shared" ref="S51:AB60" si="27">IF(AND(S$6&gt;=$N51,S$6&lt;$N51+$O51), 1, IF(AND(S$6&gt;=$H51,S$6&lt;$H51+$I51), 2, 0))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB51" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC51" s="16">
-        <f t="shared" ref="AC51:AL60" si="28">IF(AND(AC$6&gt;=$N51,AC$6&lt;$N51+$O51), 1, IF(AND(AC$6&gt;=$H51,AC$6&lt;$H51+$I51), 2, 0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AD51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AE51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AF51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AH51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AI51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AL51" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM51" s="16">
-        <f t="shared" ref="AM51:AV60" si="29">IF(AND(AM$6&gt;=$N51,AM$6&lt;$N51+$O51), 1, IF(AND(AM$6&gt;=$H51,AM$6&lt;$H51+$I51), 2, 0))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AN51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AO51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AQ51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AT51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AU51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AV51" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AW51" s="16">
-        <f t="shared" ref="AW51:BF60" si="30">IF(AND(AW$6&gt;=$N51,AW$6&lt;$N51+$O51), 1, IF(AND(AW$6&gt;=$H51,AW$6&lt;$H51+$I51), 2, 0))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AX51" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AY51" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AZ51" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BA51" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BB51" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BC51" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BD51" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BE51" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BF51" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BG51" s="16">
-        <f t="shared" ref="BG51:BH60" si="31">IF(AND(BG$6&gt;=$N51,BG$6&lt;$N51+$O51), 1, IF(AND(BG$6&gt;=$H51,BG$6&lt;$H51+$I51), 2, 0))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BH51" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="14"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="39"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15">
+      <c r="F52" s="14">
+        <v>4</v>
+      </c>
+      <c r="G52" s="61"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14" t="e">
+      <c r="K52" s="61"/>
+      <c r="L52" s="61" t="e">
         <f>LOOKUP(K52,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="15">
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="67">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
       <c r="S52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="S52:AB61" si="27">IF(AND(S$6&gt;=$N52,S$6&lt;$N52+$O52), 1, IF(AND(S$6&gt;=$H52,S$6&lt;$H52+$I52), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T52" s="16">
@@ -12710,7 +12848,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AC52:AL61" si="28">IF(AND(AC$6&gt;=$N52,AC$6&lt;$N52+$O52), 1, IF(AND(AC$6&gt;=$H52,AC$6&lt;$H52+$I52), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD52" s="16">
@@ -12750,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AM52:AV61" si="29">IF(AND(AM$6&gt;=$N52,AM$6&lt;$N52+$O52), 1, IF(AND(AM$6&gt;=$H52,AM$6&lt;$H52+$I52), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN52" s="16">
@@ -12790,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="AW52" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AW52:BF61" si="30">IF(AND(AW$6&gt;=$N52,AW$6&lt;$N52+$O52), 1, IF(AND(AW$6&gt;=$H52,AW$6&lt;$H52+$I52), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX52" s="16">
@@ -12830,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="BG52:BH61" si="31">IF(AND(BG$6&gt;=$N52,BG$6&lt;$N52+$O52), 1, IF(AND(BG$6&gt;=$H52,BG$6&lt;$H52+$I52), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH52" s="16">
@@ -14443,171 +14581,171 @@
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
       <c r="S61" s="16">
-        <f t="shared" ref="S61:AB70" si="32">IF(AND(S$6&gt;=$N61,S$6&lt;$N61+$O61), 1, IF(AND(S$6&gt;=$H61,S$6&lt;$H61+$I61), 2, 0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB61" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC61" s="16">
-        <f t="shared" ref="AC61:AL70" si="33">IF(AND(AC$6&gt;=$N61,AC$6&lt;$N61+$O61), 1, IF(AND(AC$6&gt;=$H61,AC$6&lt;$H61+$I61), 2, 0))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AH61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AI61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL61" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AM61" s="16">
-        <f t="shared" ref="AM61:AV70" si="34">IF(AND(AM$6&gt;=$N61,AM$6&lt;$N61+$O61), 1, IF(AND(AM$6&gt;=$H61,AM$6&lt;$H61+$I61), 2, 0))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AO61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AR61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AS61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AT61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AU61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AV61" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AW61" s="16">
-        <f t="shared" ref="AW61:BF70" si="35">IF(AND(AW$6&gt;=$N61,AW$6&lt;$N61+$O61), 1, IF(AND(AW$6&gt;=$H61,AW$6&lt;$H61+$I61), 2, 0))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AX61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AY61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AZ61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BA61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BB61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BC61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BD61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BE61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BG61" s="16">
-        <f t="shared" ref="BG61:BH70" si="36">IF(AND(BG$6&gt;=$N61,BG$6&lt;$N61+$O61), 1, IF(AND(BG$6&gt;=$H61,BG$6&lt;$H61+$I61), 2, 0))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BH61" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -14640,7 +14778,7 @@
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
       <c r="S62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="S62:AB71" si="32">IF(AND(S$6&gt;=$N62,S$6&lt;$N62+$O62), 1, IF(AND(S$6&gt;=$H62,S$6&lt;$H62+$I62), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T62" s="16">
@@ -14680,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AC62:AL71" si="33">IF(AND(AC$6&gt;=$N62,AC$6&lt;$N62+$O62), 1, IF(AND(AC$6&gt;=$H62,AC$6&lt;$H62+$I62), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD62" s="16">
@@ -14720,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="AM62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AM62:AV71" si="34">IF(AND(AM$6&gt;=$N62,AM$6&lt;$N62+$O62), 1, IF(AND(AM$6&gt;=$H62,AM$6&lt;$H62+$I62), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN62" s="16">
@@ -14760,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="AW62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AW62:BF71" si="35">IF(AND(AW$6&gt;=$N62,AW$6&lt;$N62+$O62), 1, IF(AND(AW$6&gt;=$H62,AW$6&lt;$H62+$I62), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX62" s="16">
@@ -14800,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="BG62" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="BG62:BH71" si="36">IF(AND(BG$6&gt;=$N62,BG$6&lt;$N62+$O62), 1, IF(AND(BG$6&gt;=$H62,BG$6&lt;$H62+$I62), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH62" s="16">
@@ -16413,171 +16551,171 @@
       <c r="Q71" s="14"/>
       <c r="R71" s="14"/>
       <c r="S71" s="16">
-        <f t="shared" ref="S71:AB80" si="37">IF(AND(S$6&gt;=$N71,S$6&lt;$N71+$O71), 1, IF(AND(S$6&gt;=$H71,S$6&lt;$H71+$I71), 2, 0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB71" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" ref="AC71:AL80" si="38">IF(AND(AC$6&gt;=$N71,AC$6&lt;$N71+$O71), 1, IF(AND(AC$6&gt;=$H71,AC$6&lt;$H71+$I71), 2, 0))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AE71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AG71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AJ71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AL71" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AM71" s="16">
-        <f t="shared" ref="AM71:AV80" si="39">IF(AND(AM$6&gt;=$N71,AM$6&lt;$N71+$O71), 1, IF(AND(AM$6&gt;=$H71,AM$6&lt;$H71+$I71), 2, 0))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AN71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AO71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AP71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AQ71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AR71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AS71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AT71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AU71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AV71" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AW71" s="16">
-        <f t="shared" ref="AW71:BF80" si="40">IF(AND(AW$6&gt;=$N71,AW$6&lt;$N71+$O71), 1, IF(AND(AW$6&gt;=$H71,AW$6&lt;$H71+$I71), 2, 0))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AX71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AY71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AZ71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BA71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BB71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BC71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BD71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BE71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BF71" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BG71" s="16">
-        <f t="shared" ref="BG71:BH80" si="41">IF(AND(BG$6&gt;=$N71,BG$6&lt;$N71+$O71), 1, IF(AND(BG$6&gt;=$H71,BG$6&lt;$H71+$I71), 2, 0))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BH71" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -16610,7 +16748,7 @@
       <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
       <c r="S72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="S72:AB81" si="37">IF(AND(S$6&gt;=$N72,S$6&lt;$N72+$O72), 1, IF(AND(S$6&gt;=$H72,S$6&lt;$H72+$I72), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T72" s="16">
@@ -16650,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AC72:AL81" si="38">IF(AND(AC$6&gt;=$N72,AC$6&lt;$N72+$O72), 1, IF(AND(AC$6&gt;=$H72,AC$6&lt;$H72+$I72), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD72" s="16">
@@ -16690,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="AM72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="AM72:AV81" si="39">IF(AND(AM$6&gt;=$N72,AM$6&lt;$N72+$O72), 1, IF(AND(AM$6&gt;=$H72,AM$6&lt;$H72+$I72), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN72" s="16">
@@ -16730,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="AW72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AW72:BF81" si="40">IF(AND(AW$6&gt;=$N72,AW$6&lt;$N72+$O72), 1, IF(AND(AW$6&gt;=$H72,AW$6&lt;$H72+$I72), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX72" s="16">
@@ -16770,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="BG72" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="BG72:BH81" si="41">IF(AND(BG$6&gt;=$N72,BG$6&lt;$N72+$O72), 1, IF(AND(BG$6&gt;=$H72,BG$6&lt;$H72+$I72), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH72" s="16">
@@ -18383,171 +18521,171 @@
       <c r="Q81" s="14"/>
       <c r="R81" s="14"/>
       <c r="S81" s="16">
-        <f t="shared" ref="S81:AB90" si="42">IF(AND(S$6&gt;=$N81,S$6&lt;$N81+$O81), 1, IF(AND(S$6&gt;=$H81,S$6&lt;$H81+$I81), 2, 0))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB81" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC81" s="16">
-        <f t="shared" ref="AC81:AL90" si="43">IF(AND(AC$6&gt;=$N81,AC$6&lt;$N81+$O81), 1, IF(AND(AC$6&gt;=$H81,AC$6&lt;$H81+$I81), 2, 0))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AE81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AF81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AG81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AI81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AJ81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AL81" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AM81" s="16">
-        <f t="shared" ref="AM81:AV90" si="44">IF(AND(AM$6&gt;=$N81,AM$6&lt;$N81+$O81), 1, IF(AND(AM$6&gt;=$H81,AM$6&lt;$H81+$I81), 2, 0))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AR81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AS81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AT81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AU81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AV81" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AW81" s="16">
-        <f t="shared" ref="AW81:BF90" si="45">IF(AND(AW$6&gt;=$N81,AW$6&lt;$N81+$O81), 1, IF(AND(AW$6&gt;=$H81,AW$6&lt;$H81+$I81), 2, 0))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AX81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AY81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AZ81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BA81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BB81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BC81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BD81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BE81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BF81" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BG81" s="16">
-        <f t="shared" ref="BG81:BH90" si="46">IF(AND(BG$6&gt;=$N81,BG$6&lt;$N81+$O81), 1, IF(AND(BG$6&gt;=$H81,BG$6&lt;$H81+$I81), 2, 0))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="BH81" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -18580,7 +18718,7 @@
       <c r="Q82" s="14"/>
       <c r="R82" s="14"/>
       <c r="S82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="S82:AB91" si="42">IF(AND(S$6&gt;=$N82,S$6&lt;$N82+$O82), 1, IF(AND(S$6&gt;=$H82,S$6&lt;$H82+$I82), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T82" s="16">
@@ -18620,7 +18758,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AC82:AL91" si="43">IF(AND(AC$6&gt;=$N82,AC$6&lt;$N82+$O82), 1, IF(AND(AC$6&gt;=$H82,AC$6&lt;$H82+$I82), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD82" s="16">
@@ -18660,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="AM82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="AM82:AV91" si="44">IF(AND(AM$6&gt;=$N82,AM$6&lt;$N82+$O82), 1, IF(AND(AM$6&gt;=$H82,AM$6&lt;$H82+$I82), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN82" s="16">
@@ -18700,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="AW82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="AW82:BF91" si="45">IF(AND(AW$6&gt;=$N82,AW$6&lt;$N82+$O82), 1, IF(AND(AW$6&gt;=$H82,AW$6&lt;$H82+$I82), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX82" s="16">
@@ -18740,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="BG82" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="BG82:BH91" si="46">IF(AND(BG$6&gt;=$N82,BG$6&lt;$N82+$O82), 1, IF(AND(BG$6&gt;=$H82,BG$6&lt;$H82+$I82), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH82" s="16">
@@ -19547,7 +19685,7 @@
       <c r="H87" s="15"/>
       <c r="I87" s="14"/>
       <c r="J87" s="15">
-        <f t="shared" ref="J87:J114" si="47">H87 +I87</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K87" s="14"/>
@@ -19559,7 +19697,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="17"/>
       <c r="P87" s="15">
-        <f t="shared" ref="P87:P114" si="48">N87+O87</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q87" s="14"/>
@@ -19744,7 +19882,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="J88:J115" si="47">H88 +I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="14"/>
@@ -19756,7 +19894,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="17"/>
       <c r="P88" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="P88:P115" si="48">N88+O88</f>
         <v>0</v>
       </c>
       <c r="Q88" s="14"/>
@@ -20353,171 +20491,171 @@
       <c r="Q91" s="14"/>
       <c r="R91" s="14"/>
       <c r="S91" s="16">
-        <f t="shared" ref="S91:AB100" si="49">IF(AND(S$6&gt;=$N91,S$6&lt;$N91+$O91), 1, IF(AND(S$6&gt;=$H91,S$6&lt;$H91+$I91), 2, 0))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB91" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" ref="AC91:AL100" si="50">IF(AND(AC$6&gt;=$N91,AC$6&lt;$N91+$O91), 1, IF(AND(AC$6&gt;=$H91,AC$6&lt;$H91+$I91), 2, 0))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AD91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AE91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AF91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AJ91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AK91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AL91" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM91" s="16">
-        <f t="shared" ref="AM91:AV100" si="51">IF(AND(AM$6&gt;=$N91,AM$6&lt;$N91+$O91), 1, IF(AND(AM$6&gt;=$H91,AM$6&lt;$H91+$I91), 2, 0))</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AO91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AP91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AQ91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AR91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AS91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AV91" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW91" s="16">
-        <f t="shared" ref="AW91:BF100" si="52">IF(AND(AW$6&gt;=$N91,AW$6&lt;$N91+$O91), 1, IF(AND(AW$6&gt;=$H91,AW$6&lt;$H91+$I91), 2, 0))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AY91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AZ91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BA91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BB91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BC91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BD91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BE91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BF91" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BG91" s="16">
-        <f t="shared" ref="BG91:BH100" si="53">IF(AND(BG$6&gt;=$N91,BG$6&lt;$N91+$O91), 1, IF(AND(BG$6&gt;=$H91,BG$6&lt;$H91+$I91), 2, 0))</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="BH91" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -20550,7 +20688,7 @@
       <c r="Q92" s="14"/>
       <c r="R92" s="14"/>
       <c r="S92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="S92:AB101" si="49">IF(AND(S$6&gt;=$N92,S$6&lt;$N92+$O92), 1, IF(AND(S$6&gt;=$H92,S$6&lt;$H92+$I92), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T92" s="16">
@@ -20590,7 +20728,7 @@
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="AC92:AL101" si="50">IF(AND(AC$6&gt;=$N92,AC$6&lt;$N92+$O92), 1, IF(AND(AC$6&gt;=$H92,AC$6&lt;$H92+$I92), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD92" s="16">
@@ -20630,7 +20768,7 @@
         <v>0</v>
       </c>
       <c r="AM92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AM92:AV101" si="51">IF(AND(AM$6&gt;=$N92,AM$6&lt;$N92+$O92), 1, IF(AND(AM$6&gt;=$H92,AM$6&lt;$H92+$I92), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN92" s="16">
@@ -20670,7 +20808,7 @@
         <v>0</v>
       </c>
       <c r="AW92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AW92:BF101" si="52">IF(AND(AW$6&gt;=$N92,AW$6&lt;$N92+$O92), 1, IF(AND(AW$6&gt;=$H92,AW$6&lt;$H92+$I92), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX92" s="16">
@@ -20710,7 +20848,7 @@
         <v>0</v>
       </c>
       <c r="BG92" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="BG92:BH101" si="53">IF(AND(BG$6&gt;=$N92,BG$6&lt;$N92+$O92), 1, IF(AND(BG$6&gt;=$H92,BG$6&lt;$H92+$I92), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH92" s="16">
@@ -22323,171 +22461,171 @@
       <c r="Q101" s="14"/>
       <c r="R101" s="14"/>
       <c r="S101" s="16">
-        <f t="shared" ref="S101:AB114" si="54">IF(AND(S$6&gt;=$N101,S$6&lt;$N101+$O101), 1, IF(AND(S$6&gt;=$H101,S$6&lt;$H101+$I101), 2, 0))</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AA101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AB101" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AC101" s="16">
-        <f t="shared" ref="AC101:AL114" si="55">IF(AND(AC$6&gt;=$N101,AC$6&lt;$N101+$O101), 1, IF(AND(AC$6&gt;=$H101,AC$6&lt;$H101+$I101), 2, 0))</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AE101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AF101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AH101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AI101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AJ101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AK101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AL101" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AM101" s="16">
-        <f t="shared" ref="AM101:AV114" si="56">IF(AND(AM$6&gt;=$N101,AM$6&lt;$N101+$O101), 1, IF(AND(AM$6&gt;=$H101,AM$6&lt;$H101+$I101), 2, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AN101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AO101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AP101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AQ101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AR101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AS101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AT101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AU101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AV101" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AW101" s="16">
-        <f t="shared" ref="AW101:BF114" si="57">IF(AND(AW$6&gt;=$N101,AW$6&lt;$N101+$O101), 1, IF(AND(AW$6&gt;=$H101,AW$6&lt;$H101+$I101), 2, 0))</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AX101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AY101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AZ101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BA101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BB101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BC101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BD101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BE101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BF101" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BG101" s="16">
-        <f t="shared" ref="BG101:BH114" si="58">IF(AND(BG$6&gt;=$N101,BG$6&lt;$N101+$O101), 1, IF(AND(BG$6&gt;=$H101,BG$6&lt;$H101+$I101), 2, 0))</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BH101" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -22520,7 +22658,7 @@
       <c r="Q102" s="14"/>
       <c r="R102" s="14"/>
       <c r="S102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="S102:AB115" si="54">IF(AND(S$6&gt;=$N102,S$6&lt;$N102+$O102), 1, IF(AND(S$6&gt;=$H102,S$6&lt;$H102+$I102), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T102" s="16">
@@ -22560,7 +22698,7 @@
         <v>0</v>
       </c>
       <c r="AC102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AC102:AL115" si="55">IF(AND(AC$6&gt;=$N102,AC$6&lt;$N102+$O102), 1, IF(AND(AC$6&gt;=$H102,AC$6&lt;$H102+$I102), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD102" s="16">
@@ -22600,7 +22738,7 @@
         <v>0</v>
       </c>
       <c r="AM102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="AM102:AV115" si="56">IF(AND(AM$6&gt;=$N102,AM$6&lt;$N102+$O102), 1, IF(AND(AM$6&gt;=$H102,AM$6&lt;$H102+$I102), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN102" s="16">
@@ -22640,7 +22778,7 @@
         <v>0</v>
       </c>
       <c r="AW102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="AW102:BF115" si="57">IF(AND(AW$6&gt;=$N102,AW$6&lt;$N102+$O102), 1, IF(AND(AW$6&gt;=$H102,AW$6&lt;$H102+$I102), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX102" s="16">
@@ -22680,7 +22818,7 @@
         <v>0</v>
       </c>
       <c r="BG102" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="BG102:BH115" si="58">IF(AND(BG$6&gt;=$N102,BG$6&lt;$N102+$O102), 1, IF(AND(BG$6&gt;=$H102,BG$6&lt;$H102+$I102), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH102" s="16">
@@ -24869,6 +25007,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
+      <c r="K114" s="14"/>
       <c r="L114" s="14" t="e">
         <f>LOOKUP(K114,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
@@ -25047,6 +25186,202 @@
         <v>0</v>
       </c>
       <c r="BH114" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="14"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="15">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="14" t="e">
+        <f>LOOKUP(K115,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="14"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AA115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AB115" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AC115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AG115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AH115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AI115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AJ115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AL115" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AM115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AN115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AO115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AP115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AQ115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AR115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AS115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AT115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AU115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AV115" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AW115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AX115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AY115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AZ115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BA115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BB115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BC115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BD115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BE115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BF115" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BG115" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BH115" s="16">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -25078,352 +25413,372 @@
     <mergeCell ref="S5:Y5"/>
     <mergeCell ref="P6:P7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A17 A22:A23 A34:A35 D26:F27 D29:F31 D28:J28 H26:J27 H29:J31 A42 D32:J36 D37:F42 H37:J42 L12:BH42 L44:BH47 A51:A114 D44:F45 D51:J114 D47:F47 H44:J45 D46:J46 H47:J47 L49:BH114 D49:F50 H49:J50 D8:J25">
-    <cfRule type="expression" dxfId="184" priority="71" stopIfTrue="1">
+  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A35:A36 D27:F27 A43 D38:F43 H38:J43 L45:BH48 A52:A115 D45:F46 D52:J115 D48:F48 H45:J46 D47:J47 H48:J48 L50:BH115 D50:F51 H50:J51 D8:J26 H30:J33 H27:J28 L12:BH43 D34:J37 E28:F28 F29:J29 F30 D29:D31 D31:F33">
+    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH42 S44:BH47 S49:BH114">
-    <cfRule type="expression" dxfId="183" priority="69">
+  <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
+    <cfRule type="expression" dxfId="181" priority="73">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="70">
+    <cfRule type="expression" dxfId="180" priority="74">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH25 S28:BH28 S31:BH42 S44:BH47 S49:BH114">
-    <cfRule type="expression" dxfId="181" priority="74" stopIfTrue="1">
+  <conditionalFormatting sqref="S8:BH26 S29:BH29 S32:BH43 S45:BH48 S50:BH115">
+    <cfRule type="expression" dxfId="179" priority="78" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="180" priority="84" stopIfTrue="1">
+  <conditionalFormatting sqref="S15:S16">
+    <cfRule type="expression" dxfId="178" priority="88" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH42 S44:BH47 S49:BH114">
-    <cfRule type="cellIs" dxfId="179" priority="83" operator="equal">
+  <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
+    <cfRule type="cellIs" dxfId="177" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH42 S44:BH47 S49:BH114">
-    <cfRule type="cellIs" dxfId="178" priority="82" operator="equal">
+  <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
+    <cfRule type="cellIs" dxfId="176" priority="86" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH42 S44:BH47 S49:BH114">
-    <cfRule type="cellIs" dxfId="177" priority="76" operator="equal">
+  <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
+    <cfRule type="cellIs" dxfId="175" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B44:C47 B49:C114 B13:C16 B23:C42 B19:C20 B17:B22">
-    <cfRule type="containsText" dxfId="176" priority="59" operator="containsText" text="Bug Fix">
+  <conditionalFormatting sqref="B11:C11 B45:C48 B50:C115 B13:C17 B24:C43 B20:C21 B18:B23">
+    <cfRule type="containsText" dxfId="174" priority="63" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="60" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="173" priority="64" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="61" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="172" priority="65" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="62" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="171" priority="66" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="63" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="170" priority="67" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10 K13:K16 K22 K25 K34:K35 K37:K38 K40:K42 K44:K47 K49:K113">
-    <cfRule type="expression" dxfId="171" priority="86" stopIfTrue="1">
+  <conditionalFormatting sqref="Q10 K23 K26 K35:K36 K38:K39 K41:K43 K45:K48 K50:K114 K13:K14 K17">
+    <cfRule type="expression" dxfId="169" priority="90" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="containsText" dxfId="170" priority="54" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="55" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="56" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="57" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="58" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="containsText" dxfId="165" priority="49" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="163" priority="53" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="50" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="162" priority="54" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="51" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="161" priority="55" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="52" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="160" priority="56" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="53" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="159" priority="57" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10 K8 K20 K32:K33">
-    <cfRule type="expression" dxfId="160" priority="87" stopIfTrue="1">
+  <conditionalFormatting sqref="K10 K8 K21 K33:K34">
+    <cfRule type="expression" dxfId="158" priority="91" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12 K23:K24">
-    <cfRule type="expression" dxfId="159" priority="89" stopIfTrue="1">
+  <conditionalFormatting sqref="K11:K12 K24:K25 K15:K16">
+    <cfRule type="expression" dxfId="157" priority="93" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9 K19 K21 K31">
-    <cfRule type="expression" dxfId="158" priority="92" stopIfTrue="1">
+  <conditionalFormatting sqref="K9 K20 K22 K32">
+    <cfRule type="expression" dxfId="156" priority="96" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="157" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="52" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K18 K30">
-    <cfRule type="expression" dxfId="156" priority="95" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A22)=1</formula>
+  <conditionalFormatting sqref="K18:K19 K31">
+    <cfRule type="expression" dxfId="154" priority="99" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A23)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="155" priority="96" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A35)=1</formula>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="expression" dxfId="153" priority="100" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A36)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27 G30:G31 G41">
-    <cfRule type="expression" dxfId="154" priority="98" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A26)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:BH29 S26:BH26">
-    <cfRule type="expression" dxfId="153" priority="100" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G27)=1</formula>
+  <conditionalFormatting sqref="G28 G42 G31:G32">
+    <cfRule type="expression" dxfId="152" priority="102" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:BH30 S27:BH27">
-    <cfRule type="expression" dxfId="152" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="104" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$G28)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31:BH31 S28:BH28">
+    <cfRule type="expression" dxfId="150" priority="105" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="151" priority="47" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A29)=1</formula>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="expression" dxfId="149" priority="51" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A30)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K27">
-    <cfRule type="expression" dxfId="150" priority="102" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A34)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="149" priority="46" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A25)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="K27:K28">
     <cfRule type="expression" dxfId="148" priority="106" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A35)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39 G42">
-    <cfRule type="expression" dxfId="147" priority="44" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A39)=1</formula>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="146" priority="45" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A37)=1</formula>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="expression" dxfId="146" priority="110" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A36)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37 G40">
-    <cfRule type="expression" dxfId="145" priority="42" stopIfTrue="1">
+  <conditionalFormatting sqref="G40 G43">
+    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A40)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="expression" dxfId="144" priority="49" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A38)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38 G41">
+    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36 K39">
-    <cfRule type="expression" dxfId="144" priority="137" stopIfTrue="1">
+  <conditionalFormatting sqref="K37 K40">
+    <cfRule type="expression" dxfId="142" priority="141" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43 D43:J43 L43:BH43">
-    <cfRule type="expression" dxfId="143" priority="36" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A43)=1</formula>
+  <conditionalFormatting sqref="A44 D44:J44 L44:BH44">
+    <cfRule type="expression" dxfId="141" priority="40" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A44)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="expression" dxfId="142" priority="34">
+  <conditionalFormatting sqref="S44:BH44">
+    <cfRule type="expression" dxfId="140" priority="38">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="35">
+    <cfRule type="expression" dxfId="139" priority="39">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="expression" dxfId="140" priority="37" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G43)=1</formula>
+  <conditionalFormatting sqref="S44:BH44">
+    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$G44)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="cellIs" dxfId="139" priority="40" operator="equal">
+  <conditionalFormatting sqref="S44:BH44">
+    <cfRule type="cellIs" dxfId="137" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="cellIs" dxfId="138" priority="39" operator="equal">
+  <conditionalFormatting sqref="S44:BH44">
+    <cfRule type="cellIs" dxfId="136" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S43:BH43">
-    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
+  <conditionalFormatting sqref="S44:BH44">
+    <cfRule type="cellIs" dxfId="135" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:C43">
-    <cfRule type="containsText" dxfId="136" priority="29" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B43)))</formula>
+  <conditionalFormatting sqref="B44:C44">
+    <cfRule type="containsText" dxfId="134" priority="33" operator="containsText" text="Bug Fix">
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="30" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B43)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="34" operator="containsText" text="Code">
+      <formula>NOT(ISERROR(SEARCH("Code",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="31" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B43)))</formula>
+    <cfRule type="containsText" dxfId="132" priority="35" operator="containsText" text="Audio">
+      <formula>NOT(ISERROR(SEARCH("Audio",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="32" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B43)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="36" operator="containsText" text="Level">
+      <formula>NOT(ISERROR(SEARCH("Level",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="33" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B43)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="37" operator="containsText" text="Art">
+      <formula>NOT(ISERROR(SEARCH("Art",B44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="expression" dxfId="131" priority="41" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A44)=1</formula>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="expression" dxfId="129" priority="45" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A45)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="130" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="G45">
+    <cfRule type="expression" dxfId="128" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="129" priority="27" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A45)=1</formula>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="127" priority="31" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A46)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="128" priority="26" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A47)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48 D48:J48 L48:BH48">
-    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="126" priority="30" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A48)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="expression" dxfId="126" priority="18">
+  <conditionalFormatting sqref="A49 D49:J49 L49:BH49">
+    <cfRule type="expression" dxfId="125" priority="24" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A49)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S49:BH49">
+    <cfRule type="expression" dxfId="124" priority="22">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="19">
+    <cfRule type="expression" dxfId="123" priority="23">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="expression" dxfId="124" priority="21" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G48)=1</formula>
+  <conditionalFormatting sqref="S49:BH49">
+    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$G49)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="cellIs" dxfId="123" priority="24" operator="equal">
+  <conditionalFormatting sqref="S49:BH49">
+    <cfRule type="cellIs" dxfId="121" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="cellIs" dxfId="122" priority="23" operator="equal">
+  <conditionalFormatting sqref="S49:BH49">
+    <cfRule type="cellIs" dxfId="120" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
-    <cfRule type="cellIs" dxfId="121" priority="22" operator="equal">
+  <conditionalFormatting sqref="S49:BH49">
+    <cfRule type="cellIs" dxfId="119" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:C48">
-    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B48)))</formula>
+  <conditionalFormatting sqref="B49:C49">
+    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="Bug Fix">
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="14" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B48)))</formula>
+    <cfRule type="containsText" dxfId="117" priority="18" operator="containsText" text="Code">
+      <formula>NOT(ISERROR(SEARCH("Code",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="15" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B48)))</formula>
+    <cfRule type="containsText" dxfId="116" priority="19" operator="containsText" text="Audio">
+      <formula>NOT(ISERROR(SEARCH("Audio",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="16" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B48)))</formula>
+    <cfRule type="containsText" dxfId="115" priority="20" operator="containsText" text="Level">
+      <formula>NOT(ISERROR(SEARCH("Level",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="17" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B48)))</formula>
+    <cfRule type="containsText" dxfId="114" priority="21" operator="containsText" text="Art">
+      <formula>NOT(ISERROR(SEARCH("Art",B49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="expression" dxfId="115" priority="25" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A49)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="114" priority="12" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A49)=1</formula>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="expression" dxfId="113" priority="29" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="113" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="16" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" dxfId="111" priority="15" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A51)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="112" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="106" priority="14" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="105" priority="5" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="104" priority="6" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="103" priority="7" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="102" priority="8" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="101" priority="9" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A32)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A28)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A29)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A30)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25465,31 +25820,31 @@
           <x14:formula1>
             <xm:f>TaskTypes!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B109</xm:sqref>
+          <xm:sqref>B8:B110</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>TaskGrading!$A$4:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K8:K113</xm:sqref>
+          <xm:sqref>K8:K114</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>TaskStatus!$A$6:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>R8:R114</xm:sqref>
+          <xm:sqref>R8:R115</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AF4FB63-5986-4C21-AFB9-6703D4D46921}">
           <x14:formula1>
             <xm:f>Priorities!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C23:C114 C8:C16 C19:C20</xm:sqref>
+          <xm:sqref>C24:C115 C8:C17 C20:C21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Main!$A$9:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G8:G114</xm:sqref>
+          <xm:sqref>G8:G115</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -25563,7 +25918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BH22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -25829,10 +26184,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="36" x14ac:dyDescent="0.3">
@@ -25840,10 +26195,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
@@ -25851,21 +26206,21 @@
         <v>21</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="36" x14ac:dyDescent="0.3">
@@ -25873,10 +26228,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -25884,10 +26239,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -26079,10 +26434,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:60" ht="72" x14ac:dyDescent="0.35">
@@ -26090,32 +26445,32 @@
         <v>21</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -26123,10 +26478,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -26134,10 +26489,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -26145,10 +26500,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.3">
@@ -26156,317 +26511,317 @@
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="containsText" dxfId="102" priority="85" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="100" priority="85" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="86" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="99" priority="86" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="87" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="98" priority="87" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="88" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="97" priority="88" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="89" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="96" priority="89" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 BG7:BH7 C7 E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7 Y7 AA7 AC7 AE7 AG7 AI7 AK7 AM7 AO7 AQ7 AS7 AU7 AW7 AY7 BA7 BC7 BE7">
-    <cfRule type="expression" dxfId="97" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="96" priority="77">
+    <cfRule type="expression" dxfId="94" priority="77">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="78">
+    <cfRule type="expression" dxfId="93" priority="78">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="94" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7 N7 P7 R7 T7 V7 X7 Z7 AB7 AD7 AF7 AH7 AJ7 AL7 AN7 AP7 AR7 AT7 AV7 AX7 AZ7 BB7 BD7 BF7">
-    <cfRule type="expression" dxfId="90" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="89" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="88" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="86" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="85" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="84" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="83" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="82" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="83" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="81" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="80" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="79" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="77" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="76" priority="55" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="56" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="75" priority="56" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="57" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="74" priority="57" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="58" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="73" priority="58" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="59" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="72" priority="59" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="73" priority="50" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="71" priority="50" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="51" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="70" priority="51" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="69" priority="52" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="68" priority="53" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="67" priority="54" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="68" priority="45" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="66" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="46" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="65" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="47" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="64" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="48" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="63" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="49" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="62" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="63" priority="40" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="61" priority="40" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="60" priority="41" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="59" priority="42" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="58" priority="43" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="57" priority="44" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 BG14:BH14 C14 E14 G14 I14 K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14">
-    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="35" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="57" priority="33">
+    <cfRule type="expression" dxfId="55" priority="33">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="34">
+    <cfRule type="expression" dxfId="54" priority="34">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="54" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14">
-    <cfRule type="expression" dxfId="51" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 B22">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A17)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="47" priority="26" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="45" priority="28" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="43" priority="30" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="22" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="40" priority="23" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="37" priority="16" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="35" priority="18" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="33" priority="20" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26569,29 +26924,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26683,7 +27038,7 @@
         <v>87</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -26704,24 +27059,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jazzt\Documents\GitHub\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914CAF1B-6B7F-44FB-AB71-FCBC6E1DECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C788CDA-4739-480E-A6B7-AC814FD33ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1770" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="202">
   <si>
     <t>TASK</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Rendering</t>
-  </si>
-  <si>
-    <t>Able to render a rectangle at desired location</t>
   </si>
   <si>
     <t>If your Team is experiencing any problems, do write it down in the comments below your project status</t>
@@ -946,9 +943,6 @@
     <t xml:space="preserve">knights melee attack features and upgrades </t>
   </si>
   <si>
-    <t>mage's explosion attack with all skills tree features implemented</t>
-  </si>
-  <si>
     <t>Design of mage sprite and weapon code</t>
   </si>
   <si>
@@ -968,6 +962,18 @@
   </si>
   <si>
     <t xml:space="preserve">lets the players enchance the stats of the knight and mage, and max hp, etc </t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemy moving with patterns. Naming a few, enemy moving horizontally, diagonally, spirally, back and forth and finally wavey. </t>
+  </si>
+  <si>
+    <t>Making levels with set amount of enemy movements</t>
+  </si>
+  <si>
+    <t>Mage's explosion attack with all skills tree features implemented</t>
   </si>
 </sst>
 </file>
@@ -1725,28 +1731,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,10 +1740,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1768,47 +1774,7 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="199">
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="198">
     <dxf>
       <fill>
         <patternFill>
@@ -2522,6 +2488,38 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2980,14 +2978,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -3166,6 +3156,14 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3398,7 +3396,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="197">
   <autoFilter ref="A8:R16" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AB7DF63-F3E2-46EA-867C-B10FAF5F8283}" name="Student Name"/>
@@ -3408,16 +3406,16 @@
     <tableColumn id="5" xr3:uid="{2BA79B57-539F-46E5-965A-5E7716ACBE1C}" name="In Progress"/>
     <tableColumn id="6" xr3:uid="{2710B94F-2F91-48AC-8457-97A764EF4BC7}" name="Not Started"/>
     <tableColumn id="7" xr3:uid="{493E51FB-9F1A-4B86-B51A-0A9F697471BC}" name="Total Workload "/>
-    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="197"/>
-    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="196"/>
+    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="195"/>
     <tableColumn id="10" xr3:uid="{20ECF3E5-B447-40AE-82D9-F1DAECBAD66F}" name="Remaining"/>
-    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="195"/>
+    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="194"/>
     <tableColumn id="12" xr3:uid="{5AA91C7C-8A0B-454F-BB15-D1BB545F0BE4}" name="Remaining3"/>
-    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="194"/>
+    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="193"/>
     <tableColumn id="14" xr3:uid="{B367E59C-5FB9-479C-A7F3-B1C7AE02BA4A}" name="Remaining5"/>
-    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="193"/>
+    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="192"/>
     <tableColumn id="16" xr3:uid="{DF492611-AC03-4727-883A-97854465FDAE}" name="Remaining7"/>
-    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="192"/>
+    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="191"/>
     <tableColumn id="18" xr3:uid="{67CDA12C-F1E4-40F4-B6AC-BDC17A0B0B8D}" name="Remaining9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3436,11 +3434,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="191" headerRowBorderDxfId="190" tableBorderDxfId="189" totalsRowBorderDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="190" headerRowBorderDxfId="189" tableBorderDxfId="188" totalsRowBorderDxfId="187">
   <autoFilter ref="A5:B8" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="187"/>
-    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3451,7 +3449,7 @@
   <autoFilter ref="A1:B4" xr:uid="{DECAA8B5-6330-451B-9562-5424BBB00F80}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D55844DA-51EF-4755-A498-8AFCDF33F45D}" name="Colour"/>
-    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3784,17 +3782,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
@@ -3898,36 +3896,36 @@
         <v>65</v>
       </c>
       <c r="K8" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="M8" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="N8" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="O8" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="P8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="Q8" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" s="41" t="s">
+      <c r="R8" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="R8" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3989,10 +3987,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -4002,11 +4000,11 @@
       </c>
       <c r="E10">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A10, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A10, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:G15" si="0">SUM(D10:F10)</f>
@@ -4014,7 +4012,7 @@
       </c>
       <c r="H10" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A10,GANTT!B:B,TaskTypes!$A$5)/$G10)</f>
-        <v>0.79487179487179482</v>
+        <v>1.1794871794871795</v>
       </c>
       <c r="I10" s="44">
         <v>10</v>
@@ -4035,29 +4033,29 @@
       </c>
       <c r="N10">
         <f>M10- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A10, GANTT!$J:$J,"&lt;= "&amp;$M$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="O10" s="44">
         <v>10</v>
       </c>
       <c r="P10">
         <f>O10- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A10, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="Q10" s="44">
         <v>10</v>
       </c>
       <c r="R10">
         <f>Q10- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A10, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>104</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>105</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -4119,10 +4117,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4184,10 +4182,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>106</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>107</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4385,11 +4383,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -4421,7 +4419,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
@@ -4429,7 +4427,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:R16" si="2">SUM(Q9:Q15)</f>
@@ -4437,7 +4435,7 @@
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
@@ -4456,13 +4454,13 @@
     <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="184" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="183" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="182" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="181" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4494,18 +4492,18 @@
       <pane xSplit="18" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.33203125" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="245.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.77734375" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.33203125" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="245.5546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.88671875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -4514,8 +4512,8 @@
     <col min="13" max="13" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.109375" style="2" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
     <col min="19" max="60" width="4.109375" style="2" customWidth="1" outlineLevel="1"/>
     <col min="61" max="16384" width="9.109375" style="2"/>
@@ -4523,7 +4521,7 @@
   <sheetData>
     <row r="1" spans="1:78" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4541,7 +4539,6 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
       <c r="G2" s="11">
         <v>44487</v>
       </c>
@@ -4561,7 +4558,6 @@
         <f>(Q5-350)/7</f>
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -4583,66 +4579,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="91">
+      <c r="S5" s="87">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91">
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="91">
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="91"/>
-      <c r="AJ5" s="91"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="91"/>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="91">
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="91"/>
-      <c r="AP5" s="91"/>
-      <c r="AQ5" s="91"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="91"/>
-      <c r="AU5" s="91">
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="87">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="91"/>
-      <c r="AW5" s="91"/>
-      <c r="AX5" s="91"/>
-      <c r="AY5" s="91"/>
-      <c r="AZ5" s="91"/>
-      <c r="BA5" s="91"/>
-      <c r="BB5" s="95">
+      <c r="AV5" s="87"/>
+      <c r="AW5" s="87"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="87"/>
+      <c r="AZ5" s="87"/>
+      <c r="BA5" s="87"/>
+      <c r="BB5" s="88">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="95"/>
-      <c r="BD5" s="95"/>
-      <c r="BE5" s="95"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="95"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -4663,58 +4659,58 @@
       <c r="BZ5" s="9"/>
     </row>
     <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="92" t="s">
+      <c r="N6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="93" t="s">
+      <c r="Q6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="89" t="s">
+      <c r="R6" s="92" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -4887,24 +4883,24 @@
       </c>
     </row>
     <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="90"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="95"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5076,7 +5072,7 @@
     </row>
     <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>21</v>
@@ -5088,13 +5084,13 @@
         <v>88</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="66">
         <v>10</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="70">
         <v>44494</v>
@@ -5296,7 +5292,7 @@
     </row>
     <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>21</v>
@@ -5305,16 +5301,16 @@
         <v>75</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F9" s="66">
         <v>10</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="70">
         <v>44494</v>
@@ -5384,7 +5380,7 @@
     </row>
     <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>21</v>
@@ -5393,16 +5389,16 @@
         <v>75</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="66">
         <v>10</v>
       </c>
       <c r="G10" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="70">
         <v>44494</v>
@@ -5472,7 +5468,7 @@
     </row>
     <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>21</v>
@@ -5484,13 +5480,13 @@
         <v>89</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="66">
         <v>10</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" s="70">
         <v>44494</v>
@@ -5528,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U11" s="16">
         <f t="shared" si="8"/>
@@ -5693,7 +5689,7 @@
     </row>
     <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>21</v>
@@ -5705,13 +5701,13 @@
         <v>89</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="66">
         <v>10</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="70">
         <v>44494</v>
@@ -5781,7 +5777,7 @@
     </row>
     <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>21</v>
@@ -5790,16 +5786,16 @@
         <v>75</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F13" s="66">
         <v>10</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="70">
         <v>44494</v>
@@ -5808,7 +5804,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="70">
-        <f t="shared" ref="H13:J87" si="13">H13 +I13</f>
+        <f t="shared" ref="J13:J87" si="13">H13 +I13</f>
         <v>44496</v>
       </c>
       <c r="K13" s="72" t="s">
@@ -6215,7 +6211,7 @@
     </row>
     <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>21</v>
@@ -6224,215 +6220,219 @@
         <v>75</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="F15" s="66">
         <v>10</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="75">
         <v>44501</v>
       </c>
       <c r="I15" s="74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" s="75">
         <f t="shared" si="13"/>
-        <v>44502</v>
+        <v>44505</v>
       </c>
       <c r="K15" s="74"/>
-      <c r="L15" s="74" t="e">
-        <f>LOOKUP(K15,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L15" s="74">
+        <v>10</v>
       </c>
       <c r="M15" s="74"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="74"/>
+      <c r="N15" s="75">
+        <v>44503</v>
+      </c>
+      <c r="O15" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="P15" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q15" s="74" t="s">
+        <v>198</v>
+      </c>
       <c r="R15" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="16">
+        <v>57</v>
+      </c>
+      <c r="S15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AA15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB15" s="16" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL15" s="16" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AR15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AS15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AV15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV15" s="16" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BB15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BF15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF15" s="16" t="e">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BG15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG15" s="16" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BH15" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH15" s="16" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>22</v>
@@ -6444,11 +6444,11 @@
         <v>89</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="75">
         <v>44504</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>21</v>
@@ -6652,13 +6652,13 @@
         <v>89</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="66">
         <v>15</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="75">
         <v>44501</v>
@@ -6862,25 +6862,25 @@
     </row>
     <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="66">
         <v>10</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="75">
         <v>44501</v>
@@ -7084,13 +7084,13 @@
     </row>
     <row r="19" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>89</v>
@@ -7100,7 +7100,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="75">
         <v>44504</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="20" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>20</v>
@@ -7183,7 +7183,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="75">
         <v>44501</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>21</v>
@@ -7259,14 +7259,16 @@
         <v>75</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="53"/>
+        <v>176</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>200</v>
+      </c>
       <c r="F21" s="66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" s="75">
         <v>44504</v>
@@ -7279,14 +7281,24 @@
         <v>44505</v>
       </c>
       <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
+      <c r="L21" s="74">
+        <v>5</v>
+      </c>
       <c r="M21" s="74"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="74"/>
+      <c r="N21" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q21" s="74" t="s">
+        <v>198</v>
+      </c>
       <c r="R21" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
@@ -7333,23 +7345,23 @@
     </row>
     <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="82" t="s">
         <v>176</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>177</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="66">
         <v>10</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H22" s="75">
         <v>44501</v>
@@ -7416,23 +7428,23 @@
     </row>
     <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="53"/>
       <c r="F23" s="66">
         <v>10</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="75">
         <v>44504</v>
@@ -7827,7 +7839,7 @@
     </row>
     <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>18</v>
@@ -7836,14 +7848,14 @@
         <v>77</v>
       </c>
       <c r="D25" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>188</v>
       </c>
       <c r="F25" s="66"/>
       <c r="G25" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H25" s="75">
         <v>44508</v>
@@ -7907,7 +7919,7 @@
     </row>
     <row r="26" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>18</v>
@@ -7916,16 +7928,16 @@
         <v>75</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="66">
         <v>0.5</v>
       </c>
       <c r="G26" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H26" s="75">
         <v>44510</v>
@@ -8124,7 +8136,7 @@
     </row>
     <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>21</v>
@@ -8133,16 +8145,16 @@
         <v>78</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F27" s="66">
         <v>1</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H27" s="75">
         <v>44513</v>
@@ -8160,7 +8172,7 @@
       </c>
       <c r="M27" s="74"/>
       <c r="N27" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O27" s="76"/>
       <c r="P27" s="75" t="e">
@@ -8342,7 +8354,7 @@
     </row>
     <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>21</v>
@@ -8354,11 +8366,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F28" s="66"/>
       <c r="G28" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" s="75">
         <v>44511</v>
@@ -8375,7 +8387,7 @@
       </c>
       <c r="M28" s="74"/>
       <c r="N28" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O28" s="76"/>
       <c r="P28" s="75" t="e">
@@ -8566,34 +8578,46 @@
         <v>77</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="66"/>
+        <v>201</v>
+      </c>
+      <c r="F29" s="66">
+        <v>15</v>
+      </c>
       <c r="G29" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H29" s="75">
         <v>44508</v>
       </c>
       <c r="I29" s="74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" s="75">
         <f t="shared" si="13"/>
+        <v>44512</v>
+      </c>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74">
+        <v>15</v>
+      </c>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75">
         <v>44509</v>
       </c>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="74"/>
+      <c r="O29" s="76">
+        <v>4</v>
+      </c>
+      <c r="P29" s="75">
+        <v>44512</v>
+      </c>
+      <c r="Q29" s="74">
+        <v>13</v>
+      </c>
       <c r="R29" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S29" s="16">
         <f t="shared" si="15"/>
@@ -8657,19 +8681,19 @@
       </c>
       <c r="AH29" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="16">
         <f t="shared" si="16"/>
@@ -8766,7 +8790,7 @@
     </row>
     <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>21</v>
@@ -8775,14 +8799,16 @@
         <v>75</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="66"/>
+        <v>190</v>
+      </c>
+      <c r="F30" s="66">
+        <v>5</v>
+      </c>
       <c r="G30" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H30" s="75">
         <v>44510</v>
@@ -8790,14 +8816,26 @@
       <c r="I30" s="74">
         <v>2</v>
       </c>
-      <c r="J30" s="75"/>
+      <c r="J30" s="75">
+        <v>44513</v>
+      </c>
       <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
+      <c r="L30" s="74">
+        <v>5</v>
+      </c>
       <c r="M30" s="74"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="74"/>
+      <c r="N30" s="75">
+        <v>44513</v>
+      </c>
+      <c r="O30" s="76">
+        <v>1</v>
+      </c>
+      <c r="P30" s="75">
+        <v>44513</v>
+      </c>
+      <c r="Q30" s="74">
+        <v>4</v>
+      </c>
       <c r="R30" s="74" t="s">
         <v>56</v>
       </c>
@@ -8846,7 +8884,7 @@
     </row>
     <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>20</v>
@@ -8858,11 +8896,11 @@
         <v>89</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F31" s="66"/>
       <c r="G31" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" s="75">
         <v>44508</v>
@@ -8939,7 +8977,7 @@
     </row>
     <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>20</v>
@@ -8948,14 +8986,14 @@
         <v>76</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F32" s="66"/>
       <c r="G32" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="75">
         <v>44510</v>
@@ -9019,7 +9057,7 @@
     </row>
     <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>20</v>
@@ -9031,11 +9069,11 @@
         <v>89</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H33" s="75">
         <v>44509</v>
@@ -9112,7 +9150,7 @@
     </row>
     <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>21</v>
@@ -9124,11 +9162,11 @@
         <v>89</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34" s="75">
         <v>44508</v>
@@ -9192,7 +9230,7 @@
     </row>
     <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>21</v>
@@ -9204,13 +9242,13 @@
         <v>89</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F35" s="66">
         <v>1.5</v>
       </c>
       <c r="G35" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="75">
         <v>44512</v>
@@ -9608,7 +9646,7 @@
     </row>
     <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>21</v>
@@ -9622,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H37" s="75">
         <v>44515</v>
@@ -9821,7 +9859,7 @@
     </row>
     <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>21</v>
@@ -9835,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H38" s="75">
         <v>44515</v>
@@ -10034,7 +10072,7 @@
     </row>
     <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>19</v>
@@ -10048,7 +10086,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" s="75">
         <v>44548</v>
@@ -10247,7 +10285,7 @@
     </row>
     <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>19</v>
@@ -10261,7 +10299,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H40" s="75">
         <v>44515</v>
@@ -10460,7 +10498,7 @@
     </row>
     <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>20</v>
@@ -10474,7 +10512,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="75">
         <v>44515</v>
@@ -10673,7 +10711,7 @@
     </row>
     <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>20</v>
@@ -10687,7 +10725,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" s="75">
         <v>44548</v>
@@ -10886,7 +10924,7 @@
     </row>
     <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>21</v>
@@ -10900,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H43" s="75">
         <v>44515</v>
@@ -11298,7 +11336,7 @@
     </row>
     <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>21</v>
@@ -11312,7 +11350,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H45" s="75">
         <v>44522</v>
@@ -11511,7 +11549,7 @@
     </row>
     <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>21</v>
@@ -11525,7 +11563,7 @@
         <v>8</v>
       </c>
       <c r="G46" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H46" s="75">
         <v>44522</v>
@@ -11724,7 +11762,7 @@
     </row>
     <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>21</v>
@@ -11738,7 +11776,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H47" s="75">
         <v>44522</v>
@@ -11937,7 +11975,7 @@
     </row>
     <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>21</v>
@@ -11951,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H48" s="75">
         <v>44522</v>
@@ -12349,7 +12387,7 @@
     </row>
     <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>20</v>
@@ -12363,7 +12401,7 @@
         <v>4</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H50" s="75">
         <v>44529</v>
@@ -12562,7 +12600,7 @@
     </row>
     <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>19</v>
@@ -12576,7 +12614,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H51" s="75">
         <v>44529</v>
@@ -25388,6 +25426,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -25404,381 +25450,368 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A35:A36 D27:F27 A43 D38:F43 H38:J43 L45:BH48 A52:A115 D45:F46 D52:J115 D48:F48 H45:J46 D47:J47 H48:J48 L50:BH115 D50:F51 H50:J51 D8:J26 H30:J33 H27:J28 L12:BH43 D34:J37 E28:F28 F29:J29 F30 D29:D31 D31:F33">
-    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
+  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A35:A36 D27:F27 A43 D38:F43 H38:J43 L45:BH48 A52:A115 D45:F46 D52:J115 D48:F48 H45:J46 D47:J47 H48:J48 L50:BH115 D50:F51 H50:J51 D8:J26 H27:J28 D34:J37 E28:F28 L12:BH28 H31:J33 D31:F33 L31:BH43 E30">
+    <cfRule type="expression" dxfId="180" priority="75" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
-    <cfRule type="expression" dxfId="181" priority="73">
+    <cfRule type="expression" dxfId="179" priority="73">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="74">
+    <cfRule type="expression" dxfId="178" priority="74">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH26 S29:BH29 S32:BH43 S45:BH48 S50:BH115">
-    <cfRule type="expression" dxfId="179" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="78" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:S16">
-    <cfRule type="expression" dxfId="178" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="88" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
-    <cfRule type="cellIs" dxfId="177" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
-    <cfRule type="cellIs" dxfId="176" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="86" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
-    <cfRule type="cellIs" dxfId="175" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B45:C48 B50:C115 B13:C17 B24:C43 B20:C21 B18:B23">
-    <cfRule type="containsText" dxfId="174" priority="63" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="172" priority="63" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="64" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="171" priority="64" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="65" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="170" priority="65" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="66" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="169" priority="66" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="67" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="168" priority="67" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10 K23 K26 K35:K36 K38:K39 K41:K43 K45:K48 K50:K114 K13:K14 K17">
-    <cfRule type="expression" dxfId="169" priority="90" stopIfTrue="1">
+  <conditionalFormatting sqref="Q10 K23 K26 K35:K36 K38:K39 K41:K43 K45:K48 K50:K114 K13:K14 K17 L29:BH29 F29:J29 D29">
+    <cfRule type="expression" dxfId="167" priority="90" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="containsText" dxfId="168" priority="58" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="166" priority="58" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="165" priority="59" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="164" priority="60" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="163" priority="61" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="162" priority="62" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="containsText" dxfId="163" priority="53" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="161" priority="53" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="54" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="160" priority="54" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="55" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="159" priority="55" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="56" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="158" priority="56" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="57" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="157" priority="57" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 K8 K21 K33:K34">
-    <cfRule type="expression" dxfId="158" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="91" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K24:K25 K15:K16">
-    <cfRule type="expression" dxfId="157" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="93" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 K20 K22 K32">
-    <cfRule type="expression" dxfId="156" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="96" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="155" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="52" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K19 K31">
-    <cfRule type="expression" dxfId="154" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="99" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A23)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="153" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="100" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A36)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G42 G31:G32">
-    <cfRule type="expression" dxfId="152" priority="102" stopIfTrue="1">
+  <conditionalFormatting sqref="G28 G42 L30:BH30 G32 F30:J30 D30">
+    <cfRule type="expression" dxfId="150" priority="102" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:BH30 S27:BH27">
-    <cfRule type="expression" dxfId="151" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="104" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G28)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:BH31 S28:BH28">
-    <cfRule type="expression" dxfId="150" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="105" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="149" priority="51" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A30)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="148" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="106" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A35)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="147" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="50" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="146" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="110" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A36)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40 G43">
-    <cfRule type="expression" dxfId="145" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="48" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A40)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="144" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="49" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38 G41">
-    <cfRule type="expression" dxfId="143" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="46" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37 K40">
-    <cfRule type="expression" dxfId="142" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="141" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44 D44:J44 L44:BH44">
-    <cfRule type="expression" dxfId="141" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="40" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A44)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="expression" dxfId="140" priority="38">
+    <cfRule type="expression" dxfId="139" priority="38">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="39">
+    <cfRule type="expression" dxfId="138" priority="39">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="expression" dxfId="138" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="41" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G44)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="cellIs" dxfId="137" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="cellIs" dxfId="136" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="cellIs" dxfId="135" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C44">
-    <cfRule type="containsText" dxfId="134" priority="33" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="133" priority="33" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="34" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="132" priority="34" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="35" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="131" priority="35" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="36" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="130" priority="36" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="37" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="129" priority="37" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="129" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="45" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A45)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="128" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="127" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A46)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="126" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="30" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A48)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49 D49:J49 L49:BH49">
-    <cfRule type="expression" dxfId="125" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="24" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="expression" dxfId="124" priority="22">
+    <cfRule type="expression" dxfId="123" priority="22">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="23">
+    <cfRule type="expression" dxfId="122" priority="23">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="expression" dxfId="122" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="25" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="121" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="120" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="119" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:C49">
-    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="117" priority="17" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="18" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="116" priority="18" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="19" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="115" priority="19" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="20" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="114" priority="20" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="21" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="expression" dxfId="113" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="29" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="112" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="111" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="15" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="110" priority="10" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="109" priority="10" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="108" priority="11" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="107" priority="12" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="106" priority="13" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="14" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="105" priority="14" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="105" priority="5" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="6" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="103" priority="6" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="7" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="102" priority="7" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="8" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="101" priority="8" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="9" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="100" priority="9" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="4" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A32)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="3" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A28)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="97" priority="151" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A30)=1</formula>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="96" priority="153" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26184,10 +26217,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="36" x14ac:dyDescent="0.3">
@@ -26195,10 +26228,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
@@ -26206,21 +26239,21 @@
         <v>21</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>148</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="36" x14ac:dyDescent="0.3">
@@ -26228,10 +26261,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -26239,10 +26272,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -26434,10 +26467,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:60" ht="72" x14ac:dyDescent="0.35">
@@ -26445,32 +26478,32 @@
         <v>21</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -26478,10 +26511,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -26489,10 +26522,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -26500,10 +26533,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.3">
@@ -26511,317 +26544,317 @@
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="containsText" dxfId="100" priority="85" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="95" priority="85" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="86" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="94" priority="86" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="87" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="93" priority="87" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="88" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="92" priority="88" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="89" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="91" priority="89" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 BG7:BH7 C7 E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7 Y7 AA7 AC7 AE7 AG7 AI7 AK7 AM7 AO7 AQ7 AS7 AU7 AW7 AY7 BA7 BC7 BE7">
-    <cfRule type="expression" dxfId="95" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="94" priority="77">
+    <cfRule type="expression" dxfId="89" priority="77">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="78">
+    <cfRule type="expression" dxfId="88" priority="78">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="92" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="91" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="89" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7 N7 P7 R7 T7 V7 X7 Z7 AB7 AD7 AF7 AH7 AJ7 AL7 AN7 AP7 AR7 AT7 AV7 AX7 AZ7 BB7 BD7 BF7">
-    <cfRule type="expression" dxfId="88" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="87" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="86" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="79" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="78" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="77" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="81" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="76" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="75" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="74" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="73" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="72" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="76" priority="55" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="56" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="57" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="58" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="68" priority="58" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="59" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="67" priority="59" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="71" priority="50" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="66" priority="50" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="51" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="65" priority="51" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="52" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="53" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="54" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="66" priority="45" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="46" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="60" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="47" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="59" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="48" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="58" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="49" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="61" priority="40" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="41" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="42" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="43" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="44" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 BG14:BH14 C14 E14 G14 I14 K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14">
-    <cfRule type="expression" dxfId="56" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="35" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="55" priority="33">
+    <cfRule type="expression" dxfId="50" priority="33">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="34">
+    <cfRule type="expression" dxfId="49" priority="34">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="53" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="52" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="51" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="50" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14">
-    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 B22">
-    <cfRule type="expression" dxfId="48" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A17)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="47" priority="26" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="28" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="30" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="22" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="23" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="24" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="37" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26924,29 +26957,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27038,7 +27071,7 @@
         <v>87</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -27059,24 +27092,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jazzt\Documents\GitHub\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keith\Documents\GitHub\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C788CDA-4739-480E-A6B7-AC814FD33ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CAC3DD-C329-4189-96B3-FE0CEEE1CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="203">
   <si>
     <t>TASK</t>
   </si>
@@ -975,6 +975,9 @@
   <si>
     <t>Mage's explosion attack with all skills tree features implemented</t>
   </si>
+  <si>
+    <t>Update Main Menu Design</t>
+  </si>
 </sst>
 </file>
 
@@ -1774,7 +1777,10 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="199">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1816,6 +1822,94 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2520,6 +2614,14 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -3166,6 +3268,27 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3185,118 +3308,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3396,7 +3407,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="195">
   <autoFilter ref="A8:R16" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AB7DF63-F3E2-46EA-867C-B10FAF5F8283}" name="Student Name"/>
@@ -3406,16 +3417,16 @@
     <tableColumn id="5" xr3:uid="{2BA79B57-539F-46E5-965A-5E7716ACBE1C}" name="In Progress"/>
     <tableColumn id="6" xr3:uid="{2710B94F-2F91-48AC-8457-97A764EF4BC7}" name="Not Started"/>
     <tableColumn id="7" xr3:uid="{493E51FB-9F1A-4B86-B51A-0A9F697471BC}" name="Total Workload "/>
-    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="196"/>
-    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="195"/>
+    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="194"/>
+    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="193"/>
     <tableColumn id="10" xr3:uid="{20ECF3E5-B447-40AE-82D9-F1DAECBAD66F}" name="Remaining"/>
-    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="194"/>
+    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="192"/>
     <tableColumn id="12" xr3:uid="{5AA91C7C-8A0B-454F-BB15-D1BB545F0BE4}" name="Remaining3"/>
-    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="193"/>
+    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="191"/>
     <tableColumn id="14" xr3:uid="{B367E59C-5FB9-479C-A7F3-B1C7AE02BA4A}" name="Remaining5"/>
-    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="192"/>
+    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="190"/>
     <tableColumn id="16" xr3:uid="{DF492611-AC03-4727-883A-97854465FDAE}" name="Remaining7"/>
-    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="191"/>
+    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="189"/>
     <tableColumn id="18" xr3:uid="{67CDA12C-F1E4-40F4-B6AC-BDC17A0B0B8D}" name="Remaining9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3434,11 +3445,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="190" headerRowBorderDxfId="189" tableBorderDxfId="188" totalsRowBorderDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A5:B8" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="186"/>
-    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="185"/>
+    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3449,7 +3460,7 @@
   <autoFilter ref="A1:B4" xr:uid="{DECAA8B5-6330-451B-9562-5424BBB00F80}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D55844DA-51EF-4755-A498-8AFCDF33F45D}" name="Colour"/>
-    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4195,11 +4206,11 @@
       </c>
       <c r="E13">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A13, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A13, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>34.5</v>
+        <v>14.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -4383,11 +4394,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -4454,13 +4465,13 @@
     <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="183" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="198" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="197" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="196" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4486,24 +4497,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BZ115"/>
+  <dimension ref="A1:BZ116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="18" ySplit="7" topLeftCell="S17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.33203125" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="245.5546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.88671875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.33203125" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="245.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -5804,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="70">
-        <f t="shared" ref="J13:J87" si="13">H13 +I13</f>
+        <f t="shared" ref="J13:J88" si="13">H13 +I13</f>
         <v>44496</v>
       </c>
       <c r="K13" s="72" t="s">
@@ -5822,7 +5833,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="70">
-        <f t="shared" ref="P13:P87" si="14">N13+O13</f>
+        <f t="shared" ref="P13:P88" si="14">N13+O13</f>
         <v>44496</v>
       </c>
       <c r="Q13" s="69">
@@ -7376,12 +7387,18 @@
       <c r="K22" s="74"/>
       <c r="L22" s="74"/>
       <c r="M22" s="74"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="76"/>
+      <c r="N22" s="75">
+        <v>44506</v>
+      </c>
+      <c r="O22" s="76">
+        <v>1</v>
+      </c>
       <c r="P22" s="75"/>
-      <c r="Q22" s="74"/>
+      <c r="Q22" s="74">
+        <v>5</v>
+      </c>
       <c r="R22" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
@@ -7462,12 +7479,18 @@
         <v>#N/A</v>
       </c>
       <c r="M23" s="74"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="76"/>
+      <c r="N23" s="75">
+        <v>44507</v>
+      </c>
+      <c r="O23" s="76">
+        <v>1</v>
+      </c>
       <c r="P23" s="75"/>
-      <c r="Q23" s="74"/>
+      <c r="Q23" s="74">
+        <v>5</v>
+      </c>
       <c r="R23" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" s="16">
         <f t="shared" si="8"/>
@@ -7523,7 +7546,7 @@
       </c>
       <c r="AF23" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="16">
         <f t="shared" si="9"/>
@@ -8184,7 +8207,7 @@
         <v>56</v>
       </c>
       <c r="S27" s="16" t="e">
-        <f t="shared" ref="S27:AB41" si="15">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="S27:AB42" si="15">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="T27" s="16" t="e">
@@ -8224,7 +8247,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AC27" s="16" t="e">
-        <f t="shared" ref="AC27:AL41" si="16">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AC27:AL42" si="16">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD27" s="16" t="e">
@@ -8264,7 +8287,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AM27" s="16" t="e">
-        <f t="shared" ref="AM27:AV41" si="17">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AM27:AV42" si="17">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AN27" s="16" t="e">
@@ -8304,7 +8327,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AW27" s="16" t="e">
-        <f t="shared" ref="AW27:BF41" si="18">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AW27:BF42" si="18">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AX27" s="16" t="e">
@@ -8344,7 +8367,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BG27" s="16" t="e">
-        <f t="shared" ref="BG27:BH41" si="19">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="BG27:BH42" si="19">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BH27" s="16" t="e">
@@ -9178,12 +9201,18 @@
       <c r="K34" s="74"/>
       <c r="L34" s="74"/>
       <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="N34" s="75">
+        <v>44514</v>
+      </c>
+      <c r="O34" s="76">
+        <v>1</v>
+      </c>
       <c r="P34" s="75"/>
-      <c r="Q34" s="74"/>
+      <c r="Q34" s="74">
+        <v>5</v>
+      </c>
       <c r="R34" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
@@ -9228,238 +9257,115 @@
       <c r="BG34" s="16"/>
       <c r="BH34" s="16"/>
     </row>
-    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F35" s="66">
-        <v>1.5</v>
-      </c>
+    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="74" t="s">
         <v>105</v>
       </c>
       <c r="H35" s="75">
-        <v>44512</v>
+        <v>44508</v>
       </c>
       <c r="I35" s="74">
         <v>1</v>
       </c>
-      <c r="J35" s="75">
+      <c r="J35" s="75"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="75">
+        <v>44513</v>
+      </c>
+      <c r="O35" s="76">
+        <v>1</v>
+      </c>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="74">
+        <v>5</v>
+      </c>
+      <c r="R35" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
+      <c r="BF35" s="16"/>
+      <c r="BG35" s="16"/>
+      <c r="BH35" s="16"/>
+    </row>
+    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="75">
+        <v>44512</v>
+      </c>
+      <c r="I36" s="74">
+        <v>1</v>
+      </c>
+      <c r="J36" s="75">
         <f t="shared" si="13"/>
         <v>44513</v>
-      </c>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74" t="e">
-        <f>LOOKUP(K35,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M35" s="74"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="S35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="16">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AL35" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AM35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AP35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AS35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AT35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AU35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AV35" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AW35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AX35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AY35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BA35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BB35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BC35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BD35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BE35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BF35" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BG35" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BH35" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="75">
-        <f t="shared" si="13"/>
-        <v>0</v>
       </c>
       <c r="K36" s="74"/>
       <c r="L36" s="74" t="e">
@@ -9467,14 +9373,16 @@
         <v>#N/A</v>
       </c>
       <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
+      <c r="N36" s="75"/>
       <c r="O36" s="76"/>
       <c r="P36" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
+      <c r="R36" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S36" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9549,7 +9457,7 @@
       </c>
       <c r="AK36" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL36" s="16">
         <f t="shared" si="16"/>
@@ -9644,33 +9552,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>75</v>
-      </c>
+    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="82"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="66">
-        <v>1</v>
-      </c>
-      <c r="G37" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="75">
-        <v>44515</v>
-      </c>
-      <c r="I37" s="74">
-        <v>3</v>
-      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="74"/>
       <c r="J37" s="75">
         <f t="shared" si="13"/>
-        <v>44518</v>
+        <v>0</v>
       </c>
       <c r="K37" s="74"/>
       <c r="L37" s="74" t="e">
@@ -9685,9 +9581,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="74"/>
-      <c r="R37" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R37" s="74"/>
       <c r="S37" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9774,15 +9668,15 @@
       </c>
       <c r="AN37" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="16">
         <f t="shared" si="17"/>
@@ -9859,13 +9753,13 @@
     </row>
     <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D38" s="82"/>
       <c r="E38" s="14"/>
@@ -9873,17 +9767,17 @@
         <v>1</v>
       </c>
       <c r="G38" s="74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H38" s="75">
         <v>44515</v>
       </c>
       <c r="I38" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" s="75">
         <f t="shared" si="13"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="K38" s="74"/>
       <c r="L38" s="74" t="e">
@@ -9991,11 +9885,11 @@
       </c>
       <c r="AO38" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP38" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ38" s="16">
         <f t="shared" si="17"/>
@@ -10072,31 +9966,31 @@
     </row>
     <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="82"/>
       <c r="E39" s="14"/>
       <c r="F39" s="66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39" s="74" t="s">
         <v>99</v>
       </c>
       <c r="H39" s="75">
-        <v>44548</v>
+        <v>44515</v>
       </c>
       <c r="I39" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="75">
         <f t="shared" si="13"/>
-        <v>44550</v>
+        <v>44516</v>
       </c>
       <c r="K39" s="74"/>
       <c r="L39" s="74" t="e">
@@ -10200,7 +10094,7 @@
       </c>
       <c r="AN39" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO39" s="16">
         <f t="shared" si="17"/>
@@ -10285,7 +10179,7 @@
     </row>
     <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>19</v>
@@ -10299,17 +10193,17 @@
         <v>4</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H40" s="75">
-        <v>44515</v>
+        <v>44548</v>
       </c>
       <c r="I40" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" s="75">
         <f t="shared" si="13"/>
-        <v>44518</v>
+        <v>44550</v>
       </c>
       <c r="K40" s="74"/>
       <c r="L40" s="74" t="e">
@@ -10413,15 +10307,15 @@
       </c>
       <c r="AN40" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO40" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="16">
         <f t="shared" si="17"/>
@@ -10498,10 +10392,10 @@
     </row>
     <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>77</v>
@@ -10512,17 +10406,17 @@
         <v>4</v>
       </c>
       <c r="G41" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H41" s="75">
         <v>44515</v>
       </c>
       <c r="I41" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" s="75">
         <f t="shared" si="13"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="K41" s="74"/>
       <c r="L41" s="74" t="e">
@@ -10630,11 +10524,11 @@
       </c>
       <c r="AO41" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP41" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ41" s="16">
         <f t="shared" si="17"/>
@@ -10711,7 +10605,7 @@
     </row>
     <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>20</v>
@@ -10728,14 +10622,14 @@
         <v>103</v>
       </c>
       <c r="H42" s="75">
-        <v>44548</v>
+        <v>44515</v>
       </c>
       <c r="I42" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="75">
         <f t="shared" si="13"/>
-        <v>44550</v>
+        <v>44516</v>
       </c>
       <c r="K42" s="74"/>
       <c r="L42" s="74" t="e">
@@ -10754,201 +10648,201 @@
         <v>56</v>
       </c>
       <c r="S42" s="16">
-        <f t="shared" ref="S42:AB51" si="20">IF(AND(S$6&gt;=$N42,S$6&lt;$N42+$O42), 1, IF(AND(S$6&gt;=$H42,S$6&lt;$H42+$I42), 2, 0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB42" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" ref="AC42:AL51" si="21">IF(AND(AC$6&gt;=$N42,AC$6&lt;$N42+$O42), 1, IF(AND(AC$6&gt;=$H42,AC$6&lt;$H42+$I42), 2, 0))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AL42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM42" s="16">
-        <f t="shared" ref="AM42:AV51" si="22">IF(AND(AM$6&gt;=$N42,AM$6&lt;$N42+$O42), 1, IF(AND(AM$6&gt;=$H42,AM$6&lt;$H42+$I42), 2, 0))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN42" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AO42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV42" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW42" s="16">
-        <f t="shared" ref="AW42:BF51" si="23">IF(AND(AW$6&gt;=$N42,AW$6&lt;$N42+$O42), 1, IF(AND(AW$6&gt;=$H42,AW$6&lt;$H42+$I42), 2, 0))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AY42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BA42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BB42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BC42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BE42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF42" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BG42" s="16">
-        <f t="shared" ref="BG42:BH51" si="24">IF(AND(BG$6&gt;=$N42,BG$6&lt;$N42+$O42), 1, IF(AND(BG$6&gt;=$H42,BG$6&lt;$H42+$I42), 2, 0))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BH42" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="64" t="s">
-        <v>140</v>
+    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="65" t="s">
+        <v>139</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="82"/>
       <c r="E43" s="14"/>
       <c r="F43" s="66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H43" s="75">
-        <v>44515</v>
+        <v>44548</v>
       </c>
       <c r="I43" s="74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" s="75">
         <f t="shared" si="13"/>
-        <v>44519</v>
+        <v>44550</v>
       </c>
       <c r="K43" s="74"/>
       <c r="L43" s="74" t="e">
@@ -10967,7 +10861,7 @@
         <v>56</v>
       </c>
       <c r="S43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="S43:AB52" si="20">IF(AND(S$6&gt;=$N43,S$6&lt;$N43+$O43), 1, IF(AND(S$6&gt;=$H43,S$6&lt;$H43+$I43), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T43" s="16">
@@ -11007,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AC43:AL52" si="21">IF(AND(AC$6&gt;=$N43,AC$6&lt;$N43+$O43), 1, IF(AND(AC$6&gt;=$H43,AC$6&lt;$H43+$I43), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD43" s="16">
@@ -11047,24 +10941,24 @@
         <v>0</v>
       </c>
       <c r="AM43" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AM43:AV52" si="22">IF(AND(AM$6&gt;=$N43,AM$6&lt;$N43+$O43), 1, IF(AND(AM$6&gt;=$H43,AM$6&lt;$H43+$I43), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN43" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="16">
         <f t="shared" si="22"/>
@@ -11087,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AW43:BF52" si="23">IF(AND(AW$6&gt;=$N43,AW$6&lt;$N43+$O43), 1, IF(AND(AW$6&gt;=$H43,AW$6&lt;$H43+$I43), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX43" s="16">
@@ -11127,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="BG43:BH52" si="24">IF(AND(BG$6&gt;=$N43,BG$6&lt;$N43+$O43), 1, IF(AND(BG$6&gt;=$H43,BG$6&lt;$H43+$I43), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH43" s="16">
@@ -11136,20 +11030,32 @@
       </c>
     </row>
     <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="D44" s="82"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="74"/>
+      <c r="F44" s="66">
+        <v>1</v>
+      </c>
+      <c r="G44" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="75">
+        <v>44515</v>
+      </c>
+      <c r="I44" s="74">
+        <v>4</v>
+      </c>
       <c r="J44" s="75">
-        <f t="shared" ref="J44" si="25">H44 +I44</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>44519</v>
       </c>
       <c r="K44" s="74"/>
       <c r="L44" s="74" t="e">
@@ -11160,11 +11066,13 @@
       <c r="N44" s="74"/>
       <c r="O44" s="76"/>
       <c r="P44" s="75">
-        <f t="shared" ref="P44" si="26">N44+O44</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
+      <c r="R44" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S44" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -11251,19 +11159,19 @@
       </c>
       <c r="AN44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ44" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR44" s="16">
         <f t="shared" si="22"/>
@@ -11334,33 +11242,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>75</v>
-      </c>
+    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="82"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="66">
-        <v>8</v>
-      </c>
-      <c r="G45" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" s="75">
-        <v>44522</v>
-      </c>
-      <c r="I45" s="74">
-        <v>2</v>
-      </c>
+      <c r="F45" s="66"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="74"/>
       <c r="J45" s="75">
-        <f t="shared" si="13"/>
-        <v>44524</v>
+        <f t="shared" ref="J45" si="25">H45 +I45</f>
+        <v>0</v>
       </c>
       <c r="K45" s="74"/>
       <c r="L45" s="74" t="e">
@@ -11371,13 +11267,11 @@
       <c r="N45" s="74"/>
       <c r="O45" s="76"/>
       <c r="P45" s="75">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P45" si="26">N45+O45</f>
         <v>0</v>
       </c>
       <c r="Q45" s="74"/>
-      <c r="R45" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R45" s="74"/>
       <c r="S45" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -11492,11 +11386,11 @@
       </c>
       <c r="AU45" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="16">
         <f t="shared" si="23"/>
@@ -11549,13 +11443,13 @@
     </row>
     <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="82"/>
       <c r="E46" s="14"/>
@@ -11563,17 +11457,17 @@
         <v>8</v>
       </c>
       <c r="G46" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H46" s="75">
         <v>44522</v>
       </c>
       <c r="I46" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" s="75">
         <f t="shared" si="13"/>
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="K46" s="74"/>
       <c r="L46" s="74" t="e">
@@ -11713,7 +11607,7 @@
       </c>
       <c r="AW46" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="16">
         <f t="shared" si="23"/>
@@ -11762,7 +11656,7 @@
     </row>
     <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>21</v>
@@ -11776,17 +11670,17 @@
         <v>8</v>
       </c>
       <c r="G47" s="74" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H47" s="75">
         <v>44522</v>
       </c>
       <c r="I47" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" s="75">
         <f t="shared" si="13"/>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="K47" s="74"/>
       <c r="L47" s="74" t="e">
@@ -11922,11 +11816,11 @@
       </c>
       <c r="AV47" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW47" s="16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX47" s="16">
         <f t="shared" si="23"/>
@@ -11975,7 +11869,7 @@
     </row>
     <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>21</v>
@@ -11986,10 +11880,10 @@
       <c r="D48" s="82"/>
       <c r="E48" s="14"/>
       <c r="F48" s="66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G48" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48" s="75">
         <v>44522</v>
@@ -12186,21 +12080,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="14"/>
+    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="82"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="74"/>
+      <c r="F49" s="66">
+        <v>1</v>
+      </c>
+      <c r="G49" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" s="75">
+        <v>44522</v>
+      </c>
+      <c r="I49" s="74">
+        <v>1</v>
+      </c>
       <c r="J49" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44523</v>
       </c>
       <c r="K49" s="74"/>
       <c r="L49" s="74" t="e">
@@ -12215,7 +12121,9 @@
         <v>0</v>
       </c>
       <c r="Q49" s="74"/>
-      <c r="R49" s="74"/>
+      <c r="R49" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S49" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -12330,7 +12238,7 @@
       </c>
       <c r="AU49" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV49" s="16">
         <f t="shared" si="22"/>
@@ -12385,33 +12293,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>77</v>
-      </c>
+    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="66">
-        <v>4</v>
-      </c>
-      <c r="G50" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" s="75">
-        <v>44529</v>
-      </c>
-      <c r="I50" s="74">
-        <v>4</v>
-      </c>
+      <c r="F50" s="66"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="75">
         <f t="shared" si="13"/>
-        <v>44533</v>
+        <v>0</v>
       </c>
       <c r="K50" s="74"/>
       <c r="L50" s="74" t="e">
@@ -12426,9 +12322,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="74"/>
-      <c r="R50" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R50" s="74"/>
       <c r="S50" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -12571,19 +12465,19 @@
       </c>
       <c r="BB50" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC50" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD50" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE50" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF50" s="16">
         <f t="shared" si="23"/>
@@ -12600,10 +12494,10 @@
     </row>
     <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>77</v>
@@ -12614,7 +12508,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H51" s="75">
         <v>44529</v>
@@ -12811,8 +12705,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="61"/>
+    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
+        <v>146</v>
+      </c>
       <c r="B52" s="26" t="s">
         <v>19</v>
       </c>
@@ -12821,229 +12717,243 @@
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="14">
+      <c r="F52" s="66">
         <v>4</v>
       </c>
-      <c r="G52" s="61"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="67">
+      <c r="G52" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="75">
+        <v>44529</v>
+      </c>
+      <c r="I52" s="74">
+        <v>4</v>
+      </c>
+      <c r="J52" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61" t="e">
+        <v>44533</v>
+      </c>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74" t="e">
         <f>LOOKUP(K52,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="67">
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S52" s="16">
-        <f t="shared" ref="S52:AB61" si="27">IF(AND(S$6&gt;=$N52,S$6&lt;$N52+$O52), 1, IF(AND(S$6&gt;=$H52,S$6&lt;$H52+$I52), 2, 0))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB52" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC52" s="16">
-        <f t="shared" ref="AC52:AL61" si="28">IF(AND(AC$6&gt;=$N52,AC$6&lt;$N52+$O52), 1, IF(AND(AC$6&gt;=$H52,AC$6&lt;$H52+$I52), 2, 0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AD52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AE52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AF52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AH52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AI52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AL52" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM52" s="16">
-        <f t="shared" ref="AM52:AV61" si="29">IF(AND(AM$6&gt;=$N52,AM$6&lt;$N52+$O52), 1, IF(AND(AM$6&gt;=$H52,AM$6&lt;$H52+$I52), 2, 0))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AN52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AO52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AQ52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AT52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AU52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AV52" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AW52" s="16">
-        <f t="shared" ref="AW52:BF61" si="30">IF(AND(AW$6&gt;=$N52,AW$6&lt;$N52+$O52), 1, IF(AND(AW$6&gt;=$H52,AW$6&lt;$H52+$I52), 2, 0))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AX52" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AY52" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AZ52" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BA52" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BB52" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BC52" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BD52" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BE52" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BF52" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BG52" s="16">
-        <f t="shared" ref="BG52:BH61" si="31">IF(AND(BG$6&gt;=$N52,BG$6&lt;$N52+$O52), 1, IF(AND(BG$6&gt;=$H52,BG$6&lt;$H52+$I52), 2, 0))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BH52" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="39"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15">
+      <c r="F53" s="14">
+        <v>4</v>
+      </c>
+      <c r="G53" s="61"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14" t="e">
+      <c r="K53" s="61"/>
+      <c r="L53" s="61" t="e">
         <f>LOOKUP(K53,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="15">
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="67">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
       <c r="S53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="S53:AB62" si="27">IF(AND(S$6&gt;=$N53,S$6&lt;$N53+$O53), 1, IF(AND(S$6&gt;=$H53,S$6&lt;$H53+$I53), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T53" s="16">
@@ -13083,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AC53:AL62" si="28">IF(AND(AC$6&gt;=$N53,AC$6&lt;$N53+$O53), 1, IF(AND(AC$6&gt;=$H53,AC$6&lt;$H53+$I53), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD53" s="16">
@@ -13123,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AM53:AV62" si="29">IF(AND(AM$6&gt;=$N53,AM$6&lt;$N53+$O53), 1, IF(AND(AM$6&gt;=$H53,AM$6&lt;$H53+$I53), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN53" s="16">
@@ -13163,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="AW53" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AW53:BF62" si="30">IF(AND(AW$6&gt;=$N53,AW$6&lt;$N53+$O53), 1, IF(AND(AW$6&gt;=$H53,AW$6&lt;$H53+$I53), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX53" s="16">
@@ -13203,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="BG53" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="BG53:BH62" si="31">IF(AND(BG$6&gt;=$N53,BG$6&lt;$N53+$O53), 1, IF(AND(BG$6&gt;=$H53,BG$6&lt;$H53+$I53), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH53" s="16">
@@ -14816,171 +14726,171 @@
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
       <c r="S62" s="16">
-        <f t="shared" ref="S62:AB71" si="32">IF(AND(S$6&gt;=$N62,S$6&lt;$N62+$O62), 1, IF(AND(S$6&gt;=$H62,S$6&lt;$H62+$I62), 2, 0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB62" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC62" s="16">
-        <f t="shared" ref="AC62:AL71" si="33">IF(AND(AC$6&gt;=$N62,AC$6&lt;$N62+$O62), 1, IF(AND(AC$6&gt;=$H62,AC$6&lt;$H62+$I62), 2, 0))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AH62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AI62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AJ62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL62" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AM62" s="16">
-        <f t="shared" ref="AM62:AV71" si="34">IF(AND(AM$6&gt;=$N62,AM$6&lt;$N62+$O62), 1, IF(AND(AM$6&gt;=$H62,AM$6&lt;$H62+$I62), 2, 0))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AO62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AR62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AS62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AT62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AU62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AV62" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AW62" s="16">
-        <f t="shared" ref="AW62:BF71" si="35">IF(AND(AW$6&gt;=$N62,AW$6&lt;$N62+$O62), 1, IF(AND(AW$6&gt;=$H62,AW$6&lt;$H62+$I62), 2, 0))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AX62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AY62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AZ62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BA62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BB62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BC62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BD62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BE62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF62" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BG62" s="16">
-        <f t="shared" ref="BG62:BH71" si="36">IF(AND(BG$6&gt;=$N62,BG$6&lt;$N62+$O62), 1, IF(AND(BG$6&gt;=$H62,BG$6&lt;$H62+$I62), 2, 0))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BH62" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -15013,7 +14923,7 @@
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
       <c r="S63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="S63:AB72" si="32">IF(AND(S$6&gt;=$N63,S$6&lt;$N63+$O63), 1, IF(AND(S$6&gt;=$H63,S$6&lt;$H63+$I63), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T63" s="16">
@@ -15053,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AC63:AL72" si="33">IF(AND(AC$6&gt;=$N63,AC$6&lt;$N63+$O63), 1, IF(AND(AC$6&gt;=$H63,AC$6&lt;$H63+$I63), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD63" s="16">
@@ -15093,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="AM63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AM63:AV72" si="34">IF(AND(AM$6&gt;=$N63,AM$6&lt;$N63+$O63), 1, IF(AND(AM$6&gt;=$H63,AM$6&lt;$H63+$I63), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN63" s="16">
@@ -15133,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AW63:BF72" si="35">IF(AND(AW$6&gt;=$N63,AW$6&lt;$N63+$O63), 1, IF(AND(AW$6&gt;=$H63,AW$6&lt;$H63+$I63), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX63" s="16">
@@ -15173,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="BG63" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="BG63:BH72" si="36">IF(AND(BG$6&gt;=$N63,BG$6&lt;$N63+$O63), 1, IF(AND(BG$6&gt;=$H63,BG$6&lt;$H63+$I63), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH63" s="16">
@@ -16786,171 +16696,171 @@
       <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
       <c r="S72" s="16">
-        <f t="shared" ref="S72:AB81" si="37">IF(AND(S$6&gt;=$N72,S$6&lt;$N72+$O72), 1, IF(AND(S$6&gt;=$H72,S$6&lt;$H72+$I72), 2, 0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB72" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" ref="AC72:AL81" si="38">IF(AND(AC$6&gt;=$N72,AC$6&lt;$N72+$O72), 1, IF(AND(AC$6&gt;=$H72,AC$6&lt;$H72+$I72), 2, 0))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AE72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AG72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AJ72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AL72" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AM72" s="16">
-        <f t="shared" ref="AM72:AV81" si="39">IF(AND(AM$6&gt;=$N72,AM$6&lt;$N72+$O72), 1, IF(AND(AM$6&gt;=$H72,AM$6&lt;$H72+$I72), 2, 0))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AN72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AO72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AP72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AQ72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AR72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AS72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AT72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AU72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AV72" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AW72" s="16">
-        <f t="shared" ref="AW72:BF81" si="40">IF(AND(AW$6&gt;=$N72,AW$6&lt;$N72+$O72), 1, IF(AND(AW$6&gt;=$H72,AW$6&lt;$H72+$I72), 2, 0))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AX72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AY72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AZ72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BA72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BB72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BC72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BD72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BE72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BF72" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BG72" s="16">
-        <f t="shared" ref="BG72:BH81" si="41">IF(AND(BG$6&gt;=$N72,BG$6&lt;$N72+$O72), 1, IF(AND(BG$6&gt;=$H72,BG$6&lt;$H72+$I72), 2, 0))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BH72" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -16983,7 +16893,7 @@
       <c r="Q73" s="14"/>
       <c r="R73" s="14"/>
       <c r="S73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="S73:AB82" si="37">IF(AND(S$6&gt;=$N73,S$6&lt;$N73+$O73), 1, IF(AND(S$6&gt;=$H73,S$6&lt;$H73+$I73), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T73" s="16">
@@ -17023,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AC73:AL82" si="38">IF(AND(AC$6&gt;=$N73,AC$6&lt;$N73+$O73), 1, IF(AND(AC$6&gt;=$H73,AC$6&lt;$H73+$I73), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD73" s="16">
@@ -17063,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="AM73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="AM73:AV82" si="39">IF(AND(AM$6&gt;=$N73,AM$6&lt;$N73+$O73), 1, IF(AND(AM$6&gt;=$H73,AM$6&lt;$H73+$I73), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN73" s="16">
@@ -17103,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="AW73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AW73:BF82" si="40">IF(AND(AW$6&gt;=$N73,AW$6&lt;$N73+$O73), 1, IF(AND(AW$6&gt;=$H73,AW$6&lt;$H73+$I73), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX73" s="16">
@@ -17143,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="BG73" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="BG73:BH82" si="41">IF(AND(BG$6&gt;=$N73,BG$6&lt;$N73+$O73), 1, IF(AND(BG$6&gt;=$H73,BG$6&lt;$H73+$I73), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH73" s="16">
@@ -18756,171 +18666,171 @@
       <c r="Q82" s="14"/>
       <c r="R82" s="14"/>
       <c r="S82" s="16">
-        <f t="shared" ref="S82:AB91" si="42">IF(AND(S$6&gt;=$N82,S$6&lt;$N82+$O82), 1, IF(AND(S$6&gt;=$H82,S$6&lt;$H82+$I82), 2, 0))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB82" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
-        <f t="shared" ref="AC82:AL91" si="43">IF(AND(AC$6&gt;=$N82,AC$6&lt;$N82+$O82), 1, IF(AND(AC$6&gt;=$H82,AC$6&lt;$H82+$I82), 2, 0))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AE82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AF82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AG82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AI82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AJ82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AL82" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AM82" s="16">
-        <f t="shared" ref="AM82:AV91" si="44">IF(AND(AM$6&gt;=$N82,AM$6&lt;$N82+$O82), 1, IF(AND(AM$6&gt;=$H82,AM$6&lt;$H82+$I82), 2, 0))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AR82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AS82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AT82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AU82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AV82" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AW82" s="16">
-        <f t="shared" ref="AW82:BF91" si="45">IF(AND(AW$6&gt;=$N82,AW$6&lt;$N82+$O82), 1, IF(AND(AW$6&gt;=$H82,AW$6&lt;$H82+$I82), 2, 0))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AX82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AY82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AZ82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BA82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BB82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BC82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BD82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BE82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BF82" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BG82" s="16">
-        <f t="shared" ref="BG82:BH91" si="46">IF(AND(BG$6&gt;=$N82,BG$6&lt;$N82+$O82), 1, IF(AND(BG$6&gt;=$H82,BG$6&lt;$H82+$I82), 2, 0))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="BH82" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -18953,7 +18863,7 @@
       <c r="Q83" s="14"/>
       <c r="R83" s="14"/>
       <c r="S83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="S83:AB92" si="42">IF(AND(S$6&gt;=$N83,S$6&lt;$N83+$O83), 1, IF(AND(S$6&gt;=$H83,S$6&lt;$H83+$I83), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T83" s="16">
@@ -18993,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AC83:AL92" si="43">IF(AND(AC$6&gt;=$N83,AC$6&lt;$N83+$O83), 1, IF(AND(AC$6&gt;=$H83,AC$6&lt;$H83+$I83), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD83" s="16">
@@ -19033,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="AM83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="AM83:AV92" si="44">IF(AND(AM$6&gt;=$N83,AM$6&lt;$N83+$O83), 1, IF(AND(AM$6&gt;=$H83,AM$6&lt;$H83+$I83), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN83" s="16">
@@ -19073,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="AW83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="AW83:BF92" si="45">IF(AND(AW$6&gt;=$N83,AW$6&lt;$N83+$O83), 1, IF(AND(AW$6&gt;=$H83,AW$6&lt;$H83+$I83), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX83" s="16">
@@ -19113,7 +19023,7 @@
         <v>0</v>
       </c>
       <c r="BG83" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="BG83:BH92" si="46">IF(AND(BG$6&gt;=$N83,BG$6&lt;$N83+$O83), 1, IF(AND(BG$6&gt;=$H83,BG$6&lt;$H83+$I83), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH83" s="16">
@@ -19920,7 +19830,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15">
-        <f t="shared" ref="J88:J115" si="47">H88 +I88</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K88" s="14"/>
@@ -19932,7 +19842,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="17"/>
       <c r="P88" s="15">
-        <f t="shared" ref="P88:P115" si="48">N88+O88</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q88" s="14"/>
@@ -20117,7 +20027,7 @@
       <c r="H89" s="15"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="J89:J116" si="47">H89 +I89</f>
         <v>0</v>
       </c>
       <c r="K89" s="14"/>
@@ -20129,7 +20039,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="17"/>
       <c r="P89" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="P89:P116" si="48">N89+O89</f>
         <v>0</v>
       </c>
       <c r="Q89" s="14"/>
@@ -20726,171 +20636,171 @@
       <c r="Q92" s="14"/>
       <c r="R92" s="14"/>
       <c r="S92" s="16">
-        <f t="shared" ref="S92:AB101" si="49">IF(AND(S$6&gt;=$N92,S$6&lt;$N92+$O92), 1, IF(AND(S$6&gt;=$H92,S$6&lt;$H92+$I92), 2, 0))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB92" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" ref="AC92:AL101" si="50">IF(AND(AC$6&gt;=$N92,AC$6&lt;$N92+$O92), 1, IF(AND(AC$6&gt;=$H92,AC$6&lt;$H92+$I92), 2, 0))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AD92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AE92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AF92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AJ92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AK92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AL92" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM92" s="16">
-        <f t="shared" ref="AM92:AV101" si="51">IF(AND(AM$6&gt;=$N92,AM$6&lt;$N92+$O92), 1, IF(AND(AM$6&gt;=$H92,AM$6&lt;$H92+$I92), 2, 0))</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AO92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AP92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AQ92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AR92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AS92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AV92" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW92" s="16">
-        <f t="shared" ref="AW92:BF101" si="52">IF(AND(AW$6&gt;=$N92,AW$6&lt;$N92+$O92), 1, IF(AND(AW$6&gt;=$H92,AW$6&lt;$H92+$I92), 2, 0))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AY92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AZ92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BA92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BB92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BC92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BD92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BE92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BF92" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BG92" s="16">
-        <f t="shared" ref="BG92:BH101" si="53">IF(AND(BG$6&gt;=$N92,BG$6&lt;$N92+$O92), 1, IF(AND(BG$6&gt;=$H92,BG$6&lt;$H92+$I92), 2, 0))</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="BH92" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -20923,7 +20833,7 @@
       <c r="Q93" s="14"/>
       <c r="R93" s="14"/>
       <c r="S93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="S93:AB102" si="49">IF(AND(S$6&gt;=$N93,S$6&lt;$N93+$O93), 1, IF(AND(S$6&gt;=$H93,S$6&lt;$H93+$I93), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T93" s="16">
@@ -20963,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="AC93:AL102" si="50">IF(AND(AC$6&gt;=$N93,AC$6&lt;$N93+$O93), 1, IF(AND(AC$6&gt;=$H93,AC$6&lt;$H93+$I93), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD93" s="16">
@@ -21003,7 +20913,7 @@
         <v>0</v>
       </c>
       <c r="AM93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AM93:AV102" si="51">IF(AND(AM$6&gt;=$N93,AM$6&lt;$N93+$O93), 1, IF(AND(AM$6&gt;=$H93,AM$6&lt;$H93+$I93), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN93" s="16">
@@ -21043,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="AW93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AW93:BF102" si="52">IF(AND(AW$6&gt;=$N93,AW$6&lt;$N93+$O93), 1, IF(AND(AW$6&gt;=$H93,AW$6&lt;$H93+$I93), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX93" s="16">
@@ -21083,7 +20993,7 @@
         <v>0</v>
       </c>
       <c r="BG93" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="BG93:BH102" si="53">IF(AND(BG$6&gt;=$N93,BG$6&lt;$N93+$O93), 1, IF(AND(BG$6&gt;=$H93,BG$6&lt;$H93+$I93), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH93" s="16">
@@ -22696,171 +22606,171 @@
       <c r="Q102" s="14"/>
       <c r="R102" s="14"/>
       <c r="S102" s="16">
-        <f t="shared" ref="S102:AB115" si="54">IF(AND(S$6&gt;=$N102,S$6&lt;$N102+$O102), 1, IF(AND(S$6&gt;=$H102,S$6&lt;$H102+$I102), 2, 0))</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AA102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AB102" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AC102" s="16">
-        <f t="shared" ref="AC102:AL115" si="55">IF(AND(AC$6&gt;=$N102,AC$6&lt;$N102+$O102), 1, IF(AND(AC$6&gt;=$H102,AC$6&lt;$H102+$I102), 2, 0))</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AE102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AF102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AH102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AI102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AJ102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AK102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AL102" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AM102" s="16">
-        <f t="shared" ref="AM102:AV115" si="56">IF(AND(AM$6&gt;=$N102,AM$6&lt;$N102+$O102), 1, IF(AND(AM$6&gt;=$H102,AM$6&lt;$H102+$I102), 2, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AN102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AO102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AP102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AQ102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AR102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AS102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AT102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AU102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AV102" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AW102" s="16">
-        <f t="shared" ref="AW102:BF115" si="57">IF(AND(AW$6&gt;=$N102,AW$6&lt;$N102+$O102), 1, IF(AND(AW$6&gt;=$H102,AW$6&lt;$H102+$I102), 2, 0))</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AX102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AY102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AZ102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BA102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BB102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BC102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BD102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BE102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BF102" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BG102" s="16">
-        <f t="shared" ref="BG102:BH115" si="58">IF(AND(BG$6&gt;=$N102,BG$6&lt;$N102+$O102), 1, IF(AND(BG$6&gt;=$H102,BG$6&lt;$H102+$I102), 2, 0))</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BH102" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -22893,7 +22803,7 @@
       <c r="Q103" s="14"/>
       <c r="R103" s="14"/>
       <c r="S103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="S103:AB116" si="54">IF(AND(S$6&gt;=$N103,S$6&lt;$N103+$O103), 1, IF(AND(S$6&gt;=$H103,S$6&lt;$H103+$I103), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T103" s="16">
@@ -22933,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="AC103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AC103:AL116" si="55">IF(AND(AC$6&gt;=$N103,AC$6&lt;$N103+$O103), 1, IF(AND(AC$6&gt;=$H103,AC$6&lt;$H103+$I103), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD103" s="16">
@@ -22973,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="AM103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="AM103:AV116" si="56">IF(AND(AM$6&gt;=$N103,AM$6&lt;$N103+$O103), 1, IF(AND(AM$6&gt;=$H103,AM$6&lt;$H103+$I103), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN103" s="16">
@@ -23013,7 +22923,7 @@
         <v>0</v>
       </c>
       <c r="AW103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="AW103:BF116" si="57">IF(AND(AW$6&gt;=$N103,AW$6&lt;$N103+$O103), 1, IF(AND(AW$6&gt;=$H103,AW$6&lt;$H103+$I103), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX103" s="16">
@@ -23053,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="BG103" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="BG103:BH116" si="58">IF(AND(BG$6&gt;=$N103,BG$6&lt;$N103+$O103), 1, IF(AND(BG$6&gt;=$H103,BG$6&lt;$H103+$I103), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH103" s="16">
@@ -25242,6 +25152,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
+      <c r="K115" s="14"/>
       <c r="L115" s="14" t="e">
         <f>LOOKUP(K115,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
@@ -25420,6 +25331,202 @@
         <v>0</v>
       </c>
       <c r="BH115" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="14"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="15">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="14" t="e">
+        <f>LOOKUP(K116,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M116" s="14"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="14"/>
+      <c r="R116" s="14"/>
+      <c r="S116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AA116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AB116" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AC116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AG116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AH116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AI116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AJ116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AL116" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AM116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AN116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AO116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AP116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AQ116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AR116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AS116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AT116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AU116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AV116" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AW116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AX116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AY116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AZ116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BA116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BB116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BC116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BD116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BE116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BF116" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BG116" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BH116" s="16">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -25451,367 +25558,372 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A35:A36 D27:F27 A43 D38:F43 H38:J43 L45:BH48 A52:A115 D45:F46 D52:J115 D48:F48 H45:J46 D47:J47 H48:J48 L50:BH115 D50:F51 H50:J51 D8:J26 H27:J28 D34:J37 E28:F28 L12:BH28 H31:J33 D31:F33 L31:BH43 E30">
-    <cfRule type="expression" dxfId="180" priority="75" stopIfTrue="1">
+  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A36:A37 D27:F27 A44 D39:F44 H39:J44 L46:BH49 A53:A116 D46:F47 D53:J116 D49:F49 H46:J47 D48:J48 H49:J49 L51:BH116 D51:F52 H51:J52 D8:J26 H27:J28 D34:J38 E28:F28 L12:BH28 H31:J33 D31:F33 L31:BH44 E30">
+    <cfRule type="expression" dxfId="188" priority="75" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
-    <cfRule type="expression" dxfId="179" priority="73">
+  <conditionalFormatting sqref="S8:BH44 S46:BH49 S51:BH116">
+    <cfRule type="expression" dxfId="187" priority="73">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="74">
+    <cfRule type="expression" dxfId="186" priority="74">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH26 S29:BH29 S32:BH43 S45:BH48 S50:BH115">
-    <cfRule type="expression" dxfId="177" priority="78" stopIfTrue="1">
+  <conditionalFormatting sqref="S8:BH26 S29:BH29 S32:BH44 S46:BH49 S51:BH116">
+    <cfRule type="expression" dxfId="185" priority="78" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:S16">
-    <cfRule type="expression" dxfId="176" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="88" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
-    <cfRule type="cellIs" dxfId="175" priority="87" operator="equal">
+  <conditionalFormatting sqref="S8:BH44 S46:BH49 S51:BH116">
+    <cfRule type="cellIs" dxfId="183" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
-    <cfRule type="cellIs" dxfId="174" priority="86" operator="equal">
+  <conditionalFormatting sqref="S8:BH44 S46:BH49 S51:BH116">
+    <cfRule type="cellIs" dxfId="182" priority="86" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH43 S45:BH48 S50:BH115">
-    <cfRule type="cellIs" dxfId="173" priority="80" operator="equal">
+  <conditionalFormatting sqref="S8:BH44 S46:BH49 S51:BH116">
+    <cfRule type="cellIs" dxfId="181" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B45:C48 B50:C115 B13:C17 B24:C43 B20:C21 B18:B23">
-    <cfRule type="containsText" dxfId="172" priority="63" operator="containsText" text="Bug Fix">
+  <conditionalFormatting sqref="B11:C11 B46:C49 B51:C116 B13:C17 B24:C44 B20:C21 B18:B23">
+    <cfRule type="containsText" dxfId="180" priority="63" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="64" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="179" priority="64" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="65" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="178" priority="65" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="66" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="177" priority="66" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="67" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="176" priority="67" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10 K23 K26 K35:K36 K38:K39 K41:K43 K45:K48 K50:K114 K13:K14 K17 L29:BH29 F29:J29 D29">
-    <cfRule type="expression" dxfId="167" priority="90" stopIfTrue="1">
+  <conditionalFormatting sqref="Q10 K23 K26 K36:K37 K39:K40 K42:K44 K46:K49 K51:K115 K13:K14 K17 L29:BH29 F29:J29 D29">
+    <cfRule type="expression" dxfId="175" priority="90" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="containsText" dxfId="166" priority="58" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="174" priority="58" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="59" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="60" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="172" priority="60" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="61" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="62" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="170" priority="62" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="containsText" dxfId="161" priority="53" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="169" priority="53" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="54" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="168" priority="54" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="55" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="167" priority="55" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="56" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="166" priority="56" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="57" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="165" priority="57" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10 K8 K21 K33:K34">
-    <cfRule type="expression" dxfId="156" priority="91" stopIfTrue="1">
+  <conditionalFormatting sqref="K10 K8 K21">
+    <cfRule type="expression" dxfId="164" priority="91" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K24:K25 K15:K16">
-    <cfRule type="expression" dxfId="155" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="93" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9 K20 K22 K32">
-    <cfRule type="expression" dxfId="154" priority="96" stopIfTrue="1">
+  <conditionalFormatting sqref="K9 K20 K22 K33:K35">
+    <cfRule type="expression" dxfId="162" priority="96" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="153" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="52" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K19 K31">
-    <cfRule type="expression" dxfId="152" priority="99" stopIfTrue="1">
+  <conditionalFormatting sqref="K18:K19 K32">
+    <cfRule type="expression" dxfId="160" priority="99" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A23)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="151" priority="100" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A36)=1</formula>
+    <cfRule type="expression" dxfId="159" priority="100" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A37)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G42 L30:BH30 G32 F30:J30 D30">
-    <cfRule type="expression" dxfId="150" priority="102" stopIfTrue="1">
+  <conditionalFormatting sqref="G28 G43 L30:BH30 G32 F30:J30 D30">
+    <cfRule type="expression" dxfId="158" priority="102" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:BH30 S27:BH27">
-    <cfRule type="expression" dxfId="149" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="104" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G28)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:BH31 S28:BH28">
-    <cfRule type="expression" dxfId="148" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="105" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="147" priority="106" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A35)=1</formula>
+    <cfRule type="expression" dxfId="155" priority="106" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A36)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="146" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="50" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="145" priority="110" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A36)=1</formula>
+    <cfRule type="expression" dxfId="153" priority="110" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A37)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40 G43">
-    <cfRule type="expression" dxfId="144" priority="48" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A40)=1</formula>
+  <conditionalFormatting sqref="G41 G44">
+    <cfRule type="expression" dxfId="152" priority="48" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A41)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="143" priority="49" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A38)=1</formula>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="expression" dxfId="151" priority="49" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A39)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38 G41">
-    <cfRule type="expression" dxfId="142" priority="46" stopIfTrue="1">
+  <conditionalFormatting sqref="G39 G42">
+    <cfRule type="expression" dxfId="150" priority="46" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37 K40">
-    <cfRule type="expression" dxfId="141" priority="141" stopIfTrue="1">
+  <conditionalFormatting sqref="K38 K41">
+    <cfRule type="expression" dxfId="149" priority="141" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44 D44:J44 L44:BH44">
-    <cfRule type="expression" dxfId="140" priority="40" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A44)=1</formula>
+  <conditionalFormatting sqref="A45 D45:J45 L45:BH45">
+    <cfRule type="expression" dxfId="148" priority="40" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A45)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="expression" dxfId="139" priority="38">
+  <conditionalFormatting sqref="S45:BH45">
+    <cfRule type="expression" dxfId="147" priority="38">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="39">
+    <cfRule type="expression" dxfId="146" priority="39">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="expression" dxfId="137" priority="41" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G44)=1</formula>
+  <conditionalFormatting sqref="S45:BH45">
+    <cfRule type="expression" dxfId="145" priority="41" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$G45)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="cellIs" dxfId="136" priority="44" operator="equal">
+  <conditionalFormatting sqref="S45:BH45">
+    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="cellIs" dxfId="135" priority="43" operator="equal">
+  <conditionalFormatting sqref="S45:BH45">
+    <cfRule type="cellIs" dxfId="143" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S44:BH44">
-    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
+  <conditionalFormatting sqref="S45:BH45">
+    <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:C44">
-    <cfRule type="containsText" dxfId="133" priority="33" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B44)))</formula>
+  <conditionalFormatting sqref="B45:C45">
+    <cfRule type="containsText" dxfId="141" priority="33" operator="containsText" text="Bug Fix">
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="34" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B44)))</formula>
+    <cfRule type="containsText" dxfId="140" priority="34" operator="containsText" text="Code">
+      <formula>NOT(ISERROR(SEARCH("Code",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="35" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B44)))</formula>
+    <cfRule type="containsText" dxfId="139" priority="35" operator="containsText" text="Audio">
+      <formula>NOT(ISERROR(SEARCH("Audio",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="36" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B44)))</formula>
+    <cfRule type="containsText" dxfId="138" priority="36" operator="containsText" text="Level">
+      <formula>NOT(ISERROR(SEARCH("Level",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="37" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B44)))</formula>
+    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="Art">
+      <formula>NOT(ISERROR(SEARCH("Art",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="128" priority="45" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A45)=1</formula>
+  <conditionalFormatting sqref="K45">
+    <cfRule type="expression" dxfId="136" priority="45" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A46)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="127" priority="32" stopIfTrue="1">
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="135" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="126" priority="31" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A46)=1</formula>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="expression" dxfId="134" priority="31" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A47)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="125" priority="30" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A48)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49 D49:J49 L49:BH49">
-    <cfRule type="expression" dxfId="124" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="133" priority="30" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="expression" dxfId="123" priority="22">
+  <conditionalFormatting sqref="A50 D50:J50 L50:BH50">
+    <cfRule type="expression" dxfId="132" priority="24" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A50)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S50:BH50">
+    <cfRule type="expression" dxfId="131" priority="22">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="23">
+    <cfRule type="expression" dxfId="130" priority="23">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="expression" dxfId="121" priority="25" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G49)=1</formula>
+  <conditionalFormatting sqref="S50:BH50">
+    <cfRule type="expression" dxfId="129" priority="25" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$G50)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="120" priority="28" operator="equal">
+  <conditionalFormatting sqref="S50:BH50">
+    <cfRule type="cellIs" dxfId="128" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="119" priority="27" operator="equal">
+  <conditionalFormatting sqref="S50:BH50">
+    <cfRule type="cellIs" dxfId="127" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
+  <conditionalFormatting sqref="S50:BH50">
+    <cfRule type="cellIs" dxfId="126" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:C49">
-    <cfRule type="containsText" dxfId="117" priority="17" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B49)))</formula>
+  <conditionalFormatting sqref="B50:C50">
+    <cfRule type="containsText" dxfId="125" priority="17" operator="containsText" text="Bug Fix">
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="18" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B49)))</formula>
+    <cfRule type="containsText" dxfId="124" priority="18" operator="containsText" text="Code">
+      <formula>NOT(ISERROR(SEARCH("Code",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="19" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B49)))</formula>
+    <cfRule type="containsText" dxfId="123" priority="19" operator="containsText" text="Audio">
+      <formula>NOT(ISERROR(SEARCH("Audio",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="20" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B49)))</formula>
+    <cfRule type="containsText" dxfId="122" priority="20" operator="containsText" text="Level">
+      <formula>NOT(ISERROR(SEARCH("Level",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B49)))</formula>
+    <cfRule type="containsText" dxfId="121" priority="21" operator="containsText" text="Art">
+      <formula>NOT(ISERROR(SEARCH("Art",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="expression" dxfId="112" priority="29" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A50)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="111" priority="16" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A50)=1</formula>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="expression" dxfId="120" priority="29" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="110" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="16" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A51)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="118" priority="15" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A52)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="109" priority="10" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="117" priority="10" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="11" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="116" priority="11" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="12" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="115" priority="12" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="13" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="114" priority="13" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="14" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="113" priority="14" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="6" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="111" priority="6" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="7" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="110" priority="7" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="8" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="109" priority="8" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="9" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="108" priority="9" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="99" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A32)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="98" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="3" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A28)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="97" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="151" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="96" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="153" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="expression" dxfId="103" priority="156" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A37)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25853,31 +25965,31 @@
           <x14:formula1>
             <xm:f>TaskTypes!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B110</xm:sqref>
+          <xm:sqref>B8:B111</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>TaskGrading!$A$4:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K8:K114</xm:sqref>
+          <xm:sqref>K8:K115</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>TaskStatus!$A$6:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>R8:R115</xm:sqref>
+          <xm:sqref>R8:R116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AF4FB63-5986-4C21-AFB9-6703D4D46921}">
           <x14:formula1>
             <xm:f>Priorities!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C24:C115 C8:C17 C20:C21</xm:sqref>
+          <xm:sqref>C24:C116 C8:C17 C20:C21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Main!$A$9:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G8:G115</xm:sqref>
+          <xm:sqref>G8:G116</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -26552,309 +26664,309 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="containsText" dxfId="95" priority="85" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="102" priority="85" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="86" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="101" priority="86" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="87" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="100" priority="87" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="88" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="99" priority="88" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="89" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="98" priority="89" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 BG7:BH7 C7 E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7 Y7 AA7 AC7 AE7 AG7 AI7 AK7 AM7 AO7 AQ7 AS7 AU7 AW7 AY7 BA7 BC7 BE7">
-    <cfRule type="expression" dxfId="90" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="89" priority="77">
+    <cfRule type="expression" dxfId="96" priority="77">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="78">
+    <cfRule type="expression" dxfId="95" priority="78">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="87" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7 N7 P7 R7 T7 V7 X7 Z7 AB7 AD7 AF7 AH7 AJ7 AL7 AN7 AP7 AR7 AT7 AV7 AX7 AZ7 BB7 BD7 BF7">
-    <cfRule type="expression" dxfId="83" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="82" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="88" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="76" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="83" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="81" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="79" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="77" priority="56" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="76" priority="57" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="58" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="75" priority="58" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="59" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="74" priority="59" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="66" priority="50" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="73" priority="50" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="51" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="72" priority="51" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="68" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="46" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="67" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="47" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="66" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="48" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="65" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="64" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="63" priority="40" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 BG14:BH14 C14 E14 G14 I14 K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14">
-    <cfRule type="expression" dxfId="51" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="50" priority="33">
+    <cfRule type="expression" dxfId="57" priority="33">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="34">
+    <cfRule type="expression" dxfId="56" priority="34">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14">
-    <cfRule type="expression" dxfId="44" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 B22">
-    <cfRule type="expression" dxfId="43" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A17)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="43" priority="22" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26957,29 +27069,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27092,24 +27204,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keith\Documents\GitHub\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raidzer\Documents\GitHub\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CAC3DD-C329-4189-96B3-FE0CEEE1CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348F67ED-6817-441B-A2A1-0B6E05817569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="204">
   <si>
     <t>TASK</t>
   </si>
@@ -977,6 +977,9 @@
   </si>
   <si>
     <t>Update Main Menu Design</t>
+  </si>
+  <si>
+    <t>Updated Paue UI</t>
   </si>
 </sst>
 </file>
@@ -4076,11 +4079,11 @@
       </c>
       <c r="E11">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A11, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A11, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -4497,13 +4500,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BZ116"/>
+  <dimension ref="A1:BZ117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
+      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5425,11 +5428,11 @@
         <v>44494</v>
       </c>
       <c r="O10" s="71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P10" s="70"/>
       <c r="Q10" s="69">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R10" s="69" t="s">
         <v>58</v>
@@ -5815,7 +5818,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="70">
-        <f t="shared" ref="J13:J88" si="13">H13 +I13</f>
+        <f t="shared" ref="J13:J89" si="13">H13 +I13</f>
         <v>44496</v>
       </c>
       <c r="K13" s="72" t="s">
@@ -5833,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="70">
-        <f t="shared" ref="P13:P88" si="14">N13+O13</f>
+        <f t="shared" ref="P13:P89" si="14">N13+O13</f>
         <v>44496</v>
       </c>
       <c r="Q13" s="69">
@@ -7200,21 +7203,27 @@
         <v>44501</v>
       </c>
       <c r="I20" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="75">
         <f t="shared" si="13"/>
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="K20" s="74"/>
       <c r="L20" s="74"/>
       <c r="M20" s="74"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
+      <c r="N20" s="75">
+        <v>44506</v>
+      </c>
+      <c r="O20" s="76">
+        <v>2</v>
+      </c>
       <c r="P20" s="75"/>
-      <c r="Q20" s="74"/>
+      <c r="Q20" s="74">
+        <v>2</v>
+      </c>
       <c r="R20" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
@@ -8207,7 +8216,7 @@
         <v>56</v>
       </c>
       <c r="S27" s="16" t="e">
-        <f t="shared" ref="S27:AB42" si="15">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="S27:AB43" si="15">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="T27" s="16" t="e">
@@ -8247,7 +8256,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AC27" s="16" t="e">
-        <f t="shared" ref="AC27:AL42" si="16">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AC27:AL43" si="16">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD27" s="16" t="e">
@@ -8287,7 +8296,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AM27" s="16" t="e">
-        <f t="shared" ref="AM27:AV42" si="17">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AM27:AV43" si="17">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AN27" s="16" t="e">
@@ -8327,7 +8336,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AW27" s="16" t="e">
-        <f t="shared" ref="AW27:BF42" si="18">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AW27:BF43" si="18">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AX27" s="16" t="e">
@@ -8367,7 +8376,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BG27" s="16" t="e">
-        <f t="shared" ref="BG27:BH42" si="19">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="BG27:BH43" si="19">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BH27" s="16" t="e">
@@ -9000,20 +9009,12 @@
     </row>
     <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>191</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="66"/>
       <c r="G32" s="74" t="s">
         <v>103</v>
@@ -9022,18 +9023,24 @@
         <v>44510</v>
       </c>
       <c r="I32" s="74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="75"/>
       <c r="K32" s="74"/>
       <c r="L32" s="74"/>
       <c r="M32" s="74"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="76"/>
+      <c r="N32" s="75">
+        <v>44512</v>
+      </c>
+      <c r="O32" s="76">
+        <v>2</v>
+      </c>
       <c r="P32" s="75"/>
-      <c r="Q32" s="74"/>
+      <c r="Q32" s="74">
+        <v>3</v>
+      </c>
       <c r="R32" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
@@ -9080,53 +9087,40 @@
     </row>
     <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H33" s="75">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="I33" s="74">
         <v>1</v>
       </c>
-      <c r="J33" s="75">
-        <v>44510</v>
-      </c>
+      <c r="J33" s="75"/>
       <c r="K33" s="74"/>
-      <c r="L33" s="74">
-        <v>2</v>
-      </c>
+      <c r="L33" s="74"/>
       <c r="M33" s="74"/>
-      <c r="N33" s="75">
-        <v>44509</v>
-      </c>
-      <c r="O33" s="76">
-        <v>1</v>
-      </c>
-      <c r="P33" s="75">
-        <f>N33+O33</f>
-        <v>44510</v>
-      </c>
-      <c r="Q33" s="74">
-        <v>2</v>
-      </c>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="74"/>
       <c r="R33" s="74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
@@ -9173,10 +9167,10 @@
     </row>
     <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>75</v>
@@ -9185,34 +9179,41 @@
         <v>89</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H34" s="75">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="I34" s="74">
         <v>1</v>
       </c>
-      <c r="J34" s="75"/>
+      <c r="J34" s="75">
+        <v>44510</v>
+      </c>
       <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
+      <c r="L34" s="74">
+        <v>2</v>
+      </c>
       <c r="M34" s="74"/>
       <c r="N34" s="75">
-        <v>44514</v>
+        <v>44509</v>
       </c>
       <c r="O34" s="76">
         <v>1</v>
       </c>
-      <c r="P34" s="75"/>
+      <c r="P34" s="75">
+        <f>N34+O34</f>
+        <v>44510</v>
+      </c>
       <c r="Q34" s="74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R34" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
@@ -9259,12 +9260,20 @@
     </row>
     <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="53"/>
+        <v>132</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>194</v>
+      </c>
       <c r="F35" s="66"/>
       <c r="G35" s="74" t="s">
         <v>105</v>
@@ -9280,7 +9289,7 @@
       <c r="L35" s="74"/>
       <c r="M35" s="74"/>
       <c r="N35" s="75">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="O35" s="76">
         <v>1</v>
@@ -9335,238 +9344,115 @@
       <c r="BG35" s="16"/>
       <c r="BH35" s="16"/>
     </row>
-    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="66">
-        <v>1.5</v>
-      </c>
+    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="74" t="s">
         <v>105</v>
       </c>
       <c r="H36" s="75">
-        <v>44512</v>
+        <v>44508</v>
       </c>
       <c r="I36" s="74">
         <v>1</v>
       </c>
-      <c r="J36" s="75">
+      <c r="J36" s="75"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="75">
+        <v>44513</v>
+      </c>
+      <c r="O36" s="76">
+        <v>1</v>
+      </c>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="74">
+        <v>5</v>
+      </c>
+      <c r="R36" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="16"/>
+      <c r="AO36" s="16"/>
+      <c r="AP36" s="16"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="16"/>
+      <c r="AV36" s="16"/>
+      <c r="AW36" s="16"/>
+      <c r="AX36" s="16"/>
+      <c r="AY36" s="16"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="16"/>
+      <c r="BB36" s="16"/>
+      <c r="BC36" s="16"/>
+      <c r="BD36" s="16"/>
+      <c r="BE36" s="16"/>
+      <c r="BF36" s="16"/>
+      <c r="BG36" s="16"/>
+      <c r="BH36" s="16"/>
+    </row>
+    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="75">
+        <v>44512</v>
+      </c>
+      <c r="I37" s="74">
+        <v>1</v>
+      </c>
+      <c r="J37" s="75">
         <f t="shared" si="13"/>
         <v>44513</v>
-      </c>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74" t="e">
-        <f>LOOKUP(K36,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M36" s="74"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="S36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="16">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AL36" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AM36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AP36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AS36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AT36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AU36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AV36" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AW36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AX36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AY36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BA36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BB36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BC36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BD36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BE36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BF36" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="BG36" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BH36" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="75">
-        <f t="shared" si="13"/>
-        <v>0</v>
       </c>
       <c r="K37" s="74"/>
       <c r="L37" s="74" t="e">
@@ -9574,14 +9460,16 @@
         <v>#N/A</v>
       </c>
       <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
+      <c r="N37" s="75"/>
       <c r="O37" s="76"/>
       <c r="P37" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
+      <c r="R37" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S37" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9656,7 +9544,7 @@
       </c>
       <c r="AK37" s="16">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL37" s="16">
         <f t="shared" si="16"/>
@@ -9751,33 +9639,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>75</v>
-      </c>
+    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="82"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="66">
-        <v>1</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="75">
-        <v>44515</v>
-      </c>
-      <c r="I38" s="74">
-        <v>3</v>
-      </c>
+      <c r="F38" s="66"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="75">
         <f t="shared" si="13"/>
-        <v>44518</v>
+        <v>0</v>
       </c>
       <c r="K38" s="74"/>
       <c r="L38" s="74" t="e">
@@ -9792,9 +9668,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="74"/>
-      <c r="R38" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R38" s="74"/>
       <c r="S38" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -9881,15 +9755,15 @@
       </c>
       <c r="AN38" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="16">
         <f t="shared" si="17"/>
@@ -9966,13 +9840,13 @@
     </row>
     <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="82"/>
       <c r="E39" s="14"/>
@@ -9980,17 +9854,17 @@
         <v>1</v>
       </c>
       <c r="G39" s="74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H39" s="75">
         <v>44515</v>
       </c>
       <c r="I39" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="75">
         <f t="shared" si="13"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="K39" s="74"/>
       <c r="L39" s="74" t="e">
@@ -10098,11 +9972,11 @@
       </c>
       <c r="AO39" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP39" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ39" s="16">
         <f t="shared" si="17"/>
@@ -10179,31 +10053,31 @@
     </row>
     <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="82"/>
       <c r="E40" s="14"/>
       <c r="F40" s="66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40" s="74" t="s">
         <v>99</v>
       </c>
       <c r="H40" s="75">
-        <v>44548</v>
+        <v>44515</v>
       </c>
       <c r="I40" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="75">
         <f t="shared" si="13"/>
-        <v>44550</v>
+        <v>44516</v>
       </c>
       <c r="K40" s="74"/>
       <c r="L40" s="74" t="e">
@@ -10307,7 +10181,7 @@
       </c>
       <c r="AN40" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO40" s="16">
         <f t="shared" si="17"/>
@@ -10392,7 +10266,7 @@
     </row>
     <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>19</v>
@@ -10406,17 +10280,17 @@
         <v>4</v>
       </c>
       <c r="G41" s="74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H41" s="75">
-        <v>44515</v>
+        <v>44548</v>
       </c>
       <c r="I41" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" s="75">
         <f t="shared" si="13"/>
-        <v>44518</v>
+        <v>44550</v>
       </c>
       <c r="K41" s="74"/>
       <c r="L41" s="74" t="e">
@@ -10520,15 +10394,15 @@
       </c>
       <c r="AN41" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="16">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="16">
         <f t="shared" si="17"/>
@@ -10605,10 +10479,10 @@
     </row>
     <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>77</v>
@@ -10619,17 +10493,17 @@
         <v>4</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H42" s="75">
         <v>44515</v>
       </c>
       <c r="I42" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" s="75">
         <f t="shared" si="13"/>
-        <v>44516</v>
+        <v>44518</v>
       </c>
       <c r="K42" s="74"/>
       <c r="L42" s="74" t="e">
@@ -10737,11 +10611,11 @@
       </c>
       <c r="AO42" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP42" s="16">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ42" s="16">
         <f t="shared" si="17"/>
@@ -10818,7 +10692,7 @@
     </row>
     <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>20</v>
@@ -10835,14 +10709,14 @@
         <v>103</v>
       </c>
       <c r="H43" s="75">
-        <v>44548</v>
+        <v>44515</v>
       </c>
       <c r="I43" s="74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" s="75">
         <f t="shared" si="13"/>
-        <v>44550</v>
+        <v>44518</v>
       </c>
       <c r="K43" s="74"/>
       <c r="L43" s="74" t="e">
@@ -10850,212 +10724,216 @@
         <v>#N/A</v>
       </c>
       <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="76"/>
+      <c r="N43" s="75">
+        <v>44511</v>
+      </c>
+      <c r="O43" s="76">
+        <v>2</v>
+      </c>
       <c r="P43" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>44513</v>
       </c>
       <c r="Q43" s="74"/>
       <c r="R43" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S43" s="16">
-        <f t="shared" ref="S43:AB52" si="20">IF(AND(S$6&gt;=$N43,S$6&lt;$N43+$O43), 1, IF(AND(S$6&gt;=$H43,S$6&lt;$H43+$I43), 2, 0))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB43" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" ref="AC43:AL52" si="21">IF(AND(AC$6&gt;=$N43,AC$6&lt;$N43+$O43), 1, IF(AND(AC$6&gt;=$H43,AC$6&lt;$H43+$I43), 2, 0))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="AK43" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="AL43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM43" s="16">
-        <f t="shared" ref="AM43:AV52" si="22">IF(AND(AM$6&gt;=$N43,AM$6&lt;$N43+$O43), 1, IF(AND(AM$6&gt;=$H43,AM$6&lt;$H43+$I43), 2, 0))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AN43" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AO43" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AP43" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AQ43" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR43" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS43" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT43" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU43" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV43" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW43" s="16">
-        <f t="shared" ref="AW43:BF52" si="23">IF(AND(AW$6&gt;=$N43,AW$6&lt;$N43+$O43), 1, IF(AND(AW$6&gt;=$H43,AW$6&lt;$H43+$I43), 2, 0))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AX43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AY43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AZ43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BA43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BB43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BC43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BE43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BG43" s="16">
-        <f t="shared" ref="BG43:BH52" si="24">IF(AND(BG$6&gt;=$N43,BG$6&lt;$N43+$O43), 1, IF(AND(BG$6&gt;=$H43,BG$6&lt;$H43+$I43), 2, 0))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BH43" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="64" t="s">
-        <v>140</v>
+    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="65" t="s">
+        <v>139</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="82"/>
       <c r="E44" s="14"/>
       <c r="F44" s="66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H44" s="75">
-        <v>44515</v>
+        <v>44548</v>
       </c>
       <c r="I44" s="74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" s="75">
         <f t="shared" si="13"/>
-        <v>44519</v>
+        <v>44550</v>
       </c>
       <c r="K44" s="74"/>
       <c r="L44" s="74" t="e">
@@ -11074,7 +10952,7 @@
         <v>56</v>
       </c>
       <c r="S44" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="S44:AB53" si="20">IF(AND(S$6&gt;=$N44,S$6&lt;$N44+$O44), 1, IF(AND(S$6&gt;=$H44,S$6&lt;$H44+$I44), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T44" s="16">
@@ -11114,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AC44:AL53" si="21">IF(AND(AC$6&gt;=$N44,AC$6&lt;$N44+$O44), 1, IF(AND(AC$6&gt;=$H44,AC$6&lt;$H44+$I44), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD44" s="16">
@@ -11154,24 +11032,24 @@
         <v>0</v>
       </c>
       <c r="AM44" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AM44:AV53" si="22">IF(AND(AM$6&gt;=$N44,AM$6&lt;$N44+$O44), 1, IF(AND(AM$6&gt;=$H44,AM$6&lt;$H44+$I44), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN44" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="16">
         <f t="shared" si="22"/>
@@ -11194,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AW44:BF53" si="23">IF(AND(AW$6&gt;=$N44,AW$6&lt;$N44+$O44), 1, IF(AND(AW$6&gt;=$H44,AW$6&lt;$H44+$I44), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX44" s="16">
@@ -11234,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="BG44" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="BG44:BH53" si="24">IF(AND(BG$6&gt;=$N44,BG$6&lt;$N44+$O44), 1, IF(AND(BG$6&gt;=$H44,BG$6&lt;$H44+$I44), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH44" s="16">
@@ -11243,20 +11121,32 @@
       </c>
     </row>
     <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="D45" s="82"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="74"/>
+      <c r="F45" s="66">
+        <v>1</v>
+      </c>
+      <c r="G45" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="75">
+        <v>44515</v>
+      </c>
+      <c r="I45" s="74">
+        <v>4</v>
+      </c>
       <c r="J45" s="75">
-        <f t="shared" ref="J45" si="25">H45 +I45</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>44519</v>
       </c>
       <c r="K45" s="74"/>
       <c r="L45" s="74" t="e">
@@ -11267,11 +11157,13 @@
       <c r="N45" s="74"/>
       <c r="O45" s="76"/>
       <c r="P45" s="75">
-        <f t="shared" ref="P45" si="26">N45+O45</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
+      <c r="R45" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S45" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -11358,19 +11250,19 @@
       </c>
       <c r="AN45" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO45" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP45" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ45" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR45" s="16">
         <f t="shared" si="22"/>
@@ -11441,33 +11333,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>75</v>
-      </c>
+    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="82"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="66">
-        <v>8</v>
-      </c>
-      <c r="G46" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" s="75">
-        <v>44522</v>
-      </c>
-      <c r="I46" s="74">
-        <v>2</v>
-      </c>
+      <c r="F46" s="66"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="74"/>
       <c r="J46" s="75">
-        <f t="shared" si="13"/>
-        <v>44524</v>
+        <f t="shared" ref="J46" si="25">H46 +I46</f>
+        <v>0</v>
       </c>
       <c r="K46" s="74"/>
       <c r="L46" s="74" t="e">
@@ -11478,13 +11358,11 @@
       <c r="N46" s="74"/>
       <c r="O46" s="76"/>
       <c r="P46" s="75">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P46" si="26">N46+O46</f>
         <v>0</v>
       </c>
       <c r="Q46" s="74"/>
-      <c r="R46" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R46" s="74"/>
       <c r="S46" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -11599,11 +11477,11 @@
       </c>
       <c r="AU46" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="16">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="16">
         <f t="shared" si="23"/>
@@ -11656,13 +11534,13 @@
     </row>
     <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="82"/>
       <c r="E47" s="14"/>
@@ -11670,17 +11548,17 @@
         <v>8</v>
       </c>
       <c r="G47" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H47" s="75">
         <v>44522</v>
       </c>
       <c r="I47" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" s="75">
         <f t="shared" si="13"/>
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="K47" s="74"/>
       <c r="L47" s="74" t="e">
@@ -11820,7 +11698,7 @@
       </c>
       <c r="AW47" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="16">
         <f t="shared" si="23"/>
@@ -11869,7 +11747,7 @@
     </row>
     <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>21</v>
@@ -11883,17 +11761,17 @@
         <v>8</v>
       </c>
       <c r="G48" s="74" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H48" s="75">
         <v>44522</v>
       </c>
       <c r="I48" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" s="75">
         <f t="shared" si="13"/>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="K48" s="74"/>
       <c r="L48" s="74" t="e">
@@ -12029,11 +11907,11 @@
       </c>
       <c r="AV48" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW48" s="16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX48" s="16">
         <f t="shared" si="23"/>
@@ -12082,7 +11960,7 @@
     </row>
     <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>21</v>
@@ -12093,10 +11971,10 @@
       <c r="D49" s="82"/>
       <c r="E49" s="14"/>
       <c r="F49" s="66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G49" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H49" s="75">
         <v>44522</v>
@@ -12293,21 +12171,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="14"/>
+    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="82"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="74"/>
+      <c r="F50" s="66">
+        <v>1</v>
+      </c>
+      <c r="G50" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" s="75">
+        <v>44522</v>
+      </c>
+      <c r="I50" s="74">
+        <v>1</v>
+      </c>
       <c r="J50" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44523</v>
       </c>
       <c r="K50" s="74"/>
       <c r="L50" s="74" t="e">
@@ -12322,7 +12212,9 @@
         <v>0</v>
       </c>
       <c r="Q50" s="74"/>
-      <c r="R50" s="74"/>
+      <c r="R50" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S50" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -12437,7 +12329,7 @@
       </c>
       <c r="AU50" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV50" s="16">
         <f t="shared" si="22"/>
@@ -12492,33 +12384,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>77</v>
-      </c>
+    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="66">
-        <v>4</v>
-      </c>
-      <c r="G51" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="75">
-        <v>44529</v>
-      </c>
-      <c r="I51" s="74">
-        <v>4</v>
-      </c>
+      <c r="F51" s="66"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="75">
         <f t="shared" si="13"/>
-        <v>44533</v>
+        <v>0</v>
       </c>
       <c r="K51" s="74"/>
       <c r="L51" s="74" t="e">
@@ -12533,9 +12413,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="74"/>
-      <c r="R51" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R51" s="74"/>
       <c r="S51" s="16">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -12678,19 +12556,19 @@
       </c>
       <c r="BB51" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC51" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD51" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE51" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF51" s="16">
         <f t="shared" si="23"/>
@@ -12707,10 +12585,10 @@
     </row>
     <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>77</v>
@@ -12721,7 +12599,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H52" s="75">
         <v>44529</v>
@@ -12918,8 +12796,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="61"/>
+    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="65" t="s">
+        <v>146</v>
+      </c>
       <c r="B53" s="26" t="s">
         <v>19</v>
       </c>
@@ -12928,229 +12808,243 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="14">
+      <c r="F53" s="66">
         <v>4</v>
       </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="67">
+      <c r="G53" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="75">
+        <v>44529</v>
+      </c>
+      <c r="I53" s="74">
+        <v>4</v>
+      </c>
+      <c r="J53" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61" t="e">
+        <v>44533</v>
+      </c>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74" t="e">
         <f>LOOKUP(K53,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="67">
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S53" s="16">
-        <f t="shared" ref="S53:AB62" si="27">IF(AND(S$6&gt;=$N53,S$6&lt;$N53+$O53), 1, IF(AND(S$6&gt;=$H53,S$6&lt;$H53+$I53), 2, 0))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB53" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC53" s="16">
-        <f t="shared" ref="AC53:AL62" si="28">IF(AND(AC$6&gt;=$N53,AC$6&lt;$N53+$O53), 1, IF(AND(AC$6&gt;=$H53,AC$6&lt;$H53+$I53), 2, 0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AD53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AE53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AF53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AH53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AI53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AL53" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM53" s="16">
-        <f t="shared" ref="AM53:AV62" si="29">IF(AND(AM$6&gt;=$N53,AM$6&lt;$N53+$O53), 1, IF(AND(AM$6&gt;=$H53,AM$6&lt;$H53+$I53), 2, 0))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AN53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AO53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AP53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AQ53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AS53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AT53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AU53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AV53" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AW53" s="16">
-        <f t="shared" ref="AW53:BF62" si="30">IF(AND(AW$6&gt;=$N53,AW$6&lt;$N53+$O53), 1, IF(AND(AW$6&gt;=$H53,AW$6&lt;$H53+$I53), 2, 0))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AX53" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AY53" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AZ53" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BA53" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BB53" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BC53" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BD53" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BE53" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="BF53" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BG53" s="16">
-        <f t="shared" ref="BG53:BH62" si="31">IF(AND(BG$6&gt;=$N53,BG$6&lt;$N53+$O53), 1, IF(AND(BG$6&gt;=$H53,BG$6&lt;$H53+$I53), 2, 0))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BH53" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15">
+      <c r="F54" s="14">
+        <v>4</v>
+      </c>
+      <c r="G54" s="61"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14" t="e">
+      <c r="K54" s="61"/>
+      <c r="L54" s="61" t="e">
         <f>LOOKUP(K54,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="15">
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="67">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
       <c r="S54" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="S54:AB63" si="27">IF(AND(S$6&gt;=$N54,S$6&lt;$N54+$O54), 1, IF(AND(S$6&gt;=$H54,S$6&lt;$H54+$I54), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T54" s="16">
@@ -13190,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="AC54:AL63" si="28">IF(AND(AC$6&gt;=$N54,AC$6&lt;$N54+$O54), 1, IF(AND(AC$6&gt;=$H54,AC$6&lt;$H54+$I54), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD54" s="16">
@@ -13230,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AM54" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AM54:AV63" si="29">IF(AND(AM$6&gt;=$N54,AM$6&lt;$N54+$O54), 1, IF(AND(AM$6&gt;=$H54,AM$6&lt;$H54+$I54), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN54" s="16">
@@ -13270,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="AW54" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AW54:BF63" si="30">IF(AND(AW$6&gt;=$N54,AW$6&lt;$N54+$O54), 1, IF(AND(AW$6&gt;=$H54,AW$6&lt;$H54+$I54), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX54" s="16">
@@ -13310,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="BG54:BH63" si="31">IF(AND(BG$6&gt;=$N54,BG$6&lt;$N54+$O54), 1, IF(AND(BG$6&gt;=$H54,BG$6&lt;$H54+$I54), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH54" s="16">
@@ -14923,171 +14817,171 @@
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
       <c r="S63" s="16">
-        <f t="shared" ref="S63:AB72" si="32">IF(AND(S$6&gt;=$N63,S$6&lt;$N63+$O63), 1, IF(AND(S$6&gt;=$H63,S$6&lt;$H63+$I63), 2, 0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Y63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB63" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC63" s="16">
-        <f t="shared" ref="AC63:AL72" si="33">IF(AND(AC$6&gt;=$N63,AC$6&lt;$N63+$O63), 1, IF(AND(AC$6&gt;=$H63,AC$6&lt;$H63+$I63), 2, 0))</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AH63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AI63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL63" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AM63" s="16">
-        <f t="shared" ref="AM63:AV72" si="34">IF(AND(AM$6&gt;=$N63,AM$6&lt;$N63+$O63), 1, IF(AND(AM$6&gt;=$H63,AM$6&lt;$H63+$I63), 2, 0))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AO63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AR63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AS63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AT63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AU63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AV63" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AW63" s="16">
-        <f t="shared" ref="AW63:BF72" si="35">IF(AND(AW$6&gt;=$N63,AW$6&lt;$N63+$O63), 1, IF(AND(AW$6&gt;=$H63,AW$6&lt;$H63+$I63), 2, 0))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AX63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AY63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AZ63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BA63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BB63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BC63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BD63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BE63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF63" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BG63" s="16">
-        <f t="shared" ref="BG63:BH72" si="36">IF(AND(BG$6&gt;=$N63,BG$6&lt;$N63+$O63), 1, IF(AND(BG$6&gt;=$H63,BG$6&lt;$H63+$I63), 2, 0))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BH63" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -15120,7 +15014,7 @@
       <c r="Q64" s="14"/>
       <c r="R64" s="14"/>
       <c r="S64" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="S64:AB73" si="32">IF(AND(S$6&gt;=$N64,S$6&lt;$N64+$O64), 1, IF(AND(S$6&gt;=$H64,S$6&lt;$H64+$I64), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T64" s="16">
@@ -15160,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AC64:AL73" si="33">IF(AND(AC$6&gt;=$N64,AC$6&lt;$N64+$O64), 1, IF(AND(AC$6&gt;=$H64,AC$6&lt;$H64+$I64), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD64" s="16">
@@ -15200,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AM64:AV73" si="34">IF(AND(AM$6&gt;=$N64,AM$6&lt;$N64+$O64), 1, IF(AND(AM$6&gt;=$H64,AM$6&lt;$H64+$I64), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN64" s="16">
@@ -15240,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="AW64" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AW64:BF73" si="35">IF(AND(AW$6&gt;=$N64,AW$6&lt;$N64+$O64), 1, IF(AND(AW$6&gt;=$H64,AW$6&lt;$H64+$I64), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX64" s="16">
@@ -15280,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="BG64" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="BG64:BH73" si="36">IF(AND(BG$6&gt;=$N64,BG$6&lt;$N64+$O64), 1, IF(AND(BG$6&gt;=$H64,BG$6&lt;$H64+$I64), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH64" s="16">
@@ -16893,171 +16787,171 @@
       <c r="Q73" s="14"/>
       <c r="R73" s="14"/>
       <c r="S73" s="16">
-        <f t="shared" ref="S73:AB82" si="37">IF(AND(S$6&gt;=$N73,S$6&lt;$N73+$O73), 1, IF(AND(S$6&gt;=$H73,S$6&lt;$H73+$I73), 2, 0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB73" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" ref="AC73:AL82" si="38">IF(AND(AC$6&gt;=$N73,AC$6&lt;$N73+$O73), 1, IF(AND(AC$6&gt;=$H73,AC$6&lt;$H73+$I73), 2, 0))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AE73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AG73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AJ73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AL73" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AM73" s="16">
-        <f t="shared" ref="AM73:AV82" si="39">IF(AND(AM$6&gt;=$N73,AM$6&lt;$N73+$O73), 1, IF(AND(AM$6&gt;=$H73,AM$6&lt;$H73+$I73), 2, 0))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AN73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AO73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AP73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AQ73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AR73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AS73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AT73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AU73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AV73" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AW73" s="16">
-        <f t="shared" ref="AW73:BF82" si="40">IF(AND(AW$6&gt;=$N73,AW$6&lt;$N73+$O73), 1, IF(AND(AW$6&gt;=$H73,AW$6&lt;$H73+$I73), 2, 0))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AX73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AY73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AZ73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BA73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BB73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BC73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BD73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BE73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BF73" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="BG73" s="16">
-        <f t="shared" ref="BG73:BH82" si="41">IF(AND(BG$6&gt;=$N73,BG$6&lt;$N73+$O73), 1, IF(AND(BG$6&gt;=$H73,BG$6&lt;$H73+$I73), 2, 0))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BH73" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -17090,7 +16984,7 @@
       <c r="Q74" s="14"/>
       <c r="R74" s="14"/>
       <c r="S74" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="S74:AB83" si="37">IF(AND(S$6&gt;=$N74,S$6&lt;$N74+$O74), 1, IF(AND(S$6&gt;=$H74,S$6&lt;$H74+$I74), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T74" s="16">
@@ -17130,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AC74:AL83" si="38">IF(AND(AC$6&gt;=$N74,AC$6&lt;$N74+$O74), 1, IF(AND(AC$6&gt;=$H74,AC$6&lt;$H74+$I74), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD74" s="16">
@@ -17170,7 +17064,7 @@
         <v>0</v>
       </c>
       <c r="AM74" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="AM74:AV83" si="39">IF(AND(AM$6&gt;=$N74,AM$6&lt;$N74+$O74), 1, IF(AND(AM$6&gt;=$H74,AM$6&lt;$H74+$I74), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN74" s="16">
@@ -17210,7 +17104,7 @@
         <v>0</v>
       </c>
       <c r="AW74" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AW74:BF83" si="40">IF(AND(AW$6&gt;=$N74,AW$6&lt;$N74+$O74), 1, IF(AND(AW$6&gt;=$H74,AW$6&lt;$H74+$I74), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX74" s="16">
@@ -17250,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="BG74" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="BG74:BH83" si="41">IF(AND(BG$6&gt;=$N74,BG$6&lt;$N74+$O74), 1, IF(AND(BG$6&gt;=$H74,BG$6&lt;$H74+$I74), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH74" s="16">
@@ -18863,171 +18757,171 @@
       <c r="Q83" s="14"/>
       <c r="R83" s="14"/>
       <c r="S83" s="16">
-        <f t="shared" ref="S83:AB92" si="42">IF(AND(S$6&gt;=$N83,S$6&lt;$N83+$O83), 1, IF(AND(S$6&gt;=$H83,S$6&lt;$H83+$I83), 2, 0))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB83" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC83" s="16">
-        <f t="shared" ref="AC83:AL92" si="43">IF(AND(AC$6&gt;=$N83,AC$6&lt;$N83+$O83), 1, IF(AND(AC$6&gt;=$H83,AC$6&lt;$H83+$I83), 2, 0))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AE83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AF83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AG83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AI83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AJ83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AL83" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AM83" s="16">
-        <f t="shared" ref="AM83:AV92" si="44">IF(AND(AM$6&gt;=$N83,AM$6&lt;$N83+$O83), 1, IF(AND(AM$6&gt;=$H83,AM$6&lt;$H83+$I83), 2, 0))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AN83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AO83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AQ83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AR83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AS83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AT83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AU83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AV83" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AW83" s="16">
-        <f t="shared" ref="AW83:BF92" si="45">IF(AND(AW$6&gt;=$N83,AW$6&lt;$N83+$O83), 1, IF(AND(AW$6&gt;=$H83,AW$6&lt;$H83+$I83), 2, 0))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AX83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AY83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AZ83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BA83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BB83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BC83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BD83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BE83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BF83" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="BG83" s="16">
-        <f t="shared" ref="BG83:BH92" si="46">IF(AND(BG$6&gt;=$N83,BG$6&lt;$N83+$O83), 1, IF(AND(BG$6&gt;=$H83,BG$6&lt;$H83+$I83), 2, 0))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="BH83" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -19060,7 +18954,7 @@
       <c r="Q84" s="14"/>
       <c r="R84" s="14"/>
       <c r="S84" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="S84:AB93" si="42">IF(AND(S$6&gt;=$N84,S$6&lt;$N84+$O84), 1, IF(AND(S$6&gt;=$H84,S$6&lt;$H84+$I84), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T84" s="16">
@@ -19100,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AC84:AL93" si="43">IF(AND(AC$6&gt;=$N84,AC$6&lt;$N84+$O84), 1, IF(AND(AC$6&gt;=$H84,AC$6&lt;$H84+$I84), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD84" s="16">
@@ -19140,7 +19034,7 @@
         <v>0</v>
       </c>
       <c r="AM84" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="AM84:AV93" si="44">IF(AND(AM$6&gt;=$N84,AM$6&lt;$N84+$O84), 1, IF(AND(AM$6&gt;=$H84,AM$6&lt;$H84+$I84), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN84" s="16">
@@ -19180,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="AW84" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="AW84:BF93" si="45">IF(AND(AW$6&gt;=$N84,AW$6&lt;$N84+$O84), 1, IF(AND(AW$6&gt;=$H84,AW$6&lt;$H84+$I84), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX84" s="16">
@@ -19220,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="BG84" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="BG84:BH93" si="46">IF(AND(BG$6&gt;=$N84,BG$6&lt;$N84+$O84), 1, IF(AND(BG$6&gt;=$H84,BG$6&lt;$H84+$I84), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH84" s="16">
@@ -20027,7 +19921,7 @@
       <c r="H89" s="15"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15">
-        <f t="shared" ref="J89:J116" si="47">H89 +I89</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K89" s="14"/>
@@ -20039,7 +19933,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="17"/>
       <c r="P89" s="15">
-        <f t="shared" ref="P89:P116" si="48">N89+O89</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q89" s="14"/>
@@ -20224,7 +20118,7 @@
       <c r="H90" s="15"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="J90:J117" si="47">H90 +I90</f>
         <v>0</v>
       </c>
       <c r="K90" s="14"/>
@@ -20236,7 +20130,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="17"/>
       <c r="P90" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="P90:P117" si="48">N90+O90</f>
         <v>0</v>
       </c>
       <c r="Q90" s="14"/>
@@ -20833,171 +20727,171 @@
       <c r="Q93" s="14"/>
       <c r="R93" s="14"/>
       <c r="S93" s="16">
-        <f t="shared" ref="S93:AB102" si="49">IF(AND(S$6&gt;=$N93,S$6&lt;$N93+$O93), 1, IF(AND(S$6&gt;=$H93,S$6&lt;$H93+$I93), 2, 0))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB93" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" ref="AC93:AL102" si="50">IF(AND(AC$6&gt;=$N93,AC$6&lt;$N93+$O93), 1, IF(AND(AC$6&gt;=$H93,AC$6&lt;$H93+$I93), 2, 0))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AD93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AE93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AF93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AG93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AI93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AJ93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AK93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AL93" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM93" s="16">
-        <f t="shared" ref="AM93:AV102" si="51">IF(AND(AM$6&gt;=$N93,AM$6&lt;$N93+$O93), 1, IF(AND(AM$6&gt;=$H93,AM$6&lt;$H93+$I93), 2, 0))</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AO93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AP93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AQ93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AR93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AS93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AV93" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW93" s="16">
-        <f t="shared" ref="AW93:BF102" si="52">IF(AND(AW$6&gt;=$N93,AW$6&lt;$N93+$O93), 1, IF(AND(AW$6&gt;=$H93,AW$6&lt;$H93+$I93), 2, 0))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AY93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AZ93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BA93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BB93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BC93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BD93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BE93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BF93" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BG93" s="16">
-        <f t="shared" ref="BG93:BH102" si="53">IF(AND(BG$6&gt;=$N93,BG$6&lt;$N93+$O93), 1, IF(AND(BG$6&gt;=$H93,BG$6&lt;$H93+$I93), 2, 0))</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="BH93" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -21030,7 +20924,7 @@
       <c r="Q94" s="14"/>
       <c r="R94" s="14"/>
       <c r="S94" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="S94:AB103" si="49">IF(AND(S$6&gt;=$N94,S$6&lt;$N94+$O94), 1, IF(AND(S$6&gt;=$H94,S$6&lt;$H94+$I94), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T94" s="16">
@@ -21070,7 +20964,7 @@
         <v>0</v>
       </c>
       <c r="AC94" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="AC94:AL103" si="50">IF(AND(AC$6&gt;=$N94,AC$6&lt;$N94+$O94), 1, IF(AND(AC$6&gt;=$H94,AC$6&lt;$H94+$I94), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD94" s="16">
@@ -21110,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="AM94" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="AM94:AV103" si="51">IF(AND(AM$6&gt;=$N94,AM$6&lt;$N94+$O94), 1, IF(AND(AM$6&gt;=$H94,AM$6&lt;$H94+$I94), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN94" s="16">
@@ -21150,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="AW94" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AW94:BF103" si="52">IF(AND(AW$6&gt;=$N94,AW$6&lt;$N94+$O94), 1, IF(AND(AW$6&gt;=$H94,AW$6&lt;$H94+$I94), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX94" s="16">
@@ -21190,7 +21084,7 @@
         <v>0</v>
       </c>
       <c r="BG94" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="BG94:BH103" si="53">IF(AND(BG$6&gt;=$N94,BG$6&lt;$N94+$O94), 1, IF(AND(BG$6&gt;=$H94,BG$6&lt;$H94+$I94), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH94" s="16">
@@ -22803,171 +22697,171 @@
       <c r="Q103" s="14"/>
       <c r="R103" s="14"/>
       <c r="S103" s="16">
-        <f t="shared" ref="S103:AB116" si="54">IF(AND(S$6&gt;=$N103,S$6&lt;$N103+$O103), 1, IF(AND(S$6&gt;=$H103,S$6&lt;$H103+$I103), 2, 0))</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AA103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AB103" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AC103" s="16">
-        <f t="shared" ref="AC103:AL116" si="55">IF(AND(AC$6&gt;=$N103,AC$6&lt;$N103+$O103), 1, IF(AND(AC$6&gt;=$H103,AC$6&lt;$H103+$I103), 2, 0))</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AE103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AF103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AH103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AI103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AJ103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AK103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AL103" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AM103" s="16">
-        <f t="shared" ref="AM103:AV116" si="56">IF(AND(AM$6&gt;=$N103,AM$6&lt;$N103+$O103), 1, IF(AND(AM$6&gt;=$H103,AM$6&lt;$H103+$I103), 2, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AN103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AO103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AP103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AQ103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AR103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AS103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AT103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AU103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AV103" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AW103" s="16">
-        <f t="shared" ref="AW103:BF116" si="57">IF(AND(AW$6&gt;=$N103,AW$6&lt;$N103+$O103), 1, IF(AND(AW$6&gt;=$H103,AW$6&lt;$H103+$I103), 2, 0))</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AX103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AY103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AZ103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BA103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BB103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BC103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BD103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BE103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BF103" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BG103" s="16">
-        <f t="shared" ref="BG103:BH116" si="58">IF(AND(BG$6&gt;=$N103,BG$6&lt;$N103+$O103), 1, IF(AND(BG$6&gt;=$H103,BG$6&lt;$H103+$I103), 2, 0))</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BH103" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
     </row>
@@ -23000,7 +22894,7 @@
       <c r="Q104" s="14"/>
       <c r="R104" s="14"/>
       <c r="S104" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="S104:AB117" si="54">IF(AND(S$6&gt;=$N104,S$6&lt;$N104+$O104), 1, IF(AND(S$6&gt;=$H104,S$6&lt;$H104+$I104), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T104" s="16">
@@ -23040,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="AC104" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AC104:AL117" si="55">IF(AND(AC$6&gt;=$N104,AC$6&lt;$N104+$O104), 1, IF(AND(AC$6&gt;=$H104,AC$6&lt;$H104+$I104), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD104" s="16">
@@ -23080,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="AM104" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="AM104:AV117" si="56">IF(AND(AM$6&gt;=$N104,AM$6&lt;$N104+$O104), 1, IF(AND(AM$6&gt;=$H104,AM$6&lt;$H104+$I104), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN104" s="16">
@@ -23120,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="AW104" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="AW104:BF117" si="57">IF(AND(AW$6&gt;=$N104,AW$6&lt;$N104+$O104), 1, IF(AND(AW$6&gt;=$H104,AW$6&lt;$H104+$I104), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX104" s="16">
@@ -23160,7 +23054,7 @@
         <v>0</v>
       </c>
       <c r="BG104" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="BG104:BH117" si="58">IF(AND(BG$6&gt;=$N104,BG$6&lt;$N104+$O104), 1, IF(AND(BG$6&gt;=$H104,BG$6&lt;$H104+$I104), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH104" s="16">
@@ -25349,6 +25243,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
+      <c r="K116" s="14"/>
       <c r="L116" s="14" t="e">
         <f>LOOKUP(K116,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
@@ -25527,6 +25422,202 @@
         <v>0</v>
       </c>
       <c r="BH116" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="14"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="15">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="14" t="e">
+        <f>LOOKUP(K117,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="15">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" s="14"/>
+      <c r="R117" s="14"/>
+      <c r="S117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="T117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="V117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="X117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AA117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AB117" s="16">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AC117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AF117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AG117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AH117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AI117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AJ117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AL117" s="16">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AM117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AN117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AO117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AP117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AQ117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AR117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AS117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AT117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AU117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AV117" s="16">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AW117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AX117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AY117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AZ117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BA117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BB117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BC117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BD117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BE117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BF117" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BG117" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BH117" s="16">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -25558,12 +25649,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A36:A37 D27:F27 A44 D39:F44 H39:J44 L46:BH49 A53:A116 D46:F47 D53:J116 D49:F49 H46:J47 D48:J48 H49:J49 L51:BH116 D51:F52 H51:J52 D8:J26 H27:J28 D34:J38 E28:F28 L12:BH28 H31:J33 D31:F33 L31:BH44 E30">
+  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A37:A38 D27:F27 A45 D40:F45 H40:J45 L47:BH50 A54:A117 D47:F48 D54:J117 D50:F50 H47:J48 D49:J49 H50:J50 L52:BH117 D52:F53 H52:J53 D8:J26 H27:J28 D35:J39 E28:F28 L12:BH28 H31:J34 D31:F34 L31:BH45 E30">
     <cfRule type="expression" dxfId="188" priority="75" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH44 S46:BH49 S51:BH116">
+  <conditionalFormatting sqref="S8:BH45 S47:BH50 S52:BH117">
     <cfRule type="expression" dxfId="187" priority="73">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -25571,7 +25662,7 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH26 S29:BH29 S32:BH44 S46:BH49 S51:BH116">
+  <conditionalFormatting sqref="S8:BH26 S29:BH29 S33:BH45 S47:BH50 S52:BH117">
     <cfRule type="expression" dxfId="185" priority="78" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
@@ -25581,22 +25672,22 @@
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH44 S46:BH49 S51:BH116">
+  <conditionalFormatting sqref="S8:BH45 S47:BH50 S52:BH117">
     <cfRule type="cellIs" dxfId="183" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH44 S46:BH49 S51:BH116">
+  <conditionalFormatting sqref="S8:BH45 S47:BH50 S52:BH117">
     <cfRule type="cellIs" dxfId="182" priority="86" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH44 S46:BH49 S51:BH116">
+  <conditionalFormatting sqref="S8:BH45 S47:BH50 S52:BH117">
     <cfRule type="cellIs" dxfId="181" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B46:C49 B51:C116 B13:C17 B24:C44 B20:C21 B18:B23">
+  <conditionalFormatting sqref="B11:C11 B47:C50 B52:C117 B13:C17 B24:C45 B20:C21 B18:B23">
     <cfRule type="containsText" dxfId="180" priority="63" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
@@ -25613,7 +25704,7 @@
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10 K23 K26 K36:K37 K39:K40 K42:K44 K46:K49 K51:K115 K13:K14 K17 L29:BH29 F29:J29 D29">
+  <conditionalFormatting sqref="Q10 K23 K26 K37:K38 K40:K41 K43:K45 K47:K50 K52:K116 K13:K14 K17 L29:BH29 F29:J29 D29">
     <cfRule type="expression" dxfId="175" priority="90" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
@@ -25662,7 +25753,7 @@
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9 K20 K22 K33:K35">
+  <conditionalFormatting sqref="K9 K20 K22 K34:K36">
     <cfRule type="expression" dxfId="162" priority="96" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
@@ -25672,17 +25763,17 @@
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K19 K32">
+  <conditionalFormatting sqref="K18:K19 K33">
     <cfRule type="expression" dxfId="160" priority="99" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A23)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
     <cfRule type="expression" dxfId="159" priority="100" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A37)=1</formula>
+      <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G43 L30:BH30 G32 F30:J30 D30">
+  <conditionalFormatting sqref="G28 G44 L30:BH30 F30:J30 D30">
     <cfRule type="expression" dxfId="158" priority="102" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
@@ -25692,14 +25783,14 @@
       <formula>SEARCH("SPACER",$G28)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S31:BH31 S28:BH28">
+  <conditionalFormatting sqref="S31:BH32 S28:BH28">
     <cfRule type="expression" dxfId="156" priority="105" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
     <cfRule type="expression" dxfId="155" priority="106" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A36)=1</formula>
+      <formula>SEARCH("SPACER",$A37)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
@@ -25709,35 +25800,35 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
     <cfRule type="expression" dxfId="153" priority="110" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A37)=1</formula>
+      <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41 G44">
+  <conditionalFormatting sqref="G42 G45">
     <cfRule type="expression" dxfId="152" priority="48" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A41)=1</formula>
+      <formula>SEARCH("SPACER",$A42)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="G41">
     <cfRule type="expression" dxfId="151" priority="49" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A39)=1</formula>
+      <formula>SEARCH("SPACER",$A40)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39 G42">
+  <conditionalFormatting sqref="G40 G43">
     <cfRule type="expression" dxfId="150" priority="46" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38 K41">
+  <conditionalFormatting sqref="K39 K42">
     <cfRule type="expression" dxfId="149" priority="141" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45 D45:J45 L45:BH45">
+  <conditionalFormatting sqref="A46 D46:J46 L46:BH46">
     <cfRule type="expression" dxfId="148" priority="40" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A45)=1</formula>
+      <formula>SEARCH("SPACER",$A46)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S45:BH45">
+  <conditionalFormatting sqref="S46:BH46">
     <cfRule type="expression" dxfId="147" priority="38">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -25745,69 +25836,69 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S45:BH45">
+  <conditionalFormatting sqref="S46:BH46">
     <cfRule type="expression" dxfId="145" priority="41" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G45)=1</formula>
+      <formula>SEARCH("SPACER",$G46)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S45:BH45">
+  <conditionalFormatting sqref="S46:BH46">
     <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S45:BH45">
+  <conditionalFormatting sqref="S46:BH46">
     <cfRule type="cellIs" dxfId="143" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S45:BH45">
+  <conditionalFormatting sqref="S46:BH46">
     <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:C45">
+  <conditionalFormatting sqref="B46:C46">
     <cfRule type="containsText" dxfId="141" priority="33" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="140" priority="34" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Code",B46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="139" priority="35" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Audio",B46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="138" priority="36" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Level",B46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Art",B46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="K46">
     <cfRule type="expression" dxfId="136" priority="45" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A46)=1</formula>
+      <formula>SEARCH("SPACER",$A47)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G47">
     <cfRule type="expression" dxfId="135" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
+  <conditionalFormatting sqref="G48">
     <cfRule type="expression" dxfId="134" priority="31" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A47)=1</formula>
+      <formula>SEARCH("SPACER",$A48)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G50">
     <cfRule type="expression" dxfId="133" priority="30" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A49)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50 D50:J50 L50:BH50">
-    <cfRule type="expression" dxfId="132" priority="24" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S50:BH50">
+  <conditionalFormatting sqref="A51 D51:J51 L51:BH51">
+    <cfRule type="expression" dxfId="132" priority="24" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A51)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S51:BH51">
     <cfRule type="expression" dxfId="131" priority="22">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -25815,56 +25906,56 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S50:BH50">
+  <conditionalFormatting sqref="S51:BH51">
     <cfRule type="expression" dxfId="129" priority="25" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G50)=1</formula>
+      <formula>SEARCH("SPACER",$G51)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S50:BH50">
+  <conditionalFormatting sqref="S51:BH51">
     <cfRule type="cellIs" dxfId="128" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S50:BH50">
+  <conditionalFormatting sqref="S51:BH51">
     <cfRule type="cellIs" dxfId="127" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S50:BH50">
+  <conditionalFormatting sqref="S51:BH51">
     <cfRule type="cellIs" dxfId="126" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:C50">
+  <conditionalFormatting sqref="B51:C51">
     <cfRule type="containsText" dxfId="125" priority="17" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="124" priority="18" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Code",B51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="123" priority="19" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Audio",B51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="122" priority="20" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Level",B51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="121" priority="21" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Art",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
+  <conditionalFormatting sqref="K51">
     <cfRule type="expression" dxfId="120" priority="29" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A51)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="119" priority="16" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A51)=1</formula>
+      <formula>SEARCH("SPACER",$A52)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="119" priority="16" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A52)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53">
     <cfRule type="expression" dxfId="118" priority="15" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A52)=1</formula>
+      <formula>SEARCH("SPACER",$A53)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
@@ -25901,9 +25992,9 @@
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
+  <conditionalFormatting sqref="G34">
     <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A32)=1</formula>
+      <formula>SEARCH("SPACER",$A33)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
@@ -25911,7 +26002,7 @@
       <formula>SEARCH("SPACER",$A28)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
+  <conditionalFormatting sqref="G31:G33">
     <cfRule type="expression" dxfId="105" priority="151" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
@@ -25921,9 +26012,9 @@
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+  <conditionalFormatting sqref="K31:K32">
     <cfRule type="expression" dxfId="103" priority="156" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A37)=1</formula>
+      <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25965,31 +26056,31 @@
           <x14:formula1>
             <xm:f>TaskTypes!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B111</xm:sqref>
+          <xm:sqref>B8:B112</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>TaskGrading!$A$4:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K8:K115</xm:sqref>
+          <xm:sqref>K8:K116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>TaskStatus!$A$6:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>R8:R116</xm:sqref>
+          <xm:sqref>R8:R117</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AF4FB63-5986-4C21-AFB9-6703D4D46921}">
           <x14:formula1>
             <xm:f>Priorities!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C24:C116 C8:C17 C20:C21</xm:sqref>
+          <xm:sqref>C24:C117 C8:C17 C20:C21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Main!$A$9:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G8:G116</xm:sqref>
+          <xm:sqref>G8:G117</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raidzer\Documents\GitHub\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHubRepository\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348F67ED-6817-441B-A2A1-0B6E05817569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D02154-AF14-440E-B7FA-0CC6DC1C66E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="202">
   <si>
     <t>TASK</t>
   </si>
@@ -916,12 +916,6 @@
     <t xml:space="preserve">create a function to print the enemysprite art where the enemy is, create a function that can move the enemy across the screen, create a system of arrays to store information on each enemy spawned. Create a spawn map that will spawn in enemies </t>
   </si>
   <si>
-    <t xml:space="preserve">tbc </t>
-  </si>
-  <si>
-    <t>tbc</t>
-  </si>
-  <si>
     <t xml:space="preserve">integrate the work from a few members so the functions declared by other members can run seamlessly. Integration of tack include Enemy movemnt behaviour,spawning of enemies.maybe include collision checks </t>
   </si>
   <si>
@@ -1737,7 +1731,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1746,31 +1761,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1781,6 +1775,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="199">
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3263,14 +3265,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -3448,11 +3442,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A5:B8" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3463,7 +3457,7 @@
   <autoFilter ref="A1:B4" xr:uid="{DECAA8B5-6330-451B-9562-5424BBB00F80}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D55844DA-51EF-4755-A498-8AFCDF33F45D}" name="Colour"/>
-    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3772,44 +3766,44 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="17" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3821,7 +3815,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -3833,7 +3827,7 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
@@ -3843,7 +3837,7 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="85" t="s">
@@ -3878,7 +3872,7 @@
       </c>
       <c r="R7" s="85"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -3934,7 +3928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>99</v>
       </c>
@@ -3949,11 +3943,11 @@
       </c>
       <c r="E9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <f>SUM(D9:F9)</f>
@@ -3999,7 +3993,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>102</v>
       </c>
@@ -4064,7 +4058,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>103</v>
       </c>
@@ -4129,7 +4123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>101</v>
       </c>
@@ -4194,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>105</v>
       </c>
@@ -4259,7 +4253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A14, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4321,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A15, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4383,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -4397,11 +4391,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -4452,10 +4446,10 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="38"/>
     </row>
   </sheetData>
@@ -4503,37 +4497,37 @@
   <dimension ref="A1:BZ117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="S14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.33203125" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="245.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.28515625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="245.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.85546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.7109375" style="54" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
-    <col min="19" max="60" width="4.109375" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="16384" width="9.109375" style="2"/>
+    <col min="19" max="60" width="4.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:78" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -4546,7 +4540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4560,7 +4554,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4573,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -4582,7 +4576,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4593,66 +4587,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="87">
+      <c r="S5" s="91">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87">
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87">
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87">
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="91">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87">
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
+      <c r="AU5" s="91">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="87"/>
-      <c r="AW5" s="87"/>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="88">
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="91"/>
+      <c r="BB5" s="95">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="88"/>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="88"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="95"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -4672,59 +4666,59 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
     </row>
-    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="90" t="s">
+    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="91" t="s">
+      <c r="N6" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="91" t="s">
+      <c r="O6" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P6" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="97" t="s">
+      <c r="Q6" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="92" t="s">
+      <c r="R6" s="89" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -4896,25 +4890,25 @@
         <v>44535</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="95"/>
+    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="90"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5084,7 +5078,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>111</v>
       </c>
@@ -5304,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>112</v>
       </c>
@@ -5392,7 +5386,7 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
     </row>
-    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>113</v>
       </c>
@@ -5480,7 +5474,7 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>114</v>
       </c>
@@ -5701,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>116</v>
       </c>
@@ -5789,7 +5783,7 @@
       <c r="BG12" s="16"/>
       <c r="BH12" s="16"/>
     </row>
-    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>115</v>
       </c>
@@ -6014,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>6</v>
       </c>
@@ -6223,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>117</v>
       </c>
@@ -6237,7 +6231,7 @@
         <v>173</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F15" s="66">
         <v>10</v>
@@ -6264,13 +6258,13 @@
         <v>44503</v>
       </c>
       <c r="O15" s="76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P15" s="75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R15" s="74" t="s">
         <v>57</v>
@@ -6444,7 +6438,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
         <v>177</v>
       </c>
@@ -6458,7 +6452,7 @@
         <v>89</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="74" t="s">
@@ -6652,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>180</v>
       </c>
@@ -6874,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
         <v>178</v>
       </c>
@@ -7096,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
         <v>119</v>
       </c>
@@ -7179,7 +7173,7 @@
       <c r="BG19" s="16"/>
       <c r="BH19" s="16"/>
     </row>
-    <row r="20" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>120</v>
       </c>
@@ -7268,7 +7262,7 @@
       <c r="BG20" s="16"/>
       <c r="BH20" s="16"/>
     </row>
-    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
         <v>121</v>
       </c>
@@ -7282,7 +7276,7 @@
         <v>176</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F21" s="66">
         <v>5</v>
@@ -7306,16 +7300,16 @@
       </c>
       <c r="M21" s="74"/>
       <c r="N21" s="75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O21" s="76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P21" s="75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q21" s="74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R21" s="74" t="s">
         <v>57</v>
@@ -7363,7 +7357,7 @@
       <c r="BG21" s="16"/>
       <c r="BH21" s="16"/>
     </row>
-    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>122</v>
       </c>
@@ -7452,7 +7446,7 @@
       <c r="BG22" s="16"/>
       <c r="BH22" s="16"/>
     </row>
-    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>118</v>
       </c>
@@ -7670,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
         <v>6</v>
       </c>
@@ -7869,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="65" t="s">
         <v>130</v>
       </c>
@@ -7880,10 +7874,10 @@
         <v>77</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F25" s="66"/>
       <c r="G25" s="74" t="s">
@@ -7949,7 +7943,7 @@
       <c r="BG25" s="16"/>
       <c r="BH25" s="16"/>
     </row>
-    <row r="26" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65" t="s">
         <v>123</v>
       </c>
@@ -7960,10 +7954,10 @@
         <v>75</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F26" s="66">
         <v>0.5</v>
@@ -8166,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
         <v>124</v>
       </c>
@@ -8177,10 +8171,10 @@
         <v>78</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F27" s="66">
         <v>1</v>
@@ -8203,17 +8197,20 @@
         <v>10</v>
       </c>
       <c r="M27" s="74"/>
-      <c r="N27" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="O27" s="76"/>
-      <c r="P27" s="75" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q27" s="74"/>
+      <c r="N27" s="75">
+        <v>44512</v>
+      </c>
+      <c r="O27" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="P27" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q27" s="75" t="s">
+        <v>196</v>
+      </c>
       <c r="R27" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" s="16" t="e">
         <f t="shared" ref="S27:AB43" si="15">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
@@ -8384,7 +8381,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="65" t="s">
         <v>127</v>
       </c>
@@ -8398,7 +8395,7 @@
         <v>89</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F28" s="66"/>
       <c r="G28" s="74" t="s">
@@ -8418,17 +8415,20 @@
         <v>10</v>
       </c>
       <c r="M28" s="74"/>
-      <c r="N28" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="O28" s="76"/>
-      <c r="P28" s="75" t="e">
-        <f>N28+O28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q28" s="74"/>
+      <c r="N28" s="75">
+        <v>44512</v>
+      </c>
+      <c r="O28" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q28" s="75" t="s">
+        <v>196</v>
+      </c>
       <c r="R28" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" s="16" t="e">
         <f t="shared" si="15"/>
@@ -8599,7 +8599,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="65" t="s">
         <v>126</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>172</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F29" s="66">
         <v>15</v>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="65" t="s">
         <v>125</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>172</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F30" s="66">
         <v>5</v>
@@ -8914,7 +8914,7 @@
       <c r="BG30" s="16"/>
       <c r="BH30" s="16"/>
     </row>
-    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="65" t="s">
         <v>128</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F31" s="66"/>
       <c r="G31" s="74" t="s">
@@ -9007,9 +9007,9 @@
       <c r="BG31" s="16"/>
       <c r="BH31" s="16"/>
     </row>
-    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -9085,7 +9085,7 @@
       <c r="BG32" s="16"/>
       <c r="BH32" s="16"/>
     </row>
-    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
         <v>129</v>
       </c>
@@ -9096,10 +9096,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
@@ -9165,7 +9165,7 @@
       <c r="BG33" s="16"/>
       <c r="BH33" s="16"/>
     </row>
-    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
         <v>131</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>89</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="74" t="s">
@@ -9258,7 +9258,7 @@
       <c r="BG34" s="16"/>
       <c r="BH34" s="16"/>
     </row>
-    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
         <v>132</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>89</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F35" s="66"/>
       <c r="G35" s="74" t="s">
@@ -9344,9 +9344,9 @@
       <c r="BG35" s="16"/>
       <c r="BH35" s="16"/>
     </row>
-    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -9422,7 +9422,7 @@
       <c r="BG36" s="16"/>
       <c r="BH36" s="16"/>
     </row>
-    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
         <v>133</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>89</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F37" s="66">
         <v>1.5</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
         <v>6</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="65" t="s">
         <v>134</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="65" t="s">
         <v>135</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="65" t="s">
         <v>136</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="65" t="s">
         <v>137</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="65" t="s">
         <v>138</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="65" t="s">
         <v>139</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
         <v>140</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="63" t="s">
         <v>6</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="65" t="s">
         <v>141</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="65" t="s">
         <v>142</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="65" t="s">
         <v>143</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="65" t="s">
         <v>144</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
         <v>6</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="65" t="s">
         <v>145</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="65" t="s">
         <v>146</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="61"/>
       <c r="B54" s="26" t="s">
         <v>19</v>
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="26"/>
       <c r="C55" s="39"/>
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="26"/>
       <c r="C56" s="39"/>
@@ -13606,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="26"/>
       <c r="C57" s="39"/>
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="26"/>
       <c r="C58" s="39"/>
@@ -14000,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="26"/>
       <c r="C59" s="39"/>
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="26"/>
       <c r="C60" s="39"/>
@@ -14394,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="26"/>
       <c r="C61" s="39"/>
@@ -14591,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="26"/>
       <c r="C62" s="39"/>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="26"/>
       <c r="C63" s="39"/>
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="26"/>
       <c r="C64" s="39"/>
@@ -15182,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="26"/>
       <c r="C65" s="39"/>
@@ -15379,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="26"/>
       <c r="C66" s="39"/>
@@ -15576,7 +15576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="26"/>
       <c r="C67" s="39"/>
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="26"/>
       <c r="C68" s="39"/>
@@ -15970,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="26"/>
       <c r="C69" s="39"/>
@@ -16167,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="26"/>
       <c r="C70" s="39"/>
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="26"/>
       <c r="C71" s="39"/>
@@ -16561,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="26"/>
       <c r="C72" s="39"/>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="26"/>
       <c r="C73" s="39"/>
@@ -16955,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="26"/>
       <c r="C74" s="39"/>
@@ -17152,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="26"/>
       <c r="C75" s="39"/>
@@ -17349,7 +17349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="26"/>
       <c r="C76" s="39"/>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="26"/>
       <c r="C77" s="39"/>
@@ -17743,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="26"/>
       <c r="C78" s="39"/>
@@ -17940,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="26"/>
       <c r="C79" s="39"/>
@@ -18137,7 +18137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="26"/>
       <c r="C80" s="39"/>
@@ -18334,7 +18334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="26"/>
       <c r="C81" s="39"/>
@@ -18531,7 +18531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="26"/>
       <c r="C82" s="39"/>
@@ -18728,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="26"/>
       <c r="C83" s="39"/>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="26"/>
       <c r="C84" s="39"/>
@@ -19122,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="26"/>
       <c r="C85" s="39"/>
@@ -19319,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="26"/>
       <c r="C86" s="39"/>
@@ -19516,7 +19516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="26"/>
       <c r="C87" s="39"/>
@@ -19713,7 +19713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="26"/>
       <c r="C88" s="39"/>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="26"/>
       <c r="C89" s="39"/>
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="26"/>
       <c r="C90" s="39"/>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="26"/>
       <c r="C91" s="39"/>
@@ -20501,7 +20501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="26"/>
       <c r="C92" s="39"/>
@@ -20698,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="26"/>
       <c r="C93" s="39"/>
@@ -20895,7 +20895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="26"/>
       <c r="C94" s="39"/>
@@ -21092,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="26"/>
       <c r="C95" s="39"/>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="26"/>
       <c r="C96" s="39"/>
@@ -21486,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="26"/>
       <c r="C97" s="39"/>
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="26"/>
       <c r="C98" s="39"/>
@@ -21880,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="26"/>
       <c r="C99" s="39"/>
@@ -22077,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="26"/>
       <c r="C100" s="39"/>
@@ -22274,7 +22274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="26"/>
       <c r="C101" s="39"/>
@@ -22471,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="26"/>
       <c r="C102" s="39"/>
@@ -22668,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="26"/>
       <c r="C103" s="39"/>
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="26"/>
       <c r="C104" s="39"/>
@@ -23062,7 +23062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="26"/>
       <c r="C105" s="39"/>
@@ -23259,7 +23259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="26"/>
       <c r="C106" s="39"/>
@@ -23456,7 +23456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="26"/>
       <c r="C107" s="39"/>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="26"/>
       <c r="C108" s="39"/>
@@ -23850,7 +23850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="26"/>
       <c r="C109" s="39"/>
@@ -24047,7 +24047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="26"/>
       <c r="C110" s="39"/>
@@ -24244,7 +24244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="26"/>
       <c r="C111" s="39"/>
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="26"/>
       <c r="C112" s="39"/>
@@ -24638,7 +24638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="26"/>
       <c r="C113" s="39"/>
@@ -24835,7 +24835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
       <c r="B114" s="26"/>
       <c r="C114" s="39"/>
@@ -25032,7 +25032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
       <c r="B115" s="26"/>
       <c r="C115" s="39"/>
@@ -25229,7 +25229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="26"/>
       <c r="C116" s="39"/>
@@ -25426,7 +25426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="26"/>
       <c r="C117" s="39"/>
@@ -25624,14 +25624,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -25648,372 +25640,380 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A37:A38 D27:F27 A45 D40:F45 H40:J45 L47:BH50 A54:A117 D47:F48 D54:J117 D50:F50 H47:J48 D49:J49 H50:J50 L52:BH117 D52:F53 H52:J53 D8:J26 H27:J28 D35:J39 E28:F28 L12:BH28 H31:J34 D31:F34 L31:BH45 E30">
-    <cfRule type="expression" dxfId="188" priority="75" stopIfTrue="1">
+  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A37:A38 D27:F27 A45 D40:F45 H40:J45 L47:BH50 A54:A117 D47:F48 D54:J117 D50:F50 H47:J48 D49:J49 H50:J50 L52:BH117 D52:F53 H52:J53 D8:J26 H27:J28 D35:J39 E28:F28 H31:J34 D31:F34 L31:BH45 E30 L12:BH28">
+    <cfRule type="expression" dxfId="0" priority="75" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH45 S47:BH50 S52:BH117">
-    <cfRule type="expression" dxfId="187" priority="73">
+    <cfRule type="expression" dxfId="188" priority="73">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="74">
+    <cfRule type="expression" dxfId="187" priority="74">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH26 S29:BH29 S33:BH45 S47:BH50 S52:BH117">
-    <cfRule type="expression" dxfId="185" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="78" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:S16">
-    <cfRule type="expression" dxfId="184" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="88" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH45 S47:BH50 S52:BH117">
-    <cfRule type="cellIs" dxfId="183" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH45 S47:BH50 S52:BH117">
-    <cfRule type="cellIs" dxfId="182" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="86" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH45 S47:BH50 S52:BH117">
-    <cfRule type="cellIs" dxfId="181" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B47:C50 B52:C117 B13:C17 B24:C45 B20:C21 B18:B23">
-    <cfRule type="containsText" dxfId="180" priority="63" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="181" priority="63" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="64" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="180" priority="64" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="65" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="179" priority="65" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="66" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="178" priority="66" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="67" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="177" priority="67" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10 K23 K26 K37:K38 K40:K41 K43:K45 K47:K50 K52:K116 K13:K14 K17 L29:BH29 F29:J29 D29">
-    <cfRule type="expression" dxfId="175" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="90" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="containsText" dxfId="174" priority="58" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="175" priority="58" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="59" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="174" priority="59" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="60" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="173" priority="60" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="61" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="172" priority="61" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="62" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="171" priority="62" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="containsText" dxfId="169" priority="53" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="170" priority="53" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="54" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="169" priority="54" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="55" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="168" priority="55" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="56" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="167" priority="56" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="57" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="166" priority="57" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 K8 K21">
-    <cfRule type="expression" dxfId="164" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="91" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K24:K25 K15:K16">
-    <cfRule type="expression" dxfId="163" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="93" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 K20 K22 K34:K36">
-    <cfRule type="expression" dxfId="162" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="96" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="161" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="52" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K19 K33">
-    <cfRule type="expression" dxfId="160" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="99" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A23)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="159" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="100" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28 G44 L30:BH30 F30:J30 D30">
-    <cfRule type="expression" dxfId="158" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="102" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:BH30 S27:BH27">
-    <cfRule type="expression" dxfId="157" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="104" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G28)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:BH32 S28:BH28">
-    <cfRule type="expression" dxfId="156" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="105" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="155" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="106" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A37)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="154" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="50" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="153" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="110" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42 G45">
-    <cfRule type="expression" dxfId="152" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="48" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A42)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="151" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="49" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A40)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40 G43">
-    <cfRule type="expression" dxfId="150" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="46" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39 K42">
-    <cfRule type="expression" dxfId="149" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="141" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46 D46:J46 L46:BH46">
-    <cfRule type="expression" dxfId="148" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="40" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A46)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:BH46">
-    <cfRule type="expression" dxfId="147" priority="38">
+    <cfRule type="expression" dxfId="148" priority="38">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="39">
+    <cfRule type="expression" dxfId="147" priority="39">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:BH46">
-    <cfRule type="expression" dxfId="145" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="41" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G46)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:BH46">
-    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:BH46">
-    <cfRule type="cellIs" dxfId="143" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:BH46">
-    <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C46">
-    <cfRule type="containsText" dxfId="141" priority="33" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="142" priority="33" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="34" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="141" priority="34" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="35" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="140" priority="35" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="36" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="139" priority="36" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="37" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="138" priority="37" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="136" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="45" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A47)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="135" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="134" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A48)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="133" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="30" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51 D51:J51 L51:BH51">
-    <cfRule type="expression" dxfId="132" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="24" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:BH51">
-    <cfRule type="expression" dxfId="131" priority="22">
+    <cfRule type="expression" dxfId="132" priority="22">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="23">
+    <cfRule type="expression" dxfId="131" priority="23">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:BH51">
-    <cfRule type="expression" dxfId="129" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="25" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:BH51">
-    <cfRule type="cellIs" dxfId="128" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:BH51">
-    <cfRule type="cellIs" dxfId="127" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51:BH51">
-    <cfRule type="cellIs" dxfId="126" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C51">
-    <cfRule type="containsText" dxfId="125" priority="17" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="126" priority="17" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="18" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="125" priority="18" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="19" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="124" priority="19" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="20" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="123" priority="20" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="21" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="122" priority="21" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="120" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="29" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A52)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="119" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="16" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A52)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="118" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="15" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A53)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="117" priority="10" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="118" priority="10" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="11" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="117" priority="11" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="12" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="116" priority="12" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="13" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="115" priority="13" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="14" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="114" priority="14" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="113" priority="5" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="6" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="112" priority="6" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="7" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="111" priority="7" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="8" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="110" priority="8" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="9" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="109" priority="9" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A33)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="106" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="3" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A28)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="105" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="151" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="104" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="153" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K32">
-    <cfRule type="expression" dxfId="103" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="156" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26096,13 +26096,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -26110,7 +26110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -26126,7 +26126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -26158,14 +26158,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
@@ -26187,7 +26187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
@@ -26198,7 +26198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
@@ -26220,7 +26220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -26415,7 +26415,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
@@ -26437,7 +26437,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
@@ -26448,7 +26448,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>147</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:60" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -26665,7 +26665,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="72" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" ht="75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
@@ -26687,7 +26687,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -26698,7 +26698,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>21</v>
       </c>
@@ -26731,7 +26731,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
@@ -26742,7 +26742,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
@@ -26755,309 +26755,309 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="containsText" dxfId="102" priority="85" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="103" priority="85" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="86" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="102" priority="86" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="87" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="101" priority="87" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="88" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="100" priority="88" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="89" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="99" priority="89" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 BG7:BH7 C7 E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7 Y7 AA7 AC7 AE7 AG7 AI7 AK7 AM7 AO7 AQ7 AS7 AU7 AW7 AY7 BA7 BC7 BE7">
-    <cfRule type="expression" dxfId="97" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="96" priority="77">
+    <cfRule type="expression" dxfId="97" priority="77">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="78">
+    <cfRule type="expression" dxfId="96" priority="78">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="94" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7 N7 P7 R7 T7 V7 X7 Z7 AB7 AD7 AF7 AH7 AJ7 AL7 AN7 AP7 AR7 AT7 AV7 AX7 AZ7 BB7 BD7 BF7">
-    <cfRule type="expression" dxfId="90" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="89" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="88" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="89" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="88" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="87" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="86" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="85" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="83" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="84" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="83" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="80" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="56" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="78" priority="56" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="57" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="77" priority="57" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="58" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="76" priority="58" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="59" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="73" priority="50" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="74" priority="50" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="51" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="73" priority="51" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="70" priority="54" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="68" priority="45" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="69" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="46" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="47" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="67" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="48" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="66" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="49" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="63" priority="40" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="64" priority="40" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="63" priority="41" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="62" priority="42" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="61" priority="43" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="60" priority="44" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 BG14:BH14 C14 E14 G14 I14 K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14">
-    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="35" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="57" priority="33">
+    <cfRule type="expression" dxfId="58" priority="33">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="34">
+    <cfRule type="expression" dxfId="57" priority="34">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="54" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14">
-    <cfRule type="expression" dxfId="51" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 B22">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A17)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="22" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27073,13 +27073,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
@@ -27087,11 +27087,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
@@ -27102,7 +27102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
@@ -27113,7 +27113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
@@ -27124,7 +27124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>37</v>
       </c>
@@ -27135,7 +27135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>38</v>
       </c>
@@ -27160,29 +27160,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27198,13 +27198,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>48</v>
       </c>
@@ -27212,7 +27212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>56</v>
       </c>
@@ -27220,7 +27220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>57</v>
       </c>
@@ -27228,7 +27228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>58</v>
       </c>
@@ -27252,13 +27252,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -27266,7 +27266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -27285,7 +27285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -27295,24 +27295,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raidzer\Documents\GitHub\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keith\Documents\GitHub\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348F67ED-6817-441B-A2A1-0B6E05817569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336DF426-3915-4454-9402-1B1B4AA03D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="207">
   <si>
     <t>TASK</t>
   </si>
@@ -981,6 +981,15 @@
   <si>
     <t>Updated Paue UI</t>
   </si>
+  <si>
+    <t>Transition between game states of main menu, pause, playing, exit, etc</t>
+  </si>
+  <si>
+    <t>Enemy drops include healing items, temporary buffs,etc</t>
+  </si>
+  <si>
+    <t>Updated the main menu design</t>
+  </si>
 </sst>
 </file>
 
@@ -1737,7 +1746,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1746,31 +1776,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4503,21 +4512,21 @@
   <dimension ref="A1:BZ117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="AE32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.33203125" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="245.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.77734375" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.33203125" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="245.5546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.88671875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -4593,66 +4602,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="87">
+      <c r="S5" s="91">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87">
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87">
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87">
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="91">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87">
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
+      <c r="AU5" s="91">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="87"/>
-      <c r="AW5" s="87"/>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="88">
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="91"/>
+      <c r="AX5" s="91"/>
+      <c r="AY5" s="91"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="91"/>
+      <c r="BB5" s="95">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="88"/>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="88"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="95"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -4673,58 +4682,58 @@
       <c r="BZ5" s="9"/>
     </row>
     <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="90" t="s">
+      <c r="A6" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="91" t="s">
+      <c r="N6" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="91" t="s">
+      <c r="O6" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P6" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="97" t="s">
+      <c r="Q6" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="92" t="s">
+      <c r="R6" s="89" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -4897,24 +4906,24 @@
       </c>
     </row>
     <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="95"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="90"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -7376,7 +7385,9 @@
       <c r="D22" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="53"/>
+      <c r="E22" s="53" t="s">
+        <v>204</v>
+      </c>
       <c r="F22" s="66">
         <v>10</v>
       </c>
@@ -7465,7 +7476,9 @@
       <c r="D23" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="53" t="s">
+        <v>205</v>
+      </c>
       <c r="F23" s="66">
         <v>10</v>
       </c>
@@ -9348,10 +9361,18 @@
       <c r="A36" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="53"/>
+      <c r="B36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>206</v>
+      </c>
       <c r="F36" s="66"/>
       <c r="G36" s="74" t="s">
         <v>105</v>
@@ -25624,14 +25645,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -25648,6 +25661,14 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A23:A24 A37:A38 D27:F27 A45 D40:F45 H40:J45 L47:BH50 A54:A117 D47:F48 D54:J117 D50:F50 H47:J48 D49:J49 H50:J50 L52:BH117 D52:F53 H52:J53 D8:J26 H27:J28 D35:J39 E28:F28 L12:BH28 H31:J34 D31:F34 L31:BH45 E30">
     <cfRule type="expression" dxfId="188" priority="75" stopIfTrue="1">

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18033160\Desktop\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHubRepository\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306A9614-A956-4FCC-822E-D01ACACAC3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F15744-4B9F-4024-AB2A-A6BD27393882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="211">
   <si>
     <t>TASK</t>
   </si>
@@ -916,12 +916,6 @@
     <t xml:space="preserve">create a function to print the enemysprite art where the enemy is, create a function that can move the enemy across the screen, create a system of arrays to store information on each enemy spawned. Create a spawn map that will spawn in enemies </t>
   </si>
   <si>
-    <t xml:space="preserve">tbc </t>
-  </si>
-  <si>
-    <t>tbc</t>
-  </si>
-  <si>
     <t xml:space="preserve">integrate the work from a few members so the functions declared by other members can run seamlessly. Integration of tack include Enemy movemnt behaviour,spawning of enemies.maybe include collision checks </t>
   </si>
   <si>
@@ -1001,6 +995,12 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create function that will change game state from play to pause and when esc || pause key is pressed, and Change gamestate from pause to play when play || continue button is pressed </t>
+  </si>
+  <si>
+    <t>make art for pause screen that will be dispayed when game state is changed to pause</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1762,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1771,31 +1792,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4261,44 +4261,44 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="17" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4310,7 +4310,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="87" t="s">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="R7" s="87"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>99</v>
       </c>
@@ -4438,11 +4438,11 @@
       </c>
       <c r="E9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <f>SUM(D9:F9)</f>
@@ -4488,7 +4488,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>102</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>103</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>101</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>105</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A14, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A15, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -4886,11 +4886,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -4941,10 +4941,10 @@
         <v>-15.5</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="38"/>
     </row>
   </sheetData>
@@ -4992,37 +4992,37 @@
   <dimension ref="A1:BZ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="U38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="S14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.33203125" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="245.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.5546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.6640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.5546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.28515625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="245.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.85546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.7109375" style="54" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.7109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
-    <col min="19" max="60" width="4.109375" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="16384" width="9.109375" style="2"/>
+    <col min="19" max="60" width="4.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:78" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5071,7 +5071,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -5082,66 +5082,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="89">
+      <c r="S5" s="93">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89">
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89">
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="89">
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="93">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="89">
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="89"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="89"/>
-      <c r="BA5" s="89"/>
-      <c r="BB5" s="90">
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="93"/>
+      <c r="AX5" s="93"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="93"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="97">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="90"/>
-      <c r="BH5" s="90"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -5161,59 +5161,59 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
     </row>
-    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="92" t="s">
+    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="94" t="s">
+      <c r="K6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="94" t="s">
+      <c r="M6" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="93" t="s">
+      <c r="O6" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="94" t="s">
+      <c r="P6" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="99" t="s">
+      <c r="Q6" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="94" t="s">
+      <c r="R6" s="91" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -5385,25 +5385,25 @@
         <v>44535</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="97"/>
+    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="92"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5573,7 +5573,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>111</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>112</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
     </row>
-    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>113</v>
       </c>
@@ -5969,7 +5969,7 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>114</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>116</v>
       </c>
@@ -6278,7 +6278,7 @@
       <c r="BG12" s="16"/>
       <c r="BH12" s="16"/>
     </row>
-    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>115</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>6</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>117</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>173</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F15" s="66">
         <v>10</v>
@@ -6753,13 +6753,13 @@
         <v>44503</v>
       </c>
       <c r="O15" s="76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P15" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R15" s="74" t="s">
         <v>57</v>
@@ -6933,7 +6933,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
         <v>177</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>89</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="74" t="s">
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>180</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
         <v>178</v>
       </c>
@@ -7585,9 +7585,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>153</v>
@@ -7599,7 +7599,7 @@
         <v>89</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F19" s="66"/>
       <c r="G19" s="74" t="s">
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>119</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F20" s="66">
         <v>10</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
         <v>120</v>
       </c>
@@ -8038,7 +8038,9 @@
       <c r="D21" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="53" t="s">
+        <v>209</v>
+      </c>
       <c r="F21" s="66">
         <v>10</v>
       </c>
@@ -8114,7 +8116,7 @@
       <c r="BG21" s="16"/>
       <c r="BH21" s="16"/>
     </row>
-    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>121</v>
       </c>
@@ -8128,7 +8130,7 @@
         <v>176</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F22" s="66">
         <v>5</v>
@@ -8152,16 +8154,16 @@
       </c>
       <c r="M22" s="74"/>
       <c r="N22" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O22" s="76" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P22" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R22" s="74" t="s">
         <v>57</v>
@@ -8209,7 +8211,7 @@
       <c r="BG22" s="16"/>
       <c r="BH22" s="16"/>
     </row>
-    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="59" t="s">
         <v>122</v>
       </c>
@@ -8223,7 +8225,7 @@
         <v>176</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F23" s="66">
         <v>10</v>
@@ -8300,7 +8302,7 @@
       <c r="BG23" s="16"/>
       <c r="BH23" s="16"/>
     </row>
-    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>118</v>
       </c>
@@ -8314,7 +8316,7 @@
         <v>176</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F24" s="66">
         <v>10</v>
@@ -8520,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
         <v>6</v>
       </c>
@@ -8719,12 +8721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>76</v>
@@ -8733,7 +8735,7 @@
         <v>176</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F26" s="66"/>
       <c r="G26" s="74" t="s">
@@ -8746,7 +8748,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="75" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K26" s="74"/>
       <c r="L26" s="74">
@@ -8757,13 +8759,13 @@
         <v>44508</v>
       </c>
       <c r="O26" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P26" s="75" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R26" s="74" t="s">
         <v>57</v>
@@ -8811,12 +8813,12 @@
       <c r="BG26" s="16"/>
       <c r="BH26" s="16"/>
     </row>
-    <row r="27" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
         <v>123</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>75</v>
@@ -8825,7 +8827,7 @@
         <v>89</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F27" s="66">
         <v>0.5</v>
@@ -9033,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="65" t="s">
         <v>124</v>
       </c>
@@ -9044,10 +9046,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F28" s="66">
         <v>1</v>
@@ -9070,17 +9072,20 @@
         <v>10</v>
       </c>
       <c r="M28" s="74"/>
-      <c r="N28" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="O28" s="76"/>
-      <c r="P28" s="75" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q28" s="74"/>
+      <c r="N28" s="75">
+        <v>44512</v>
+      </c>
+      <c r="O28" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="P28" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q28" s="75" t="s">
+        <v>195</v>
+      </c>
       <c r="R28" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" s="16" t="e">
         <f t="shared" ref="S28:AB44" si="18">IF(AND(S$6&gt;=$N28,S$6&lt;$N28+$O28), 1, IF(AND(S$6&gt;=$H28,S$6&lt;$H28+$I28), 2, 0))</f>
@@ -9251,7 +9256,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="65" t="s">
         <v>127</v>
       </c>
@@ -9265,7 +9270,7 @@
         <v>89</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F29" s="66"/>
       <c r="G29" s="74" t="s">
@@ -9285,17 +9290,20 @@
         <v>10</v>
       </c>
       <c r="M29" s="74"/>
-      <c r="N29" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="O29" s="76"/>
-      <c r="P29" s="75" t="e">
-        <f>N29+O29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q29" s="74"/>
+      <c r="N29" s="75">
+        <v>44512</v>
+      </c>
+      <c r="O29" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q29" s="75" t="s">
+        <v>195</v>
+      </c>
       <c r="R29" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S29" s="16" t="e">
         <f t="shared" si="18"/>
@@ -9466,7 +9474,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="65" t="s">
         <v>126</v>
       </c>
@@ -9480,7 +9488,7 @@
         <v>172</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F30" s="66">
         <v>15</v>
@@ -9687,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="65" t="s">
         <v>125</v>
       </c>
@@ -9701,7 +9709,7 @@
         <v>172</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F31" s="66">
         <v>5</v>
@@ -9781,7 +9789,7 @@
       <c r="BG31" s="16"/>
       <c r="BH31" s="16"/>
     </row>
-    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
         <v>128</v>
       </c>
@@ -9795,7 +9803,7 @@
         <v>89</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F32" s="66"/>
       <c r="G32" s="74" t="s">
@@ -9874,14 +9882,22 @@
       <c r="BG32" s="16"/>
       <c r="BH32" s="16"/>
     </row>
-    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="53"/>
+        <v>200</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>210</v>
+      </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
         <v>103</v>
@@ -9952,7 +9968,7 @@
       <c r="BG33" s="16"/>
       <c r="BH33" s="16"/>
     </row>
-    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
         <v>129</v>
       </c>
@@ -9963,10 +9979,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="74" t="s">
@@ -10032,7 +10048,7 @@
       <c r="BG34" s="16"/>
       <c r="BH34" s="16"/>
     </row>
-    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
         <v>131</v>
       </c>
@@ -10046,7 +10062,7 @@
         <v>89</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F35" s="66"/>
       <c r="G35" s="74" t="s">
@@ -10125,7 +10141,7 @@
       <c r="BG35" s="16"/>
       <c r="BH35" s="16"/>
     </row>
-    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="65" t="s">
         <v>132</v>
       </c>
@@ -10139,7 +10155,7 @@
         <v>89</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F36" s="66"/>
       <c r="G36" s="74" t="s">
@@ -10211,9 +10227,9 @@
       <c r="BG36" s="16"/>
       <c r="BH36" s="16"/>
     </row>
-    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>20</v>
@@ -10225,7 +10241,7 @@
         <v>89</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F37" s="66"/>
       <c r="G37" s="74" t="s">
@@ -10297,7 +10313,7 @@
       <c r="BG37" s="16"/>
       <c r="BH37" s="16"/>
     </row>
-    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
         <v>133</v>
       </c>
@@ -10311,7 +10327,7 @@
         <v>89</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F38" s="66">
         <v>1.5</v>
@@ -10514,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
         <v>6</v>
       </c>
@@ -10713,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="65" t="s">
         <v>134</v>
       </c>
@@ -10926,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="65" t="s">
         <v>135</v>
       </c>
@@ -11139,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="65" t="s">
         <v>136</v>
       </c>
@@ -11352,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="65" t="s">
         <v>137</v>
       </c>
@@ -11565,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="65" t="s">
         <v>138</v>
       </c>
@@ -11782,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="65" t="s">
         <v>139</v>
       </c>
@@ -11995,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>140</v>
       </c>
@@ -12208,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="63" t="s">
         <v>6</v>
       </c>
@@ -12407,7 +12423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="65" t="s">
         <v>141</v>
       </c>
@@ -12620,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="65" t="s">
         <v>142</v>
       </c>
@@ -12833,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="65" t="s">
         <v>143</v>
       </c>
@@ -13046,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="65" t="s">
         <v>144</v>
       </c>
@@ -13259,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="63" t="s">
         <v>6</v>
       </c>
@@ -13458,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="65" t="s">
         <v>145</v>
       </c>
@@ -13671,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="65" t="s">
         <v>146</v>
       </c>
@@ -13884,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="61"/>
       <c r="B55" s="26" t="s">
         <v>19</v>
@@ -14087,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="26"/>
       <c r="C56" s="39"/>
@@ -14284,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="26"/>
       <c r="C57" s="39"/>
@@ -14481,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="26"/>
       <c r="C58" s="39"/>
@@ -14678,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="26"/>
       <c r="C59" s="39"/>
@@ -14875,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="26"/>
       <c r="C60" s="39"/>
@@ -15072,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="26"/>
       <c r="C61" s="39"/>
@@ -15269,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="26"/>
       <c r="C62" s="39"/>
@@ -15466,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="26"/>
       <c r="C63" s="39"/>
@@ -15663,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="26"/>
       <c r="C64" s="39"/>
@@ -15860,7 +15876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="26"/>
       <c r="C65" s="39"/>
@@ -16057,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="26"/>
       <c r="C66" s="39"/>
@@ -16254,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="26"/>
       <c r="C67" s="39"/>
@@ -16451,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="26"/>
       <c r="C68" s="39"/>
@@ -16648,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="26"/>
       <c r="C69" s="39"/>
@@ -16845,7 +16861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="26"/>
       <c r="C70" s="39"/>
@@ -17042,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="26"/>
       <c r="C71" s="39"/>
@@ -17239,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="26"/>
       <c r="C72" s="39"/>
@@ -17436,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="26"/>
       <c r="C73" s="39"/>
@@ -17633,7 +17649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="26"/>
       <c r="C74" s="39"/>
@@ -17830,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="26"/>
       <c r="C75" s="39"/>
@@ -18027,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="26"/>
       <c r="C76" s="39"/>
@@ -18224,7 +18240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="26"/>
       <c r="C77" s="39"/>
@@ -18421,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="26"/>
       <c r="C78" s="39"/>
@@ -18618,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="26"/>
       <c r="C79" s="39"/>
@@ -18815,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="26"/>
       <c r="C80" s="39"/>
@@ -19012,7 +19028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="26"/>
       <c r="C81" s="39"/>
@@ -19209,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="26"/>
       <c r="C82" s="39"/>
@@ -19406,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="26"/>
       <c r="C83" s="39"/>
@@ -19603,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="26"/>
       <c r="C84" s="39"/>
@@ -19800,7 +19816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="26"/>
       <c r="C85" s="39"/>
@@ -19997,7 +20013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="26"/>
       <c r="C86" s="39"/>
@@ -20194,7 +20210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="26"/>
       <c r="C87" s="39"/>
@@ -20391,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="26"/>
       <c r="C88" s="39"/>
@@ -20588,7 +20604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="26"/>
       <c r="C89" s="39"/>
@@ -20785,7 +20801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="26"/>
       <c r="C90" s="39"/>
@@ -20982,7 +20998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="26"/>
       <c r="C91" s="39"/>
@@ -21179,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="26"/>
       <c r="C92" s="39"/>
@@ -21376,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="26"/>
       <c r="C93" s="39"/>
@@ -21573,7 +21589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="26"/>
       <c r="C94" s="39"/>
@@ -21770,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="26"/>
       <c r="C95" s="39"/>
@@ -21967,7 +21983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="26"/>
       <c r="C96" s="39"/>
@@ -22164,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="26"/>
       <c r="C97" s="39"/>
@@ -22361,7 +22377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="26"/>
       <c r="C98" s="39"/>
@@ -22558,7 +22574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="26"/>
       <c r="C99" s="39"/>
@@ -22755,7 +22771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="26"/>
       <c r="C100" s="39"/>
@@ -22952,7 +22968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="26"/>
       <c r="C101" s="39"/>
@@ -23149,7 +23165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="26"/>
       <c r="C102" s="39"/>
@@ -23346,7 +23362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="26"/>
       <c r="C103" s="39"/>
@@ -23543,7 +23559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="26"/>
       <c r="C104" s="39"/>
@@ -23740,7 +23756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="26"/>
       <c r="C105" s="39"/>
@@ -23937,7 +23953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="26"/>
       <c r="C106" s="39"/>
@@ -24134,7 +24150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="26"/>
       <c r="C107" s="39"/>
@@ -24331,7 +24347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="26"/>
       <c r="C108" s="39"/>
@@ -24528,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="26"/>
       <c r="C109" s="39"/>
@@ -24725,7 +24741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="26"/>
       <c r="C110" s="39"/>
@@ -24922,7 +24938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="26"/>
       <c r="C111" s="39"/>
@@ -25119,7 +25135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="26"/>
       <c r="C112" s="39"/>
@@ -25316,7 +25332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="26"/>
       <c r="C113" s="39"/>
@@ -25513,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
       <c r="B114" s="26"/>
       <c r="C114" s="39"/>
@@ -25710,7 +25726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
       <c r="B115" s="26"/>
       <c r="C115" s="39"/>
@@ -25907,7 +25923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="26"/>
       <c r="C116" s="39"/>
@@ -26104,7 +26120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="26"/>
       <c r="C117" s="39"/>
@@ -26301,7 +26317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
       <c r="B118" s="26"/>
       <c r="C118" s="39"/>
@@ -26499,14 +26515,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -26523,6 +26531,14 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A24:A25 A38:A39 D28:F28 A46 D41:F46 H41:J46 L48:BH51 A55:A118 D48:F49 D55:J118 D51:F51 H48:J49 D50:J50 H51:J51 L53:BH118 D53:F54 H53:J54 D8:J18 H28:J29 D36:J40 E29:F29 L12:BH18 H32:J35 D32:F35 L32:BH46 E31 L21:BH25 D21:J25 L28:BH29">
     <cfRule type="expression" dxfId="243" priority="129" stopIfTrue="1">
@@ -27206,13 +27222,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -27220,7 +27236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -27228,7 +27244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -27236,7 +27252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -27244,7 +27260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -27268,14 +27284,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
@@ -27286,7 +27302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
@@ -27297,7 +27313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
@@ -27308,7 +27324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
@@ -27319,7 +27335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
@@ -27330,7 +27346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
@@ -27341,7 +27357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -27525,7 +27541,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
@@ -27536,7 +27552,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
@@ -27547,7 +27563,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
@@ -27558,7 +27574,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>147</v>
       </c>
@@ -27569,7 +27585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
@@ -27580,7 +27596,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:60" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
@@ -27591,7 +27607,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -27775,7 +27791,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
@@ -27786,7 +27802,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="72" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" ht="75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
@@ -27797,7 +27813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -27808,7 +27824,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -27819,7 +27835,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
@@ -27830,7 +27846,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>21</v>
       </c>
@@ -27841,7 +27857,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
@@ -27852,7 +27868,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
@@ -28183,13 +28199,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
@@ -28197,11 +28213,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
@@ -28212,7 +28228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
@@ -28223,7 +28239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
@@ -28234,7 +28250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>37</v>
       </c>
@@ -28245,7 +28261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>38</v>
       </c>
@@ -28308,13 +28324,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>48</v>
       </c>
@@ -28322,7 +28338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>56</v>
       </c>
@@ -28330,7 +28346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>57</v>
       </c>
@@ -28338,7 +28354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>58</v>
       </c>
@@ -28362,13 +28378,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -28376,7 +28392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -28387,7 +28403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -28395,7 +28411,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHubRepository\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F15744-4B9F-4024-AB2A-A6BD27393882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BACAE-532B-4E65-8B19-78E89BE00F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="214">
   <si>
     <t>TASK</t>
   </si>
@@ -952,9 +952,6 @@
     <t xml:space="preserve">Swich between the knight and the mage classes </t>
   </si>
   <si>
-    <t xml:space="preserve">lets the players enchance the stats of the knight and mage, and max hp, etc </t>
-  </si>
-  <si>
     <t>WIP</t>
   </si>
   <si>
@@ -1001,6 +998,18 @@
   </si>
   <si>
     <t>make art for pause screen that will be dispayed when game state is changed to pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come up with the concept for the archer </t>
+  </si>
+  <si>
+    <t>draw the sprite for the archer weapon and animation for the archer's attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lets the players enchance the stats of the knight and mage, and max hp, etc . Make Menu Ui for skill Tree that involes changing gamestates, intergrate with exp and drops </t>
+  </si>
+  <si>
+    <t>lets the players buy the additional  perks to enhance skill and modify the game, etc . Make Menu Ui for shop  that involes changing gamestates, intergrate with and gold drops.</t>
   </si>
 </sst>
 </file>
@@ -1762,28 +1771,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1792,10 +1780,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1805,7 +1814,15 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="254">
+  <dxfs count="255">
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3899,7 +3916,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="250">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="251">
   <autoFilter ref="A8:R16" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AB7DF63-F3E2-46EA-867C-B10FAF5F8283}" name="Student Name"/>
@@ -3909,16 +3926,16 @@
     <tableColumn id="5" xr3:uid="{2BA79B57-539F-46E5-965A-5E7716ACBE1C}" name="In Progress"/>
     <tableColumn id="6" xr3:uid="{2710B94F-2F91-48AC-8457-97A764EF4BC7}" name="Not Started"/>
     <tableColumn id="7" xr3:uid="{493E51FB-9F1A-4B86-B51A-0A9F697471BC}" name="Total Workload "/>
-    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="249"/>
-    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="248"/>
+    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="250"/>
+    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="249"/>
     <tableColumn id="10" xr3:uid="{20ECF3E5-B447-40AE-82D9-F1DAECBAD66F}" name="Remaining"/>
-    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="247"/>
+    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="248"/>
     <tableColumn id="12" xr3:uid="{5AA91C7C-8A0B-454F-BB15-D1BB545F0BE4}" name="Remaining3"/>
-    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="246"/>
+    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="247"/>
     <tableColumn id="14" xr3:uid="{B367E59C-5FB9-479C-A7F3-B1C7AE02BA4A}" name="Remaining5"/>
-    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="245"/>
+    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="246"/>
     <tableColumn id="16" xr3:uid="{DF492611-AC03-4727-883A-97854465FDAE}" name="Remaining7"/>
-    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="244"/>
+    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="245"/>
     <tableColumn id="18" xr3:uid="{67CDA12C-F1E4-40F4-B6AC-BDC17A0B0B8D}" name="Remaining9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3937,11 +3954,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A5:B8" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3952,7 +3969,7 @@
   <autoFilter ref="A1:B4" xr:uid="{DECAA8B5-6330-451B-9562-5424BBB00F80}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D55844DA-51EF-4755-A498-8AFCDF33F45D}" name="Colour"/>
-    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4438,19 +4455,19 @@
       </c>
       <c r="E9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f>SUM(D9:F9)</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A9,GANTT!B:B,TaskTypes!$A$5)/$G9)</f>
-        <v>0.89743589743589747</v>
+        <v>1</v>
       </c>
       <c r="I9" s="44">
         <v>10</v>
@@ -4886,15 +4903,15 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>54.5</v>
+        <v>42.5</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>169.5</v>
+        <v>165.5</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="1"/>
@@ -4957,13 +4974,13 @@
     <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="253" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="254" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="253" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="252" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4992,10 +5009,10 @@
   <dimension ref="A1:BZ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5082,66 +5099,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="93">
+      <c r="S5" s="89">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93">
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93">
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93">
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93">
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="93"/>
-      <c r="AX5" s="93"/>
-      <c r="AY5" s="93"/>
-      <c r="AZ5" s="93"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="97">
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="90">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="97"/>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="97"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -5162,58 +5179,58 @@
       <c r="BZ5" s="9"/>
     </row>
     <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="94" t="s">
+      <c r="N6" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="94" t="s">
+      <c r="O6" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="91" t="s">
+      <c r="P6" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="91" t="s">
+      <c r="R6" s="94" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -5386,24 +5403,24 @@
       </c>
     </row>
     <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="92"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="97"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -6726,7 +6743,7 @@
         <v>173</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="66">
         <v>10</v>
@@ -6753,13 +6770,13 @@
         <v>44503</v>
       </c>
       <c r="O15" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P15" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R15" s="74" t="s">
         <v>57</v>
@@ -7587,7 +7604,7 @@
     </row>
     <row r="19" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>153</v>
@@ -7599,7 +7616,7 @@
         <v>89</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="66"/>
       <c r="G19" s="74" t="s">
@@ -7818,7 +7835,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="66">
         <v>10</v>
@@ -8039,7 +8056,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F21" s="66">
         <v>10</v>
@@ -8130,7 +8147,7 @@
         <v>176</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22" s="66">
         <v>5</v>
@@ -8154,16 +8171,16 @@
       </c>
       <c r="M22" s="74"/>
       <c r="N22" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P22" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R22" s="74" t="s">
         <v>57</v>
@@ -8225,7 +8242,7 @@
         <v>176</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23" s="66">
         <v>10</v>
@@ -8316,7 +8333,7 @@
         <v>176</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="66">
         <v>10</v>
@@ -8726,7 +8743,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>76</v>
@@ -8748,7 +8765,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K26" s="74"/>
       <c r="L26" s="74">
@@ -8759,13 +8776,13 @@
         <v>44508</v>
       </c>
       <c r="O26" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P26" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R26" s="74" t="s">
         <v>57</v>
@@ -8818,7 +8835,7 @@
         <v>123</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>75</v>
@@ -9049,7 +9066,7 @@
         <v>184</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F28" s="66">
         <v>1</v>
@@ -9076,13 +9093,13 @@
         <v>44512</v>
       </c>
       <c r="O28" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P28" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R28" s="74" t="s">
         <v>57</v>
@@ -9293,185 +9310,185 @@
       <c r="N29" s="75">
         <v>44512</v>
       </c>
-      <c r="O29" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="P29" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q29" s="75" t="s">
-        <v>195</v>
+      <c r="O29" s="75">
+        <v>2</v>
+      </c>
+      <c r="P29" s="75">
+        <v>44514</v>
+      </c>
+      <c r="Q29" s="74">
+        <v>4</v>
       </c>
       <c r="R29" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="S29" s="16" t="e">
+        <v>58</v>
+      </c>
+      <c r="S29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="T29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="W29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="X29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK29" s="16" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL29" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM29" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="16">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH29" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="16">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9488,7 +9505,7 @@
         <v>172</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F30" s="66">
         <v>15</v>
@@ -9884,7 +9901,7 @@
     </row>
     <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>20</v>
@@ -9896,7 +9913,7 @@
         <v>89</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
@@ -10229,7 +10246,7 @@
     </row>
     <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>20</v>
@@ -10241,7 +10258,7 @@
         <v>89</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F37" s="66"/>
       <c r="G37" s="74" t="s">
@@ -10952,8 +10969,12 @@
       <c r="C41" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="14"/>
+      <c r="D41" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="F41" s="66">
         <v>1</v>
       </c>
@@ -11165,8 +11186,12 @@
       <c r="C42" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="14"/>
+      <c r="D42" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="F42" s="66">
         <v>4</v>
       </c>
@@ -11189,15 +11214,20 @@
         <v>#N/A</v>
       </c>
       <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="76"/>
+      <c r="N42" s="75">
+        <v>44517</v>
+      </c>
+      <c r="O42" s="76">
+        <v>1</v>
+      </c>
       <c r="P42" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="74"/>
+        <v>44518</v>
+      </c>
+      <c r="Q42" s="74">
+        <v>5</v>
+      </c>
       <c r="R42" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S42" s="16">
         <f t="shared" si="18"/>
@@ -11293,7 +11323,7 @@
       </c>
       <c r="AP42" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="16">
         <f t="shared" si="20"/>
@@ -12433,8 +12463,12 @@
       <c r="C48" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="14"/>
+      <c r="D48" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="F48" s="66">
         <v>8</v>
       </c>
@@ -12457,15 +12491,17 @@
         <v>#N/A</v>
       </c>
       <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
+      <c r="N48" s="75">
+        <v>44520</v>
+      </c>
       <c r="O48" s="76"/>
       <c r="P48" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>44520</v>
       </c>
       <c r="Q48" s="74"/>
       <c r="R48" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S48" s="16">
         <f t="shared" si="23"/>
@@ -26515,6 +26551,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -26531,616 +26575,613 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A24:A25 A38:A39 D28:F28 A46 D41:F46 H41:J46 L48:BH51 A55:A118 D48:F49 D55:J118 D51:F51 H48:J49 D50:J50 H51:J51 L53:BH118 D53:F54 H53:J54 D8:J18 H28:J29 D36:J40 E29:F29 L12:BH18 H32:J35 D32:F35 L32:BH46 E31 L21:BH25 D21:J25 L28:BH29">
-    <cfRule type="expression" dxfId="243" priority="129" stopIfTrue="1">
+  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A24:A25 A38:A39 D28:F28 A46 H41:J46 L48:BH51 A55:A118 D55:J118 D51:F51 H48:J49 D50:J50 H51:J51 L53:BH118 D53:F54 H53:J54 D8:J18 H28:J29 D36:J40 E29:F29 L12:BH18 H32:J35 D32:F35 L32:BH46 E31 L21:BH25 D21:J25 L28:BH28 D41:F46 D48:F49 L29:P29 R29:BH29">
+    <cfRule type="expression" dxfId="244" priority="130" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S28:BH46">
-    <cfRule type="expression" dxfId="242" priority="127">
+    <cfRule type="expression" dxfId="243" priority="128">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="128">
+    <cfRule type="expression" dxfId="242" priority="129">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S30:BH30 S34:BH46 S48:BH51 S53:BH118 S21:BH25">
-    <cfRule type="expression" dxfId="240" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="133" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:S16">
-    <cfRule type="expression" dxfId="239" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="143" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S28:BH46">
-    <cfRule type="cellIs" dxfId="238" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S28:BH46">
-    <cfRule type="cellIs" dxfId="237" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="141" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S28:BH46">
-    <cfRule type="cellIs" dxfId="236" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B48:C51 B53:C118 B13:C17 B25:C25 B21:C22 B18 B21:B24 B28:C46">
-    <cfRule type="containsText" dxfId="235" priority="117" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="236" priority="118" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="118" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="235" priority="119" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="119" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="234" priority="120" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="120" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="233" priority="121" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="121" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="232" priority="122" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10 K24 K38:K39 K41:K42 K44:K46 K48:K51 K53:K117 K13:K14 K17 L30:BH30 F30:J30 D30">
-    <cfRule type="expression" dxfId="230" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="145" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="containsText" dxfId="229" priority="112" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="230" priority="113" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="113" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="229" priority="114" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="114" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="228" priority="115" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="115" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="227" priority="116" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="116" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="226" priority="117" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="containsText" dxfId="224" priority="107" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="225" priority="108" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="108" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="224" priority="109" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="109" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="223" priority="110" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="110" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="222" priority="111" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="111" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="221" priority="112" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 K8 K22">
-    <cfRule type="expression" dxfId="219" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="146" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K25 K15:K16">
-    <cfRule type="expression" dxfId="218" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="148" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 K21 K23 K35:K37">
-    <cfRule type="expression" dxfId="217" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="151" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="216" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="107" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="215" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="154" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A39)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="214" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="155" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A39)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29 G45 L31:BH31 F31:J31 D31">
-    <cfRule type="expression" dxfId="213" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="157" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A28)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:BH31 S28:BH28">
-    <cfRule type="expression" dxfId="212" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="159" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:BH33 S29:BH29">
-    <cfRule type="expression" dxfId="211" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="160" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29">
-    <cfRule type="expression" dxfId="210" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="161" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="209" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="105" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="208" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="165" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A39)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43 G46">
-    <cfRule type="expression" dxfId="207" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="103" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A43)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="206" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="104" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A41)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41 G44">
-    <cfRule type="expression" dxfId="205" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="101" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40 K43">
-    <cfRule type="expression" dxfId="204" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="196" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47 D47:J47 L47:BH47">
-    <cfRule type="expression" dxfId="203" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="95" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A47)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="expression" dxfId="202" priority="92">
+    <cfRule type="expression" dxfId="203" priority="93">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="93">
+    <cfRule type="expression" dxfId="202" priority="94">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="expression" dxfId="200" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="96" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G47)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="cellIs" dxfId="199" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="cellIs" dxfId="198" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="98" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="cellIs" dxfId="197" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C47">
-    <cfRule type="containsText" dxfId="196" priority="87" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="197" priority="88" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="88" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="196" priority="89" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="89" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="195" priority="90" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="90" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="194" priority="91" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="91" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="193" priority="92" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="expression" dxfId="191" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="100" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A48)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="190" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="87" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="189" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="86" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="188" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="85" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 D52:J52 L52:BH52">
-    <cfRule type="expression" dxfId="187" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A52)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="expression" dxfId="186" priority="76">
+    <cfRule type="expression" dxfId="187" priority="77">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="77">
+    <cfRule type="expression" dxfId="186" priority="78">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="expression" dxfId="184" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G52)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="cellIs" dxfId="183" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="cellIs" dxfId="182" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="cellIs" dxfId="181" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:C52">
-    <cfRule type="containsText" dxfId="180" priority="71" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="181" priority="72" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="72" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="180" priority="73" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="73" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="179" priority="74" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="74" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="178" priority="75" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="75" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="177" priority="76" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="175" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="84" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A53)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="174" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A53)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="173" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A54)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="172" priority="64" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="173" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="65" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="172" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="66" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="171" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="67" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="170" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="68" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="169" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="167" priority="59" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="168" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="60" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="167" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="166" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="62" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="165" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="63" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="164" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="162" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="59" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A34)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="161" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="58" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G34">
-    <cfRule type="expression" dxfId="160" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="206" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A30)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="159" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="208" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A30)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K33">
-    <cfRule type="expression" dxfId="158" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="211" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A39)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="157" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="212" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A24)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 D19:J19 L19:BH19">
-    <cfRule type="expression" dxfId="156" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="50" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A19)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="expression" dxfId="155" priority="47">
+    <cfRule type="expression" dxfId="156" priority="48">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="48">
+    <cfRule type="expression" dxfId="155" priority="49">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="expression" dxfId="153" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="51" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G19)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="152" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="151" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="53" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="150" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="149" priority="42" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="150" priority="43" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="43" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="149" priority="44" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="44" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="148" priority="45" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="45" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="147" priority="46" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="46" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="146" priority="47" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="144" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="55" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A25)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:J20 L20:BH20">
-    <cfRule type="expression" dxfId="143" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="37" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A20)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="expression" dxfId="142" priority="34">
+    <cfRule type="expression" dxfId="143" priority="35">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="35">
+    <cfRule type="expression" dxfId="142" priority="36">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="expression" dxfId="140" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="38" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G20)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="139" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="138" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="136" priority="29" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="137" priority="30" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="30" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="136" priority="31" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="31" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="135" priority="32" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="32" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="134" priority="33" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="33" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="133" priority="34" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="131" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="42" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A25)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:BH26 D26 F26:J26">
-    <cfRule type="expression" dxfId="130" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="24" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="expression" dxfId="129" priority="21">
+    <cfRule type="expression" dxfId="130" priority="22">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="22">
+    <cfRule type="expression" dxfId="129" priority="23">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="expression" dxfId="127" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="25" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="126" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="125" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="124" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26">
-    <cfRule type="containsText" dxfId="123" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="124" priority="17" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="123" priority="18" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="122" priority="19" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="121" priority="20" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="118" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="29" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="117" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="16" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:BH27 D27 F27:J27">
-    <cfRule type="expression" dxfId="116" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="10" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="expression" dxfId="115" priority="7">
+    <cfRule type="expression" dxfId="116" priority="8">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="8">
+    <cfRule type="expression" dxfId="115" priority="9">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="expression" dxfId="113" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="11" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="cellIs" dxfId="112" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="cellIs" dxfId="111" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="cellIs" dxfId="110" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:C27">
-    <cfRule type="containsText" dxfId="109" priority="2" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="110" priority="3" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="3" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="109" priority="4" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="4" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="108" priority="5" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="5" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="107" priority="6" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="6" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="106" priority="7" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="103" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A30)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27881,309 +27922,309 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="containsText" dxfId="102" priority="85" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="103" priority="85" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="86" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="102" priority="86" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="87" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="101" priority="87" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="88" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="100" priority="88" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="89" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="99" priority="89" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 BG7:BH7 C7 E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7 Y7 AA7 AC7 AE7 AG7 AI7 AK7 AM7 AO7 AQ7 AS7 AU7 AW7 AY7 BA7 BC7 BE7">
-    <cfRule type="expression" dxfId="97" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="96" priority="77">
+    <cfRule type="expression" dxfId="97" priority="77">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="78">
+    <cfRule type="expression" dxfId="96" priority="78">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="94" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="93" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="92" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="91" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7 N7 P7 R7 T7 V7 X7 Z7 AB7 AD7 AF7 AH7 AJ7 AL7 AN7 AP7 AR7 AT7 AV7 AX7 AZ7 BB7 BD7 BF7">
-    <cfRule type="expression" dxfId="90" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="89" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="88" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="89" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="88" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="87" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="86" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="85" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="83" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="84" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="83" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="80" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="56" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="78" priority="56" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="57" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="77" priority="57" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="58" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="76" priority="58" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="59" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="73" priority="50" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="74" priority="50" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="51" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="73" priority="51" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="53" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="54" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="70" priority="54" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="68" priority="45" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="69" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="46" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="47" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="67" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="48" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="66" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="49" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="63" priority="40" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="64" priority="40" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="63" priority="41" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="62" priority="42" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="61" priority="43" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="60" priority="44" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 BG14:BH14 C14 E14 G14 I14 K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14">
-    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="35" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="57" priority="33">
+    <cfRule type="expression" dxfId="58" priority="33">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="34">
+    <cfRule type="expression" dxfId="57" priority="34">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="54" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14">
-    <cfRule type="expression" dxfId="51" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 B22">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A17)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="22" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="23" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="39" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28286,29 +28327,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28421,24 +28462,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHubRepository\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18033160\Desktop\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BACAE-532B-4E65-8B19-78E89BE00F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA21663-7871-4521-BF09-77CE2BEB59D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="214">
   <si>
     <t>TASK</t>
   </si>
@@ -478,9 +478,6 @@
     <t>2nd Weapon idea &amp; Sprite Design (Mage)</t>
   </si>
   <si>
-    <t>level design (6-10 levels)</t>
-  </si>
-  <si>
     <t>1st Enemy idea &amp; Sprite Design</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
   </si>
   <si>
     <t>Second enemy</t>
-  </si>
-  <si>
-    <t>level design (11-15 levels)</t>
   </si>
   <si>
     <t>Sprite art &amp; animation</t>
@@ -925,9 +919,6 @@
     <t>Gameplay/Rendering</t>
   </si>
   <si>
-    <t>creating the design for level 6to10</t>
-  </si>
-  <si>
     <t xml:space="preserve">making of dialogue boxes/introduction player to game </t>
   </si>
   <si>
@@ -988,9 +979,6 @@
     <t xml:space="preserve">create background image for game </t>
   </si>
   <si>
-    <t>14/112021</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -1010,6 +998,18 @@
   </si>
   <si>
     <t>lets the players buy the additional  perks to enhance skill and modify the game, etc . Make Menu Ui for shop  that involes changing gamestates, intergrate with and gold drops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rendering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">making level with enemy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">level design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enemey movement </t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1541,7 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1771,7 +1771,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1780,32 +1801,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1814,18 +1817,7 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="255">
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="241">
     <dxf>
       <fill>
         <patternFill>
@@ -1867,94 +1859,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2625,116 +2529,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode=";;;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightTrellis">
-          <fgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode=";;;"/>
@@ -3777,6 +3571,118 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -3796,27 +3702,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3916,7 +3801,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="251">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="240">
   <autoFilter ref="A8:R16" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AB7DF63-F3E2-46EA-867C-B10FAF5F8283}" name="Student Name"/>
@@ -3926,16 +3811,16 @@
     <tableColumn id="5" xr3:uid="{2BA79B57-539F-46E5-965A-5E7716ACBE1C}" name="In Progress"/>
     <tableColumn id="6" xr3:uid="{2710B94F-2F91-48AC-8457-97A764EF4BC7}" name="Not Started"/>
     <tableColumn id="7" xr3:uid="{493E51FB-9F1A-4B86-B51A-0A9F697471BC}" name="Total Workload "/>
-    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="250"/>
-    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="249"/>
+    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="239"/>
+    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="238"/>
     <tableColumn id="10" xr3:uid="{20ECF3E5-B447-40AE-82D9-F1DAECBAD66F}" name="Remaining"/>
-    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="248"/>
+    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="237"/>
     <tableColumn id="12" xr3:uid="{5AA91C7C-8A0B-454F-BB15-D1BB545F0BE4}" name="Remaining3"/>
-    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="247"/>
+    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="236"/>
     <tableColumn id="14" xr3:uid="{B367E59C-5FB9-479C-A7F3-B1C7AE02BA4A}" name="Remaining5"/>
-    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="246"/>
+    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="235"/>
     <tableColumn id="16" xr3:uid="{DF492611-AC03-4727-883A-97854465FDAE}" name="Remaining7"/>
-    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="245"/>
+    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="234"/>
     <tableColumn id="18" xr3:uid="{67CDA12C-F1E4-40F4-B6AC-BDC17A0B0B8D}" name="Remaining9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3954,11 +3839,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="233" headerRowBorderDxfId="232" tableBorderDxfId="231" totalsRowBorderDxfId="230">
   <autoFilter ref="A5:B8" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="229"/>
+    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="228"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3969,7 +3854,7 @@
   <autoFilter ref="A1:B4" xr:uid="{DECAA8B5-6330-451B-9562-5424BBB00F80}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D55844DA-51EF-4755-A498-8AFCDF33F45D}" name="Colour"/>
-    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="227"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4278,44 +4163,44 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="17" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4327,7 +4212,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -4339,7 +4224,7 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
@@ -4349,7 +4234,7 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="87" t="s">
@@ -4384,7 +4269,7 @@
       </c>
       <c r="R7" s="87"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -4440,7 +4325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
         <v>99</v>
       </c>
@@ -4505,7 +4390,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
         <v>102</v>
       </c>
@@ -4570,7 +4455,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
         <v>103</v>
       </c>
@@ -4635,7 +4520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
         <v>101</v>
       </c>
@@ -4654,15 +4539,15 @@
       </c>
       <c r="F12">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A12, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A12,GANTT!B:B,TaskTypes!$A$5)/$G12)</f>
-        <v>1</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="I12" s="44">
         <v>10</v>
@@ -4690,17 +4575,17 @@
       </c>
       <c r="P12">
         <f>O12- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A12, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>-10.5</v>
+        <v>-11.5</v>
       </c>
       <c r="Q12" s="44">
         <v>10</v>
       </c>
       <c r="R12">
         <f>Q12- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A12, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>-10.5</v>
+        <v>-11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>105</v>
       </c>
@@ -4765,7 +4650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A14, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4827,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D15">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A15, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4889,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -4907,11 +4792,11 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>165.5</v>
+        <v>164.5</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="1"/>
@@ -4947,7 +4832,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>-15.5</v>
+        <v>-16.5</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:R16" si="2">SUM(Q9:Q15)</f>
@@ -4955,13 +4840,13 @@
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>-15.5</v>
+        <v>-16.5</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="38"/>
     </row>
   </sheetData>
@@ -4974,13 +4859,13 @@
     <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="254" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="226" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="225" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="224" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5009,37 +4894,37 @@
   <dimension ref="A1:BZ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="S20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.28515625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="245.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.85546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.7109375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.7109375" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.33203125" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="245.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.5546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.6640625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.5546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2" customWidth="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
-    <col min="19" max="60" width="4.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="16384" width="9.140625" style="2"/>
+    <col min="19" max="60" width="4.109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="35.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:78" ht="35.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -5052,7 +4937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -5066,7 +4951,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -5079,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5088,7 +4973,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -5099,66 +4984,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="89">
+      <c r="S5" s="93">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89">
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89">
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="89">
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="93">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="89">
+      <c r="AO5" s="93"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="93">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="89"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="89"/>
-      <c r="BA5" s="89"/>
-      <c r="BB5" s="90">
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="93"/>
+      <c r="AX5" s="93"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="93"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="97">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="90"/>
-      <c r="BH5" s="90"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -5178,59 +5063,59 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
     </row>
-    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="92" t="s">
+    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="93" t="s">
+      <c r="I6" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="94" t="s">
+      <c r="K6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="94" t="s">
+      <c r="M6" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="93" t="s">
+      <c r="O6" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="94" t="s">
+      <c r="P6" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="99" t="s">
+      <c r="Q6" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="94" t="s">
+      <c r="R6" s="91" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -5402,25 +5287,25 @@
         <v>44535</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="97"/>
+    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="92"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5590,7 +5475,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="64" t="s">
         <v>111</v>
       </c>
@@ -5604,7 +5489,7 @@
         <v>88</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="66">
         <v>10</v>
@@ -5810,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="64" t="s">
         <v>112</v>
       </c>
@@ -5821,10 +5706,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="66">
         <v>10</v>
@@ -5898,7 +5783,7 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
     </row>
-    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="64" t="s">
         <v>113</v>
       </c>
@@ -5909,10 +5794,10 @@
         <v>75</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F10" s="66">
         <v>10</v>
@@ -5986,7 +5871,7 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="64" t="s">
         <v>114</v>
       </c>
@@ -6000,7 +5885,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" s="66">
         <v>10</v>
@@ -6207,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="64" t="s">
         <v>116</v>
       </c>
@@ -6221,7 +6106,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" s="66">
         <v>10</v>
@@ -6295,7 +6180,7 @@
       <c r="BG12" s="16"/>
       <c r="BH12" s="16"/>
     </row>
-    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="64" t="s">
         <v>115</v>
       </c>
@@ -6306,10 +6191,10 @@
         <v>75</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13" s="66">
         <v>10</v>
@@ -6520,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="63" t="s">
         <v>6</v>
       </c>
@@ -6729,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="59" t="s">
         <v>117</v>
       </c>
@@ -6740,10 +6625,10 @@
         <v>75</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F15" s="66">
         <v>10</v>
@@ -6770,13 +6655,13 @@
         <v>44503</v>
       </c>
       <c r="O15" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P15" s="75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R15" s="74" t="s">
         <v>57</v>
@@ -6950,9 +6835,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>22</v>
@@ -6964,7 +6849,7 @@
         <v>89</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="74" t="s">
@@ -7158,9 +7043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>21</v>
@@ -7172,7 +7057,7 @@
         <v>89</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F17" s="66">
         <v>15</v>
@@ -7380,21 +7265,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F18" s="66">
         <v>10</v>
@@ -7602,12 +7487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="62" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="85" t="s">
         <v>75</v>
@@ -7616,7 +7501,7 @@
         <v>89</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F19" s="66"/>
       <c r="G19" s="74" t="s">
@@ -7821,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="59" t="s">
         <v>119</v>
       </c>
@@ -7829,13 +7714,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F20" s="66">
         <v>10</v>
@@ -8042,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="59" t="s">
         <v>120</v>
       </c>
@@ -8056,7 +7941,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F21" s="66">
         <v>10</v>
@@ -8133,7 +8018,7 @@
       <c r="BG21" s="16"/>
       <c r="BH21" s="16"/>
     </row>
-    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="59" t="s">
         <v>121</v>
       </c>
@@ -8144,10 +8029,10 @@
         <v>75</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F22" s="66">
         <v>5</v>
@@ -8171,16 +8056,16 @@
       </c>
       <c r="M22" s="74"/>
       <c r="N22" s="75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O22" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P22" s="75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="74" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="R22" s="74" t="s">
         <v>57</v>
@@ -8228,7 +8113,7 @@
       <c r="BG22" s="16"/>
       <c r="BH22" s="16"/>
     </row>
-    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="59" t="s">
         <v>122</v>
       </c>
@@ -8236,13 +8121,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" s="66">
         <v>10</v>
@@ -8319,7 +8204,7 @@
       <c r="BG23" s="16"/>
       <c r="BH23" s="16"/>
     </row>
-    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="62" t="s">
         <v>118</v>
       </c>
@@ -8327,13 +8212,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="82" t="s">
-        <v>176</v>
-      </c>
       <c r="E24" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F24" s="66">
         <v>10</v>
@@ -8539,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="63" t="s">
         <v>6</v>
       </c>
@@ -8738,351 +8623,477 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="65" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" s="66"/>
+        <v>89</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="66">
+        <v>0.5</v>
+      </c>
       <c r="G26" s="74" t="s">
         <v>101</v>
       </c>
       <c r="H26" s="75">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="I26" s="74">
-        <v>7</v>
-      </c>
-      <c r="J26" s="75" t="s">
-        <v>206</v>
+        <v>1</v>
+      </c>
+      <c r="J26" s="75">
+        <f t="shared" ref="J26" si="15">H26 +I26</f>
+        <v>44511</v>
       </c>
       <c r="K26" s="74"/>
       <c r="L26" s="74">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M26" s="74"/>
       <c r="N26" s="75">
-        <v>44508</v>
-      </c>
-      <c r="O26" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="P26" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="74" t="s">
-        <v>194</v>
+        <v>44510</v>
+      </c>
+      <c r="O26" s="74">
+        <v>1</v>
+      </c>
+      <c r="P26" s="75">
+        <f t="shared" ref="P26" si="16">N26+O26</f>
+        <v>44511</v>
+      </c>
+      <c r="Q26" s="74">
+        <v>4</v>
       </c>
       <c r="R26" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="16"/>
-      <c r="AP26" s="16"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="16"/>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="16"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16"/>
-      <c r="AW26" s="16"/>
-      <c r="AX26" s="16"/>
-      <c r="AY26" s="16"/>
-      <c r="AZ26" s="16"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="16"/>
-      <c r="BC26" s="16"/>
-      <c r="BD26" s="16"/>
-      <c r="BE26" s="16"/>
-      <c r="BF26" s="16"/>
-      <c r="BG26" s="16"/>
-      <c r="BH26" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="S26" s="16">
+        <f t="shared" ref="S26:BH26" si="17">IF(AND(S$6&gt;=$N26,S$6&lt;$N26+$O26), 1, IF(AND(S$6&gt;=$H26,S$6&lt;$H26+$I26), 2, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="16">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BA26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BB26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BF26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BG26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BH26" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="F27" s="66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27" s="75">
-        <v>44510</v>
+        <v>44513</v>
       </c>
       <c r="I27" s="74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="75">
-        <f t="shared" ref="J27" si="15">H27 +I27</f>
-        <v>44511</v>
+        <f t="shared" si="13"/>
+        <v>44515</v>
       </c>
       <c r="K27" s="74"/>
       <c r="L27" s="74">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M27" s="74"/>
       <c r="N27" s="75">
-        <v>44510</v>
-      </c>
-      <c r="O27" s="74">
-        <v>1</v>
-      </c>
-      <c r="P27" s="75">
-        <f t="shared" ref="P27" si="16">N27+O27</f>
-        <v>44511</v>
-      </c>
-      <c r="Q27" s="74">
-        <v>4</v>
+        <v>44512</v>
+      </c>
+      <c r="O27" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="P27" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="75" t="s">
+        <v>191</v>
       </c>
       <c r="R27" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="S27" s="16">
-        <f t="shared" ref="S27:BH27" si="17">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="16">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AS27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AT27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AV27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AW27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AX27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AY27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BB27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BF27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BG27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BH27" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="S27" s="16" t="e">
+        <f t="shared" ref="S27:AB44" si="18">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB27" s="16" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC27" s="16" t="e">
+        <f t="shared" ref="AC27:AL44" si="19">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL27" s="16" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM27" s="16" t="e">
+        <f t="shared" ref="AM27:AV44" si="20">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV27" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW27" s="16" t="e">
+        <f t="shared" ref="AW27:BF44" si="21">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF27" s="16" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG27" s="16" t="e">
+        <f t="shared" ref="BG27:BH44" si="22">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH27" s="16" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="65" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="F28" s="66">
-        <v>1</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F28" s="66"/>
       <c r="G28" s="74" t="s">
         <v>99</v>
       </c>
       <c r="H28" s="75">
-        <v>44513</v>
+        <v>44511</v>
       </c>
       <c r="I28" s="74">
         <v>2</v>
       </c>
       <c r="J28" s="75">
-        <f t="shared" si="13"/>
-        <v>44515</v>
+        <v>44513</v>
       </c>
       <c r="K28" s="74"/>
       <c r="L28" s="74">
@@ -9092,232 +9103,235 @@
       <c r="N28" s="75">
         <v>44512</v>
       </c>
-      <c r="O28" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="P28" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q28" s="75" t="s">
-        <v>194</v>
+      <c r="O28" s="75">
+        <v>2</v>
+      </c>
+      <c r="P28" s="75">
+        <v>44514</v>
+      </c>
+      <c r="Q28" s="74">
+        <v>4</v>
       </c>
       <c r="R28" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="S28" s="16" t="e">
-        <f t="shared" ref="S28:AB44" si="18">IF(AND(S$6&gt;=$N28,S$6&lt;$N28+$O28), 1, IF(AND(S$6&gt;=$H28,S$6&lt;$H28+$I28), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T28" s="16" t="e">
+        <v>58</v>
+      </c>
+      <c r="S28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="T28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="W28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="X28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC28" s="16" t="e">
-        <f t="shared" ref="AC28:AL44" si="19">IF(AND(AC$6&gt;=$N28,AC$6&lt;$N28+$O28), 1, IF(AND(AC$6&gt;=$H28,AC$6&lt;$H28+$I28), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL28" s="16" t="e">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM28" s="16" t="e">
-        <f t="shared" ref="AM28:AV44" si="20">IF(AND(AM$6&gt;=$N28,AM$6&lt;$N28+$O28), 1, IF(AND(AM$6&gt;=$H28,AM$6&lt;$H28+$I28), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN28" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="16">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AM28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW28" s="16" t="e">
-        <f t="shared" ref="AW28:BF44" si="21">IF(AND(AW$6&gt;=$N28,AW$6&lt;$N28+$O28), 1, IF(AND(AW$6&gt;=$H28,AW$6&lt;$H28+$I28), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG28" s="16" t="e">
-        <f t="shared" ref="BG28:BH44" si="22">IF(AND(BG$6&gt;=$N28,BG$6&lt;$N28+$O28), 1, IF(AND(BG$6&gt;=$H28,BG$6&lt;$H28+$I28), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH28" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BG28" s="16">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="BH28" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="66"/>
+        <v>194</v>
+      </c>
+      <c r="F29" s="66">
+        <v>15</v>
+      </c>
       <c r="G29" s="74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H29" s="75">
-        <v>44511</v>
+        <v>44508</v>
       </c>
       <c r="I29" s="74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" s="75">
-        <v>44513</v>
+        <f t="shared" si="13"/>
+        <v>44512</v>
       </c>
       <c r="K29" s="74"/>
       <c r="L29" s="74">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M29" s="74"/>
       <c r="N29" s="75">
+        <v>44509</v>
+      </c>
+      <c r="O29" s="76">
+        <v>4</v>
+      </c>
+      <c r="P29" s="75">
         <v>44512</v>
       </c>
-      <c r="O29" s="75">
-        <v>2</v>
-      </c>
-      <c r="P29" s="75">
-        <v>44514</v>
-      </c>
       <c r="Q29" s="74">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R29" s="74" t="s">
         <v>58</v>
@@ -9380,19 +9394,19 @@
       </c>
       <c r="AG29" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="16">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="16">
         <f t="shared" si="19"/>
@@ -9400,7 +9414,7 @@
       </c>
       <c r="AL29" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="16">
         <f t="shared" si="20"/>
@@ -9491,277 +9505,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F30" s="66">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G30" s="74" t="s">
         <v>102</v>
       </c>
       <c r="H30" s="75">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="I30" s="74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" s="75">
-        <f t="shared" si="13"/>
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="K30" s="74"/>
       <c r="L30" s="74">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M30" s="74"/>
       <c r="N30" s="75">
+        <v>44513</v>
+      </c>
+      <c r="O30" s="76">
+        <v>1</v>
+      </c>
+      <c r="P30" s="75">
+        <v>44513</v>
+      </c>
+      <c r="Q30" s="74">
+        <v>4</v>
+      </c>
+      <c r="R30" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="16"/>
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
+      <c r="AT30" s="16"/>
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="16"/>
+      <c r="AW30" s="16"/>
+      <c r="AX30" s="16"/>
+      <c r="AY30" s="16"/>
+      <c r="AZ30" s="16"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="16"/>
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
+      <c r="BE30" s="16"/>
+      <c r="BF30" s="16"/>
+      <c r="BG30" s="16"/>
+      <c r="BH30" s="16"/>
+    </row>
+    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="66"/>
+      <c r="G31" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="75">
+        <v>44508</v>
+      </c>
+      <c r="I31" s="74">
+        <v>1</v>
+      </c>
+      <c r="J31" s="75">
         <v>44509</v>
-      </c>
-      <c r="O30" s="76">
-        <v>4</v>
-      </c>
-      <c r="P30" s="75">
-        <v>44512</v>
-      </c>
-      <c r="Q30" s="74">
-        <v>13</v>
-      </c>
-      <c r="R30" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="S30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="16">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AH30" s="16">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AI30" s="16">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="16">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AK30" s="16">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AL30" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AM30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AN30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AP30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AS30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AU30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AV30" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AW30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AX30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AY30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AZ30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BA30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BB30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BC30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BD30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BE30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BF30" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BG30" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BH30" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="F31" s="66">
-        <v>5</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="75">
-        <v>44510</v>
-      </c>
-      <c r="I31" s="74">
-        <v>2</v>
-      </c>
-      <c r="J31" s="75">
-        <v>44513</v>
       </c>
       <c r="K31" s="74"/>
       <c r="L31" s="74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31" s="74"/>
       <c r="N31" s="75">
-        <v>44513</v>
+        <v>44508</v>
       </c>
       <c r="O31" s="76">
         <v>1</v>
       </c>
       <c r="P31" s="75">
-        <v>44513</v>
+        <f>N31+O31</f>
+        <v>44509</v>
       </c>
       <c r="Q31" s="74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R31" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
@@ -9806,55 +9692,48 @@
       <c r="BG31" s="16"/>
       <c r="BH31" s="16"/>
     </row>
-    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="65" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F32" s="66"/>
       <c r="G32" s="74" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H32" s="75">
-        <v>44508</v>
+        <v>44510</v>
       </c>
       <c r="I32" s="74">
-        <v>1</v>
-      </c>
-      <c r="J32" s="75">
-        <v>44509</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J32" s="75"/>
       <c r="K32" s="74"/>
-      <c r="L32" s="74">
-        <v>2</v>
-      </c>
+      <c r="L32" s="74"/>
       <c r="M32" s="74"/>
       <c r="N32" s="75">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="O32" s="76">
-        <v>1</v>
-      </c>
-      <c r="P32" s="75">
-        <f>N32+O32</f>
-        <v>44509</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P32" s="75"/>
       <c r="Q32" s="74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
@@ -9899,21 +9778,21 @@
       <c r="BG32" s="16"/>
       <c r="BH32" s="16"/>
     </row>
-    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="65" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
@@ -9923,24 +9802,18 @@
         <v>44510</v>
       </c>
       <c r="I33" s="74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="75"/>
       <c r="K33" s="74"/>
       <c r="L33" s="74"/>
       <c r="M33" s="74"/>
-      <c r="N33" s="75">
-        <v>44512</v>
-      </c>
-      <c r="O33" s="76">
-        <v>2</v>
-      </c>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="75"/>
-      <c r="Q33" s="74">
-        <v>3</v>
-      </c>
+      <c r="Q33" s="74"/>
       <c r="R33" s="74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
@@ -9985,42 +9858,55 @@
       <c r="BG33" s="16"/>
       <c r="BH33" s="16"/>
     </row>
-    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="74" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H34" s="75">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="I34" s="74">
         <v>1</v>
       </c>
-      <c r="J34" s="75"/>
+      <c r="J34" s="75">
+        <v>44510</v>
+      </c>
       <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
+      <c r="L34" s="74">
+        <v>2</v>
+      </c>
       <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="74"/>
+      <c r="N34" s="75">
+        <v>44509</v>
+      </c>
+      <c r="O34" s="76">
+        <v>1</v>
+      </c>
+      <c r="P34" s="75">
+        <f>N34+O34</f>
+        <v>44510</v>
+      </c>
+      <c r="Q34" s="74">
+        <v>2</v>
+      </c>
       <c r="R34" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S34" s="16"/>
       <c r="T34" s="16"/>
@@ -10065,12 +9951,12 @@
       <c r="BG34" s="16"/>
       <c r="BH34" s="16"/>
     </row>
-    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="65" t="s">
         <v>131</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>75</v>
@@ -10079,41 +9965,34 @@
         <v>89</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F35" s="66"/>
       <c r="G35" s="74" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H35" s="75">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="I35" s="74">
         <v>1</v>
       </c>
-      <c r="J35" s="75">
-        <v>44510</v>
-      </c>
+      <c r="J35" s="75"/>
       <c r="K35" s="74"/>
-      <c r="L35" s="74">
-        <v>2</v>
-      </c>
+      <c r="L35" s="74"/>
       <c r="M35" s="74"/>
       <c r="N35" s="75">
-        <v>44509</v>
+        <v>44514</v>
       </c>
       <c r="O35" s="76">
         <v>1</v>
       </c>
-      <c r="P35" s="75">
-        <f>N35+O35</f>
-        <v>44510</v>
-      </c>
+      <c r="P35" s="75"/>
       <c r="Q35" s="74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R35" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
@@ -10158,12 +10037,12 @@
       <c r="BG35" s="16"/>
       <c r="BH35" s="16"/>
     </row>
-    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="65" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>75</v>
@@ -10172,7 +10051,7 @@
         <v>89</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F36" s="66"/>
       <c r="G36" s="74" t="s">
@@ -10189,7 +10068,7 @@
       <c r="L36" s="74"/>
       <c r="M36" s="74"/>
       <c r="N36" s="75">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="O36" s="76">
         <v>1</v>
@@ -10245,11 +10124,11 @@
       <c r="BH36" s="16"/>
     </row>
     <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="65" t="s">
-        <v>198</v>
+      <c r="A37" s="64" t="s">
+        <v>132</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>75</v>
@@ -10257,110 +10136,225 @@
       <c r="D37" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="66"/>
+      <c r="E37" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="66">
+        <v>1.5</v>
+      </c>
       <c r="G37" s="74" t="s">
         <v>105</v>
       </c>
       <c r="H37" s="75">
-        <v>44508</v>
+        <v>44512</v>
       </c>
       <c r="I37" s="74">
         <v>1</v>
       </c>
-      <c r="J37" s="75"/>
+      <c r="J37" s="75">
+        <f t="shared" si="13"/>
+        <v>44513</v>
+      </c>
       <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
+      <c r="L37" s="74" t="e">
+        <f>LOOKUP(K37,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M37" s="74"/>
-      <c r="N37" s="75">
-        <v>44513</v>
-      </c>
-      <c r="O37" s="76">
-        <v>1</v>
-      </c>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="74">
-        <v>5</v>
-      </c>
+      <c r="N37" s="75"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="74"/>
       <c r="R37" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="16"/>
-      <c r="AN37" s="16"/>
-      <c r="AO37" s="16"/>
-      <c r="AP37" s="16"/>
-      <c r="AQ37" s="16"/>
-      <c r="AR37" s="16"/>
-      <c r="AS37" s="16"/>
-      <c r="AT37" s="16"/>
-      <c r="AU37" s="16"/>
-      <c r="AV37" s="16"/>
-      <c r="AW37" s="16"/>
-      <c r="AX37" s="16"/>
-      <c r="AY37" s="16"/>
-      <c r="AZ37" s="16"/>
-      <c r="BA37" s="16"/>
-      <c r="BB37" s="16"/>
-      <c r="BC37" s="16"/>
-      <c r="BD37" s="16"/>
-      <c r="BE37" s="16"/>
-      <c r="BF37" s="16"/>
-      <c r="BG37" s="16"/>
-      <c r="BH37" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="S37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="16">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AL37" s="16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AR37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AV37" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AW37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AX37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BA37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BB37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BG37" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BH37" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="66">
-        <v>1.5</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="75">
-        <v>44512</v>
-      </c>
-      <c r="I38" s="74">
-        <v>1</v>
-      </c>
+    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="74"/>
       <c r="J38" s="75">
         <f t="shared" si="13"/>
-        <v>44513</v>
+        <v>0</v>
       </c>
       <c r="K38" s="74"/>
       <c r="L38" s="74" t="e">
@@ -10368,16 +10362,14 @@
         <v>#N/A</v>
       </c>
       <c r="M38" s="74"/>
-      <c r="N38" s="75"/>
+      <c r="N38" s="74"/>
       <c r="O38" s="76"/>
       <c r="P38" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q38" s="74"/>
-      <c r="R38" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R38" s="74"/>
       <c r="S38" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10452,7 +10444,7 @@
       </c>
       <c r="AK38" s="16">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="16">
         <f t="shared" si="19"/>
@@ -10547,208 +10539,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
-        <v>6</v>
+    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="101" t="s">
+        <v>213</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="82"/>
       <c r="E39" s="14"/>
       <c r="F39" s="66"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="74"/>
+      <c r="G39" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="75">
+        <v>44515</v>
+      </c>
+      <c r="I39" s="74">
+        <v>1</v>
+      </c>
       <c r="J39" s="75">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44516</v>
       </c>
       <c r="K39" s="74"/>
-      <c r="L39" s="74" t="e">
-        <f>LOOKUP(K39,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L39" s="74">
+        <v>2</v>
       </c>
       <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="76"/>
+      <c r="N39" s="75">
+        <v>44516</v>
+      </c>
+      <c r="O39" s="76">
+        <v>1</v>
+      </c>
       <c r="P39" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AM39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AN39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AP39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AS39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AV39" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AW39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AX39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AY39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BA39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BB39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BC39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BD39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BE39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BF39" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BG39" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BH39" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+        <v>44516</v>
+      </c>
+      <c r="Q39" s="74">
+        <v>3</v>
+      </c>
+      <c r="R39" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
+      <c r="BC39" s="16"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
+      <c r="BF39" s="16"/>
+      <c r="BG39" s="16"/>
+      <c r="BH39" s="16"/>
     </row>
-    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>21</v>
@@ -10756,8 +10633,12 @@
       <c r="C40" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="82"/>
-      <c r="E40" s="14"/>
+      <c r="D40" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="F40" s="66">
         <v>1</v>
       </c>
@@ -10775,20 +10656,25 @@
         <v>44518</v>
       </c>
       <c r="K40" s="74"/>
-      <c r="L40" s="74" t="e">
-        <f>LOOKUP(K40,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L40" s="74">
+        <v>8</v>
       </c>
       <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="76"/>
+      <c r="N40" s="75">
+        <v>44518</v>
+      </c>
+      <c r="O40" s="76">
+        <v>4</v>
+      </c>
       <c r="P40" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="74"/>
+        <v>44522</v>
+      </c>
+      <c r="Q40" s="74">
+        <v>7</v>
+      </c>
       <c r="R40" s="74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S40" s="16">
         <f t="shared" si="18"/>
@@ -10888,19 +10774,19 @@
       </c>
       <c r="AQ40" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR40" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS40" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU40" s="16">
         <f t="shared" si="20"/>
@@ -10959,9 +10845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>21</v>
@@ -10970,10 +10856,10 @@
         <v>78</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F41" s="66">
         <v>1</v>
@@ -11176,9 +11062,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>19</v>
@@ -11187,10 +11073,10 @@
         <v>77</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F42" s="66">
         <v>4</v>
@@ -11398,9 +11284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>19</v>
@@ -11611,9 +11497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>20</v>
@@ -11828,9 +11714,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>20</v>
@@ -12041,9 +11927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>21</v>
@@ -12254,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
         <v>6</v>
       </c>
@@ -12453,9 +12339,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>21</v>
@@ -12467,7 +12353,7 @@
         <v>89</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F48" s="66">
         <v>8</v>
@@ -12672,9 +12558,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>21</v>
@@ -12885,9 +12771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>21</v>
@@ -13098,9 +12984,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>21</v>
@@ -13311,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="63" t="s">
         <v>6</v>
       </c>
@@ -13510,9 +13396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>20</v>
@@ -13723,9 +13609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>19</v>
@@ -13936,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="61"/>
       <c r="B55" s="26" t="s">
         <v>19</v>
@@ -14139,7 +14025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
       <c r="B56" s="26"/>
       <c r="C56" s="39"/>
@@ -14336,7 +14222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="26"/>
       <c r="C57" s="39"/>
@@ -14533,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="26"/>
       <c r="C58" s="39"/>
@@ -14730,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
       <c r="B59" s="26"/>
       <c r="C59" s="39"/>
@@ -14927,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
       <c r="B60" s="26"/>
       <c r="C60" s="39"/>
@@ -15124,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
       <c r="B61" s="26"/>
       <c r="C61" s="39"/>
@@ -15321,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
       <c r="B62" s="26"/>
       <c r="C62" s="39"/>
@@ -15518,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
       <c r="B63" s="26"/>
       <c r="C63" s="39"/>
@@ -15715,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
       <c r="B64" s="26"/>
       <c r="C64" s="39"/>
@@ -15912,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
       <c r="B65" s="26"/>
       <c r="C65" s="39"/>
@@ -16109,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="26"/>
       <c r="C66" s="39"/>
@@ -16306,7 +16192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="26"/>
       <c r="C67" s="39"/>
@@ -16503,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
       <c r="B68" s="26"/>
       <c r="C68" s="39"/>
@@ -16700,7 +16586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
       <c r="B69" s="26"/>
       <c r="C69" s="39"/>
@@ -16897,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
       <c r="B70" s="26"/>
       <c r="C70" s="39"/>
@@ -17094,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
       <c r="B71" s="26"/>
       <c r="C71" s="39"/>
@@ -17291,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="26"/>
       <c r="C72" s="39"/>
@@ -17488,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="26"/>
       <c r="C73" s="39"/>
@@ -17685,7 +17571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="26"/>
       <c r="C74" s="39"/>
@@ -17882,7 +17768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="26"/>
       <c r="C75" s="39"/>
@@ -18079,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="26"/>
       <c r="C76" s="39"/>
@@ -18276,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="26"/>
       <c r="C77" s="39"/>
@@ -18473,7 +18359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="26"/>
       <c r="C78" s="39"/>
@@ -18670,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="26"/>
       <c r="C79" s="39"/>
@@ -18867,7 +18753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="26"/>
       <c r="C80" s="39"/>
@@ -19064,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="26"/>
       <c r="C81" s="39"/>
@@ -19261,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="26"/>
       <c r="C82" s="39"/>
@@ -19458,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="26"/>
       <c r="C83" s="39"/>
@@ -19655,7 +19541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
       <c r="B84" s="26"/>
       <c r="C84" s="39"/>
@@ -19852,7 +19738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="26"/>
       <c r="C85" s="39"/>
@@ -20049,7 +19935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
       <c r="B86" s="26"/>
       <c r="C86" s="39"/>
@@ -20246,7 +20132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
       <c r="B87" s="26"/>
       <c r="C87" s="39"/>
@@ -20443,7 +20329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
       <c r="B88" s="26"/>
       <c r="C88" s="39"/>
@@ -20640,7 +20526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="26"/>
       <c r="C89" s="39"/>
@@ -20837,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="26"/>
       <c r="C90" s="39"/>
@@ -21034,7 +20920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
       <c r="B91" s="26"/>
       <c r="C91" s="39"/>
@@ -21231,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
       <c r="B92" s="26"/>
       <c r="C92" s="39"/>
@@ -21428,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
       <c r="B93" s="26"/>
       <c r="C93" s="39"/>
@@ -21625,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
       <c r="B94" s="26"/>
       <c r="C94" s="39"/>
@@ -21822,7 +21708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
       <c r="B95" s="26"/>
       <c r="C95" s="39"/>
@@ -22019,7 +21905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
       <c r="B96" s="26"/>
       <c r="C96" s="39"/>
@@ -22216,7 +22102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
       <c r="B97" s="26"/>
       <c r="C97" s="39"/>
@@ -22413,7 +22299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
       <c r="B98" s="26"/>
       <c r="C98" s="39"/>
@@ -22610,7 +22496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="26"/>
       <c r="C99" s="39"/>
@@ -22807,7 +22693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
       <c r="B100" s="26"/>
       <c r="C100" s="39"/>
@@ -23004,7 +22890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="26"/>
       <c r="C101" s="39"/>
@@ -23201,7 +23087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
       <c r="B102" s="26"/>
       <c r="C102" s="39"/>
@@ -23398,7 +23284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="26"/>
       <c r="C103" s="39"/>
@@ -23595,7 +23481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
       <c r="B104" s="26"/>
       <c r="C104" s="39"/>
@@ -23792,7 +23678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
       <c r="B105" s="26"/>
       <c r="C105" s="39"/>
@@ -23989,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
       <c r="B106" s="26"/>
       <c r="C106" s="39"/>
@@ -24186,7 +24072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
       <c r="B107" s="26"/>
       <c r="C107" s="39"/>
@@ -24383,7 +24269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
       <c r="B108" s="26"/>
       <c r="C108" s="39"/>
@@ -24580,7 +24466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
       <c r="B109" s="26"/>
       <c r="C109" s="39"/>
@@ -24777,7 +24663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
       <c r="B110" s="26"/>
       <c r="C110" s="39"/>
@@ -24974,7 +24860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
       <c r="B111" s="26"/>
       <c r="C111" s="39"/>
@@ -25171,7 +25057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
       <c r="B112" s="26"/>
       <c r="C112" s="39"/>
@@ -25368,7 +25254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
       <c r="B113" s="26"/>
       <c r="C113" s="39"/>
@@ -25565,7 +25451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
       <c r="B114" s="26"/>
       <c r="C114" s="39"/>
@@ -25762,7 +25648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
       <c r="B115" s="26"/>
       <c r="C115" s="39"/>
@@ -25959,7 +25845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
       <c r="B116" s="26"/>
       <c r="C116" s="39"/>
@@ -26156,7 +26042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
       <c r="B117" s="26"/>
       <c r="C117" s="39"/>
@@ -26353,7 +26239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
       <c r="B118" s="26"/>
       <c r="C118" s="39"/>
@@ -26551,14 +26437,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -26575,613 +26453,561 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A24:A25 A38:A39 D28:F28 A46 H41:J46 L48:BH51 A55:A118 D55:J118 D51:F51 H48:J49 D50:J50 H51:J51 L53:BH118 D53:F54 H53:J54 D8:J18 H28:J29 D36:J40 E29:F29 L12:BH18 H32:J35 D32:F35 L32:BH46 E31 L21:BH25 D21:J25 L28:BH28 D41:F46 D48:F49 L29:P29 R29:BH29">
-    <cfRule type="expression" dxfId="244" priority="130" stopIfTrue="1">
+  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A24:A25 A37:A39 D27:F27 A46 H41:J46 L48:BH51 A55:A118 D55:J118 D51:F51 H48:J49 D50:J50 H51:J51 L53:BH118 D53:F54 H53:J54 D8:J18 H27:J28 D35:J40 E28:F28 L12:BH18 H31:J34 D31:F34 L31:BH46 E30 L21:BH25 D21:J25 L27:BH27 D41:F46 D48:F49 L28:P28 R28:BH28">
+    <cfRule type="expression" dxfId="223" priority="130" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S28:BH46">
-    <cfRule type="expression" dxfId="243" priority="128">
+  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S27:BH46">
+    <cfRule type="expression" dxfId="222" priority="128">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="129">
+    <cfRule type="expression" dxfId="221" priority="129">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S30:BH30 S34:BH46 S48:BH51 S53:BH118 S21:BH25">
-    <cfRule type="expression" dxfId="241" priority="133" stopIfTrue="1">
+  <conditionalFormatting sqref="S8:BH18 S29:BH29 S33:BH46 S48:BH51 S53:BH118 S21:BH25">
+    <cfRule type="expression" dxfId="220" priority="133" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:S16">
-    <cfRule type="expression" dxfId="240" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="143" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S28:BH46">
-    <cfRule type="cellIs" dxfId="239" priority="142" operator="equal">
+  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S27:BH46">
+    <cfRule type="cellIs" dxfId="218" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S28:BH46">
-    <cfRule type="cellIs" dxfId="238" priority="141" operator="equal">
+  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S27:BH46">
+    <cfRule type="cellIs" dxfId="217" priority="141" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S28:BH46">
-    <cfRule type="cellIs" dxfId="237" priority="135" operator="equal">
+  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S27:BH46">
+    <cfRule type="cellIs" dxfId="216" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B48:C51 B53:C118 B13:C17 B25:C25 B21:C22 B18 B21:B24 B28:C46">
-    <cfRule type="containsText" dxfId="236" priority="118" operator="containsText" text="Bug Fix">
+  <conditionalFormatting sqref="B11:C11 B48:C51 B53:C118 B13:C17 B25:C25 B21:C22 B18 B21:B24 B27:C46">
+    <cfRule type="containsText" dxfId="215" priority="118" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="119" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="214" priority="119" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="120" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="213" priority="120" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="121" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="212" priority="121" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="122" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="211" priority="122" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10 K24 K38:K39 K41:K42 K44:K46 K48:K51 K53:K117 K13:K14 K17 L30:BH30 F30:J30 D30">
-    <cfRule type="expression" dxfId="231" priority="145" stopIfTrue="1">
+  <conditionalFormatting sqref="Q10 K41:K42 K44:K46 K48:K51 K53:K117 K13:K14 K17 L29:BH29 F29:J29 D29 K24:K25 K37">
+    <cfRule type="expression" dxfId="210" priority="145" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="containsText" dxfId="230" priority="113" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="209" priority="113" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="114" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="208" priority="114" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="115" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="207" priority="115" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="116" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="206" priority="116" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="117" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="205" priority="117" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="containsText" dxfId="225" priority="108" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="204" priority="108" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="109" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="203" priority="109" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="110" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="202" priority="110" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="111" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="201" priority="111" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="112" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="200" priority="112" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10 K8 K22">
-    <cfRule type="expression" dxfId="220" priority="146" stopIfTrue="1">
+  <conditionalFormatting sqref="K10 K8 K22:K23">
+    <cfRule type="expression" dxfId="199" priority="146" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12 K25 K15:K16">
-    <cfRule type="expression" dxfId="219" priority="148" stopIfTrue="1">
+  <conditionalFormatting sqref="K11:K12 K15:K16 K38:K39">
+    <cfRule type="expression" dxfId="198" priority="148" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9 K21 K23 K35:K37">
-    <cfRule type="expression" dxfId="218" priority="151" stopIfTrue="1">
+  <conditionalFormatting sqref="K9 K21 K34">
+    <cfRule type="expression" dxfId="197" priority="151" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="217" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="107" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="216" priority="154" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A39)=1</formula>
+  <conditionalFormatting sqref="K33 K35:K36">
+    <cfRule type="expression" dxfId="195" priority="154" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="215" priority="155" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A39)=1</formula>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="expression" dxfId="194" priority="155" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29 G45 L31:BH31 F31:J31 D31">
-    <cfRule type="expression" dxfId="214" priority="157" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A28)=1</formula>
+  <conditionalFormatting sqref="G28 G45 L30:BH30 F30:J30 D30">
+    <cfRule type="expression" dxfId="193" priority="157" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S31:BH31 S28:BH28">
-    <cfRule type="expression" dxfId="213" priority="159" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G29)=1</formula>
+  <conditionalFormatting sqref="S30:BH30 S27:BH27">
+    <cfRule type="expression" dxfId="192" priority="159" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$G28)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S32:BH33 S29:BH29">
-    <cfRule type="expression" dxfId="212" priority="160" stopIfTrue="1">
+  <conditionalFormatting sqref="S31:BH32 S28:BH28">
+    <cfRule type="expression" dxfId="191" priority="160" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:K29">
-    <cfRule type="expression" dxfId="211" priority="161" stopIfTrue="1">
+  <conditionalFormatting sqref="K27:K28">
+    <cfRule type="expression" dxfId="190" priority="161" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A37)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="expression" dxfId="189" priority="105" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A26)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30 K32">
+    <cfRule type="expression" dxfId="188" priority="165" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="210" priority="105" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A27)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="209" priority="165" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A39)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G43 G46">
-    <cfRule type="expression" dxfId="208" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="103" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A43)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="207" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="104" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A41)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41 G44">
-    <cfRule type="expression" dxfId="206" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="101" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40 K43">
-    <cfRule type="expression" dxfId="205" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="196" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47 D47:J47 L47:BH47">
-    <cfRule type="expression" dxfId="204" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="95" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A47)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="expression" dxfId="203" priority="93">
+    <cfRule type="expression" dxfId="182" priority="93">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="94">
+    <cfRule type="expression" dxfId="181" priority="94">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="expression" dxfId="201" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="96" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G47)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="cellIs" dxfId="200" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="cellIs" dxfId="199" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="98" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47:BH47">
-    <cfRule type="cellIs" dxfId="198" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C47">
-    <cfRule type="containsText" dxfId="197" priority="88" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="176" priority="88" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="89" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="175" priority="89" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="90" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="174" priority="90" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="91" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="173" priority="91" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="92" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="172" priority="92" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="expression" dxfId="192" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="100" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A48)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="191" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="87" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="190" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="86" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="189" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="85" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 D52:J52 L52:BH52">
-    <cfRule type="expression" dxfId="188" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A52)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="expression" dxfId="187" priority="77">
+    <cfRule type="expression" dxfId="166" priority="77">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="78">
+    <cfRule type="expression" dxfId="165" priority="78">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="expression" dxfId="185" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G52)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="cellIs" dxfId="184" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="cellIs" dxfId="183" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:BH52">
-    <cfRule type="cellIs" dxfId="182" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:C52">
-    <cfRule type="containsText" dxfId="181" priority="72" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="160" priority="72" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="73" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="159" priority="73" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="74" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="158" priority="74" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="75" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="157" priority="75" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="76" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="156" priority="76" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="176" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="84" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A53)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="175" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A53)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="174" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A54)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="173" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="151" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="150" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="149" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="148" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="168" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="147" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="146" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="145" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="144" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="143" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="163" priority="59" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A34)=1</formula>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="expression" dxfId="142" priority="59" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A33)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="162" priority="58" stopIfTrue="1">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="141" priority="58" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A28)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G33">
+    <cfRule type="expression" dxfId="140" priority="206" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G34">
-    <cfRule type="expression" dxfId="161" priority="206" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A30)=1</formula>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="139" priority="208" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="160" priority="208" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A30)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K33">
-    <cfRule type="expression" dxfId="159" priority="211" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A39)=1</formula>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="expression" dxfId="138" priority="211" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="158" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="212" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A24)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 D19:J19 L19:BH19">
-    <cfRule type="expression" dxfId="157" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="50" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A19)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="expression" dxfId="156" priority="48">
+    <cfRule type="expression" dxfId="135" priority="48">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="49">
+    <cfRule type="expression" dxfId="134" priority="49">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="expression" dxfId="154" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="51" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G19)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="153" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="152" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="53" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="151" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="150" priority="43" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="129" priority="43" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="44" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="128" priority="44" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="45" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="127" priority="45" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="46" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="126" priority="46" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="47" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="125" priority="47" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="145" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="55" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A25)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:J20 L20:BH20">
-    <cfRule type="expression" dxfId="144" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="37" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A20)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="expression" dxfId="143" priority="35">
+    <cfRule type="expression" dxfId="122" priority="35">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="36">
+    <cfRule type="expression" dxfId="121" priority="36">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="expression" dxfId="141" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="38" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G20)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="140" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="139" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="138" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="137" priority="30" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="116" priority="30" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="31" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="115" priority="31" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="32" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="114" priority="32" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="33" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="113" priority="33" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="34" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="112" priority="34" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="132" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="42" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A25)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:BH26 D26 F26:J26">
-    <cfRule type="expression" dxfId="131" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="10" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="expression" dxfId="130" priority="22">
+    <cfRule type="expression" dxfId="109" priority="8">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="23">
+    <cfRule type="expression" dxfId="108" priority="9">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="expression" dxfId="128" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="11" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="127" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="126" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="125" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26">
-    <cfRule type="containsText" dxfId="124" priority="17" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="103" priority="3" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="18" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="102" priority="4" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="19" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="101" priority="5" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="20" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="100" priority="6" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="99" priority="7" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="119" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="15" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="118" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="2" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:BH27 D27 F27:J27">
-    <cfRule type="expression" dxfId="117" priority="10" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A27)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="expression" dxfId="116" priority="8">
-      <formula>S$6=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="9">
-      <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="expression" dxfId="114" priority="11" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G27)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="cellIs" dxfId="113" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="cellIs" dxfId="112" priority="13" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:BH27">
-    <cfRule type="cellIs" dxfId="111" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="containsText" dxfId="110" priority="3" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="4" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="5" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="6" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="7" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
-      <formula>SEARCH("SPACER",#REF!)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A27)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A30)=1</formula>
+  <conditionalFormatting sqref="Q28">
+    <cfRule type="expression" dxfId="96" priority="1" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27223,31 +27049,31 @@
           <x14:formula1>
             <xm:f>TaskTypes!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B18 B21:B25 B28:B113</xm:sqref>
+          <xm:sqref>B8:B18 B21:B25 B27:B113</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>TaskGrading!$A$4:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K8:K18 K21:K25 K28:K117</xm:sqref>
+          <xm:sqref>K8:K18 K21:K25 K27:K117</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>TaskStatus!$A$6:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>R8:R18 R21:R25 R28:R118</xm:sqref>
+          <xm:sqref>R8:R18 R21:R25 R27:R118</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AF4FB63-5986-4C21-AFB9-6703D4D46921}">
           <x14:formula1>
             <xm:f>Priorities!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C21:C22 C8:C17 C25 C28:C118</xm:sqref>
+          <xm:sqref>C21:C22 C8:C17 C25 C27:C118</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Main!$A$9:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G8:G18 G21:G25 G28:G118</xm:sqref>
+          <xm:sqref>G8:G18 G21:G25 G27:G118</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27263,13 +27089,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -27277,7 +27103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -27285,7 +27111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -27293,7 +27119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -27301,7 +27127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -27325,14 +27151,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
@@ -27343,7 +27169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
@@ -27354,7 +27180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
@@ -27365,7 +27191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
@@ -27376,7 +27202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
@@ -27387,7 +27213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
@@ -27398,7 +27224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -27582,73 +27408,73 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="78" t="s">
         <v>148</v>
       </c>
+      <c r="C11" s="27" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -27832,399 +27658,399 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" ht="54" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" ht="72" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>151</v>
+      <c r="C18" s="27" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="containsText" dxfId="103" priority="85" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="95" priority="85" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="86" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="94" priority="86" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="87" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="93" priority="87" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="88" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="92" priority="88" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="89" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="91" priority="89" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 BG7:BH7 C7 E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7 Y7 AA7 AC7 AE7 AG7 AI7 AK7 AM7 AO7 AQ7 AS7 AU7 AW7 AY7 BA7 BC7 BE7">
-    <cfRule type="expression" dxfId="98" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="97" priority="77">
+    <cfRule type="expression" dxfId="89" priority="77">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="78">
+    <cfRule type="expression" dxfId="88" priority="78">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="95" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="94" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="93" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="92" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7 N7 P7 R7 T7 V7 X7 Z7 AB7 AD7 AF7 AH7 AJ7 AL7 AN7 AP7 AR7 AT7 AV7 AX7 AZ7 BB7 BD7 BF7">
-    <cfRule type="expression" dxfId="91" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="90" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="89" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="79" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="78" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="77" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="84" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="76" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="75" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="74" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="73" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="72" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="56" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="57" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="58" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="68" priority="58" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="67" priority="59" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="74" priority="50" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="66" priority="50" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="51" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="65" priority="51" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="54" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="69" priority="45" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="46" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="60" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="47" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="59" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="48" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="58" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="49" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="64" priority="40" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="41" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="42" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="43" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="44" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 BG14:BH14 C14 E14 G14 I14 K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14">
-    <cfRule type="expression" dxfId="59" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="35" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="58" priority="33">
+    <cfRule type="expression" dxfId="50" priority="33">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="34">
+    <cfRule type="expression" dxfId="49" priority="34">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="56" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14">
-    <cfRule type="expression" dxfId="52" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 B22">
-    <cfRule type="expression" dxfId="51" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A17)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="30" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="45" priority="21" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="23" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="24" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="12" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="13" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28240,13 +28066,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
@@ -28254,11 +28080,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
@@ -28269,7 +28095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
@@ -28280,7 +28106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
@@ -28291,7 +28117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>37</v>
       </c>
@@ -28302,7 +28128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>38</v>
       </c>
@@ -28327,29 +28153,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28365,13 +28191,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>48</v>
       </c>
@@ -28379,7 +28205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>56</v>
       </c>
@@ -28387,7 +28213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>57</v>
       </c>
@@ -28395,7 +28221,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>58</v>
       </c>
@@ -28419,13 +28245,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -28433,7 +28259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -28444,7 +28270,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -28452,7 +28278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -28462,24 +28288,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18033160\Desktop\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keith\Documents\GitHub\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA21663-7871-4521-BF09-77CE2BEB59D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB144DE7-E80C-4040-870A-2287CC3DB040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="215">
   <si>
     <t>TASK</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>Enemy Movement/Behaviour</t>
-  </si>
-  <si>
-    <t>Enemy Drops (chance to drop, maybe hp)</t>
   </si>
   <si>
     <t>Background 1</t>
@@ -1010,6 +1007,12 @@
   </si>
   <si>
     <t xml:space="preserve">enemey movement </t>
+  </si>
+  <si>
+    <t>Enemy Drops (chance to drop, maybe hp, basics)</t>
+  </si>
+  <si>
+    <t>Player Invulerability Frame</t>
   </si>
 </sst>
 </file>
@@ -1765,34 +1768,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,14 +1786,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4237,37 +4240,37 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="I7" s="88">
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="I7" s="89">
         <f>B4 + 7</f>
         <v>44501</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88">
+      <c r="J7" s="88"/>
+      <c r="K7" s="89">
         <f>I7+7</f>
         <v>44508</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88">
+      <c r="L7" s="88"/>
+      <c r="M7" s="89">
         <f>K7+7</f>
         <v>44515</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88">
+      <c r="N7" s="88"/>
+      <c r="O7" s="89">
         <f>M7+7</f>
         <v>44522</v>
       </c>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="88">
+      <c r="P7" s="88"/>
+      <c r="Q7" s="89">
         <f>O7+7</f>
         <v>44529</v>
       </c>
-      <c r="R7" s="87"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
@@ -4619,35 +4622,35 @@
       </c>
       <c r="J13">
         <f>I13- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A13, GANTT!$J:$J,"&lt;= "&amp;$I$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="K13" s="44">
         <v>10</v>
       </c>
       <c r="L13">
         <f>K13- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A13, GANTT!$J:$J,"&lt;= "&amp;$K$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="M13" s="44">
         <v>10</v>
       </c>
       <c r="N13">
         <f>M13- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A13, GANTT!$J:$J,"&lt;= "&amp;$M$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="O13" s="44">
         <v>10</v>
       </c>
       <c r="P13">
         <f>O13- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A13, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="Q13" s="44">
         <v>10</v>
       </c>
       <c r="R13">
         <f>Q13- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A13, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -4808,7 +4811,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
@@ -4816,7 +4819,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
@@ -4824,7 +4827,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>-15.5</v>
+        <v>-35.5</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
@@ -4832,7 +4835,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>-16.5</v>
+        <v>-36.5</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:R16" si="2">SUM(Q9:Q15)</f>
@@ -4840,7 +4843,7 @@
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>-16.5</v>
+        <v>-36.5</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
@@ -4891,13 +4894,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BZ118"/>
+  <dimension ref="A1:BZ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4984,66 +4987,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="93">
+      <c r="S5" s="90">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93">
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93">
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93">
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93">
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="93"/>
-      <c r="AX5" s="93"/>
-      <c r="AY5" s="93"/>
-      <c r="AZ5" s="93"/>
-      <c r="BA5" s="93"/>
-      <c r="BB5" s="97">
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="91">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="97"/>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="97"/>
+      <c r="BC5" s="91"/>
+      <c r="BD5" s="91"/>
+      <c r="BE5" s="91"/>
+      <c r="BF5" s="91"/>
+      <c r="BG5" s="91"/>
+      <c r="BH5" s="91"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -5064,25 +5067,25 @@
       <c r="BZ5" s="9"/>
     </row>
     <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="92" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="94" t="s">
@@ -5091,16 +5094,16 @@
       <c r="I6" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="95" t="s">
         <v>14</v>
       </c>
       <c r="N6" s="94" t="s">
@@ -5109,13 +5112,13 @@
       <c r="O6" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="91" t="s">
+      <c r="P6" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="91" t="s">
+      <c r="R6" s="95" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -5288,24 +5291,24 @@
       </c>
     </row>
     <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="92"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="98"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5489,7 +5492,7 @@
         <v>88</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" s="66">
         <v>10</v>
@@ -5706,10 +5709,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="66">
         <v>10</v>
@@ -5723,9 +5726,13 @@
       <c r="I9" s="69">
         <v>2</v>
       </c>
-      <c r="J9" s="70"/>
+      <c r="J9" s="70">
+        <v>44496</v>
+      </c>
       <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+      <c r="L9" s="69">
+        <v>5</v>
+      </c>
       <c r="M9" s="69"/>
       <c r="N9" s="70">
         <v>44494</v>
@@ -5733,7 +5740,9 @@
       <c r="O9" s="71">
         <v>2</v>
       </c>
-      <c r="P9" s="70"/>
+      <c r="P9" s="70">
+        <v>44496</v>
+      </c>
       <c r="Q9" s="69">
         <v>10</v>
       </c>
@@ -5794,10 +5803,10 @@
         <v>75</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="66">
         <v>10</v>
@@ -5885,7 +5894,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="66">
         <v>10</v>
@@ -6106,7 +6115,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="66">
         <v>10</v>
@@ -6120,9 +6129,13 @@
       <c r="I12" s="69">
         <v>2</v>
       </c>
-      <c r="J12" s="70"/>
+      <c r="J12" s="70">
+        <v>44496</v>
+      </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="L12" s="69">
+        <v>5</v>
+      </c>
       <c r="M12" s="69"/>
       <c r="N12" s="70">
         <v>44494</v>
@@ -6130,7 +6143,9 @@
       <c r="O12" s="71">
         <v>4</v>
       </c>
-      <c r="P12" s="70"/>
+      <c r="P12" s="70">
+        <v>44498</v>
+      </c>
       <c r="Q12" s="69">
         <v>10</v>
       </c>
@@ -6191,10 +6206,10 @@
         <v>75</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="66">
         <v>10</v>
@@ -6209,7 +6224,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="70">
-        <f t="shared" ref="J13:J90" si="13">H13 +I13</f>
+        <f t="shared" ref="J13:J91" si="13">H13 +I13</f>
         <v>44496</v>
       </c>
       <c r="K13" s="72" t="s">
@@ -6227,7 +6242,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="70">
-        <f t="shared" ref="P13:P90" si="14">N13+O13</f>
+        <f t="shared" ref="P13:P91" si="14">N13+O13</f>
         <v>44496</v>
       </c>
       <c r="Q13" s="69">
@@ -6625,10 +6640,10 @@
         <v>75</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="66">
         <v>10</v>
@@ -6655,13 +6670,13 @@
         <v>44503</v>
       </c>
       <c r="O15" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P15" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R15" s="74" t="s">
         <v>57</v>
@@ -6837,7 +6852,7 @@
     </row>
     <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>22</v>
@@ -6849,7 +6864,7 @@
         <v>89</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="74" t="s">
@@ -7045,7 +7060,7 @@
     </row>
     <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>21</v>
@@ -7057,7 +7072,7 @@
         <v>89</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="66">
         <v>15</v>
@@ -7267,19 +7282,19 @@
     </row>
     <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F18" s="66">
         <v>10</v>
@@ -7489,10 +7504,10 @@
     </row>
     <row r="19" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="85" t="s">
         <v>75</v>
@@ -7501,7 +7516,7 @@
         <v>89</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F19" s="66"/>
       <c r="G19" s="74" t="s">
@@ -7708,19 +7723,19 @@
     </row>
     <row r="20" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F20" s="66">
         <v>10</v>
@@ -7929,7 +7944,7 @@
     </row>
     <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>20</v>
@@ -7941,7 +7956,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" s="66">
         <v>10</v>
@@ -8020,7 +8035,7 @@
     </row>
     <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>21</v>
@@ -8029,10 +8044,10 @@
         <v>75</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F22" s="66">
         <v>5</v>
@@ -8056,16 +8071,16 @@
       </c>
       <c r="M22" s="74"/>
       <c r="N22" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O22" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P22" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R22" s="74" t="s">
         <v>57</v>
@@ -8115,19 +8130,19 @@
     </row>
     <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="82" t="s">
-        <v>174</v>
-      </c>
       <c r="E23" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F23" s="66">
         <v>10</v>
@@ -8146,17 +8161,21 @@
         <v>44502</v>
       </c>
       <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
+      <c r="L23" s="74">
+        <v>5</v>
+      </c>
       <c r="M23" s="74"/>
-      <c r="N23" s="75">
-        <v>44506</v>
-      </c>
-      <c r="O23" s="76">
-        <v>1</v>
-      </c>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="74">
-        <v>5</v>
+      <c r="N23" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="P23" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" s="74" t="s">
+        <v>190</v>
       </c>
       <c r="R23" s="74" t="s">
         <v>57</v>
@@ -8206,19 +8225,19 @@
     </row>
     <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="62" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="66">
         <v>10</v>
@@ -8237,9 +8256,8 @@
         <v>44505</v>
       </c>
       <c r="K24" s="74"/>
-      <c r="L24" s="74" t="e">
-        <f>LOOKUP(K24,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L24" s="74">
+        <v>5</v>
       </c>
       <c r="M24" s="74"/>
       <c r="N24" s="75">
@@ -8248,7 +8266,9 @@
       <c r="O24" s="76">
         <v>1</v>
       </c>
-      <c r="P24" s="75"/>
+      <c r="P24" s="75">
+        <v>44507</v>
+      </c>
       <c r="Q24" s="74">
         <v>5</v>
       </c>
@@ -8625,10 +8645,10 @@
     </row>
     <row r="26" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>75</v>
@@ -8637,7 +8657,7 @@
         <v>89</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="66">
         <v>0.5</v>
@@ -8847,7 +8867,7 @@
     </row>
     <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>21</v>
@@ -8856,10 +8876,10 @@
         <v>78</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F27" s="66">
         <v>1</v>
@@ -8886,13 +8906,13 @@
         <v>44512</v>
       </c>
       <c r="O27" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P27" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R27" s="74" t="s">
         <v>57</v>
@@ -9068,7 +9088,7 @@
     </row>
     <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>21</v>
@@ -9080,7 +9100,7 @@
         <v>89</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F28" s="66"/>
       <c r="G28" s="74" t="s">
@@ -9286,7 +9306,7 @@
     </row>
     <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>21</v>
@@ -9295,10 +9315,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F29" s="66">
         <v>15</v>
@@ -9507,7 +9527,7 @@
     </row>
     <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>21</v>
@@ -9516,10 +9536,10 @@
         <v>75</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F30" s="66">
         <v>5</v>
@@ -9601,7 +9621,7 @@
     </row>
     <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>20</v>
@@ -9613,7 +9633,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="66"/>
       <c r="G31" s="74" t="s">
@@ -9694,7 +9714,7 @@
     </row>
     <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>20</v>
@@ -9706,7 +9726,7 @@
         <v>89</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="66"/>
       <c r="G32" s="74" t="s">
@@ -9780,7 +9800,7 @@
     </row>
     <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>20</v>
@@ -9789,10 +9809,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
@@ -9860,7 +9880,7 @@
     </row>
     <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>20</v>
@@ -9872,7 +9892,7 @@
         <v>89</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="74" t="s">
@@ -9953,7 +9973,7 @@
     </row>
     <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>21</v>
@@ -9965,7 +9985,7 @@
         <v>89</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F35" s="66"/>
       <c r="G35" s="74" t="s">
@@ -9975,21 +9995,27 @@
         <v>44508</v>
       </c>
       <c r="I35" s="74">
-        <v>1</v>
-      </c>
-      <c r="J35" s="75"/>
+        <v>4</v>
+      </c>
+      <c r="J35" s="75">
+        <v>44511</v>
+      </c>
       <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
+      <c r="L35" s="74">
+        <v>10</v>
+      </c>
       <c r="M35" s="74"/>
       <c r="N35" s="75">
         <v>44514</v>
       </c>
-      <c r="O35" s="76">
-        <v>1</v>
-      </c>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="74">
-        <v>5</v>
+      <c r="O35" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="P35" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q35" s="74" t="s">
+        <v>190</v>
       </c>
       <c r="R35" s="74" t="s">
         <v>57</v>
@@ -10039,7 +10065,7 @@
     </row>
     <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>20</v>
@@ -10051,7 +10077,7 @@
         <v>89</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" s="66"/>
       <c r="G36" s="74" t="s">
@@ -10063,19 +10089,25 @@
       <c r="I36" s="74">
         <v>1</v>
       </c>
-      <c r="J36" s="75"/>
+      <c r="J36" s="75">
+        <v>44512</v>
+      </c>
       <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
+      <c r="L36" s="74">
+        <v>5</v>
+      </c>
       <c r="M36" s="74"/>
       <c r="N36" s="75">
         <v>44513</v>
       </c>
-      <c r="O36" s="76">
-        <v>1</v>
-      </c>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="74">
-        <v>5</v>
+      <c r="O36" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="P36" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q36" s="74" t="s">
+        <v>190</v>
       </c>
       <c r="R36" s="74" t="s">
         <v>57</v>
@@ -10125,7 +10157,7 @@
     </row>
     <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>21</v>
@@ -10137,7 +10169,7 @@
         <v>89</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="66">
         <v>1.5</v>
@@ -10540,8 +10572,8 @@
       </c>
     </row>
     <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="101" t="s">
-        <v>213</v>
+      <c r="A39" s="87" t="s">
+        <v>212</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -10625,7 +10657,7 @@
     </row>
     <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>21</v>
@@ -10634,10 +10666,10 @@
         <v>75</v>
       </c>
       <c r="D40" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>210</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>211</v>
       </c>
       <c r="F40" s="66">
         <v>1</v>
@@ -10847,7 +10879,7 @@
     </row>
     <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>21</v>
@@ -10856,10 +10888,10 @@
         <v>78</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F41" s="66">
         <v>1</v>
@@ -11064,7 +11096,7 @@
     </row>
     <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>19</v>
@@ -11073,10 +11105,10 @@
         <v>77</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F42" s="66">
         <v>4</v>
@@ -11286,7 +11318,7 @@
     </row>
     <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>19</v>
@@ -11499,7 +11531,7 @@
     </row>
     <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>20</v>
@@ -11716,7 +11748,7 @@
     </row>
     <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>20</v>
@@ -11759,7 +11791,7 @@
         <v>56</v>
       </c>
       <c r="S45" s="16">
-        <f t="shared" ref="S45:AB54" si="23">IF(AND(S$6&gt;=$N45,S$6&lt;$N45+$O45), 1, IF(AND(S$6&gt;=$H45,S$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" ref="S45:AB55" si="23">IF(AND(S$6&gt;=$N45,S$6&lt;$N45+$O45), 1, IF(AND(S$6&gt;=$H45,S$6&lt;$H45+$I45), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T45" s="16">
@@ -11799,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" ref="AC45:AL54" si="24">IF(AND(AC$6&gt;=$N45,AC$6&lt;$N45+$O45), 1, IF(AND(AC$6&gt;=$H45,AC$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" ref="AC45:AL55" si="24">IF(AND(AC$6&gt;=$N45,AC$6&lt;$N45+$O45), 1, IF(AND(AC$6&gt;=$H45,AC$6&lt;$H45+$I45), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD45" s="16">
@@ -11839,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="AM45" s="16">
-        <f t="shared" ref="AM45:AV54" si="25">IF(AND(AM$6&gt;=$N45,AM$6&lt;$N45+$O45), 1, IF(AND(AM$6&gt;=$H45,AM$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" ref="AM45:AV55" si="25">IF(AND(AM$6&gt;=$N45,AM$6&lt;$N45+$O45), 1, IF(AND(AM$6&gt;=$H45,AM$6&lt;$H45+$I45), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN45" s="16">
@@ -11879,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="AW45" s="16">
-        <f t="shared" ref="AW45:BF54" si="26">IF(AND(AW$6&gt;=$N45,AW$6&lt;$N45+$O45), 1, IF(AND(AW$6&gt;=$H45,AW$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" ref="AW45:BF55" si="26">IF(AND(AW$6&gt;=$N45,AW$6&lt;$N45+$O45), 1, IF(AND(AW$6&gt;=$H45,AW$6&lt;$H45+$I45), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX45" s="16">
@@ -11919,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="BG45" s="16">
-        <f t="shared" ref="BG45:BH54" si="27">IF(AND(BG$6&gt;=$N45,BG$6&lt;$N45+$O45), 1, IF(AND(BG$6&gt;=$H45,BG$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" ref="BG45:BH55" si="27">IF(AND(BG$6&gt;=$N45,BG$6&lt;$N45+$O45), 1, IF(AND(BG$6&gt;=$H45,BG$6&lt;$H45+$I45), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH45" s="16">
@@ -11927,21 +11959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>76</v>
-      </c>
+    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="82"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="66">
-        <v>1</v>
-      </c>
+      <c r="F46" s="66"/>
       <c r="G46" s="74" t="s">
         <v>105</v>
       </c>
@@ -11949,212 +11975,227 @@
         <v>44515</v>
       </c>
       <c r="I46" s="74">
+        <v>1</v>
+      </c>
+      <c r="J46" s="75">
+        <v>44515</v>
+      </c>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74">
+        <v>5</v>
+      </c>
+      <c r="M46" s="74"/>
+      <c r="N46" s="75">
+        <v>44520</v>
+      </c>
+      <c r="O46" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="P46" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q46" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="R46" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB46" s="16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL46" s="16" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV46" s="16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF46" s="16" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG46" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH46" s="16" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="82"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="66">
+        <v>1</v>
+      </c>
+      <c r="G47" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="75">
+        <v>44515</v>
+      </c>
+      <c r="I47" s="74">
         <v>4</v>
       </c>
-      <c r="J46" s="75">
+      <c r="J47" s="75">
         <f t="shared" si="13"/>
         <v>44519</v>
-      </c>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74" t="e">
-        <f>LOOKUP(K46,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="S46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL46" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AM46" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AN46" s="16">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AO46" s="16">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AP46" s="16">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AQ46" s="16">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AR46" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AS46" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AT46" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AU46" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AV46" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AW46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AX46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AY46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AZ46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BA46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BB46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BC46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BD46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BE46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BF46" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BG46" s="16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BH46" s="16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="75">
-        <f t="shared" ref="J47" si="28">H47 +I47</f>
-        <v>0</v>
       </c>
       <c r="K47" s="74"/>
       <c r="L47" s="74" t="e">
@@ -12162,214 +12203,203 @@
         <v>#N/A</v>
       </c>
       <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="75">
-        <f t="shared" ref="P47" si="29">N47+O47</f>
-        <v>0</v>
+      <c r="N47" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O47" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="P47" s="75" t="s">
+        <v>190</v>
       </c>
       <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="16">
+      <c r="R47" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="S47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB47" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL47" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AM47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AN47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AO47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AP47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AR47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AS47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AT47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AU47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AV47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV47" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AW47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AX47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AY47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AZ47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BA47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BB47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BC47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BD47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BE47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BF47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF47" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BG47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG47" s="16" t="e">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BH47" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH47" s="16" t="e">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48" s="66">
-        <v>8</v>
-      </c>
-      <c r="G48" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" s="75">
-        <v>44522</v>
-      </c>
-      <c r="I48" s="74">
-        <v>2</v>
-      </c>
+    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="75">
-        <f t="shared" si="13"/>
-        <v>44524</v>
+        <f t="shared" ref="J48" si="28">H48 +I48</f>
+        <v>0</v>
       </c>
       <c r="K48" s="74"/>
       <c r="L48" s="74" t="e">
@@ -12377,18 +12407,14 @@
         <v>#N/A</v>
       </c>
       <c r="M48" s="74"/>
-      <c r="N48" s="75">
-        <v>44520</v>
-      </c>
+      <c r="N48" s="74"/>
       <c r="O48" s="76"/>
       <c r="P48" s="75">
-        <f t="shared" si="14"/>
-        <v>44520</v>
+        <f t="shared" ref="P48" si="29">N48+O48</f>
+        <v>0</v>
       </c>
       <c r="Q48" s="74"/>
-      <c r="R48" s="74" t="s">
-        <v>57</v>
-      </c>
+      <c r="R48" s="74"/>
       <c r="S48" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -12503,11 +12529,11 @@
       </c>
       <c r="AU48" s="16">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="16">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW48" s="16">
         <f t="shared" si="26"/>
@@ -12560,31 +12586,35 @@
     </row>
     <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="82"/>
-      <c r="E49" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="F49" s="66">
         <v>8</v>
       </c>
       <c r="G49" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H49" s="75">
         <v>44522</v>
       </c>
       <c r="I49" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" s="75">
         <f t="shared" si="13"/>
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="K49" s="74"/>
       <c r="L49" s="74" t="e">
@@ -12592,15 +12622,17 @@
         <v>#N/A</v>
       </c>
       <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
+      <c r="N49" s="75">
+        <v>44520</v>
+      </c>
       <c r="O49" s="76"/>
       <c r="P49" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>44520</v>
       </c>
       <c r="Q49" s="74"/>
       <c r="R49" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S49" s="16">
         <f t="shared" si="23"/>
@@ -12724,7 +12756,7 @@
       </c>
       <c r="AW49" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="16">
         <f t="shared" si="26"/>
@@ -12773,7 +12805,7 @@
     </row>
     <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>21</v>
@@ -12787,17 +12819,17 @@
         <v>8</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H50" s="75">
         <v>44522</v>
       </c>
       <c r="I50" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" s="75">
         <f t="shared" si="13"/>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="K50" s="74"/>
       <c r="L50" s="74" t="e">
@@ -12933,11 +12965,11 @@
       </c>
       <c r="AV50" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW50" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX50" s="16">
         <f t="shared" si="26"/>
@@ -12986,7 +13018,7 @@
     </row>
     <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>21</v>
@@ -12997,10 +13029,10 @@
       <c r="D51" s="82"/>
       <c r="E51" s="14"/>
       <c r="F51" s="66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H51" s="75">
         <v>44522</v>
@@ -13197,21 +13229,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="14"/>
+    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="82"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="74"/>
+      <c r="F52" s="66">
+        <v>1</v>
+      </c>
+      <c r="G52" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" s="75">
+        <v>44522</v>
+      </c>
+      <c r="I52" s="74">
+        <v>1</v>
+      </c>
       <c r="J52" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44523</v>
       </c>
       <c r="K52" s="74"/>
       <c r="L52" s="74" t="e">
@@ -13226,7 +13270,9 @@
         <v>0</v>
       </c>
       <c r="Q52" s="74"/>
-      <c r="R52" s="74"/>
+      <c r="R52" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S52" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -13341,7 +13387,7 @@
       </c>
       <c r="AU52" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV52" s="16">
         <f t="shared" si="25"/>
@@ -13396,33 +13442,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>77</v>
-      </c>
+    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="66">
-        <v>4</v>
-      </c>
-      <c r="G53" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="75">
-        <v>44529</v>
-      </c>
-      <c r="I53" s="74">
-        <v>4</v>
-      </c>
+      <c r="F53" s="66"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="74"/>
       <c r="J53" s="75">
         <f t="shared" si="13"/>
-        <v>44533</v>
+        <v>0</v>
       </c>
       <c r="K53" s="74"/>
       <c r="L53" s="74" t="e">
@@ -13437,9 +13471,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="74"/>
-      <c r="R53" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R53" s="74"/>
       <c r="S53" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -13582,19 +13614,19 @@
       </c>
       <c r="BB53" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE53" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF53" s="16">
         <f t="shared" si="26"/>
@@ -13611,10 +13643,10 @@
     </row>
     <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>77</v>
@@ -13625,7 +13657,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H54" s="75">
         <v>44529</v>
@@ -13822,8 +13854,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="61"/>
+    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="65" t="s">
+        <v>143</v>
+      </c>
       <c r="B55" s="26" t="s">
         <v>19</v>
       </c>
@@ -13832,229 +13866,243 @@
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="14">
+      <c r="F55" s="66">
         <v>4</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="67">
+      <c r="G55" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="75">
+        <v>44529</v>
+      </c>
+      <c r="I55" s="74">
+        <v>4</v>
+      </c>
+      <c r="J55" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61" t="e">
+        <v>44533</v>
+      </c>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74" t="e">
         <f>LOOKUP(K55,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="67">
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S55" s="16">
-        <f t="shared" ref="S55:AB64" si="30">IF(AND(S$6&gt;=$N55,S$6&lt;$N55+$O55), 1, IF(AND(S$6&gt;=$H55,S$6&lt;$H55+$I55), 2, 0))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB55" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC55" s="16">
-        <f t="shared" ref="AC55:AL64" si="31">IF(AND(AC$6&gt;=$N55,AC$6&lt;$N55+$O55), 1, IF(AND(AC$6&gt;=$H55,AC$6&lt;$H55+$I55), 2, 0))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AG55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AI55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AK55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AL55" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AM55" s="16">
-        <f t="shared" ref="AM55:AV64" si="32">IF(AND(AM$6&gt;=$N55,AM$6&lt;$N55+$O55), 1, IF(AND(AM$6&gt;=$H55,AM$6&lt;$H55+$I55), 2, 0))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AO55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AP55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AQ55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AS55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AT55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AV55" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AW55" s="16">
-        <f t="shared" ref="AW55:BF64" si="33">IF(AND(AW$6&gt;=$N55,AW$6&lt;$N55+$O55), 1, IF(AND(AW$6&gt;=$H55,AW$6&lt;$H55+$I55), 2, 0))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AX55" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AY55" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AZ55" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BA55" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BB55" s="16">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="BC55" s="16">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="BD55" s="16">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="BE55" s="16">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="BF55" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BG55" s="16">
-        <f t="shared" ref="BG55:BH64" si="34">IF(AND(BG$6&gt;=$N55,BG$6&lt;$N55+$O55), 1, IF(AND(BG$6&gt;=$H55,BG$6&lt;$H55+$I55), 2, 0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BH55" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15">
+      <c r="F56" s="14">
+        <v>4</v>
+      </c>
+      <c r="G56" s="61"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14" t="e">
+      <c r="K56" s="61"/>
+      <c r="L56" s="61" t="e">
         <f>LOOKUP(K56,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="15">
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="67">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
       <c r="S56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="S56:AB65" si="30">IF(AND(S$6&gt;=$N56,S$6&lt;$N56+$O56), 1, IF(AND(S$6&gt;=$H56,S$6&lt;$H56+$I56), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T56" s="16">
@@ -14094,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AC56:AL65" si="31">IF(AND(AC$6&gt;=$N56,AC$6&lt;$N56+$O56), 1, IF(AND(AC$6&gt;=$H56,AC$6&lt;$H56+$I56), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD56" s="16">
@@ -14134,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AM56:AV65" si="32">IF(AND(AM$6&gt;=$N56,AM$6&lt;$N56+$O56), 1, IF(AND(AM$6&gt;=$H56,AM$6&lt;$H56+$I56), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN56" s="16">
@@ -14174,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="AW56" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AW56:BF65" si="33">IF(AND(AW$6&gt;=$N56,AW$6&lt;$N56+$O56), 1, IF(AND(AW$6&gt;=$H56,AW$6&lt;$H56+$I56), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX56" s="16">
@@ -14214,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="BG56" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="BG56:BH65" si="34">IF(AND(BG$6&gt;=$N56,BG$6&lt;$N56+$O56), 1, IF(AND(BG$6&gt;=$H56,BG$6&lt;$H56+$I56), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH56" s="16">
@@ -15827,171 +15875,171 @@
       <c r="Q65" s="14"/>
       <c r="R65" s="14"/>
       <c r="S65" s="16">
-        <f t="shared" ref="S65:AB74" si="35">IF(AND(S$6&gt;=$N65,S$6&lt;$N65+$O65), 1, IF(AND(S$6&gt;=$H65,S$6&lt;$H65+$I65), 2, 0))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
-        <f t="shared" ref="AC65:AL74" si="36">IF(AND(AC$6&gt;=$N65,AC$6&lt;$N65+$O65), 1, IF(AND(AC$6&gt;=$H65,AC$6&lt;$H65+$I65), 2, 0))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AE65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AG65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AH65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AI65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AK65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AL65" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AM65" s="16">
-        <f t="shared" ref="AM65:AV74" si="37">IF(AND(AM$6&gt;=$N65,AM$6&lt;$N65+$O65), 1, IF(AND(AM$6&gt;=$H65,AM$6&lt;$H65+$I65), 2, 0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AN65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AO65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AP65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AR65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AS65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AT65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AU65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AV65" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AW65" s="16">
-        <f t="shared" ref="AW65:BF74" si="38">IF(AND(AW$6&gt;=$N65,AW$6&lt;$N65+$O65), 1, IF(AND(AW$6&gt;=$H65,AW$6&lt;$H65+$I65), 2, 0))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AX65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AY65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AZ65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BA65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BB65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BC65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BD65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BE65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BF65" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BG65" s="16">
-        <f t="shared" ref="BG65:BH74" si="39">IF(AND(BG$6&gt;=$N65,BG$6&lt;$N65+$O65), 1, IF(AND(BG$6&gt;=$H65,BG$6&lt;$H65+$I65), 2, 0))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BH65" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -16024,7 +16072,7 @@
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
       <c r="S66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="S66:AB75" si="35">IF(AND(S$6&gt;=$N66,S$6&lt;$N66+$O66), 1, IF(AND(S$6&gt;=$H66,S$6&lt;$H66+$I66), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T66" s="16">
@@ -16064,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AC66:AL75" si="36">IF(AND(AC$6&gt;=$N66,AC$6&lt;$N66+$O66), 1, IF(AND(AC$6&gt;=$H66,AC$6&lt;$H66+$I66), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD66" s="16">
@@ -16104,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="AM66:AV75" si="37">IF(AND(AM$6&gt;=$N66,AM$6&lt;$N66+$O66), 1, IF(AND(AM$6&gt;=$H66,AM$6&lt;$H66+$I66), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN66" s="16">
@@ -16144,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AW66:BF75" si="38">IF(AND(AW$6&gt;=$N66,AW$6&lt;$N66+$O66), 1, IF(AND(AW$6&gt;=$H66,AW$6&lt;$H66+$I66), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX66" s="16">
@@ -16184,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="BG66:BH75" si="39">IF(AND(BG$6&gt;=$N66,BG$6&lt;$N66+$O66), 1, IF(AND(BG$6&gt;=$H66,BG$6&lt;$H66+$I66), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH66" s="16">
@@ -17797,171 +17845,171 @@
       <c r="Q75" s="14"/>
       <c r="R75" s="14"/>
       <c r="S75" s="16">
-        <f t="shared" ref="S75:AB84" si="40">IF(AND(S$6&gt;=$N75,S$6&lt;$N75+$O75), 1, IF(AND(S$6&gt;=$H75,S$6&lt;$H75+$I75), 2, 0))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" ref="AC75:AL84" si="41">IF(AND(AC$6&gt;=$N75,AC$6&lt;$N75+$O75), 1, IF(AND(AC$6&gt;=$H75,AC$6&lt;$H75+$I75), 2, 0))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AD75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AE75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AF75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AG75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AH75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AI75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AK75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL75" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AM75" s="16">
-        <f t="shared" ref="AM75:AV84" si="42">IF(AND(AM$6&gt;=$N75,AM$6&lt;$N75+$O75), 1, IF(AND(AM$6&gt;=$H75,AM$6&lt;$H75+$I75), 2, 0))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AN75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AO75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AP75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AQ75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AR75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AS75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AT75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AU75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AV75" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AW75" s="16">
-        <f t="shared" ref="AW75:BF84" si="43">IF(AND(AW$6&gt;=$N75,AW$6&lt;$N75+$O75), 1, IF(AND(AW$6&gt;=$H75,AW$6&lt;$H75+$I75), 2, 0))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AX75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AY75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AZ75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BA75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BB75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BC75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BD75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BE75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BF75" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BG75" s="16">
-        <f t="shared" ref="BG75:BH84" si="44">IF(AND(BG$6&gt;=$N75,BG$6&lt;$N75+$O75), 1, IF(AND(BG$6&gt;=$H75,BG$6&lt;$H75+$I75), 2, 0))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BH75" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -17994,7 +18042,7 @@
       <c r="Q76" s="14"/>
       <c r="R76" s="14"/>
       <c r="S76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="S76:AB85" si="40">IF(AND(S$6&gt;=$N76,S$6&lt;$N76+$O76), 1, IF(AND(S$6&gt;=$H76,S$6&lt;$H76+$I76), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T76" s="16">
@@ -18034,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AC76:AL85" si="41">IF(AND(AC$6&gt;=$N76,AC$6&lt;$N76+$O76), 1, IF(AND(AC$6&gt;=$H76,AC$6&lt;$H76+$I76), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD76" s="16">
@@ -18074,7 +18122,7 @@
         <v>0</v>
       </c>
       <c r="AM76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AM76:AV85" si="42">IF(AND(AM$6&gt;=$N76,AM$6&lt;$N76+$O76), 1, IF(AND(AM$6&gt;=$H76,AM$6&lt;$H76+$I76), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN76" s="16">
@@ -18114,7 +18162,7 @@
         <v>0</v>
       </c>
       <c r="AW76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AW76:BF85" si="43">IF(AND(AW$6&gt;=$N76,AW$6&lt;$N76+$O76), 1, IF(AND(AW$6&gt;=$H76,AW$6&lt;$H76+$I76), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX76" s="16">
@@ -18154,7 +18202,7 @@
         <v>0</v>
       </c>
       <c r="BG76" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="BG76:BH85" si="44">IF(AND(BG$6&gt;=$N76,BG$6&lt;$N76+$O76), 1, IF(AND(BG$6&gt;=$H76,BG$6&lt;$H76+$I76), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH76" s="16">
@@ -19767,171 +19815,171 @@
       <c r="Q85" s="14"/>
       <c r="R85" s="14"/>
       <c r="S85" s="16">
-        <f t="shared" ref="S85:AB94" si="45">IF(AND(S$6&gt;=$N85,S$6&lt;$N85+$O85), 1, IF(AND(S$6&gt;=$H85,S$6&lt;$H85+$I85), 2, 0))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AA85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AB85" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" ref="AC85:AL94" si="46">IF(AND(AC$6&gt;=$N85,AC$6&lt;$N85+$O85), 1, IF(AND(AC$6&gt;=$H85,AC$6&lt;$H85+$I85), 2, 0))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AE85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AF85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AG85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AH85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AI85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AJ85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AK85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AL85" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM85" s="16">
-        <f t="shared" ref="AM85:AV94" si="47">IF(AND(AM$6&gt;=$N85,AM$6&lt;$N85+$O85), 1, IF(AND(AM$6&gt;=$H85,AM$6&lt;$H85+$I85), 2, 0))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AP85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AQ85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AR85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AU85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AV85" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AW85" s="16">
-        <f t="shared" ref="AW85:BF94" si="48">IF(AND(AW$6&gt;=$N85,AW$6&lt;$N85+$O85), 1, IF(AND(AW$6&gt;=$H85,AW$6&lt;$H85+$I85), 2, 0))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AX85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AY85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AZ85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BA85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BB85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BC85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BD85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BE85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF85" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BG85" s="16">
-        <f t="shared" ref="BG85:BH94" si="49">IF(AND(BG$6&gt;=$N85,BG$6&lt;$N85+$O85), 1, IF(AND(BG$6&gt;=$H85,BG$6&lt;$H85+$I85), 2, 0))</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BH85" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -19964,7 +20012,7 @@
       <c r="Q86" s="14"/>
       <c r="R86" s="14"/>
       <c r="S86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="S86:AB95" si="45">IF(AND(S$6&gt;=$N86,S$6&lt;$N86+$O86), 1, IF(AND(S$6&gt;=$H86,S$6&lt;$H86+$I86), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T86" s="16">
@@ -20004,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AC86:AL95" si="46">IF(AND(AC$6&gt;=$N86,AC$6&lt;$N86+$O86), 1, IF(AND(AC$6&gt;=$H86,AC$6&lt;$H86+$I86), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD86" s="16">
@@ -20044,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="AM86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AM86:AV95" si="47">IF(AND(AM$6&gt;=$N86,AM$6&lt;$N86+$O86), 1, IF(AND(AM$6&gt;=$H86,AM$6&lt;$H86+$I86), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN86" s="16">
@@ -20084,7 +20132,7 @@
         <v>0</v>
       </c>
       <c r="AW86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="AW86:BF95" si="48">IF(AND(AW$6&gt;=$N86,AW$6&lt;$N86+$O86), 1, IF(AND(AW$6&gt;=$H86,AW$6&lt;$H86+$I86), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX86" s="16">
@@ -20124,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="BG86" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="BG86:BH95" si="49">IF(AND(BG$6&gt;=$N86,BG$6&lt;$N86+$O86), 1, IF(AND(BG$6&gt;=$H86,BG$6&lt;$H86+$I86), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH86" s="16">
@@ -20931,7 +20979,7 @@
       <c r="H91" s="15"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15">
-        <f t="shared" ref="J91:J118" si="50">H91 +I91</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K91" s="14"/>
@@ -20943,7 +20991,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="17"/>
       <c r="P91" s="15">
-        <f t="shared" ref="P91:P118" si="51">N91+O91</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q91" s="14"/>
@@ -21128,7 +21176,7 @@
       <c r="H92" s="15"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="J92:J119" si="50">H92 +I92</f>
         <v>0</v>
       </c>
       <c r="K92" s="14"/>
@@ -21140,7 +21188,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="17"/>
       <c r="P92" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="P92:P119" si="51">N92+O92</f>
         <v>0</v>
       </c>
       <c r="Q92" s="14"/>
@@ -21737,171 +21785,171 @@
       <c r="Q95" s="14"/>
       <c r="R95" s="14"/>
       <c r="S95" s="16">
-        <f t="shared" ref="S95:AB104" si="52">IF(AND(S$6&gt;=$N95,S$6&lt;$N95+$O95), 1, IF(AND(S$6&gt;=$H95,S$6&lt;$H95+$I95), 2, 0))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Y95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Z95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AA95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AB95" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AC95" s="16">
-        <f t="shared" ref="AC95:AL104" si="53">IF(AND(AC$6&gt;=$N95,AC$6&lt;$N95+$O95), 1, IF(AND(AC$6&gt;=$H95,AC$6&lt;$H95+$I95), 2, 0))</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AD95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AE95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AG95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AH95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AJ95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AK95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AL95" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AM95" s="16">
-        <f t="shared" ref="AM95:AV104" si="54">IF(AND(AM$6&gt;=$N95,AM$6&lt;$N95+$O95), 1, IF(AND(AM$6&gt;=$H95,AM$6&lt;$H95+$I95), 2, 0))</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AO95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AP95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AQ95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AR95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AS95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AT95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AU95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AV95" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AW95" s="16">
-        <f t="shared" ref="AW95:BF104" si="55">IF(AND(AW$6&gt;=$N95,AW$6&lt;$N95+$O95), 1, IF(AND(AW$6&gt;=$H95,AW$6&lt;$H95+$I95), 2, 0))</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AX95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AZ95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BA95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BB95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BC95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BD95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BE95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF95" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BG95" s="16">
-        <f t="shared" ref="BG95:BH104" si="56">IF(AND(BG$6&gt;=$N95,BG$6&lt;$N95+$O95), 1, IF(AND(BG$6&gt;=$H95,BG$6&lt;$H95+$I95), 2, 0))</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BH95" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -21934,7 +21982,7 @@
       <c r="Q96" s="14"/>
       <c r="R96" s="14"/>
       <c r="S96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="S96:AB105" si="52">IF(AND(S$6&gt;=$N96,S$6&lt;$N96+$O96), 1, IF(AND(S$6&gt;=$H96,S$6&lt;$H96+$I96), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T96" s="16">
@@ -21974,7 +22022,7 @@
         <v>0</v>
       </c>
       <c r="AC96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AC96:AL105" si="53">IF(AND(AC$6&gt;=$N96,AC$6&lt;$N96+$O96), 1, IF(AND(AC$6&gt;=$H96,AC$6&lt;$H96+$I96), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD96" s="16">
@@ -22014,7 +22062,7 @@
         <v>0</v>
       </c>
       <c r="AM96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="AM96:AV105" si="54">IF(AND(AM$6&gt;=$N96,AM$6&lt;$N96+$O96), 1, IF(AND(AM$6&gt;=$H96,AM$6&lt;$H96+$I96), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN96" s="16">
@@ -22054,7 +22102,7 @@
         <v>0</v>
       </c>
       <c r="AW96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AW96:BF105" si="55">IF(AND(AW$6&gt;=$N96,AW$6&lt;$N96+$O96), 1, IF(AND(AW$6&gt;=$H96,AW$6&lt;$H96+$I96), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX96" s="16">
@@ -22094,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="BG96" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="BG96:BH105" si="56">IF(AND(BG$6&gt;=$N96,BG$6&lt;$N96+$O96), 1, IF(AND(BG$6&gt;=$H96,BG$6&lt;$H96+$I96), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH96" s="16">
@@ -23707,171 +23755,171 @@
       <c r="Q105" s="14"/>
       <c r="R105" s="14"/>
       <c r="S105" s="16">
-        <f t="shared" ref="S105:AB118" si="57">IF(AND(S$6&gt;=$N105,S$6&lt;$N105+$O105), 1, IF(AND(S$6&gt;=$H105,S$6&lt;$H105+$I105), 2, 0))</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AA105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AB105" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AC105" s="16">
-        <f t="shared" ref="AC105:AL118" si="58">IF(AND(AC$6&gt;=$N105,AC$6&lt;$N105+$O105), 1, IF(AND(AC$6&gt;=$H105,AC$6&lt;$H105+$I105), 2, 0))</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AD105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AE105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AF105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AG105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AH105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AI105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AJ105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AK105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AL105" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM105" s="16">
-        <f t="shared" ref="AM105:AV118" si="59">IF(AND(AM$6&gt;=$N105,AM$6&lt;$N105+$O105), 1, IF(AND(AM$6&gt;=$H105,AM$6&lt;$H105+$I105), 2, 0))</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AN105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AO105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AP105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AQ105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AR105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AS105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AT105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AU105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AV105" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AW105" s="16">
-        <f t="shared" ref="AW105:BF118" si="60">IF(AND(AW$6&gt;=$N105,AW$6&lt;$N105+$O105), 1, IF(AND(AW$6&gt;=$H105,AW$6&lt;$H105+$I105), 2, 0))</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AX105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AY105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AZ105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BA105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BB105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BC105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BD105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BE105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF105" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BG105" s="16">
-        <f t="shared" ref="BG105:BH118" si="61">IF(AND(BG$6&gt;=$N105,BG$6&lt;$N105+$O105), 1, IF(AND(BG$6&gt;=$H105,BG$6&lt;$H105+$I105), 2, 0))</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="BH105" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -23904,7 +23952,7 @@
       <c r="Q106" s="14"/>
       <c r="R106" s="14"/>
       <c r="S106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="S106:AB119" si="57">IF(AND(S$6&gt;=$N106,S$6&lt;$N106+$O106), 1, IF(AND(S$6&gt;=$H106,S$6&lt;$H106+$I106), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T106" s="16">
@@ -23944,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="AC106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="AC106:AL119" si="58">IF(AND(AC$6&gt;=$N106,AC$6&lt;$N106+$O106), 1, IF(AND(AC$6&gt;=$H106,AC$6&lt;$H106+$I106), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD106" s="16">
@@ -23984,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="AM106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="AM106:AV119" si="59">IF(AND(AM$6&gt;=$N106,AM$6&lt;$N106+$O106), 1, IF(AND(AM$6&gt;=$H106,AM$6&lt;$H106+$I106), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN106" s="16">
@@ -24024,7 +24072,7 @@
         <v>0</v>
       </c>
       <c r="AW106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="AW106:BF119" si="60">IF(AND(AW$6&gt;=$N106,AW$6&lt;$N106+$O106), 1, IF(AND(AW$6&gt;=$H106,AW$6&lt;$H106+$I106), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX106" s="16">
@@ -24064,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="BG106" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="BG106:BH119" si="61">IF(AND(BG$6&gt;=$N106,BG$6&lt;$N106+$O106), 1, IF(AND(BG$6&gt;=$H106,BG$6&lt;$H106+$I106), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH106" s="16">
@@ -26253,6 +26301,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="K118" s="14"/>
       <c r="L118" s="14" t="e">
         <f>LOOKUP(K118,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
@@ -26435,8 +26484,212 @@
         <v>0</v>
       </c>
     </row>
+    <row r="119" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="14"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="14" t="e">
+        <f>LOOKUP(K119,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="15">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="14"/>
+      <c r="R119" s="14"/>
+      <c r="S119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="T119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="U119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="V119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="W119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="X119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Z119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB119" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AC119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AD119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AE119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AG119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AH119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AI119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AJ119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AK119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AL119" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AM119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AN119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AO119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AP119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AQ119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AR119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AS119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AT119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AU119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AV119" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AW119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AX119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AY119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AZ119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BA119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BB119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BC119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BD119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BE119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BF119" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BG119" s="16">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BH119" s="16">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -26453,21 +26706,13 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A24:A25 A37:A39 D27:F27 A46 H41:J46 L48:BH51 A55:A118 D55:J118 D51:F51 H48:J49 D50:J50 H51:J51 L53:BH118 D53:F54 H53:J54 D8:J18 H27:J28 D35:J40 E28:F28 L12:BH18 H31:J34 D31:F34 L31:BH46 E30 L21:BH25 D21:J25 L27:BH27 D41:F46 D48:F49 L28:P28 R28:BH28">
+  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A24:A25 A37:A39 D27:F27 A47 H41:J47 L49:BH52 A56:A119 D56:J119 D52:F52 H49:J50 D51:J51 H52:J52 L54:BH119 D54:F55 H54:J55 D8:J18 H27:J28 D35:J40 E28:F28 L12:BH18 H31:J34 D31:F34 L31:BH47 E30 L21:BH25 D21:J25 L27:BH27 D41:F47 D49:F50 L28:P28 R28:BH28">
     <cfRule type="expression" dxfId="223" priority="130" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S27:BH46">
+  <conditionalFormatting sqref="S8:BH18 S49:BH52 S54:BH119 S21:BH25 S27:BH47">
     <cfRule type="expression" dxfId="222" priority="128">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -26475,7 +26720,7 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S29:BH29 S33:BH46 S48:BH51 S53:BH118 S21:BH25">
+  <conditionalFormatting sqref="S8:BH18 S29:BH29 S33:BH47 S49:BH52 S54:BH119 S21:BH25">
     <cfRule type="expression" dxfId="220" priority="133" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
@@ -26485,22 +26730,22 @@
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S27:BH46">
+  <conditionalFormatting sqref="S8:BH18 S49:BH52 S54:BH119 S21:BH25 S27:BH47">
     <cfRule type="cellIs" dxfId="218" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S27:BH46">
+  <conditionalFormatting sqref="S8:BH18 S49:BH52 S54:BH119 S21:BH25 S27:BH47">
     <cfRule type="cellIs" dxfId="217" priority="141" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S48:BH51 S53:BH118 S21:BH25 S27:BH46">
+  <conditionalFormatting sqref="S8:BH18 S49:BH52 S54:BH119 S21:BH25 S27:BH47">
     <cfRule type="cellIs" dxfId="216" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B48:C51 B53:C118 B13:C17 B25:C25 B21:C22 B18 B21:B24 B27:C46">
+  <conditionalFormatting sqref="B11:C11 B49:C52 B54:C119 B13:C17 B25:C25 B21:C22 B18 B21:B24 B27:C47">
     <cfRule type="containsText" dxfId="215" priority="118" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
@@ -26517,7 +26762,7 @@
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10 K41:K42 K44:K46 K48:K51 K53:K117 K13:K14 K17 L29:BH29 F29:J29 D29 K24:K25 K37">
+  <conditionalFormatting sqref="Q10 K41:K42 K49:K52 K54:K118 K13:K14 K17 L29:BH29 F29:J29 D29 K24:K25 K37 K44 K47">
     <cfRule type="expression" dxfId="210" priority="145" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
@@ -26561,7 +26806,7 @@
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12 K15:K16 K38:K39">
+  <conditionalFormatting sqref="K11:K12 K15:K16 K38:K39 K45:K46">
     <cfRule type="expression" dxfId="198" priority="148" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
@@ -26586,7 +26831,7 @@
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G45 L30:BH30 F30:J30 D30">
+  <conditionalFormatting sqref="G28 G45:G46 L30:BH30 F30:J30 D30">
     <cfRule type="expression" dxfId="193" priority="157" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
@@ -26616,7 +26861,7 @@
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43 G46">
+  <conditionalFormatting sqref="G43 G47">
     <cfRule type="expression" dxfId="187" priority="103" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A43)=1</formula>
     </cfRule>
@@ -26636,12 +26881,12 @@
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47 D47:J47 L47:BH47">
+  <conditionalFormatting sqref="A48 D48:J48 L48:BH48">
     <cfRule type="expression" dxfId="183" priority="95" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A47)=1</formula>
+      <formula>SEARCH("SPACER",$A48)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S47:BH47">
+  <conditionalFormatting sqref="S48:BH48">
     <cfRule type="expression" dxfId="182" priority="93">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -26649,69 +26894,69 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S47:BH47">
+  <conditionalFormatting sqref="S48:BH48">
     <cfRule type="expression" dxfId="180" priority="96" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G47)=1</formula>
+      <formula>SEARCH("SPACER",$G48)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S47:BH47">
+  <conditionalFormatting sqref="S48:BH48">
     <cfRule type="cellIs" dxfId="179" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S47:BH47">
+  <conditionalFormatting sqref="S48:BH48">
     <cfRule type="cellIs" dxfId="178" priority="98" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S47:BH47">
+  <conditionalFormatting sqref="S48:BH48">
     <cfRule type="cellIs" dxfId="177" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:C47">
+  <conditionalFormatting sqref="B48:C48">
     <cfRule type="containsText" dxfId="176" priority="88" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="175" priority="89" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Code",B48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="174" priority="90" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Audio",B48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="173" priority="91" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Level",B48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="172" priority="92" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Art",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+  <conditionalFormatting sqref="K48">
     <cfRule type="expression" dxfId="171" priority="100" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A48)=1</formula>
+      <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
+  <conditionalFormatting sqref="G49">
     <cfRule type="expression" dxfId="170" priority="87" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G50">
     <cfRule type="expression" dxfId="169" priority="86" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A49)=1</formula>
+      <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
+  <conditionalFormatting sqref="G52">
     <cfRule type="expression" dxfId="168" priority="85" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A51)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52 D52:J52 L52:BH52">
-    <cfRule type="expression" dxfId="167" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A52)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S52:BH52">
+  <conditionalFormatting sqref="A53 D53:J53 L53:BH53">
+    <cfRule type="expression" dxfId="167" priority="79" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A53)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S53:BH53">
     <cfRule type="expression" dxfId="166" priority="77">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -26719,56 +26964,56 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S52:BH52">
+  <conditionalFormatting sqref="S53:BH53">
     <cfRule type="expression" dxfId="164" priority="80" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G52)=1</formula>
+      <formula>SEARCH("SPACER",$G53)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S52:BH52">
+  <conditionalFormatting sqref="S53:BH53">
     <cfRule type="cellIs" dxfId="163" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S52:BH52">
+  <conditionalFormatting sqref="S53:BH53">
     <cfRule type="cellIs" dxfId="162" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S52:BH52">
+  <conditionalFormatting sqref="S53:BH53">
     <cfRule type="cellIs" dxfId="161" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:C52">
+  <conditionalFormatting sqref="B53:C53">
     <cfRule type="containsText" dxfId="160" priority="72" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="73" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Code",B53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="158" priority="74" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Audio",B53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="157" priority="75" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Level",B53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="156" priority="76" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Art",B53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
+  <conditionalFormatting sqref="K53">
     <cfRule type="expression" dxfId="155" priority="84" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A53)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="154" priority="71" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A53)=1</formula>
+      <formula>SEARCH("SPACER",$A54)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="154" priority="71" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A54)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55">
     <cfRule type="expression" dxfId="153" priority="70" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A54)=1</formula>
+      <formula>SEARCH("SPACER",$A55)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
@@ -27049,31 +27294,31 @@
           <x14:formula1>
             <xm:f>TaskTypes!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B18 B21:B25 B27:B113</xm:sqref>
+          <xm:sqref>B8:B18 B21:B25 B27:B114</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>TaskGrading!$A$4:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K8:K18 K21:K25 K27:K117</xm:sqref>
+          <xm:sqref>K8:K18 K21:K25 K27:K118</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>TaskStatus!$A$6:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>R8:R18 R21:R25 R27:R118</xm:sqref>
+          <xm:sqref>R8:R18 R21:R25 R27:R119</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AF4FB63-5986-4C21-AFB9-6703D4D46921}">
           <x14:formula1>
             <xm:f>Priorities!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C21:C22 C8:C17 C25 C27:C118</xm:sqref>
+          <xm:sqref>C21:C22 C8:C17 C25 C27:C119</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Main!$A$9:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G8:G18 G21:G25 G27:G118</xm:sqref>
+          <xm:sqref>G8:G18 G21:G25 G27:G119</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27413,10 +27658,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="36" x14ac:dyDescent="0.3">
@@ -27424,10 +27669,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
@@ -27435,21 +27680,21 @@
         <v>21</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>145</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="36" x14ac:dyDescent="0.3">
@@ -27457,10 +27702,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -27468,10 +27713,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27663,10 +27908,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:60" ht="72" x14ac:dyDescent="0.35">
@@ -27674,32 +27919,32 @@
         <v>21</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -27707,10 +27952,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -27718,10 +27963,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
@@ -27729,10 +27974,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.3">
@@ -27740,10 +27985,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keith\Documents\GitHub\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raidzer\Documents\GitHub\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB144DE7-E80C-4040-870A-2287CC3DB040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB854E-72F2-491A-8F7F-44385E02FF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="220">
   <si>
     <t>TASK</t>
   </si>
@@ -1014,6 +1014,21 @@
   <si>
     <t>Player Invulerability Frame</t>
   </si>
+  <si>
+    <t>Music/SoundEffects</t>
+  </si>
+  <si>
+    <t>implementing audio and is able to trigger it</t>
+  </si>
+  <si>
+    <t>music composition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendering </t>
+  </si>
+  <si>
+    <t>sound effects, trigggered when collision or something on  screen happen</t>
+  </si>
 </sst>
 </file>
 
@@ -1777,7 +1792,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,31 +1822,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4355,7 +4370,7 @@
       </c>
       <c r="H9" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A9,GANTT!B:B,TaskTypes!$A$5)/$G9)</f>
-        <v>1</v>
+        <v>0.97142857142857142</v>
       </c>
       <c r="I9" s="44">
         <v>10</v>
@@ -4420,7 +4435,7 @@
       </c>
       <c r="H10" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A10,GANTT!B:B,TaskTypes!$A$5)/$G10)</f>
-        <v>1.1794871794871795</v>
+        <v>1.2820512820512822</v>
       </c>
       <c r="I10" s="44">
         <v>10</v>
@@ -4473,54 +4488,54 @@
       </c>
       <c r="E11">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A11, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A11, GANTT!R:R,TaskStatus!$A$6)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H11" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A11,GANTT!B:B,TaskTypes!$A$5)/$G11)</f>
-        <v>0.35714285714285715</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="I11" s="44">
         <v>10</v>
       </c>
       <c r="J11">
         <f>I11- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A11, GANTT!$J:$J,"&lt;= "&amp;$I$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K11" s="44">
         <v>10</v>
       </c>
       <c r="L11">
         <f>K11- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A11, GANTT!$J:$J,"&lt;= "&amp;$K$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="M11" s="44">
         <v>10</v>
       </c>
       <c r="N11">
         <f>M11- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A11, GANTT!$J:$J,"&lt;= "&amp;$M$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="O11" s="44">
         <v>10</v>
       </c>
       <c r="P11">
         <f>O11- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A11, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="Q11" s="44">
         <v>10</v>
       </c>
       <c r="R11">
         <f>Q11- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A11, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -4791,15 +4806,15 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>41.5</v>
+        <v>37.5</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>164.5</v>
+        <v>154.5</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="1"/>
@@ -4811,7 +4826,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
@@ -4819,7 +4834,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
@@ -4827,7 +4842,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>-35.5</v>
+        <v>-55.5</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
@@ -4835,7 +4850,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>-36.5</v>
+        <v>-56.5</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:R16" si="2">SUM(Q9:Q15)</f>
@@ -4843,7 +4858,7 @@
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>-36.5</v>
+        <v>-56.5</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
@@ -4894,13 +4909,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BZ119"/>
+  <dimension ref="A1:BZ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="18" ySplit="7" topLeftCell="S38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomRight" activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4914,17 +4929,18 @@
     <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.5546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.6640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.5546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.109375" style="2" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
-    <col min="19" max="60" width="4.109375" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="16384" width="9.109375" style="2"/>
+    <col min="19" max="60" width="4.109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9.109375" style="2" collapsed="1"/>
+    <col min="62" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="35.4" x14ac:dyDescent="0.55000000000000004">
@@ -4987,66 +5003,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="90">
+      <c r="S5" s="94">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90">
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90">
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90">
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90">
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="91">
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="94"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="98">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="91"/>
-      <c r="BD5" s="91"/>
-      <c r="BE5" s="91"/>
-      <c r="BF5" s="91"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="91"/>
+      <c r="BC5" s="98"/>
+      <c r="BD5" s="98"/>
+      <c r="BE5" s="98"/>
+      <c r="BF5" s="98"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -5067,58 +5083,58 @@
       <c r="BZ5" s="9"/>
     </row>
     <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="93" t="s">
+      <c r="A6" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="95" t="s">
+      <c r="L6" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="95" t="s">
+      <c r="M6" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="94" t="s">
+      <c r="N6" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="94" t="s">
+      <c r="O6" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="100" t="s">
+      <c r="Q6" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="95" t="s">
+      <c r="R6" s="92" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -5291,24 +5307,24 @@
       </c>
     </row>
     <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="98"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="93"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5820,9 +5836,13 @@
       <c r="I10" s="69">
         <v>2</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="70">
+        <v>44496</v>
+      </c>
       <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+      <c r="L10" s="69">
+        <v>15</v>
+      </c>
       <c r="M10" s="69"/>
       <c r="N10" s="70">
         <v>44494</v>
@@ -5830,7 +5850,10 @@
       <c r="O10" s="71">
         <v>5</v>
       </c>
-      <c r="P10" s="70"/>
+      <c r="P10" s="70">
+        <f>N10+O10</f>
+        <v>44499</v>
+      </c>
       <c r="Q10" s="69">
         <v>15</v>
       </c>
@@ -6224,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="70">
-        <f t="shared" ref="J13:J91" si="13">H13 +I13</f>
+        <f t="shared" ref="J13:J92" si="13">H13 +I13</f>
         <v>44496</v>
       </c>
       <c r="K13" s="72" t="s">
@@ -6242,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="70">
-        <f t="shared" ref="P13:P91" si="14">N13+O13</f>
+        <f t="shared" ref="P13:P92" si="14">N13+O13</f>
         <v>44496</v>
       </c>
       <c r="Q13" s="69">
@@ -7947,7 +7970,7 @@
         <v>119</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="83" t="s">
         <v>75</v>
@@ -7975,20 +7998,24 @@
         <v>44502</v>
       </c>
       <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
+      <c r="L21" s="74">
+        <v>1</v>
+      </c>
       <c r="M21" s="74"/>
       <c r="N21" s="75">
         <v>44506</v>
       </c>
       <c r="O21" s="76">
-        <v>2</v>
-      </c>
-      <c r="P21" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="75">
+        <v>44507</v>
+      </c>
       <c r="Q21" s="74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R21" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
@@ -8918,7 +8945,7 @@
         <v>57</v>
       </c>
       <c r="S27" s="16" t="e">
-        <f t="shared" ref="S27:AB44" si="18">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="S27:AB45" si="18">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="T27" s="16" t="e">
@@ -8958,7 +8985,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AC27" s="16" t="e">
-        <f t="shared" ref="AC27:AL44" si="19">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AC27:AL45" si="19">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD27" s="16" t="e">
@@ -8998,7 +9025,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AM27" s="16" t="e">
-        <f t="shared" ref="AM27:AV44" si="20">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AM27:AV45" si="20">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AN27" s="16" t="e">
@@ -9038,7 +9065,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AW27" s="16" t="e">
-        <f t="shared" ref="AW27:BF44" si="21">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="AW27:BF45" si="21">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AX27" s="16" t="e">
@@ -9078,7 +9105,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BG27" s="16" t="e">
-        <f t="shared" ref="BG27:BH44" si="22">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
+        <f t="shared" ref="BG27:BH45" si="22">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BH27" s="16" t="e">
@@ -9723,7 +9750,7 @@
         <v>77</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="E32" s="53" t="s">
         <v>204</v>
@@ -9738,9 +9765,13 @@
       <c r="I32" s="74">
         <v>2</v>
       </c>
-      <c r="J32" s="75"/>
+      <c r="J32" s="75">
+        <v>44511</v>
+      </c>
       <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
+      <c r="L32" s="74">
+        <v>5</v>
+      </c>
       <c r="M32" s="74"/>
       <c r="N32" s="75">
         <v>44512</v>
@@ -9748,7 +9779,10 @@
       <c r="O32" s="76">
         <v>2</v>
       </c>
-      <c r="P32" s="75"/>
+      <c r="P32" s="75">
+        <f>N32+O32</f>
+        <v>44514</v>
+      </c>
       <c r="Q32" s="74">
         <v>3</v>
       </c>
@@ -9824,16 +9858,26 @@
       <c r="I33" s="74">
         <v>1</v>
       </c>
-      <c r="J33" s="75"/>
+      <c r="J33" s="75">
+        <v>44511</v>
+      </c>
       <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
+      <c r="L33" s="74">
+        <v>5</v>
+      </c>
       <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="76"/>
+      <c r="N33" s="75">
+        <v>44520</v>
+      </c>
+      <c r="O33" s="76">
+        <v>1</v>
+      </c>
       <c r="P33" s="75"/>
-      <c r="Q33" s="74"/>
+      <c r="Q33" s="74">
+        <v>1</v>
+      </c>
       <c r="R33" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
@@ -10882,7 +10926,7 @@
         <v>132</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>78</v>
@@ -11099,7 +11143,7 @@
         <v>133</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>77</v>
@@ -11321,7 +11365,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>77</v>
@@ -11531,49 +11575,47 @@
     </row>
     <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="65" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="66">
-        <v>4</v>
-      </c>
+      <c r="D44" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="66"/>
       <c r="G44" s="74" t="s">
         <v>103</v>
       </c>
       <c r="H44" s="75">
-        <v>44515</v>
+        <v>44520</v>
       </c>
       <c r="I44" s="74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J44" s="75">
         <f t="shared" si="13"/>
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="K44" s="74"/>
-      <c r="L44" s="74" t="e">
-        <f>LOOKUP(K44,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="L44" s="74"/>
       <c r="M44" s="74"/>
       <c r="N44" s="75">
-        <v>44511</v>
+        <v>44520</v>
       </c>
       <c r="O44" s="76">
-        <v>2</v>
-      </c>
-      <c r="P44" s="75">
-        <f t="shared" si="14"/>
-        <v>44513</v>
-      </c>
-      <c r="Q44" s="74"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="74">
+        <v>4</v>
+      </c>
       <c r="R44" s="74" t="s">
         <v>57</v>
       </c>
@@ -11647,11 +11689,11 @@
       </c>
       <c r="AJ44" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="16">
         <f t="shared" si="19"/>
@@ -11663,15 +11705,15 @@
       </c>
       <c r="AN44" s="16">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="16">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="16">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="16">
         <f t="shared" si="20"/>
@@ -11683,23 +11725,23 @@
       </c>
       <c r="AS44" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU44" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV44" s="16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW44" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX44" s="16">
         <f t="shared" si="21"/>
@@ -11748,16 +11790,20 @@
     </row>
     <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="14"/>
+      <c r="D45" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="F45" s="66">
         <v>4</v>
       </c>
@@ -11765,220 +11811,236 @@
         <v>103</v>
       </c>
       <c r="H45" s="75">
-        <v>44548</v>
+        <v>44515</v>
       </c>
       <c r="I45" s="74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" s="75">
         <f t="shared" si="13"/>
-        <v>44550</v>
+        <v>44518</v>
       </c>
       <c r="K45" s="74"/>
-      <c r="L45" s="74" t="e">
-        <f>LOOKUP(K45,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L45" s="74">
+        <v>5</v>
       </c>
       <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="76"/>
+      <c r="N45" s="75">
+        <v>44511</v>
+      </c>
+      <c r="O45" s="76">
+        <v>2</v>
+      </c>
       <c r="P45" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="74"/>
+        <v>44513</v>
+      </c>
+      <c r="Q45" s="74">
+        <v>7</v>
+      </c>
       <c r="R45" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S45" s="16">
-        <f t="shared" ref="S45:AB55" si="23">IF(AND(S$6&gt;=$N45,S$6&lt;$N45+$O45), 1, IF(AND(S$6&gt;=$H45,S$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" ref="AC45:AL55" si="24">IF(AND(AC$6&gt;=$N45,AC$6&lt;$N45+$O45), 1, IF(AND(AC$6&gt;=$H45,AC$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD45" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AE45" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AF45" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AH45" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI45" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="AK45" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="AL45" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AM45" s="16">
-        <f t="shared" ref="AM45:AV55" si="25">IF(AND(AM$6&gt;=$N45,AM$6&lt;$N45+$O45), 1, IF(AND(AM$6&gt;=$H45,AM$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AN45" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="AO45" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="AP45" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="AQ45" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AR45" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AS45" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AT45" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU45" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AV45" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AW45" s="16">
-        <f t="shared" ref="AW45:BF55" si="26">IF(AND(AW$6&gt;=$N45,AW$6&lt;$N45+$O45), 1, IF(AND(AW$6&gt;=$H45,AW$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AX45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AY45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AZ45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BB45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BC45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BD45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BE45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BF45" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BG45" s="16">
-        <f t="shared" ref="BG45:BH55" si="27">IF(AND(BG$6&gt;=$N45,BG$6&lt;$N45+$O45), 1, IF(AND(BG$6&gt;=$H45,BG$6&lt;$H45+$I45), 2, 0))</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BH45" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="66"/>
+        <v>136</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="66">
+        <v>4</v>
+      </c>
       <c r="G46" s="74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H46" s="75">
-        <v>44515</v>
+        <v>44548</v>
       </c>
       <c r="I46" s="74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="75">
-        <v>44515</v>
+        <f t="shared" si="13"/>
+        <v>44550</v>
       </c>
       <c r="K46" s="74"/>
       <c r="L46" s="74">
@@ -11986,204 +12048,199 @@
       </c>
       <c r="M46" s="74"/>
       <c r="N46" s="75">
-        <v>44520</v>
-      </c>
-      <c r="O46" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="P46" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q46" s="74" t="s">
-        <v>190</v>
+        <v>44519</v>
+      </c>
+      <c r="O46" s="76">
+        <v>2</v>
+      </c>
+      <c r="P46" s="75">
+        <f t="shared" si="14"/>
+        <v>44521</v>
+      </c>
+      <c r="Q46" s="74">
+        <v>7</v>
       </c>
       <c r="R46" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="S46" s="16" t="e">
+      <c r="S46" s="16">
+        <f t="shared" ref="S46:AB56" si="23">IF(AND(S$6&gt;=$N46,S$6&lt;$N46+$O46), 1, IF(AND(S$6&gt;=$H46,S$6&lt;$H46+$I46), 2, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="U46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="W46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="X46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="16">
         <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB46" s="16" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="16">
+        <f t="shared" ref="AC46:AL56" si="24">IF(AND(AC$6&gt;=$N46,AC$6&lt;$N46+$O46), 1, IF(AND(AC$6&gt;=$H46,AC$6&lt;$H46+$I46), 2, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="16">
         <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL46" s="16" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="16">
+        <f t="shared" ref="AM46:AV56" si="25">IF(AND(AM$6&gt;=$N46,AM$6&lt;$N46+$O46), 1, IF(AND(AM$6&gt;=$H46,AM$6&lt;$H46+$I46), 2, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AN46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR46" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS46" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="16">
         <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV46" s="16" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="16">
+        <f t="shared" ref="AW46:BF56" si="26">IF(AND(AW$6&gt;=$N46,AW$6&lt;$N46+$O46), 1, IF(AND(AW$6&gt;=$H46,AW$6&lt;$H46+$I46), 2, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AX46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BC46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF46" s="16">
         <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF46" s="16" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG46" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BG46" s="16">
+        <f t="shared" ref="BG46:BH56" si="27">IF(AND(BG$6&gt;=$N46,BG$6&lt;$N46+$O46), 1, IF(AND(BG$6&gt;=$H46,BG$6&lt;$H46+$I46), 2, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="BH46" s="16">
         <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH46" s="16" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>76</v>
-      </c>
+    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="82"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="66">
-        <v>1</v>
-      </c>
+      <c r="F47" s="66"/>
       <c r="G47" s="74" t="s">
         <v>105</v>
       </c>
@@ -12191,20 +12248,18 @@
         <v>44515</v>
       </c>
       <c r="I47" s="74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J47" s="75">
-        <f t="shared" si="13"/>
-        <v>44519</v>
+        <v>44515</v>
       </c>
       <c r="K47" s="74"/>
-      <c r="L47" s="74" t="e">
-        <f>LOOKUP(K47,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L47" s="74">
+        <v>5</v>
       </c>
       <c r="M47" s="74"/>
-      <c r="N47" s="74" t="s">
-        <v>190</v>
+      <c r="N47" s="75">
+        <v>44520</v>
       </c>
       <c r="O47" s="76" t="s">
         <v>190</v>
@@ -12212,9 +12267,11 @@
       <c r="P47" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="Q47" s="74"/>
+      <c r="Q47" s="74" t="s">
+        <v>190</v>
+      </c>
       <c r="R47" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S47" s="16" t="e">
         <f t="shared" si="23"/>
@@ -12386,20 +12443,32 @@
       </c>
     </row>
     <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>76</v>
+      </c>
       <c r="D48" s="82"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="74"/>
+      <c r="F48" s="66">
+        <v>1</v>
+      </c>
+      <c r="G48" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="75">
+        <v>44515</v>
+      </c>
+      <c r="I48" s="74">
+        <v>4</v>
+      </c>
       <c r="J48" s="75">
-        <f t="shared" ref="J48" si="28">H48 +I48</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>44519</v>
       </c>
       <c r="K48" s="74"/>
       <c r="L48" s="74" t="e">
@@ -12407,214 +12476,203 @@
         <v>#N/A</v>
       </c>
       <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="75">
-        <f t="shared" ref="P48" si="29">N48+O48</f>
-        <v>0</v>
+      <c r="N48" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O48" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="P48" s="75" t="s">
+        <v>190</v>
       </c>
       <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="16">
+      <c r="R48" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="S48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB48" s="16" t="e">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL48" s="16" t="e">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AM48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AN48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AO48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AP48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AR48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AS48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AT48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AU48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AV48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV48" s="16" t="e">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AW48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AX48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AY48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AZ48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BA48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BB48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BC48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BD48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BE48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BF48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF48" s="16" t="e">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="BG48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG48" s="16" t="e">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BH48" s="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH48" s="16" t="e">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="66">
-        <v>8</v>
-      </c>
-      <c r="G49" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="75">
-        <v>44522</v>
-      </c>
-      <c r="I49" s="74">
-        <v>2</v>
-      </c>
+    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="75">
-        <f t="shared" si="13"/>
-        <v>44524</v>
+        <f t="shared" ref="J49" si="28">H49 +I49</f>
+        <v>0</v>
       </c>
       <c r="K49" s="74"/>
       <c r="L49" s="74" t="e">
@@ -12622,18 +12680,14 @@
         <v>#N/A</v>
       </c>
       <c r="M49" s="74"/>
-      <c r="N49" s="75">
-        <v>44520</v>
-      </c>
+      <c r="N49" s="74"/>
       <c r="O49" s="76"/>
       <c r="P49" s="75">
-        <f t="shared" si="14"/>
-        <v>44520</v>
+        <f t="shared" ref="P49" si="29">N49+O49</f>
+        <v>0</v>
       </c>
       <c r="Q49" s="74"/>
-      <c r="R49" s="74" t="s">
-        <v>57</v>
-      </c>
+      <c r="R49" s="74"/>
       <c r="S49" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -12748,11 +12802,11 @@
       </c>
       <c r="AU49" s="16">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="16">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="16">
         <f t="shared" si="26"/>
@@ -12805,31 +12859,35 @@
     </row>
     <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="D50" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="F50" s="66">
         <v>8</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H50" s="75">
         <v>44522</v>
       </c>
       <c r="I50" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" s="75">
         <f t="shared" si="13"/>
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="K50" s="74"/>
       <c r="L50" s="74" t="e">
@@ -12837,15 +12895,17 @@
         <v>#N/A</v>
       </c>
       <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
+      <c r="N50" s="75">
+        <v>44520</v>
+      </c>
       <c r="O50" s="76"/>
       <c r="P50" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>44520</v>
       </c>
       <c r="Q50" s="74"/>
       <c r="R50" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S50" s="16">
         <f t="shared" si="23"/>
@@ -12969,7 +13029,7 @@
       </c>
       <c r="AW50" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="16">
         <f t="shared" si="26"/>
@@ -13018,7 +13078,7 @@
     </row>
     <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>21</v>
@@ -13032,17 +13092,17 @@
         <v>8</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H51" s="75">
         <v>44522</v>
       </c>
       <c r="I51" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" s="75">
         <f t="shared" si="13"/>
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="K51" s="74"/>
       <c r="L51" s="74" t="e">
@@ -13178,11 +13238,11 @@
       </c>
       <c r="AV51" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW51" s="16">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX51" s="16">
         <f t="shared" si="26"/>
@@ -13231,7 +13291,7 @@
     </row>
     <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>21</v>
@@ -13242,10 +13302,10 @@
       <c r="D52" s="82"/>
       <c r="E52" s="14"/>
       <c r="F52" s="66">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G52" s="74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H52" s="75">
         <v>44522</v>
@@ -13442,21 +13502,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="14"/>
+    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="82"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="74"/>
+      <c r="F53" s="66">
+        <v>1</v>
+      </c>
+      <c r="G53" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" s="75">
+        <v>44522</v>
+      </c>
+      <c r="I53" s="74">
+        <v>1</v>
+      </c>
       <c r="J53" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>44523</v>
       </c>
       <c r="K53" s="74"/>
       <c r="L53" s="74" t="e">
@@ -13471,7 +13543,9 @@
         <v>0</v>
       </c>
       <c r="Q53" s="74"/>
-      <c r="R53" s="74"/>
+      <c r="R53" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S53" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -13586,7 +13660,7 @@
       </c>
       <c r="AU53" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV53" s="16">
         <f t="shared" si="25"/>
@@ -13641,33 +13715,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>77</v>
-      </c>
+    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="66">
-        <v>4</v>
-      </c>
-      <c r="G54" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="75">
-        <v>44529</v>
-      </c>
-      <c r="I54" s="74">
-        <v>4</v>
-      </c>
+      <c r="F54" s="66"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="74"/>
       <c r="J54" s="75">
         <f t="shared" si="13"/>
-        <v>44533</v>
+        <v>0</v>
       </c>
       <c r="K54" s="74"/>
       <c r="L54" s="74" t="e">
@@ -13682,9 +13744,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="74"/>
-      <c r="R54" s="74" t="s">
-        <v>56</v>
-      </c>
+      <c r="R54" s="74"/>
       <c r="S54" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -13827,19 +13887,19 @@
       </c>
       <c r="BB54" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC54" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="16">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF54" s="16">
         <f t="shared" si="26"/>
@@ -13856,10 +13916,10 @@
     </row>
     <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>77</v>
@@ -13870,7 +13930,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H55" s="75">
         <v>44529</v>
@@ -14067,8 +14127,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="61"/>
+    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="65" t="s">
+        <v>143</v>
+      </c>
       <c r="B56" s="26" t="s">
         <v>19</v>
       </c>
@@ -14077,229 +14139,243 @@
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="14">
+      <c r="F56" s="66">
         <v>4</v>
       </c>
-      <c r="G56" s="61"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="67">
+      <c r="G56" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="75">
+        <v>44529</v>
+      </c>
+      <c r="I56" s="74">
+        <v>4</v>
+      </c>
+      <c r="J56" s="75">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61" t="e">
+        <v>44533</v>
+      </c>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74" t="e">
         <f>LOOKUP(K56,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="67">
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="75">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="S56" s="16">
-        <f t="shared" ref="S56:AB65" si="30">IF(AND(S$6&gt;=$N56,S$6&lt;$N56+$O56), 1, IF(AND(S$6&gt;=$H56,S$6&lt;$H56+$I56), 2, 0))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB56" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC56" s="16">
-        <f t="shared" ref="AC56:AL65" si="31">IF(AND(AC$6&gt;=$N56,AC$6&lt;$N56+$O56), 1, IF(AND(AC$6&gt;=$H56,AC$6&lt;$H56+$I56), 2, 0))</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AG56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AI56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AK56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AL56" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AM56" s="16">
-        <f t="shared" ref="AM56:AV65" si="32">IF(AND(AM$6&gt;=$N56,AM$6&lt;$N56+$O56), 1, IF(AND(AM$6&gt;=$H56,AM$6&lt;$H56+$I56), 2, 0))</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AO56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AP56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AQ56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AR56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AS56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AT56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AU56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AV56" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AW56" s="16">
-        <f t="shared" ref="AW56:BF65" si="33">IF(AND(AW$6&gt;=$N56,AW$6&lt;$N56+$O56), 1, IF(AND(AW$6&gt;=$H56,AW$6&lt;$H56+$I56), 2, 0))</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AX56" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AY56" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AZ56" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BA56" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BB56" s="16">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="BC56" s="16">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="BD56" s="16">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="BE56" s="16">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="BF56" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BG56" s="16">
-        <f t="shared" ref="BG56:BH65" si="34">IF(AND(BG$6&gt;=$N56,BG$6&lt;$N56+$O56), 1, IF(AND(BG$6&gt;=$H56,BG$6&lt;$H56+$I56), 2, 0))</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BH56" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="14"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15">
+      <c r="F57" s="14">
+        <v>4</v>
+      </c>
+      <c r="G57" s="61"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="67">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14" t="e">
+      <c r="K57" s="61"/>
+      <c r="L57" s="61" t="e">
         <f>LOOKUP(K57,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
       </c>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="15">
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="67">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
       <c r="S57" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="S57:AB66" si="30">IF(AND(S$6&gt;=$N57,S$6&lt;$N57+$O57), 1, IF(AND(S$6&gt;=$H57,S$6&lt;$H57+$I57), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T57" s="16">
@@ -14339,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AC57:AL66" si="31">IF(AND(AC$6&gt;=$N57,AC$6&lt;$N57+$O57), 1, IF(AND(AC$6&gt;=$H57,AC$6&lt;$H57+$I57), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD57" s="16">
@@ -14379,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="AM57" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AM57:AV66" si="32">IF(AND(AM$6&gt;=$N57,AM$6&lt;$N57+$O57), 1, IF(AND(AM$6&gt;=$H57,AM$6&lt;$H57+$I57), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN57" s="16">
@@ -14419,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="AW57" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AW57:BF66" si="33">IF(AND(AW$6&gt;=$N57,AW$6&lt;$N57+$O57), 1, IF(AND(AW$6&gt;=$H57,AW$6&lt;$H57+$I57), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX57" s="16">
@@ -14459,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="BG57:BH66" si="34">IF(AND(BG$6&gt;=$N57,BG$6&lt;$N57+$O57), 1, IF(AND(BG$6&gt;=$H57,BG$6&lt;$H57+$I57), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH57" s="16">
@@ -16072,171 +16148,171 @@
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
       <c r="S66" s="16">
-        <f t="shared" ref="S66:AB75" si="35">IF(AND(S$6&gt;=$N66,S$6&lt;$N66+$O66), 1, IF(AND(S$6&gt;=$H66,S$6&lt;$H66+$I66), 2, 0))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB66" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
-        <f t="shared" ref="AC66:AL75" si="36">IF(AND(AC$6&gt;=$N66,AC$6&lt;$N66+$O66), 1, IF(AND(AC$6&gt;=$H66,AC$6&lt;$H66+$I66), 2, 0))</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AD66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AE66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AF66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AG66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AH66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AI66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AK66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AL66" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AM66" s="16">
-        <f t="shared" ref="AM66:AV75" si="37">IF(AND(AM$6&gt;=$N66,AM$6&lt;$N66+$O66), 1, IF(AND(AM$6&gt;=$H66,AM$6&lt;$H66+$I66), 2, 0))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AN66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AO66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AP66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AQ66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AR66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AS66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AT66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AU66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AV66" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AW66" s="16">
-        <f t="shared" ref="AW66:BF75" si="38">IF(AND(AW$6&gt;=$N66,AW$6&lt;$N66+$O66), 1, IF(AND(AW$6&gt;=$H66,AW$6&lt;$H66+$I66), 2, 0))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AX66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AY66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AZ66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BA66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BB66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BC66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BD66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BE66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BF66" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BG66" s="16">
-        <f t="shared" ref="BG66:BH75" si="39">IF(AND(BG$6&gt;=$N66,BG$6&lt;$N66+$O66), 1, IF(AND(BG$6&gt;=$H66,BG$6&lt;$H66+$I66), 2, 0))</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BH66" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -16269,7 +16345,7 @@
       <c r="Q67" s="14"/>
       <c r="R67" s="14"/>
       <c r="S67" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="S67:AB76" si="35">IF(AND(S$6&gt;=$N67,S$6&lt;$N67+$O67), 1, IF(AND(S$6&gt;=$H67,S$6&lt;$H67+$I67), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T67" s="16">
@@ -16309,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AC67:AL76" si="36">IF(AND(AC$6&gt;=$N67,AC$6&lt;$N67+$O67), 1, IF(AND(AC$6&gt;=$H67,AC$6&lt;$H67+$I67), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD67" s="16">
@@ -16349,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="AM67:AV76" si="37">IF(AND(AM$6&gt;=$N67,AM$6&lt;$N67+$O67), 1, IF(AND(AM$6&gt;=$H67,AM$6&lt;$H67+$I67), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN67" s="16">
@@ -16389,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="AW67" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AW67:BF76" si="38">IF(AND(AW$6&gt;=$N67,AW$6&lt;$N67+$O67), 1, IF(AND(AW$6&gt;=$H67,AW$6&lt;$H67+$I67), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX67" s="16">
@@ -16429,7 +16505,7 @@
         <v>0</v>
       </c>
       <c r="BG67" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="BG67:BH76" si="39">IF(AND(BG$6&gt;=$N67,BG$6&lt;$N67+$O67), 1, IF(AND(BG$6&gt;=$H67,BG$6&lt;$H67+$I67), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH67" s="16">
@@ -18042,171 +18118,171 @@
       <c r="Q76" s="14"/>
       <c r="R76" s="14"/>
       <c r="S76" s="16">
-        <f t="shared" ref="S76:AB85" si="40">IF(AND(S$6&gt;=$N76,S$6&lt;$N76+$O76), 1, IF(AND(S$6&gt;=$H76,S$6&lt;$H76+$I76), 2, 0))</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB76" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" ref="AC76:AL85" si="41">IF(AND(AC$6&gt;=$N76,AC$6&lt;$N76+$O76), 1, IF(AND(AC$6&gt;=$H76,AC$6&lt;$H76+$I76), 2, 0))</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AD76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AE76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AF76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AG76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AH76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AI76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AK76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL76" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AM76" s="16">
-        <f t="shared" ref="AM76:AV85" si="42">IF(AND(AM$6&gt;=$N76,AM$6&lt;$N76+$O76), 1, IF(AND(AM$6&gt;=$H76,AM$6&lt;$H76+$I76), 2, 0))</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AN76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AO76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AP76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AQ76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AR76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AS76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AT76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AU76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AV76" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AW76" s="16">
-        <f t="shared" ref="AW76:BF85" si="43">IF(AND(AW$6&gt;=$N76,AW$6&lt;$N76+$O76), 1, IF(AND(AW$6&gt;=$H76,AW$6&lt;$H76+$I76), 2, 0))</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AX76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AY76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AZ76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BA76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BB76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BC76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BD76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BE76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BF76" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BG76" s="16">
-        <f t="shared" ref="BG76:BH85" si="44">IF(AND(BG$6&gt;=$N76,BG$6&lt;$N76+$O76), 1, IF(AND(BG$6&gt;=$H76,BG$6&lt;$H76+$I76), 2, 0))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BH76" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -18239,7 +18315,7 @@
       <c r="Q77" s="14"/>
       <c r="R77" s="14"/>
       <c r="S77" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="S77:AB86" si="40">IF(AND(S$6&gt;=$N77,S$6&lt;$N77+$O77), 1, IF(AND(S$6&gt;=$H77,S$6&lt;$H77+$I77), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T77" s="16">
@@ -18279,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AC77:AL86" si="41">IF(AND(AC$6&gt;=$N77,AC$6&lt;$N77+$O77), 1, IF(AND(AC$6&gt;=$H77,AC$6&lt;$H77+$I77), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD77" s="16">
@@ -18319,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="AM77" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AM77:AV86" si="42">IF(AND(AM$6&gt;=$N77,AM$6&lt;$N77+$O77), 1, IF(AND(AM$6&gt;=$H77,AM$6&lt;$H77+$I77), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN77" s="16">
@@ -18359,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="AW77" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="AW77:BF86" si="43">IF(AND(AW$6&gt;=$N77,AW$6&lt;$N77+$O77), 1, IF(AND(AW$6&gt;=$H77,AW$6&lt;$H77+$I77), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX77" s="16">
@@ -18399,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="BG77" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="BG77:BH86" si="44">IF(AND(BG$6&gt;=$N77,BG$6&lt;$N77+$O77), 1, IF(AND(BG$6&gt;=$H77,BG$6&lt;$H77+$I77), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH77" s="16">
@@ -20012,171 +20088,171 @@
       <c r="Q86" s="14"/>
       <c r="R86" s="14"/>
       <c r="S86" s="16">
-        <f t="shared" ref="S86:AB95" si="45">IF(AND(S$6&gt;=$N86,S$6&lt;$N86+$O86), 1, IF(AND(S$6&gt;=$H86,S$6&lt;$H86+$I86), 2, 0))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AA86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AB86" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" ref="AC86:AL95" si="46">IF(AND(AC$6&gt;=$N86,AC$6&lt;$N86+$O86), 1, IF(AND(AC$6&gt;=$H86,AC$6&lt;$H86+$I86), 2, 0))</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AD86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AE86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AF86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AG86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AH86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AI86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AJ86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AK86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AL86" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AM86" s="16">
-        <f t="shared" ref="AM86:AV95" si="47">IF(AND(AM$6&gt;=$N86,AM$6&lt;$N86+$O86), 1, IF(AND(AM$6&gt;=$H86,AM$6&lt;$H86+$I86), 2, 0))</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AO86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AP86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AQ86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AR86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AU86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AV86" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AW86" s="16">
-        <f t="shared" ref="AW86:BF95" si="48">IF(AND(AW$6&gt;=$N86,AW$6&lt;$N86+$O86), 1, IF(AND(AW$6&gt;=$H86,AW$6&lt;$H86+$I86), 2, 0))</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AX86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AY86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AZ86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BA86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BB86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BC86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BD86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BE86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF86" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BG86" s="16">
-        <f t="shared" ref="BG86:BH95" si="49">IF(AND(BG$6&gt;=$N86,BG$6&lt;$N86+$O86), 1, IF(AND(BG$6&gt;=$H86,BG$6&lt;$H86+$I86), 2, 0))</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="BH86" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -20209,7 +20285,7 @@
       <c r="Q87" s="14"/>
       <c r="R87" s="14"/>
       <c r="S87" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="S87:AB96" si="45">IF(AND(S$6&gt;=$N87,S$6&lt;$N87+$O87), 1, IF(AND(S$6&gt;=$H87,S$6&lt;$H87+$I87), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T87" s="16">
@@ -20249,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AC87:AL96" si="46">IF(AND(AC$6&gt;=$N87,AC$6&lt;$N87+$O87), 1, IF(AND(AC$6&gt;=$H87,AC$6&lt;$H87+$I87), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD87" s="16">
@@ -20289,7 +20365,7 @@
         <v>0</v>
       </c>
       <c r="AM87" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AM87:AV96" si="47">IF(AND(AM$6&gt;=$N87,AM$6&lt;$N87+$O87), 1, IF(AND(AM$6&gt;=$H87,AM$6&lt;$H87+$I87), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN87" s="16">
@@ -20329,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AW87" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="AW87:BF96" si="48">IF(AND(AW$6&gt;=$N87,AW$6&lt;$N87+$O87), 1, IF(AND(AW$6&gt;=$H87,AW$6&lt;$H87+$I87), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX87" s="16">
@@ -20369,7 +20445,7 @@
         <v>0</v>
       </c>
       <c r="BG87" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="BG87:BH96" si="49">IF(AND(BG$6&gt;=$N87,BG$6&lt;$N87+$O87), 1, IF(AND(BG$6&gt;=$H87,BG$6&lt;$H87+$I87), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH87" s="16">
@@ -21176,7 +21252,7 @@
       <c r="H92" s="15"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15">
-        <f t="shared" ref="J92:J119" si="50">H92 +I92</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K92" s="14"/>
@@ -21188,7 +21264,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="17"/>
       <c r="P92" s="15">
-        <f t="shared" ref="P92:P119" si="51">N92+O92</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q92" s="14"/>
@@ -21373,7 +21449,7 @@
       <c r="H93" s="15"/>
       <c r="I93" s="14"/>
       <c r="J93" s="15">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="J93:J120" si="50">H93 +I93</f>
         <v>0</v>
       </c>
       <c r="K93" s="14"/>
@@ -21385,7 +21461,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="17"/>
       <c r="P93" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="P93:P120" si="51">N93+O93</f>
         <v>0</v>
       </c>
       <c r="Q93" s="14"/>
@@ -21982,171 +22058,171 @@
       <c r="Q96" s="14"/>
       <c r="R96" s="14"/>
       <c r="S96" s="16">
-        <f t="shared" ref="S96:AB105" si="52">IF(AND(S$6&gt;=$N96,S$6&lt;$N96+$O96), 1, IF(AND(S$6&gt;=$H96,S$6&lt;$H96+$I96), 2, 0))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Y96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="Z96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AA96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AB96" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AC96" s="16">
-        <f t="shared" ref="AC96:AL105" si="53">IF(AND(AC$6&gt;=$N96,AC$6&lt;$N96+$O96), 1, IF(AND(AC$6&gt;=$H96,AC$6&lt;$H96+$I96), 2, 0))</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AD96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AE96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AG96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AH96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AJ96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AK96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AL96" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AM96" s="16">
-        <f t="shared" ref="AM96:AV105" si="54">IF(AND(AM$6&gt;=$N96,AM$6&lt;$N96+$O96), 1, IF(AND(AM$6&gt;=$H96,AM$6&lt;$H96+$I96), 2, 0))</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AN96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AO96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AP96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AQ96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AR96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AS96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AT96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AU96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AV96" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AW96" s="16">
-        <f t="shared" ref="AW96:BF105" si="55">IF(AND(AW$6&gt;=$N96,AW$6&lt;$N96+$O96), 1, IF(AND(AW$6&gt;=$H96,AW$6&lt;$H96+$I96), 2, 0))</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AX96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AZ96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BA96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BB96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BC96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BD96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BE96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF96" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BG96" s="16">
-        <f t="shared" ref="BG96:BH105" si="56">IF(AND(BG$6&gt;=$N96,BG$6&lt;$N96+$O96), 1, IF(AND(BG$6&gt;=$H96,BG$6&lt;$H96+$I96), 2, 0))</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BH96" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -22179,7 +22255,7 @@
       <c r="Q97" s="14"/>
       <c r="R97" s="14"/>
       <c r="S97" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="S97:AB106" si="52">IF(AND(S$6&gt;=$N97,S$6&lt;$N97+$O97), 1, IF(AND(S$6&gt;=$H97,S$6&lt;$H97+$I97), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T97" s="16">
@@ -22219,7 +22295,7 @@
         <v>0</v>
       </c>
       <c r="AC97" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="AC97:AL106" si="53">IF(AND(AC$6&gt;=$N97,AC$6&lt;$N97+$O97), 1, IF(AND(AC$6&gt;=$H97,AC$6&lt;$H97+$I97), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD97" s="16">
@@ -22259,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="AM97" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="AM97:AV106" si="54">IF(AND(AM$6&gt;=$N97,AM$6&lt;$N97+$O97), 1, IF(AND(AM$6&gt;=$H97,AM$6&lt;$H97+$I97), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN97" s="16">
@@ -22299,7 +22375,7 @@
         <v>0</v>
       </c>
       <c r="AW97" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="AW97:BF106" si="55">IF(AND(AW$6&gt;=$N97,AW$6&lt;$N97+$O97), 1, IF(AND(AW$6&gt;=$H97,AW$6&lt;$H97+$I97), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX97" s="16">
@@ -22339,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="BG97" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="BG97:BH106" si="56">IF(AND(BG$6&gt;=$N97,BG$6&lt;$N97+$O97), 1, IF(AND(BG$6&gt;=$H97,BG$6&lt;$H97+$I97), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH97" s="16">
@@ -23952,171 +24028,171 @@
       <c r="Q106" s="14"/>
       <c r="R106" s="14"/>
       <c r="S106" s="16">
-        <f t="shared" ref="S106:AB119" si="57">IF(AND(S$6&gt;=$N106,S$6&lt;$N106+$O106), 1, IF(AND(S$6&gt;=$H106,S$6&lt;$H106+$I106), 2, 0))</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Y106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AA106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AB106" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AC106" s="16">
-        <f t="shared" ref="AC106:AL119" si="58">IF(AND(AC$6&gt;=$N106,AC$6&lt;$N106+$O106), 1, IF(AND(AC$6&gt;=$H106,AC$6&lt;$H106+$I106), 2, 0))</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AD106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AE106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AF106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AG106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AH106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AI106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AJ106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AK106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AL106" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AM106" s="16">
-        <f t="shared" ref="AM106:AV119" si="59">IF(AND(AM$6&gt;=$N106,AM$6&lt;$N106+$O106), 1, IF(AND(AM$6&gt;=$H106,AM$6&lt;$H106+$I106), 2, 0))</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AN106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AO106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AP106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AQ106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AR106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AS106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AT106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AU106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AV106" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AW106" s="16">
-        <f t="shared" ref="AW106:BF119" si="60">IF(AND(AW$6&gt;=$N106,AW$6&lt;$N106+$O106), 1, IF(AND(AW$6&gt;=$H106,AW$6&lt;$H106+$I106), 2, 0))</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AX106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AY106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AZ106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BA106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BB106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BC106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BD106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BE106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF106" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BG106" s="16">
-        <f t="shared" ref="BG106:BH119" si="61">IF(AND(BG$6&gt;=$N106,BG$6&lt;$N106+$O106), 1, IF(AND(BG$6&gt;=$H106,BG$6&lt;$H106+$I106), 2, 0))</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="BH106" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
@@ -24149,7 +24225,7 @@
       <c r="Q107" s="14"/>
       <c r="R107" s="14"/>
       <c r="S107" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="S107:AB120" si="57">IF(AND(S$6&gt;=$N107,S$6&lt;$N107+$O107), 1, IF(AND(S$6&gt;=$H107,S$6&lt;$H107+$I107), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T107" s="16">
@@ -24189,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="AC107" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="AC107:AL120" si="58">IF(AND(AC$6&gt;=$N107,AC$6&lt;$N107+$O107), 1, IF(AND(AC$6&gt;=$H107,AC$6&lt;$H107+$I107), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD107" s="16">
@@ -24229,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="AM107" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="AM107:AV120" si="59">IF(AND(AM$6&gt;=$N107,AM$6&lt;$N107+$O107), 1, IF(AND(AM$6&gt;=$H107,AM$6&lt;$H107+$I107), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AN107" s="16">
@@ -24269,7 +24345,7 @@
         <v>0</v>
       </c>
       <c r="AW107" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="AW107:BF120" si="60">IF(AND(AW$6&gt;=$N107,AW$6&lt;$N107+$O107), 1, IF(AND(AW$6&gt;=$H107,AW$6&lt;$H107+$I107), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX107" s="16">
@@ -24309,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="BG107" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="BG107:BH120" si="61">IF(AND(BG$6&gt;=$N107,BG$6&lt;$N107+$O107), 1, IF(AND(BG$6&gt;=$H107,BG$6&lt;$H107+$I107), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH107" s="16">
@@ -26498,6 +26574,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="K119" s="14"/>
       <c r="L119" s="14" t="e">
         <f>LOOKUP(K119,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
         <v>#N/A</v>
@@ -26680,16 +26757,204 @@
         <v>0</v>
       </c>
     </row>
+    <row r="120" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="14"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="14" t="e">
+        <f>LOOKUP(K120,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="15">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="14"/>
+      <c r="R120" s="14"/>
+      <c r="S120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="T120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="V120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="X120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Y120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Z120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AA120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB120" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="AC120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AD120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AE120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AF120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AG120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AH120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AI120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AK120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AL120" s="16">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AM120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AN120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AO120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AP120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AQ120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AR120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AS120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AT120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AU120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AV120" s="16">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AW120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AX120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AY120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AZ120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BA120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BB120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BC120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BD120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BE120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BF120" s="16">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BG120" s="16">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BH120" s="16">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -26706,13 +26971,21 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L10:P11 L8:BH9 R10:BH11 A18 A24:A25 A37:A39 D27:F27 A47 H41:J47 L49:BH52 A56:A119 D56:J119 D52:F52 H49:J50 D51:J51 H52:J52 L54:BH119 D54:F55 H54:J55 D8:J18 H27:J28 D35:J40 E28:F28 L12:BH18 H31:J34 D31:F34 L31:BH47 E30 L21:BH25 D21:J25 L27:BH27 D41:F47 D49:F50 L28:P28 R28:BH28">
+  <conditionalFormatting sqref="A11:A14 L8:BH9 R10:BH11 A18 A24:A25 A37:A39 D27:F27 A48 L50:BH53 A57:A120 D57:J120 D53:F53 H50:J51 D52:J52 H53:J53 L55:BH120 D55:F56 H55:J56 H27:J28 D35:J40 E28:F28 L12:BH18 H31:J34 D31:F34 E30 L22:BH25 D21:J25 L27:BH27 D41:F48 D50:F51 L28:P28 R28:BH28 D8:J18 L10:P11 L21:O21 Q21:BH21 L31:BH48 H41:J48">
     <cfRule type="expression" dxfId="223" priority="130" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S49:BH52 S54:BH119 S21:BH25 S27:BH47">
+  <conditionalFormatting sqref="S8:BH18 S50:BH53 S55:BH120 S21:BH25 S27:BH48">
     <cfRule type="expression" dxfId="222" priority="128">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -26720,7 +26993,7 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S29:BH29 S33:BH47 S49:BH52 S54:BH119 S21:BH25">
+  <conditionalFormatting sqref="S8:BH18 S29:BH29 S33:BH48 S50:BH53 S55:BH120 S21:BH25">
     <cfRule type="expression" dxfId="220" priority="133" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
@@ -26730,22 +27003,22 @@
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S49:BH52 S54:BH119 S21:BH25 S27:BH47">
+  <conditionalFormatting sqref="S8:BH18 S50:BH53 S55:BH120 S21:BH25 S27:BH48">
     <cfRule type="cellIs" dxfId="218" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S49:BH52 S54:BH119 S21:BH25 S27:BH47">
+  <conditionalFormatting sqref="S8:BH18 S50:BH53 S55:BH120 S21:BH25 S27:BH48">
     <cfRule type="cellIs" dxfId="217" priority="141" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:BH18 S49:BH52 S54:BH119 S21:BH25 S27:BH47">
+  <conditionalFormatting sqref="S8:BH18 S50:BH53 S55:BH120 S21:BH25 S27:BH48">
     <cfRule type="cellIs" dxfId="216" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B49:C52 B54:C119 B13:C17 B25:C25 B21:C22 B18 B21:B24 B27:C47">
+  <conditionalFormatting sqref="B11:C11 B50:C53 B55:C120 B13:C17 B25:C25 B21:C22 B18 B21:B24 B27:C48">
     <cfRule type="containsText" dxfId="215" priority="118" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
@@ -26762,7 +27035,7 @@
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10 K41:K42 K49:K52 K54:K118 K13:K14 K17 L29:BH29 F29:J29 D29 K24:K25 K37 K44 K47">
+  <conditionalFormatting sqref="Q10 K41:K42 K50:K53 K55:K119 K13:K14 K17 L29:BH29 F29:J29 D29 K24:K25 K37 K45 K48">
     <cfRule type="expression" dxfId="210" priority="145" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
@@ -26806,7 +27079,7 @@
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12 K15:K16 K38:K39 K45:K46">
+  <conditionalFormatting sqref="K11:K12 K15:K16 K38:K39 K46:K47">
     <cfRule type="expression" dxfId="198" priority="148" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
@@ -26831,7 +27104,7 @@
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G45:G46 L30:BH30 F30:J30 D30">
+  <conditionalFormatting sqref="G28 G46:G47 L30:BH30 F30:J30 D30">
     <cfRule type="expression" dxfId="193" priority="157" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
@@ -26861,7 +27134,7 @@
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43 G47">
+  <conditionalFormatting sqref="G43 G48">
     <cfRule type="expression" dxfId="187" priority="103" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A43)=1</formula>
     </cfRule>
@@ -26871,22 +27144,22 @@
       <formula>SEARCH("SPACER",$A41)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41 G44">
+  <conditionalFormatting sqref="G41 G44:G45">
     <cfRule type="expression" dxfId="185" priority="101" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40 K43">
+  <conditionalFormatting sqref="K40 K43:K44">
     <cfRule type="expression" dxfId="184" priority="196" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48 D48:J48 L48:BH48">
+  <conditionalFormatting sqref="A49 D49:J49 L49:BH49">
     <cfRule type="expression" dxfId="183" priority="95" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A48)=1</formula>
+      <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
+  <conditionalFormatting sqref="S49:BH49">
     <cfRule type="expression" dxfId="182" priority="93">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -26894,69 +27167,69 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
+  <conditionalFormatting sqref="S49:BH49">
     <cfRule type="expression" dxfId="180" priority="96" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G48)=1</formula>
+      <formula>SEARCH("SPACER",$G49)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
+  <conditionalFormatting sqref="S49:BH49">
     <cfRule type="cellIs" dxfId="179" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
+  <conditionalFormatting sqref="S49:BH49">
     <cfRule type="cellIs" dxfId="178" priority="98" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48:BH48">
+  <conditionalFormatting sqref="S49:BH49">
     <cfRule type="cellIs" dxfId="177" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:C48">
+  <conditionalFormatting sqref="B49:C49">
     <cfRule type="containsText" dxfId="176" priority="88" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="175" priority="89" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Code",B49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="174" priority="90" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Audio",B49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="173" priority="91" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Level",B49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="172" priority="92" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Art",B49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="K49">
     <cfRule type="expression" dxfId="171" priority="100" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A49)=1</formula>
+      <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G50">
     <cfRule type="expression" dxfId="170" priority="87" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="G51">
     <cfRule type="expression" dxfId="169" priority="86" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A50)=1</formula>
+      <formula>SEARCH("SPACER",$A51)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
+  <conditionalFormatting sqref="G53">
     <cfRule type="expression" dxfId="168" priority="85" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A52)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53 D53:J53 L53:BH53">
-    <cfRule type="expression" dxfId="167" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A53)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S53:BH53">
+  <conditionalFormatting sqref="A54 D54:J54 L54:BH54">
+    <cfRule type="expression" dxfId="167" priority="79" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A54)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S54:BH54">
     <cfRule type="expression" dxfId="166" priority="77">
       <formula>S$6=TODAY()</formula>
     </cfRule>
@@ -26964,56 +27237,56 @@
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S53:BH53">
+  <conditionalFormatting sqref="S54:BH54">
     <cfRule type="expression" dxfId="164" priority="80" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$G53)=1</formula>
+      <formula>SEARCH("SPACER",$G54)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S53:BH53">
+  <conditionalFormatting sqref="S54:BH54">
     <cfRule type="cellIs" dxfId="163" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S53:BH53">
+  <conditionalFormatting sqref="S54:BH54">
     <cfRule type="cellIs" dxfId="162" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S53:BH53">
+  <conditionalFormatting sqref="S54:BH54">
     <cfRule type="cellIs" dxfId="161" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:C53">
+  <conditionalFormatting sqref="B54:C54">
     <cfRule type="containsText" dxfId="160" priority="72" operator="containsText" text="Bug Fix">
-      <formula>NOT(ISERROR(SEARCH("Bug Fix",B53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bug Fix",B54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="159" priority="73" operator="containsText" text="Code">
-      <formula>NOT(ISERROR(SEARCH("Code",B53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Code",B54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="158" priority="74" operator="containsText" text="Audio">
-      <formula>NOT(ISERROR(SEARCH("Audio",B53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Audio",B54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="157" priority="75" operator="containsText" text="Level">
-      <formula>NOT(ISERROR(SEARCH("Level",B53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Level",B54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="156" priority="76" operator="containsText" text="Art">
-      <formula>NOT(ISERROR(SEARCH("Art",B53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Art",B54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
+  <conditionalFormatting sqref="K54">
     <cfRule type="expression" dxfId="155" priority="84" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A54)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="154" priority="71" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A54)=1</formula>
+      <formula>SEARCH("SPACER",$A55)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
+    <cfRule type="expression" dxfId="154" priority="71" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A55)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
     <cfRule type="expression" dxfId="153" priority="70" stopIfTrue="1">
-      <formula>SEARCH("SPACER",$A55)=1</formula>
+      <formula>SEARCH("SPACER",$A56)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
@@ -27135,7 +27408,7 @@
       <formula>SEARCH("SPACER",$A25)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:J20 L20:BH20">
+  <conditionalFormatting sqref="D20:J20 L20:BH20 P21">
     <cfRule type="expression" dxfId="123" priority="37" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A20)=1</formula>
     </cfRule>
@@ -27294,31 +27567,31 @@
           <x14:formula1>
             <xm:f>TaskTypes!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:B18 B21:B25 B27:B114</xm:sqref>
+          <xm:sqref>B8:B18 B21:B25 B27:B115</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>TaskGrading!$A$4:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K8:K18 K21:K25 K27:K118</xm:sqref>
+          <xm:sqref>K8:K18 K21:K25 K27:K119</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>TaskStatus!$A$6:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>R8:R18 R21:R25 R27:R119</xm:sqref>
+          <xm:sqref>R8:R18 R21:R25 R27:R120</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AF4FB63-5986-4C21-AFB9-6703D4D46921}">
           <x14:formula1>
             <xm:f>Priorities!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C21:C22 C8:C17 C25 C27:C119</xm:sqref>
+          <xm:sqref>C21:C22 C8:C17 C25 C27:C120</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Main!$A$9:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G8:G18 G21:G25 G27:G119</xm:sqref>
+          <xm:sqref>G8:G18 G21:G25 G27:G120</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raidzer\Documents\GitHub\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHubRepository\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CB854E-72F2-491A-8F7F-44385E02FF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB987C85-CBAB-4916-A3F2-B11B0CFF02D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="220">
   <si>
     <t>TASK</t>
   </si>
@@ -457,9 +457,6 @@
     <t xml:space="preserve">Story progression </t>
   </si>
   <si>
-    <t>Skill System/Tree</t>
-  </si>
-  <si>
     <t>1st Weapon skills feature</t>
   </si>
   <si>
@@ -500,9 +497,6 @@
   </si>
   <si>
     <t>Player Character customisation</t>
-  </si>
-  <si>
-    <t>Shop System</t>
   </si>
   <si>
     <t>Save System</t>
@@ -991,12 +985,6 @@
     <t>draw the sprite for the archer weapon and animation for the archer's attack</t>
   </si>
   <si>
-    <t xml:space="preserve">lets the players enchance the stats of the knight and mage, and max hp, etc . Make Menu Ui for skill Tree that involes changing gamestates, intergrate with exp and drops </t>
-  </si>
-  <si>
-    <t>lets the players buy the additional  perks to enhance skill and modify the game, etc . Make Menu Ui for shop  that involes changing gamestates, intergrate with and gold drops.</t>
-  </si>
-  <si>
     <t xml:space="preserve">rendering </t>
   </si>
   <si>
@@ -1028,6 +1016,18 @@
   </si>
   <si>
     <t>sound effects, trigggered when collision or something on  screen happen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill System/Tree and Menus Ui </t>
+  </si>
+  <si>
+    <t>lets the players enchance the stats of the knight and mage, and max hp, etc . Make Menu Ui for skill Tree that involes changing gamestates, intergrate with exp and drops. Display amount of exp and money the  player has accumutaed. Make a working shop that will deduct gold and unlock certain game features. Make art for menu with working buttons to navigate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lets the players buy the additional  perks to enhance skill and modify the game, etc . Make Menu Ui for shop  that involes changing gamestates, intergrate with and gold drops, extra skills, extra lives and double drop chance </t>
+  </si>
+  <si>
+    <t>Shop System with Art</t>
   </si>
 </sst>
 </file>
@@ -1792,28 +1792,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1822,10 +1801,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1835,7 +1835,26 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="241">
+  <dxfs count="243">
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode=";;;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1877,6 +1896,94 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3589,6 +3696,27 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3608,118 +3736,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3819,7 +3835,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}" name="Table1" displayName="Table1" ref="A8:R16" totalsRowShown="0" headerRowDxfId="239">
   <autoFilter ref="A8:R16" xr:uid="{74B39E37-C695-4FB4-9659-696DC3C4B7D6}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{3AB7DF63-F3E2-46EA-867C-B10FAF5F8283}" name="Student Name"/>
@@ -3829,16 +3845,16 @@
     <tableColumn id="5" xr3:uid="{2BA79B57-539F-46E5-965A-5E7716ACBE1C}" name="In Progress"/>
     <tableColumn id="6" xr3:uid="{2710B94F-2F91-48AC-8457-97A764EF4BC7}" name="Not Started"/>
     <tableColumn id="7" xr3:uid="{493E51FB-9F1A-4B86-B51A-0A9F697471BC}" name="Total Workload "/>
-    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="239"/>
-    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="238"/>
+    <tableColumn id="8" xr3:uid="{B5D3A34D-58ED-4437-86C3-EDEF21DC68ED}" name="Planned Code %" dataDxfId="238"/>
+    <tableColumn id="9" xr3:uid="{91977D25-FF71-40D1-8F42-2C68A990D6AF}" name="Workload" dataDxfId="237"/>
     <tableColumn id="10" xr3:uid="{20ECF3E5-B447-40AE-82D9-F1DAECBAD66F}" name="Remaining"/>
-    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="237"/>
+    <tableColumn id="11" xr3:uid="{86055431-90BE-4435-8CF6-21581B8D435B}" name="Workload2" dataDxfId="236"/>
     <tableColumn id="12" xr3:uid="{5AA91C7C-8A0B-454F-BB15-D1BB545F0BE4}" name="Remaining3"/>
-    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="236"/>
+    <tableColumn id="13" xr3:uid="{55A241A8-0143-4DEA-8DFD-95E60EC7AFD6}" name="Workload4" dataDxfId="235"/>
     <tableColumn id="14" xr3:uid="{B367E59C-5FB9-479C-A7F3-B1C7AE02BA4A}" name="Remaining5"/>
-    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="235"/>
+    <tableColumn id="15" xr3:uid="{57F47D13-B340-4FE1-8235-443CABD5B1EA}" name="Workload6" dataDxfId="234"/>
     <tableColumn id="16" xr3:uid="{DF492611-AC03-4727-883A-97854465FDAE}" name="Remaining7"/>
-    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="234"/>
+    <tableColumn id="17" xr3:uid="{9A20AE32-79C9-4662-A53C-09867FD35D7D}" name="Workload8" dataDxfId="233"/>
     <tableColumn id="18" xr3:uid="{67CDA12C-F1E4-40F4-B6AC-BDC17A0B0B8D}" name="Remaining9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3857,11 +3873,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="233" headerRowBorderDxfId="232" tableBorderDxfId="231" totalsRowBorderDxfId="230">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}" name="Table4" displayName="Table4" ref="A5:B8" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A5:B8" xr:uid="{C73C9A4E-E4B8-40B0-BB86-7BA7DB9B8E56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="229"/>
-    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="228"/>
+    <tableColumn id="1" xr3:uid="{72CD6C81-E3FF-479B-8443-C59651900B72}" name="Status" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B1C91A3B-EB58-4009-B130-F6CBDA1769C2}" name="Description" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3872,7 +3888,7 @@
   <autoFilter ref="A1:B4" xr:uid="{DECAA8B5-6330-451B-9562-5424BBB00F80}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D55844DA-51EF-4755-A498-8AFCDF33F45D}" name="Colour"/>
-    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="227"/>
+    <tableColumn id="2" xr3:uid="{B0848137-1086-4330-AA22-48E2FA796BAF}" name="Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4181,44 +4197,44 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="17" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4230,7 +4246,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -4242,7 +4258,7 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
@@ -4252,7 +4268,7 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="88" t="s">
@@ -4287,7 +4303,7 @@
       </c>
       <c r="R7" s="88"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -4343,7 +4359,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>99</v>
       </c>
@@ -4358,7 +4374,7 @@
       </c>
       <c r="E9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$7)</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A9, GANTT!R:R,TaskStatus!$A$6)</f>
@@ -4366,11 +4382,11 @@
       </c>
       <c r="G9">
         <f>SUM(D9:F9)</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H9" s="38">
         <f>(SUMIFS(GANTT!F:F,GANTT!G:G,Main!$A9,GANTT!B:B,TaskTypes!$A$5)/$G9)</f>
-        <v>0.97142857142857142</v>
+        <v>1.3076923076923077</v>
       </c>
       <c r="I9" s="44">
         <v>10</v>
@@ -4391,24 +4407,24 @@
       </c>
       <c r="N9">
         <f>M9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$M$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="O9" s="44">
         <v>10</v>
       </c>
       <c r="P9">
         <f>O9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="Q9" s="44">
         <v>10</v>
       </c>
       <c r="R9">
         <f>Q9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>102</v>
       </c>
@@ -4473,7 +4489,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>103</v>
       </c>
@@ -4538,7 +4554,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>101</v>
       </c>
@@ -4603,7 +4619,7 @@
         <v>-11.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>105</v>
       </c>
@@ -4668,7 +4684,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A14, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4730,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15">
         <f>SUMIFS(GANTT!F:F, GANTT!G:G, Main!$A15, GANTT!R:R,TaskStatus!$A$8)</f>
         <v>0</v>
@@ -4792,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -4806,7 +4822,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -4814,7 +4830,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>154.5</v>
+        <v>145.5</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="1"/>
@@ -4842,7 +4858,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>-55.5</v>
+        <v>-56.5</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
@@ -4850,7 +4866,7 @@
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>-56.5</v>
+        <v>-57.5</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="Q16:R16" si="2">SUM(Q9:Q15)</f>
@@ -4858,13 +4874,13 @@
       </c>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>-56.5</v>
+        <v>-57.5</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="38"/>
     </row>
   </sheetData>
@@ -4877,13 +4893,13 @@
     <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="containsText" dxfId="226" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="242" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="241" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="240" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4912,38 +4928,38 @@
   <dimension ref="A1:BZ120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Q47" sqref="Q47"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.33203125" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="245.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="20.88671875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="83.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.28515625" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="245.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.85546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="54" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.7109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
-    <col min="19" max="60" width="4.109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9.109375" style="2" collapsed="1"/>
-    <col min="62" max="16384" width="9.109375" style="2"/>
+    <col min="19" max="60" width="4.140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9.140625" style="2" collapsed="1"/>
+    <col min="62" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:78" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -4956,7 +4972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4970,7 +4986,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4983,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -4992,7 +5008,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -5003,66 +5019,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="94">
+      <c r="S5" s="90">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94">
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94">
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94">
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="94">
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="94"/>
-      <c r="AZ5" s="94"/>
-      <c r="BA5" s="94"/>
-      <c r="BB5" s="98">
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="91">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
+      <c r="BC5" s="91"/>
+      <c r="BD5" s="91"/>
+      <c r="BE5" s="91"/>
+      <c r="BF5" s="91"/>
+      <c r="BG5" s="91"/>
+      <c r="BH5" s="91"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -5082,59 +5098,59 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
     </row>
-    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="90" t="s">
+    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="95" t="s">
+      <c r="N6" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P6" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="96" t="s">
+      <c r="Q6" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="92" t="s">
+      <c r="R6" s="95" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -5306,25 +5322,25 @@
         <v>44535</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="93"/>
+    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="98"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:AX7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5494,7 +5510,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>111</v>
       </c>
@@ -5508,7 +5524,7 @@
         <v>88</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F8" s="66">
         <v>10</v>
@@ -5527,9 +5543,8 @@
         <v>44496</v>
       </c>
       <c r="K8" s="69"/>
-      <c r="L8" s="69" t="e">
-        <f>LOOKUP(K8,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L8" s="69">
+        <v>5</v>
       </c>
       <c r="M8" s="69"/>
       <c r="N8" s="70">
@@ -5714,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>112</v>
       </c>
@@ -5725,10 +5740,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" s="66">
         <v>10</v>
@@ -5808,7 +5823,7 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
     </row>
-    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>113</v>
       </c>
@@ -5819,10 +5834,10 @@
         <v>75</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="66">
         <v>10</v>
@@ -5903,7 +5918,7 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>114</v>
       </c>
@@ -5917,7 +5932,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="66">
         <v>10</v>
@@ -6124,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>116</v>
       </c>
@@ -6138,7 +6153,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F12" s="66">
         <v>10</v>
@@ -6218,7 +6233,7 @@
       <c r="BG12" s="16"/>
       <c r="BH12" s="16"/>
     </row>
-    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>115</v>
       </c>
@@ -6229,10 +6244,10 @@
         <v>75</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="66">
         <v>10</v>
@@ -6443,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>6</v>
       </c>
@@ -6652,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>117</v>
       </c>
@@ -6663,10 +6678,10 @@
         <v>75</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F15" s="66">
         <v>10</v>
@@ -6693,13 +6708,13 @@
         <v>44503</v>
       </c>
       <c r="O15" s="76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P15" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q15" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R15" s="74" t="s">
         <v>57</v>
@@ -6873,9 +6888,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:78" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>22</v>
@@ -6887,7 +6902,7 @@
         <v>89</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="74" t="s">
@@ -6908,12 +6923,20 @@
         <v>10</v>
       </c>
       <c r="M16" s="74"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="74"/>
+      <c r="N16" s="75">
+        <v>44510</v>
+      </c>
+      <c r="O16" s="76">
+        <v>7</v>
+      </c>
+      <c r="P16" s="75">
+        <v>44517</v>
+      </c>
+      <c r="Q16" s="74">
+        <v>10</v>
+      </c>
       <c r="R16" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" si="8"/>
@@ -6978,31 +7001,31 @@
       </c>
       <c r="AI16" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="16">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="16">
         <f t="shared" si="10"/>
@@ -7081,9 +7104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>21</v>
@@ -7095,7 +7118,7 @@
         <v>89</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F17" s="66">
         <v>15</v>
@@ -7129,7 +7152,7 @@
         <v>44502</v>
       </c>
       <c r="Q17" s="74">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R17" s="74" t="s">
         <v>57</v>
@@ -7303,21 +7326,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D18" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F18" s="66">
         <v>10</v>
@@ -7525,12 +7548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="85" t="s">
         <v>75</v>
@@ -7539,7 +7562,7 @@
         <v>89</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F19" s="66"/>
       <c r="G19" s="74" t="s">
@@ -7744,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>118</v>
       </c>
@@ -7752,13 +7775,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F20" s="66">
         <v>10</v>
@@ -7965,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
         <v>119</v>
       </c>
@@ -7979,7 +8002,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F21" s="66">
         <v>10</v>
@@ -8060,7 +8083,7 @@
       <c r="BG21" s="16"/>
       <c r="BH21" s="16"/>
     </row>
-    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>120</v>
       </c>
@@ -8071,10 +8094,10 @@
         <v>75</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F22" s="66">
         <v>5</v>
@@ -8098,16 +8121,16 @@
       </c>
       <c r="M22" s="74"/>
       <c r="N22" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O22" s="76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P22" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R22" s="74" t="s">
         <v>57</v>
@@ -8155,7 +8178,7 @@
       <c r="BG22" s="16"/>
       <c r="BH22" s="16"/>
     </row>
-    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="59" t="s">
         <v>121</v>
       </c>
@@ -8163,13 +8186,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F23" s="66">
         <v>10</v>
@@ -8193,16 +8216,16 @@
       </c>
       <c r="M23" s="74"/>
       <c r="N23" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O23" s="76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P23" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R23" s="74" t="s">
         <v>57</v>
@@ -8250,21 +8273,21 @@
       <c r="BG23" s="16"/>
       <c r="BH23" s="16"/>
     </row>
-    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="82" t="s">
-        <v>173</v>
-      </c>
       <c r="E24" s="53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F24" s="66">
         <v>10</v>
@@ -8471,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
         <v>6</v>
       </c>
@@ -8670,12 +8693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:60" s="86" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="65" t="s">
         <v>122</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>75</v>
@@ -8684,7 +8707,7 @@
         <v>89</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F26" s="66">
         <v>0.5</v>
@@ -8892,9 +8915,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>21</v>
@@ -8903,10 +8926,10 @@
         <v>78</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F27" s="66">
         <v>1</v>
@@ -8932,190 +8955,190 @@
       <c r="N27" s="75">
         <v>44512</v>
       </c>
-      <c r="O27" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="P27" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q27" s="75" t="s">
-        <v>190</v>
+      <c r="O27" s="74">
+        <v>4</v>
+      </c>
+      <c r="P27" s="75">
+        <v>44521</v>
+      </c>
+      <c r="Q27" s="74">
+        <v>25</v>
       </c>
       <c r="R27" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="S27" s="16" t="e">
+        <v>58</v>
+      </c>
+      <c r="S27" s="16">
         <f t="shared" ref="S27:AB45" si="18">IF(AND(S$6&gt;=$N27,S$6&lt;$N27+$O27), 1, IF(AND(S$6&gt;=$H27,S$6&lt;$H27+$I27), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="T27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="W27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="X27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="16">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="16">
         <f t="shared" ref="AC27:AL45" si="19">IF(AND(AC$6&gt;=$N27,AC$6&lt;$N27+$O27), 1, IF(AND(AC$6&gt;=$H27,AC$6&lt;$H27+$I27), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL27" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="16">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM27" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="16">
         <f t="shared" ref="AM27:AV45" si="20">IF(AND(AM$6&gt;=$N27,AM$6&lt;$N27+$O27), 1, IF(AND(AM$6&gt;=$H27,AM$6&lt;$H27+$I27), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN27" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO27" s="16" t="e">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="16">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="16">
         <f t="shared" ref="AW27:BF45" si="21">IF(AND(AW$6&gt;=$N27,AW$6&lt;$N27+$O27), 1, IF(AND(AW$6&gt;=$H27,AW$6&lt;$H27+$I27), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="16">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="16">
         <f t="shared" ref="BG27:BH45" si="22">IF(AND(BG$6&gt;=$N27,BG$6&lt;$N27+$O27), 1, IF(AND(BG$6&gt;=$H27,BG$6&lt;$H27+$I27), 2, 0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH27" s="16" t="e">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="16">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>21</v>
@@ -9127,7 +9150,7 @@
         <v>89</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F28" s="66"/>
       <c r="G28" s="74" t="s">
@@ -9331,9 +9354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>21</v>
@@ -9342,10 +9365,10 @@
         <v>77</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F29" s="66">
         <v>15</v>
@@ -9552,9 +9575,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>21</v>
@@ -9563,10 +9586,10 @@
         <v>75</v>
       </c>
       <c r="D30" s="82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F30" s="66">
         <v>5</v>
@@ -9646,9 +9669,9 @@
       <c r="BG30" s="16"/>
       <c r="BH30" s="16"/>
     </row>
-    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>20</v>
@@ -9660,7 +9683,7 @@
         <v>89</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F31" s="66"/>
       <c r="G31" s="74" t="s">
@@ -9739,9 +9762,9 @@
       <c r="BG31" s="16"/>
       <c r="BH31" s="16"/>
     </row>
-    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>20</v>
@@ -9750,10 +9773,10 @@
         <v>77</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F32" s="66"/>
       <c r="G32" s="74" t="s">
@@ -9832,9 +9855,9 @@
       <c r="BG32" s="16"/>
       <c r="BH32" s="16"/>
     </row>
-    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>20</v>
@@ -9843,10 +9866,10 @@
         <v>76</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F33" s="66"/>
       <c r="G33" s="74" t="s">
@@ -9922,9 +9945,9 @@
       <c r="BG33" s="16"/>
       <c r="BH33" s="16"/>
     </row>
-    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>20</v>
@@ -9936,7 +9959,7 @@
         <v>89</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F34" s="66"/>
       <c r="G34" s="74" t="s">
@@ -10015,9 +10038,9 @@
       <c r="BG34" s="16"/>
       <c r="BH34" s="16"/>
     </row>
-    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>21</v>
@@ -10029,7 +10052,7 @@
         <v>89</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F35" s="66"/>
       <c r="G35" s="74" t="s">
@@ -10053,13 +10076,13 @@
         <v>44514</v>
       </c>
       <c r="O35" s="76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P35" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R35" s="74" t="s">
         <v>57</v>
@@ -10107,9 +10130,9 @@
       <c r="BG35" s="16"/>
       <c r="BH35" s="16"/>
     </row>
-    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="65" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>20</v>
@@ -10121,7 +10144,7 @@
         <v>89</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F36" s="66"/>
       <c r="G36" s="74" t="s">
@@ -10145,13 +10168,13 @@
         <v>44513</v>
       </c>
       <c r="O36" s="76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P36" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q36" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R36" s="74" t="s">
         <v>57</v>
@@ -10199,9 +10222,9 @@
       <c r="BG36" s="16"/>
       <c r="BH36" s="16"/>
     </row>
-    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>21</v>
@@ -10213,7 +10236,7 @@
         <v>89</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="66">
         <v>1.5</v>
@@ -10232,9 +10255,8 @@
         <v>44513</v>
       </c>
       <c r="K37" s="74"/>
-      <c r="L37" s="74" t="e">
-        <f>LOOKUP(K37,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L37" s="74">
+        <v>5</v>
       </c>
       <c r="M37" s="74"/>
       <c r="N37" s="75"/>
@@ -10416,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
         <v>6</v>
       </c>
@@ -10615,9 +10637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="87" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -10699,9 +10721,9 @@
       <c r="BG39" s="16"/>
       <c r="BH39" s="16"/>
     </row>
-    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="65" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>21</v>
@@ -10710,10 +10732,10 @@
         <v>75</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F40" s="66">
         <v>1</v>
@@ -10921,9 +10943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>20</v>
@@ -10932,10 +10954,10 @@
         <v>78</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F41" s="66">
         <v>1</v>
@@ -10954,9 +10976,8 @@
         <v>44516</v>
       </c>
       <c r="K41" s="74"/>
-      <c r="L41" s="74" t="e">
-        <f>LOOKUP(K41,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L41" s="74">
+        <v>5</v>
       </c>
       <c r="M41" s="74"/>
       <c r="N41" s="74"/>
@@ -11138,9 +11159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>20</v>
@@ -11149,10 +11170,10 @@
         <v>77</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F42" s="66">
         <v>4</v>
@@ -11171,9 +11192,8 @@
         <v>44550</v>
       </c>
       <c r="K42" s="74"/>
-      <c r="L42" s="74" t="e">
-        <f>LOOKUP(K42,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L42" s="74">
+        <v>2</v>
       </c>
       <c r="M42" s="74"/>
       <c r="N42" s="75">
@@ -11360,9 +11380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>21</v>
@@ -11389,9 +11409,8 @@
         <v>44518</v>
       </c>
       <c r="K43" s="74"/>
-      <c r="L43" s="74" t="e">
-        <f>LOOKUP(K43,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L43" s="74">
+        <v>10</v>
       </c>
       <c r="M43" s="74"/>
       <c r="N43" s="74"/>
@@ -11573,9 +11592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="65" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>21</v>
@@ -11587,7 +11606,7 @@
         <v>89</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F44" s="66"/>
       <c r="G44" s="74" t="s">
@@ -11604,7 +11623,9 @@
         <v>44525</v>
       </c>
       <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
+      <c r="L44" s="74">
+        <v>5</v>
+      </c>
       <c r="M44" s="74"/>
       <c r="N44" s="75">
         <v>44520</v>
@@ -11788,9 +11809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>19</v>
@@ -11802,7 +11823,7 @@
         <v>89</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F45" s="66">
         <v>4</v>
@@ -12010,9 +12031,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>19</v>
@@ -12024,7 +12045,7 @@
         <v>89</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F46" s="66">
         <v>4</v>
@@ -12232,9 +12253,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="65" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -12255,20 +12276,20 @@
       </c>
       <c r="K47" s="74"/>
       <c r="L47" s="74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M47" s="74"/>
       <c r="N47" s="75">
         <v>44520</v>
       </c>
       <c r="O47" s="76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P47" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q47" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R47" s="74" t="s">
         <v>57</v>
@@ -12442,9 +12463,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>21</v>
@@ -12471,19 +12492,18 @@
         <v>44519</v>
       </c>
       <c r="K48" s="74"/>
-      <c r="L48" s="74" t="e">
-        <f>LOOKUP(K48,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L48" s="74">
+        <v>5</v>
       </c>
       <c r="M48" s="74"/>
       <c r="N48" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O48" s="76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P48" s="75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q48" s="74"/>
       <c r="R48" s="74" t="s">
@@ -12658,7 +12678,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="63" t="s">
         <v>6</v>
       </c>
@@ -12857,9 +12877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="65" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>21</v>
@@ -12871,7 +12891,7 @@
         <v>89</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F50" s="66">
         <v>8</v>
@@ -12890,22 +12910,25 @@
         <v>44524</v>
       </c>
       <c r="K50" s="74"/>
-      <c r="L50" s="74" t="e">
-        <f>LOOKUP(K50,TaskGrading!$A$4:$A$7,TaskGrading!$C$4:$C$7)</f>
-        <v>#N/A</v>
+      <c r="L50" s="74">
+        <v>4</v>
       </c>
       <c r="M50" s="74"/>
       <c r="N50" s="75">
         <v>44520</v>
       </c>
-      <c r="O50" s="76"/>
+      <c r="O50" s="76">
+        <v>2</v>
+      </c>
       <c r="P50" s="75">
         <f t="shared" si="14"/>
-        <v>44520</v>
-      </c>
-      <c r="Q50" s="74"/>
+        <v>44522</v>
+      </c>
+      <c r="Q50" s="74">
+        <v>10</v>
+      </c>
       <c r="R50" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S50" s="16">
         <f t="shared" si="23"/>
@@ -13013,11 +13036,11 @@
       </c>
       <c r="AS50" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU50" s="16">
         <f t="shared" si="25"/>
@@ -13076,9 +13099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>21</v>
@@ -13289,9 +13312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>21</v>
@@ -13502,9 +13525,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>21</v>
@@ -13715,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="63" t="s">
         <v>6</v>
       </c>
@@ -13914,9 +13937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>20</v>
@@ -14127,9 +14150,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>19</v>
@@ -14340,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="61"/>
       <c r="B57" s="26" t="s">
         <v>19</v>
@@ -14543,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="26"/>
       <c r="C58" s="39"/>
@@ -14740,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="26"/>
       <c r="C59" s="39"/>
@@ -14937,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="26"/>
       <c r="C60" s="39"/>
@@ -15134,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="26"/>
       <c r="C61" s="39"/>
@@ -15331,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="26"/>
       <c r="C62" s="39"/>
@@ -15528,7 +15551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="26"/>
       <c r="C63" s="39"/>
@@ -15725,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="26"/>
       <c r="C64" s="39"/>
@@ -15922,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="26"/>
       <c r="C65" s="39"/>
@@ -16119,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="26"/>
       <c r="C66" s="39"/>
@@ -16316,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="26"/>
       <c r="C67" s="39"/>
@@ -16513,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="26"/>
       <c r="C68" s="39"/>
@@ -16710,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="26"/>
       <c r="C69" s="39"/>
@@ -16907,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="26"/>
       <c r="C70" s="39"/>
@@ -17104,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="26"/>
       <c r="C71" s="39"/>
@@ -17301,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="26"/>
       <c r="C72" s="39"/>
@@ -17498,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="26"/>
       <c r="C73" s="39"/>
@@ -17695,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="26"/>
       <c r="C74" s="39"/>
@@ -17892,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="26"/>
       <c r="C75" s="39"/>
@@ -18089,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="26"/>
       <c r="C76" s="39"/>
@@ -18286,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="26"/>
       <c r="C77" s="39"/>
@@ -18483,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="26"/>
       <c r="C78" s="39"/>
@@ -18680,7 +18703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="26"/>
       <c r="C79" s="39"/>
@@ -18877,7 +18900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="26"/>
       <c r="C80" s="39"/>
@@ -19074,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="26"/>
       <c r="C81" s="39"/>
@@ -19271,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="26"/>
       <c r="C82" s="39"/>
@@ -19468,7 +19491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="26"/>
       <c r="C83" s="39"/>
@@ -19665,7 +19688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="26"/>
       <c r="C84" s="39"/>
@@ -19862,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="26"/>
       <c r="C85" s="39"/>
@@ -20059,7 +20082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="26"/>
       <c r="C86" s="39"/>
@@ -20256,7 +20279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="26"/>
       <c r="C87" s="39"/>
@@ -20453,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="26"/>
       <c r="C88" s="39"/>
@@ -20650,7 +20673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="26"/>
       <c r="C89" s="39"/>
@@ -20847,7 +20870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="26"/>
       <c r="C90" s="39"/>
@@ -21044,7 +21067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="26"/>
       <c r="C91" s="39"/>
@@ -21241,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="26"/>
       <c r="C92" s="39"/>
@@ -21438,7 +21461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="26"/>
       <c r="C93" s="39"/>
@@ -21635,7 +21658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="26"/>
       <c r="C94" s="39"/>
@@ -21832,7 +21855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="26"/>
       <c r="C95" s="39"/>
@@ -22029,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="26"/>
       <c r="C96" s="39"/>
@@ -22226,7 +22249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="26"/>
       <c r="C97" s="39"/>
@@ -22423,7 +22446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="26"/>
       <c r="C98" s="39"/>
@@ -22620,7 +22643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="26"/>
       <c r="C99" s="39"/>
@@ -22817,7 +22840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="26"/>
       <c r="C100" s="39"/>
@@ -23014,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="26"/>
       <c r="C101" s="39"/>
@@ -23211,7 +23234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="26"/>
       <c r="C102" s="39"/>
@@ -23408,7 +23431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="26"/>
       <c r="C103" s="39"/>
@@ -23605,7 +23628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="26"/>
       <c r="C104" s="39"/>
@@ -23802,7 +23825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="26"/>
       <c r="C105" s="39"/>
@@ -23999,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="26"/>
       <c r="C106" s="39"/>
@@ -24196,7 +24219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="26"/>
       <c r="C107" s="39"/>
@@ -24393,7 +24416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="26"/>
       <c r="C108" s="39"/>
@@ -24590,7 +24613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="26"/>
       <c r="C109" s="39"/>
@@ -24787,7 +24810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="26"/>
       <c r="C110" s="39"/>
@@ -24984,7 +25007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="26"/>
       <c r="C111" s="39"/>
@@ -25181,7 +25204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="26"/>
       <c r="C112" s="39"/>
@@ -25378,7 +25401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="26"/>
       <c r="C113" s="39"/>
@@ -25575,7 +25598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
       <c r="B114" s="26"/>
       <c r="C114" s="39"/>
@@ -25772,7 +25795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
       <c r="B115" s="26"/>
       <c r="C115" s="39"/>
@@ -25969,7 +25992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="26"/>
       <c r="C116" s="39"/>
@@ -26166,7 +26189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="26"/>
       <c r="C117" s="39"/>
@@ -26363,7 +26386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
       <c r="B118" s="26"/>
       <c r="C118" s="39"/>
@@ -26560,7 +26583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
       <c r="B119" s="26"/>
       <c r="C119" s="39"/>
@@ -26757,7 +26780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:60" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
       <c r="B120" s="26"/>
       <c r="C120" s="39"/>
@@ -26955,6 +26978,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="AN5:AT5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
@@ -26971,561 +27002,563 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:A14 L8:BH9 R10:BH11 A18 A24:A25 A37:A39 D27:F27 A48 L50:BH53 A57:A120 D57:J120 D53:F53 H50:J51 D52:J52 H53:J53 L55:BH120 D55:F56 H55:J56 H27:J28 D35:J40 E28:F28 L12:BH18 H31:J34 D31:F34 E30 L22:BH25 D21:J25 L27:BH27 D41:F48 D50:F51 L28:P28 R28:BH28 D8:J18 L10:P11 L21:O21 Q21:BH21 L31:BH48 H41:J48">
-    <cfRule type="expression" dxfId="223" priority="130" stopIfTrue="1">
+  <conditionalFormatting sqref="A11:A14 R10:BH11 A18 A24:A25 A37:A39 D27:F27 A48 L50:BH53 A57:A120 D57:J120 D53:F53 H50:J51 D52:J52 H53:J53 L55:BH120 D55:F56 H55:J56 H27:J28 D35:J40 E28:F28 L12:BH18 H31:J34 D31:F34 E30 L22:BH25 D21:J25 L27:N27 D41:F48 D50:F51 L28:P28 D8:J18 L10:P11 L21:O21 Q21:BH21 L31:BH48 H41:J48 P27 R27:BH28 L8:BH9">
+    <cfRule type="expression" dxfId="232" priority="132" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S50:BH53 S55:BH120 S21:BH25 S27:BH48">
-    <cfRule type="expression" dxfId="222" priority="128">
+    <cfRule type="expression" dxfId="231" priority="130">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="129">
+    <cfRule type="expression" dxfId="230" priority="131">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S29:BH29 S33:BH48 S50:BH53 S55:BH120 S21:BH25">
-    <cfRule type="expression" dxfId="220" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="135" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15:S16">
-    <cfRule type="expression" dxfId="219" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="145" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A15)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S50:BH53 S55:BH120 S21:BH25 S27:BH48">
-    <cfRule type="cellIs" dxfId="218" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="144" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S50:BH53 S55:BH120 S21:BH25 S27:BH48">
-    <cfRule type="cellIs" dxfId="217" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:BH18 S50:BH53 S55:BH120 S21:BH25 S27:BH48">
-    <cfRule type="cellIs" dxfId="216" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B50:C53 B55:C120 B13:C17 B25:C25 B21:C22 B18 B21:B24 B27:C48">
-    <cfRule type="containsText" dxfId="215" priority="118" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="224" priority="120" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="119" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="223" priority="121" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="120" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="222" priority="122" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="121" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="221" priority="123" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="122" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="220" priority="124" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10 K41:K42 K50:K53 K55:K119 K13:K14 K17 L29:BH29 F29:J29 D29 K24:K25 K37 K45 K48">
-    <cfRule type="expression" dxfId="210" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="147" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="containsText" dxfId="209" priority="113" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="218" priority="115" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="114" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="217" priority="116" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="115" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="216" priority="117" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="116" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="215" priority="118" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="117" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="214" priority="119" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10">
-    <cfRule type="containsText" dxfId="204" priority="108" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="213" priority="110" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="109" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="212" priority="111" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="110" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="211" priority="112" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="111" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="210" priority="113" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="112" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="209" priority="114" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 K8 K22:K23">
-    <cfRule type="expression" dxfId="199" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="148" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K15:K16 K38:K39 K46:K47">
-    <cfRule type="expression" dxfId="198" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="150" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 K21 K34">
-    <cfRule type="expression" dxfId="197" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="153" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A13)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="196" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="109" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A12)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33 K35:K36">
-    <cfRule type="expression" dxfId="195" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="156" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="194" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="157" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28 G46:G47 L30:BH30 F30:J30 D30">
-    <cfRule type="expression" dxfId="193" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="159" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:BH30 S27:BH27">
-    <cfRule type="expression" dxfId="192" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="161" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G28)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:BH32 S28:BH28">
-    <cfRule type="expression" dxfId="191" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="162" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K28">
-    <cfRule type="expression" dxfId="190" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="163" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A37)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="189" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="107" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30 K32">
-    <cfRule type="expression" dxfId="188" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="167" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43 G48">
-    <cfRule type="expression" dxfId="187" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="105" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A43)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="186" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="106" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A41)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41 G44:G45">
-    <cfRule type="expression" dxfId="185" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="103" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40 K43:K44">
-    <cfRule type="expression" dxfId="184" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="198" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49 D49:J49 L49:BH49">
-    <cfRule type="expression" dxfId="183" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="97" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="expression" dxfId="182" priority="93">
+    <cfRule type="expression" dxfId="191" priority="95">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="94">
+    <cfRule type="expression" dxfId="190" priority="96">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="expression" dxfId="180" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="98" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G49)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="179" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="178" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="100" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:BH49">
-    <cfRule type="cellIs" dxfId="177" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:C49">
-    <cfRule type="containsText" dxfId="176" priority="88" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="185" priority="90" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="89" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="184" priority="91" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="90" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="183" priority="92" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="91" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="182" priority="93" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="92" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="181" priority="94" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="expression" dxfId="171" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="102" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A50)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="170" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="89" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="169" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="88" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A51)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="168" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="87" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A53)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54 D54:J54 L54:BH54">
-    <cfRule type="expression" dxfId="167" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="81" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A54)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:BH54">
-    <cfRule type="expression" dxfId="166" priority="77">
+    <cfRule type="expression" dxfId="175" priority="79">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="78">
+    <cfRule type="expression" dxfId="174" priority="80">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:BH54">
-    <cfRule type="expression" dxfId="164" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="82" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G54)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:BH54">
-    <cfRule type="cellIs" dxfId="163" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:BH54">
-    <cfRule type="cellIs" dxfId="162" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="84" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:BH54">
-    <cfRule type="cellIs" dxfId="161" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C54">
-    <cfRule type="containsText" dxfId="160" priority="72" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="169" priority="74" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="73" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="168" priority="75" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="74" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="167" priority="76" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="75" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="166" priority="77" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="76" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="165" priority="78" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="155" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="86" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A55)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="154" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="73" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A55)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="153" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="72" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A56)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="161" priority="67" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="160" priority="68" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="159" priority="69" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="158" priority="70" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="157" priority="71" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="147" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="156" priority="62" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="155" priority="63" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="154" priority="64" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="153" priority="65" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="152" priority="66" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="142" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="61" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A33)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="141" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="60" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A28)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="140" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="208" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="139" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="210" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="138" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="213" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A38)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="137" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="214" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A24)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 D19:J19 L19:BH19">
-    <cfRule type="expression" dxfId="136" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="52" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A19)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="expression" dxfId="135" priority="48">
+    <cfRule type="expression" dxfId="144" priority="50">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="49">
+    <cfRule type="expression" dxfId="143" priority="51">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="expression" dxfId="133" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="53" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G19)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="132" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="131" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:BH19">
-    <cfRule type="cellIs" dxfId="130" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="129" priority="43" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="138" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="44" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="137" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="45" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="136" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="46" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="135" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="47" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="134" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="124" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="57" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A25)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:J20 L20:BH20 P21">
-    <cfRule type="expression" dxfId="123" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="39" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A20)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="expression" dxfId="122" priority="35">
+    <cfRule type="expression" dxfId="131" priority="37">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="36">
+    <cfRule type="expression" dxfId="130" priority="38">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="expression" dxfId="120" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="40" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G20)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="119" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="118" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="42" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:BH20">
-    <cfRule type="cellIs" dxfId="117" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="116" priority="30" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="125" priority="32" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="31" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="124" priority="33" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="32" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="123" priority="34" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="33" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="122" priority="35" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="34" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="121" priority="36" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="111" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="44" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A25)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:BH26 D26 F26:J26">
-    <cfRule type="expression" dxfId="110" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="12" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="expression" dxfId="109" priority="8">
+    <cfRule type="expression" dxfId="118" priority="10">
       <formula>S$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="9">
+    <cfRule type="expression" dxfId="117" priority="11">
       <formula>OR(WEEKDAY(S$6,2)=6,WEEKDAY(S$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="expression" dxfId="107" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="13" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="105" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:BH26">
-    <cfRule type="cellIs" dxfId="104" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26">
-    <cfRule type="containsText" dxfId="103" priority="3" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="4" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="111" priority="6" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="5" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="110" priority="7" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="6" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="109" priority="8" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="7" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="108" priority="9" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="98" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="17" stopIfTrue="1">
       <formula>SEARCH("SPACER",#REF!)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="97" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="4" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A26)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="96" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="3" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A29)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A27)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>SEARCH("SPACER",$A27)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27607,13 +27640,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -27621,7 +27654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -27629,7 +27662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -27637,7 +27670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -27645,7 +27678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -27669,14 +27702,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
@@ -27687,7 +27720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
@@ -27698,7 +27731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>20</v>
       </c>
@@ -27709,7 +27742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>19</v>
       </c>
@@ -27720,7 +27753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
@@ -27731,7 +27764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>22</v>
       </c>
@@ -27742,7 +27775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -27926,73 +27959,73 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="78" t="s">
         <v>145</v>
       </c>
+      <c r="C11" s="27" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:60" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:60" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -28176,399 +28209,399 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="54" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="72" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" ht="75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>148</v>
+      <c r="C18" s="27" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="containsText" dxfId="95" priority="85" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="104" priority="85" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="86" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="103" priority="86" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="87" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="102" priority="87" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="88" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="101" priority="88" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="89" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="100" priority="89" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 BG7:BH7 C7 E7 G7 I7 K7 M7 O7 Q7 S7 U7 W7 Y7 AA7 AC7 AE7 AG7 AI7 AK7 AM7 AO7 AQ7 AS7 AU7 AW7 AY7 BA7 BC7 BE7">
-    <cfRule type="expression" dxfId="90" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="79" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="89" priority="77">
+    <cfRule type="expression" dxfId="98" priority="77">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="78">
+    <cfRule type="expression" dxfId="97" priority="78">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="expression" dxfId="87" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="80" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="82" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG7:BH7">
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7 F7 H7 J7 L7 N7 P7 R7 T7 V7 X7 Z7 AB7 AD7 AF7 AH7 AJ7 AL7 AN7 AP7 AR7 AT7 AV7 AX7 AZ7 BB7 BD7 BF7">
-    <cfRule type="expression" dxfId="83" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="71" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="82" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="70" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A11)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="90" priority="65" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="66" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="89" priority="66" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="67" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="88" priority="67" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="68" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="87" priority="68" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="69" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="86" priority="69" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="containsText" dxfId="76" priority="60" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="85" priority="60" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="61" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="84" priority="61" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="62" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="83" priority="62" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="63" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="82" priority="63" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="64" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="81" priority="64" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="containsText" dxfId="71" priority="55" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="80" priority="55" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="56" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="79" priority="56" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="78" priority="57" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="58" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="77" priority="58" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="59" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="containsText" dxfId="66" priority="50" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="75" priority="50" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="51" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="74" priority="51" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="73" priority="52" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="53" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="72" priority="53" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="54" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="70" priority="45" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="46" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="69" priority="46" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="47" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="68" priority="47" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="48" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="67" priority="48" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="49" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="66" priority="49" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="65" priority="40" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="64" priority="41" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="63" priority="42" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 BG14:BH14 C14 E14 G14 I14 K14 M14 O14 Q14 S14 U14 W14 Y14 AA14 AC14 AE14 AG14 AI14 AK14 AM14 AO14 AQ14 AS14 AU14 AW14 AY14 BA14 BC14 BE14">
-    <cfRule type="expression" dxfId="51" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="35" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="50" priority="33">
+    <cfRule type="expression" dxfId="59" priority="33">
       <formula>BG$6=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="34">
+    <cfRule type="expression" dxfId="58" priority="34">
       <formula>OR(WEEKDAY(BG$6,2)=6,WEEKDAY(BG$6,2)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="36" stopIfTrue="1">
       <formula>SEARCH("SPACER",$G14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BH14">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AF14 AH14 AJ14 AL14 AN14 AP14 AR14 AT14 AV14 AX14 AZ14 BB14 BD14 BF14">
-    <cfRule type="expression" dxfId="44" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="32" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A14)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17 B22">
-    <cfRule type="expression" dxfId="43" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="31" stopIfTrue="1">
       <formula>SEARCH("SPACER",$A17)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="51" priority="26" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="50" priority="27" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="49" priority="28" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="29" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="30" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="22" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="41" priority="16" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="37" priority="20" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Bug Fix">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="Bug Fix">
       <formula>NOT(ISERROR(SEARCH("Bug Fix",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Code">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="Code">
       <formula>NOT(ISERROR(SEARCH("Code",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Audio">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Audio">
       <formula>NOT(ISERROR(SEARCH("Audio",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Level">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="Level">
       <formula>NOT(ISERROR(SEARCH("Level",A22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Art">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Art">
       <formula>NOT(ISERROR(SEARCH("Art",A22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28584,13 +28617,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
@@ -28598,11 +28631,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
@@ -28613,7 +28646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
@@ -28624,7 +28657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
@@ -28635,7 +28668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>37</v>
       </c>
@@ -28646,7 +28679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>38</v>
       </c>
@@ -28671,29 +28704,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A7">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A7">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28709,13 +28742,13 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>48</v>
       </c>
@@ -28723,7 +28756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>56</v>
       </c>
@@ -28731,7 +28764,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>57</v>
       </c>
@@ -28739,7 +28772,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>58</v>
       </c>
@@ -28763,13 +28796,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -28777,7 +28810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -28788,7 +28821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -28796,7 +28829,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -28806,24 +28839,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="GREEN">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="GREEN">
       <formula>NOT(ISERROR(SEARCH("GREEN",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YELLOW">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="YELLOW">
       <formula>NOT(ISERROR(SEARCH("YELLOW",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="RED">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="RED">
       <formula>NOT(ISERROR(SEARCH("RED",A3)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Skeleton_Party_production_plan.xlsx
+++ b/Skeleton_Party_production_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18033160\Desktop\Skeleton-Party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHubRepository\Skeleton-Party\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EF519F-03A7-4067-B8BE-B58567C0E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6C7FC9-A2B3-4AB1-AD5D-4EAC5B8C7B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="257">
   <si>
     <t>TASK</t>
   </si>
@@ -661,9 +661,6 @@
     <t>Enemy health and collision detection from attacks</t>
   </si>
   <si>
-    <t xml:space="preserve">instance a heart based health system for the player. When the player is hit, 1 heart is deduted, and when the player is healed, one heart is added. The player cannot heal beyond the declared max hearts </t>
-  </si>
-  <si>
     <t>Menu interface (includes play/menu button) and game background</t>
   </si>
   <si>
@@ -715,9 +712,6 @@
     <t>Design of mage sprite and weapon code</t>
   </si>
   <si>
-    <t>Second Enemy Sprite</t>
-  </si>
-  <si>
     <t>First Enemy Sprite</t>
   </si>
   <si>
@@ -725,9 +719,6 @@
   </si>
   <si>
     <t>Second enemy movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swich between the knight and the mage classes </t>
   </si>
   <si>
     <t xml:space="preserve">Enemy moving with patterns. Naming a few, enemy moving horizontally, diagonally, spirally, back and forth and finally wavey. </t>
@@ -772,9 +763,6 @@
     <t>make art for pause screen that will be dispayed when game state is changed to pause</t>
   </si>
   <si>
-    <t xml:space="preserve">come up with the concept for the archer </t>
-  </si>
-  <si>
     <t>draw the sprite for the archer weapon and animation for the archer's attack</t>
   </si>
   <si>
@@ -800,12 +788,6 @@
   </si>
   <si>
     <t xml:space="preserve">Skill System/Tree and Menus Ui </t>
-  </si>
-  <si>
-    <t>lets the players enchance the stats of the knight and mage, and max hp, etc . Make Menu Ui for skill Tree that involes changing gamestates, intergrate with exp and drops. Display amount of exp and money the  player has accumutaed. Make a working shop that will deduct gold and unlock certain game features. Make art for menu with working buttons to navigate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lets the players buy the additional  perks to enhance skill and modify the game, etc . Make Menu Ui for shop  that involes changing gamestates, intergrate with and gold drops, extra skills, extra lives and double drop chance </t>
   </si>
   <si>
     <t>Shop System with Art</t>
@@ -1327,6 +1309,30 @@
   </si>
   <si>
     <t xml:space="preserve">draw sword and fireball and arrow </t>
+  </si>
+  <si>
+    <t>Place holder for Menu and Game Ui</t>
+  </si>
+  <si>
+    <t>Make the art for all the screens and states included in the game, completed with button collision and linking between each game state. Pause, Play, MainMenu, Preproom, Upgrade, Skill, Shop, and Win screens.</t>
+  </si>
+  <si>
+    <t>Swich between the knight and the mage classes, at the same time restricting the use of attacks that unique to the class. When playing the knight,  you cannot shoot fireballs or arrows, when playing as the mage, you cannot do the aoe slash or arrows, when playing as the archer,  you cannot do aor slash and fireball</t>
+  </si>
+  <si>
+    <t>lets the players enchance the stats of the knight and mage and archer, and max hp, max movement speed, etc . Make Menu Ui for skill Tree that involes changing gamestates, intergrate with exp and drops. Display amount of exp and money the  player has accumutaed. Make a working shop that will deduct gold and unlock certain game features. and prevent the player from purchasing if they have not enough  gold or experience, and prevent them from going past the max level.  Make art for menu with working buttons to navigate through the different gamestates and screens. Include sprite for the Gold and Exp.</t>
+  </si>
+  <si>
+    <t>instance a heart based health system for the player. When the player is hit, 1 heart is deduted, and when the player is healed, one heart is added. The player cannot heal beyond the declared max hearts. Lost hearts will be blanked out, but remain on the screen.</t>
+  </si>
+  <si>
+    <t>Second Enemy Sprite design and concept</t>
+  </si>
+  <si>
+    <t>come up with the concept for the archer's normal attack and unique skills.</t>
+  </si>
+  <si>
+    <t>lets the players buy the additional  perks to enhance skills of the knight, mage and archer. Modify the game, by doubling exp and gold gained oer stage, doubling the amount of healing the player recieves, and a coin that allows the player to resurect in the middlle of the game to continue the stage  . Make Menu Ui for shop  that involes changing gamestates, intergrate with and gold drops, extra skills, extra lives and double drop chance. Make a shop system that can deduct gold from the players when an item is purchased, prevent the player from buying the item multiple times, and prevent the player from  making a purchase when they dont have enough gold.</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1882,7 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2187,23 +2193,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2211,14 +2226,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4762,47 +4771,47 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="17" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="35.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" ht="35.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4814,7 +4823,7 @@
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -4826,7 +4835,7 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
@@ -4836,7 +4845,7 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="114" t="s">
@@ -4871,7 +4880,7 @@
       </c>
       <c r="R7" s="114"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4936,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>99</v>
       </c>
@@ -4982,17 +4991,17 @@
       </c>
       <c r="P9">
         <f>O9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>-37</v>
+        <v>-46</v>
       </c>
       <c r="Q9" s="44">
         <v>10</v>
       </c>
       <c r="R9">
         <f>Q9- SUMIFS(GANTT!$F:$F, GANTT!$G:$G, Main!$A9, GANTT!$J:$J,"&lt;= "&amp;$O$7, GANTT!$R:$R, TaskStatus!$A$8)</f>
-        <v>-37</v>
+        <v>-46</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>102</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>103</v>
       </c>
@@ -5122,7 +5131,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>101</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>105</v>
       </c>
@@ -5252,7 +5261,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -5310,7 +5319,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>-154</v>
+        <v>-163</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
@@ -5318,13 +5327,13 @@
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>-154</v>
+        <v>-163</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I15" s="38"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I16" s="38"/>
     </row>
   </sheetData>
@@ -5369,40 +5378,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BZ123"/>
+  <dimension ref="A1:BZ124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="18" ySplit="7" topLeftCell="S26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="7" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="84" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.33203125" style="22" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.5546875" style="84" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="79.6640625" style="84" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="15.88671875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="18.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16.5546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="49.28515625" style="84" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.28515625" style="22" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.5703125" style="84" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="79.7109375" style="84" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.7109375" style="54" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="18.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.5703125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="19" style="2" customWidth="1"/>
-    <col min="19" max="60" width="4.109375" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="16384" width="9.109375" style="2"/>
+    <col min="19" max="60" width="4.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="70.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:78" ht="70.5" x14ac:dyDescent="0.45">
       <c r="A1" s="83" t="s">
         <v>109</v>
       </c>
@@ -5415,7 +5424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
         <v>4</v>
       </c>
@@ -5429,7 +5438,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
         <v>5</v>
       </c>
@@ -5442,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="85"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5451,7 +5460,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>8</v>
       </c>
@@ -5462,66 +5471,66 @@
       <c r="Q5" s="8">
         <v>357</v>
       </c>
-      <c r="S5" s="120">
+      <c r="S5" s="116">
         <f>$G$2-350+$Q$5</f>
         <v>44494</v>
       </c>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120">
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116">
         <f>S5+7</f>
         <v>44501</v>
       </c>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="120">
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="116">
         <f>Z5+7</f>
         <v>44508</v>
       </c>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="120"/>
-      <c r="AM5" s="120"/>
-      <c r="AN5" s="120">
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116"/>
+      <c r="AN5" s="116">
         <f>AG5+7</f>
         <v>44515</v>
       </c>
-      <c r="AO5" s="120"/>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="120"/>
-      <c r="AR5" s="120"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="120"/>
-      <c r="AU5" s="120">
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116"/>
+      <c r="AU5" s="116">
         <f>AN5+7</f>
         <v>44522</v>
       </c>
-      <c r="AV5" s="120"/>
-      <c r="AW5" s="120"/>
-      <c r="AX5" s="120"/>
-      <c r="AY5" s="120"/>
-      <c r="AZ5" s="120"/>
-      <c r="BA5" s="120"/>
-      <c r="BB5" s="124">
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116"/>
+      <c r="BB5" s="117">
         <f>AU5+7</f>
         <v>44529</v>
       </c>
-      <c r="BC5" s="124"/>
-      <c r="BD5" s="124"/>
-      <c r="BE5" s="124"/>
-      <c r="BF5" s="124"/>
-      <c r="BG5" s="124"/>
-      <c r="BH5" s="124"/>
+      <c r="BC5" s="117"/>
+      <c r="BD5" s="117"/>
+      <c r="BE5" s="117"/>
+      <c r="BF5" s="117"/>
+      <c r="BG5" s="117"/>
+      <c r="BH5" s="117"/>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9"/>
@@ -5541,59 +5550,59 @@
       <c r="BY5" s="9"/>
       <c r="BZ5" s="9"/>
     </row>
-    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="116" t="s">
+    <row r="6" spans="1:78" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="121" t="s">
+      <c r="I6" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="118" t="s">
+      <c r="J6" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="118" t="s">
+      <c r="K6" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="L6" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="118" t="s">
+      <c r="M6" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="121" t="s">
+      <c r="N6" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="121" t="s">
+      <c r="O6" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="122" t="s">
+      <c r="Q6" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="118" t="s">
+      <c r="R6" s="119" t="s">
         <v>47</v>
       </c>
       <c r="S6" s="4">
@@ -5765,25 +5774,25 @@
         <v>44535</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="119"/>
+    <row r="7" spans="1:78" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="119"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="122"/>
       <c r="S7" s="6" t="str">
         <f t="shared" ref="S7:BH7" si="6">UPPER(LEFT(TEXT(S6,"ddd"),1))</f>
         <v>M</v>
@@ -5953,7 +5962,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:78" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87" t="s">
         <v>6</v>
       </c>
@@ -6159,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:78" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
         <v>110</v>
       </c>
@@ -6379,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:78" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69" t="s">
         <v>111</v>
       </c>
@@ -6390,7 +6399,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="104" t="s">
         <v>150</v>
@@ -6472,7 +6481,7 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:78" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="69" t="s">
         <v>112</v>
       </c>
@@ -6483,7 +6492,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="104" t="s">
         <v>152</v>
@@ -6565,7 +6574,7 @@
       <c r="BG11" s="16"/>
       <c r="BH11" s="16"/>
     </row>
-    <row r="12" spans="1:78" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69" t="s">
         <v>113</v>
       </c>
@@ -6579,7 +6588,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="F12" s="61">
         <v>10</v>
@@ -6598,7 +6607,9 @@
         <v>44496</v>
       </c>
       <c r="K12" s="65"/>
-      <c r="L12" s="61"/>
+      <c r="L12" s="61">
+        <v>10</v>
+      </c>
       <c r="M12" s="61"/>
       <c r="N12" s="62">
         <v>44494</v>
@@ -6785,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69" t="s">
         <v>115</v>
       </c>
@@ -6799,7 +6810,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" s="61">
         <v>10</v>
@@ -6878,7 +6889,7 @@
       <c r="BG13" s="16"/>
       <c r="BH13" s="16"/>
     </row>
-    <row r="14" spans="1:78" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
         <v>114</v>
       </c>
@@ -6889,10 +6900,10 @@
         <v>75</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="61">
         <v>10</v>
@@ -6907,7 +6918,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="62">
-        <f t="shared" ref="J14:J60" si="15">H14 +I14</f>
+        <f t="shared" ref="J14:J61" si="15">H14 +I14</f>
         <v>44496</v>
       </c>
       <c r="K14" s="65"/>
@@ -7098,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="87" t="s">
         <v>6</v>
       </c>
@@ -7128,7 +7139,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="62">
-        <f t="shared" ref="P15:P95" si="16">N15+O15</f>
+        <f t="shared" ref="P15:P96" si="16">N15+O15</f>
         <v>44330</v>
       </c>
       <c r="Q15" s="61"/>
@@ -7304,9 +7315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:78" ht="33" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:78" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>21</v>
@@ -7315,10 +7326,10 @@
         <v>75</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" s="61">
         <v>10</v>
@@ -7524,9 +7535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:60" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>22</v>
@@ -7538,7 +7549,7 @@
         <v>89</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F17" s="61">
         <v>10</v>
@@ -7741,9 +7752,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:60" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>21</v>
@@ -7755,7 +7766,7 @@
         <v>89</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" s="61">
         <v>15</v>
@@ -7774,7 +7785,9 @@
         <v>44505</v>
       </c>
       <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="L18" s="65">
+        <v>10</v>
+      </c>
       <c r="M18" s="65"/>
       <c r="N18" s="66">
         <v>44499</v>
@@ -7961,21 +7974,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="104" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" s="61">
         <v>10</v>
@@ -7994,7 +8007,9 @@
         <v>44502</v>
       </c>
       <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="L19" s="65">
+        <v>2</v>
+      </c>
       <c r="M19" s="65"/>
       <c r="N19" s="66">
         <v>44501</v>
@@ -8181,9 +8196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="72" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:60" s="72" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>145</v>
@@ -8195,7 +8210,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F20" s="61">
         <v>3</v>
@@ -8401,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="72" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:60" s="72" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="70" t="s">
         <v>116</v>
       </c>
@@ -8409,13 +8424,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="104" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F21" s="61">
         <v>10</v>
@@ -8621,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" ht="49.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:60" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="70" t="s">
         <v>117</v>
       </c>
@@ -8635,7 +8650,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F22" s="61">
         <v>10</v>
@@ -8715,9 +8730,9 @@
       <c r="BG22" s="16"/>
       <c r="BH22" s="16"/>
     </row>
-    <row r="23" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="70" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>21</v>
@@ -8726,10 +8741,10 @@
         <v>75</v>
       </c>
       <c r="D23" s="104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F23" s="61">
         <v>5</v>
@@ -8809,7 +8824,7 @@
       <c r="BG23" s="16"/>
       <c r="BH23" s="16"/>
     </row>
-    <row r="24" spans="1:60" ht="33" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:60" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="70" t="s">
         <v>118</v>
       </c>
@@ -8817,13 +8832,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="104" t="s">
-        <v>160</v>
-      </c>
       <c r="E24" s="104" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F24" s="61">
         <v>10</v>
@@ -8903,21 +8918,21 @@
       <c r="BG24" s="16"/>
       <c r="BH24" s="16"/>
     </row>
-    <row r="25" spans="1:60" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:60" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="104" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F25" s="61">
         <v>10</v>
@@ -9123,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="87" t="s">
         <v>6</v>
       </c>
@@ -9319,12 +9334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" s="72" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:60" s="72" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="88" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>75</v>
@@ -9333,7 +9348,7 @@
         <v>89</v>
       </c>
       <c r="E27" s="104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="61">
         <v>5</v>
@@ -9539,9 +9554,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="97.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:60" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="88" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>21</v>
@@ -9550,10 +9565,10 @@
         <v>78</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E28" s="104" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="F28" s="61">
         <v>6</v>
@@ -9572,7 +9587,9 @@
         <v>44515</v>
       </c>
       <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
+      <c r="L28" s="65">
+        <v>10</v>
+      </c>
       <c r="M28" s="65"/>
       <c r="N28" s="66">
         <v>44512</v>
@@ -9591,7 +9608,7 @@
         <v>58</v>
       </c>
       <c r="S28" s="16">
-        <f t="shared" ref="S28:AB43" si="21">IF(AND(S$6&gt;=$N28,S$6&lt;$N28+$O28), 1, IF(AND(S$6&gt;=$H28,S$6&lt;$H28+$I28), 2, 0))</f>
+        <f t="shared" ref="S28:AB44" si="21">IF(AND(S$6&gt;=$N28,S$6&lt;$N28+$O28), 1, IF(AND(S$6&gt;=$H28,S$6&lt;$H28+$I28), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="T28" s="16">
@@ -9631,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="16">
-        <f t="shared" ref="AC28:AL43" si="22">IF(AND(AC$6&gt;=$N28,AC$6&lt;$N28+$O28), 1, IF(AND(AC$6&gt;=$H28,AC$6&lt;$H28+$I28), 2, 0))</f>
+        <f t="shared" ref="AC28:AL44" si="22">IF(AND(AC$6&gt;=$N28,AC$6&lt;$N28+$O28), 1, IF(AND(AC$6&gt;=$H28,AC$6&lt;$H28+$I28), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AD28" s="16">
@@ -9671,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="AM28" s="16">
-        <f t="shared" ref="AM28:AV43" si="23">IF(AND(AM$6&gt;=$N28,AM$6&lt;$N28+$O28), 1, IF(AND(AM$6&gt;=$H28,AM$6&lt;$H28+$I28), 2, 0))</f>
+        <f t="shared" ref="AM28:AV44" si="23">IF(AND(AM$6&gt;=$N28,AM$6&lt;$N28+$O28), 1, IF(AND(AM$6&gt;=$H28,AM$6&lt;$H28+$I28), 2, 0))</f>
         <v>1</v>
       </c>
       <c r="AN28" s="16">
@@ -9711,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="16">
-        <f t="shared" ref="AW28:BF43" si="24">IF(AND(AW$6&gt;=$N28,AW$6&lt;$N28+$O28), 1, IF(AND(AW$6&gt;=$H28,AW$6&lt;$H28+$I28), 2, 0))</f>
+        <f t="shared" ref="AW28:BF44" si="24">IF(AND(AW$6&gt;=$N28,AW$6&lt;$N28+$O28), 1, IF(AND(AW$6&gt;=$H28,AW$6&lt;$H28+$I28), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="AX28" s="16">
@@ -9751,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="16">
-        <f t="shared" ref="BG28:BH43" si="25">IF(AND(BG$6&gt;=$N28,BG$6&lt;$N28+$O28), 1, IF(AND(BG$6&gt;=$H28,BG$6&lt;$H28+$I28), 2, 0))</f>
+        <f t="shared" ref="BG28:BH44" si="25">IF(AND(BG$6&gt;=$N28,BG$6&lt;$N28+$O28), 1, IF(AND(BG$6&gt;=$H28,BG$6&lt;$H28+$I28), 2, 0))</f>
         <v>0</v>
       </c>
       <c r="BH28" s="16">
@@ -9759,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:60" ht="90.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="88" t="s">
         <v>122</v>
       </c>
@@ -9773,7 +9790,7 @@
         <v>89</v>
       </c>
       <c r="E29" s="104" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="F29" s="61">
         <v>3</v>
@@ -9978,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:60" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="88" t="s">
         <v>121</v>
       </c>
@@ -9989,10 +10006,10 @@
         <v>77</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" s="104" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F30" s="61">
         <v>15</v>
@@ -10198,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="88" t="s">
         <v>120</v>
       </c>
@@ -10209,10 +10226,10 @@
         <v>75</v>
       </c>
       <c r="D31" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="61">
         <v>5</v>
@@ -10291,7 +10308,7 @@
       <c r="BG31" s="16"/>
       <c r="BH31" s="16"/>
     </row>
-    <row r="32" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="88" t="s">
         <v>123</v>
       </c>
@@ -10305,7 +10322,7 @@
         <v>89</v>
       </c>
       <c r="E32" s="104" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="F32" s="61">
         <v>1</v>
@@ -10323,7 +10340,9 @@
         <v>44509</v>
       </c>
       <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
+      <c r="L32" s="65">
+        <v>1</v>
+      </c>
       <c r="M32" s="65"/>
       <c r="N32" s="66">
         <v>44508</v>
@@ -10384,9 +10403,9 @@
       <c r="BG32" s="16"/>
       <c r="BH32" s="16"/>
     </row>
-    <row r="33" spans="1:60" ht="33" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:60" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="88" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>20</v>
@@ -10395,10 +10414,10 @@
         <v>77</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E33" s="104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F33" s="61">
         <v>3</v>
@@ -10477,7 +10496,7 @@
       <c r="BG33" s="16"/>
       <c r="BH33" s="16"/>
     </row>
-    <row r="34" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="88" t="s">
         <v>124</v>
       </c>
@@ -10488,10 +10507,10 @@
         <v>76</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F34" s="61">
         <v>1</v>
@@ -10570,7 +10589,7 @@
       <c r="BG34" s="16"/>
       <c r="BH34" s="16"/>
     </row>
-    <row r="35" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="88" t="s">
         <v>125</v>
       </c>
@@ -10584,7 +10603,7 @@
         <v>89</v>
       </c>
       <c r="E35" s="104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F35" s="61">
         <v>1</v>
@@ -10602,7 +10621,9 @@
         <v>44510</v>
       </c>
       <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
+      <c r="L35" s="65">
+        <v>1</v>
+      </c>
       <c r="M35" s="65"/>
       <c r="N35" s="66">
         <v>44509</v>
@@ -10663,7 +10684,7 @@
       <c r="BG35" s="16"/>
       <c r="BH35" s="16"/>
     </row>
-    <row r="36" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="88" t="s">
         <v>126</v>
       </c>
@@ -10677,7 +10698,7 @@
         <v>89</v>
       </c>
       <c r="E36" s="104" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F36" s="61">
         <v>3</v>
@@ -10756,9 +10777,9 @@
       <c r="BG36" s="16"/>
       <c r="BH36" s="16"/>
     </row>
-    <row r="37" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="88" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>20</v>
@@ -10770,7 +10791,7 @@
         <v>89</v>
       </c>
       <c r="E37" s="104" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F37" s="61">
         <v>3</v>
@@ -10849,7 +10870,7 @@
       <c r="BG37" s="16"/>
       <c r="BH37" s="16"/>
     </row>
-    <row r="38" spans="1:60" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="87" t="s">
         <v>6</v>
       </c>
@@ -11045,696 +11066,576 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="33" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="88" t="s">
-        <v>128</v>
+    <row r="39" spans="1:60" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="127" t="s">
+        <v>249</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="E39" s="104" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="F39" s="61">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G39" s="100" t="s">
         <v>99</v>
       </c>
       <c r="H39" s="66">
-        <v>44515</v>
+        <v>44519</v>
       </c>
       <c r="I39" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="66">
         <f t="shared" si="15"/>
-        <v>44516</v>
-      </c>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
+        <v>44521</v>
+      </c>
+      <c r="K39" s="64"/>
+      <c r="L39" s="65">
+        <v>10</v>
+      </c>
       <c r="M39" s="65"/>
       <c r="N39" s="66">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="O39" s="67">
         <v>2</v>
       </c>
       <c r="P39" s="66">
         <f t="shared" si="16"/>
-        <v>44520</v>
+        <v>44521</v>
       </c>
       <c r="Q39" s="65">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="R39" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="S39" s="16">
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
+      <c r="BC39" s="16"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
+      <c r="BF39" s="16"/>
+      <c r="BG39" s="16"/>
+      <c r="BH39" s="16"/>
+    </row>
+    <row r="40" spans="1:60" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="61">
+        <v>1</v>
+      </c>
+      <c r="G40" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="66">
+        <v>44515</v>
+      </c>
+      <c r="I40" s="65">
+        <v>1</v>
+      </c>
+      <c r="J40" s="66">
+        <f t="shared" si="15"/>
+        <v>44516</v>
+      </c>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65">
+        <v>2</v>
+      </c>
+      <c r="M40" s="65"/>
+      <c r="N40" s="66">
+        <v>44518</v>
+      </c>
+      <c r="O40" s="67">
+        <v>2</v>
+      </c>
+      <c r="P40" s="66">
+        <f t="shared" si="16"/>
+        <v>44520</v>
+      </c>
+      <c r="Q40" s="65">
+        <v>3</v>
+      </c>
+      <c r="R40" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T39" s="16">
+      <c r="T40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U39" s="16">
+      <c r="U40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="V39" s="16">
+      <c r="V40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W39" s="16">
+      <c r="W40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X39" s="16">
+      <c r="X40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="16">
+      <c r="Y40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="16">
+      <c r="Z40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="16">
+      <c r="AA40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="16">
+      <c r="AB40" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="16">
+      <c r="AC40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="16">
+      <c r="AD40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="16">
+      <c r="AE40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AF39" s="16">
+      <c r="AF40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="16">
+      <c r="AG40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH39" s="16">
+      <c r="AH40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="16">
+      <c r="AI40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="16">
+      <c r="AJ40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="16">
+      <c r="AK40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="16">
+      <c r="AL40" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AM39" s="16">
+      <c r="AM40" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AN39" s="16">
+      <c r="AN40" s="16">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="AO39" s="16">
+      <c r="AO40" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AP39" s="16">
+      <c r="AP40" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AQ39" s="16">
+      <c r="AQ40" s="16">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AR39" s="16">
+      <c r="AR40" s="16">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AS39" s="16">
+      <c r="AS40" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AT39" s="16">
+      <c r="AT40" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU39" s="16">
+      <c r="AU40" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AV39" s="16">
+      <c r="AV40" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AW39" s="16">
+      <c r="AW40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AX39" s="16">
+      <c r="AX40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AY39" s="16">
+      <c r="AY40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AZ39" s="16">
+      <c r="AZ40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BA39" s="16">
+      <c r="BA40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BB39" s="16">
+      <c r="BB40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BC39" s="16">
+      <c r="BC40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BD39" s="16">
+      <c r="BD40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BE39" s="16">
+      <c r="BE40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BF39" s="16">
+      <c r="BF40" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BG39" s="16">
+      <c r="BG40" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BH39" s="16">
+      <c r="BH40" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="88" t="s">
+    <row r="41" spans="1:60" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C41" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="61">
+      <c r="D41" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="104" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="61">
         <v>4</v>
       </c>
-      <c r="G40" s="100" t="s">
+      <c r="G41" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="66">
+      <c r="H41" s="66">
         <v>44548</v>
       </c>
-      <c r="I40" s="65">
+      <c r="I41" s="65">
         <v>2</v>
       </c>
-      <c r="J40" s="66">
+      <c r="J41" s="66">
         <f t="shared" si="15"/>
         <v>44550</v>
       </c>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="66">
+      <c r="K41" s="65"/>
+      <c r="L41" s="65">
+        <v>1</v>
+      </c>
+      <c r="M41" s="65"/>
+      <c r="N41" s="66">
         <v>44517</v>
       </c>
-      <c r="O40" s="67">
+      <c r="O41" s="67">
         <v>1</v>
       </c>
-      <c r="P40" s="66">
+      <c r="P41" s="66">
         <v>44518</v>
       </c>
-      <c r="Q40" s="65">
+      <c r="Q41" s="65">
         <v>5</v>
       </c>
-      <c r="R40" s="65" t="s">
+      <c r="R41" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="S40" s="16">
+      <c r="S41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T40" s="16">
+      <c r="T41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U40" s="16">
+      <c r="U41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="V40" s="16">
+      <c r="V41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W40" s="16">
+      <c r="W41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X40" s="16">
+      <c r="X41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="16">
+      <c r="Y41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="16">
+      <c r="Z41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="16">
+      <c r="AA41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="16">
+      <c r="AB41" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="16">
+      <c r="AC41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="16">
+      <c r="AD41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="16">
+      <c r="AE41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AF40" s="16">
+      <c r="AF41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AG40" s="16">
+      <c r="AG41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH40" s="16">
+      <c r="AH41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="16">
+      <c r="AI41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AJ40" s="16">
+      <c r="AJ41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="16">
+      <c r="AK41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="16">
+      <c r="AL41" s="16">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AM40" s="16">
+      <c r="AM41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="16">
+      <c r="AN41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AO40" s="16">
+      <c r="AO41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AP40" s="16">
+      <c r="AP41" s="16">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AQ40" s="16">
+      <c r="AQ41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AR40" s="16">
+      <c r="AR41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AS40" s="16">
+      <c r="AS41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AT40" s="16">
+      <c r="AT41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU40" s="16">
+      <c r="AU41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AV40" s="16">
+      <c r="AV41" s="16">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AW40" s="16">
+      <c r="AW41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AX40" s="16">
+      <c r="AX41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AY40" s="16">
+      <c r="AY41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AZ40" s="16">
+      <c r="AZ41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BA40" s="16">
+      <c r="BA41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BB40" s="16">
+      <c r="BB41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BC40" s="16">
+      <c r="BC41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BD40" s="16">
+      <c r="BD41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BE40" s="16">
+      <c r="BE41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BF40" s="16">
+      <c r="BF41" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="BG40" s="16">
+      <c r="BG41" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BH40" s="16">
+      <c r="BH41" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="88" t="s">
+    <row r="42" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B42" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C42" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" s="61">
+      <c r="D42" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="61">
         <v>15</v>
       </c>
-      <c r="G41" s="100" t="s">
+      <c r="G42" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="66">
+      <c r="H42" s="66">
         <v>44515</v>
       </c>
-      <c r="I41" s="65">
+      <c r="I42" s="65">
         <v>3</v>
       </c>
-      <c r="J41" s="66">
+      <c r="J42" s="66">
         <f t="shared" si="15"/>
         <v>44518</v>
-      </c>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="66">
-        <v>44520</v>
-      </c>
-      <c r="O41" s="67">
-        <v>2</v>
-      </c>
-      <c r="P41" s="66">
-        <f t="shared" si="16"/>
-        <v>44522</v>
-      </c>
-      <c r="Q41" s="65">
-        <v>5</v>
-      </c>
-      <c r="R41" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="S41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AI41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AM41" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AN41" s="16">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AO41" s="16">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AP41" s="16">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AQ41" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AR41" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AS41" s="16">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AT41" s="16">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AU41" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AV41" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AW41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AX41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AY41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BA41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BB41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BC41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BD41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BE41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BF41" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BG41" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BH41" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="104" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="61">
-        <v>5</v>
-      </c>
-      <c r="G42" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="66">
-        <v>44515</v>
-      </c>
-      <c r="I42" s="65">
-        <v>5</v>
-      </c>
-      <c r="J42" s="66">
-        <f t="shared" si="15"/>
-        <v>44520</v>
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="65"/>
@@ -11743,17 +11644,17 @@
         <v>44520</v>
       </c>
       <c r="O42" s="67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" s="66">
         <f t="shared" si="16"/>
-        <v>44521</v>
+        <v>44522</v>
       </c>
       <c r="Q42" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S42" s="16">
         <f t="shared" si="21"/>
@@ -11853,11 +11754,11 @@
       </c>
       <c r="AQ42" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="16">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="16">
         <f t="shared" si="23"/>
@@ -11865,7 +11766,7 @@
       </c>
       <c r="AT42" s="16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU42" s="16">
         <f t="shared" si="23"/>
@@ -11924,12 +11825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="88" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>77</v>
@@ -11938,10 +11839,10 @@
         <v>89</v>
       </c>
       <c r="E43" s="104" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F43" s="61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="100" t="s">
         <v>103</v>
@@ -11950,27 +11851,27 @@
         <v>44515</v>
       </c>
